--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Guido\Trabajo\Economia\Tematicas de Investigacion\Precariedad Mundial\precariedad.mundial\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D88985F-C126-4840-AE8C-C71DA067723F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="571" yWindow="598" windowWidth="17362" windowHeight="7716"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10067" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Procedimiento" sheetId="2" r:id="rId2"/>
+    <sheet name="Ingresos" sheetId="4" r:id="rId3"/>
+    <sheet name="Periodicidad Encuestas" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Ingresos!$A$1:$G$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metadata!$A$1:$H$788</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5784" uniqueCount="1043">
   <si>
     <t>Pais</t>
   </si>
@@ -2915,16 +2924,285 @@
 PRIVADO? A. ISSS? 1. Sí, afiliado 2.
 Sí, cotizante 3. No</t>
   </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>Diccionario (p., f.)</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Aclaración</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>Valuación</t>
+  </si>
+  <si>
+    <t>P524A1</t>
+  </si>
+  <si>
+    <t>Ingreso total-monto</t>
+  </si>
+  <si>
+    <t>la pregunta anterior es sobre la frecuencia del pago de la ocupación principal</t>
+  </si>
+  <si>
+    <t>D524A1</t>
+  </si>
+  <si>
+    <t>Ingreso total (Deflactado, Mensualizado)</t>
+  </si>
+  <si>
+    <t>d1_opcionb</t>
+  </si>
+  <si>
+    <t>Sueldo neto</t>
+  </si>
+  <si>
+    <t>De la ocupación actual. Después hay pregunta sobre si consideró los bonos, entre otros</t>
+  </si>
+  <si>
+    <t>ing_t_p</t>
+  </si>
+  <si>
+    <t>Ingreso del trabajo principal</t>
+  </si>
+  <si>
+    <t>Sueldos y salarios e ingresos de trabajo independiente (cuadro p. 32)</t>
+  </si>
+  <si>
+    <t>g126_1</t>
+  </si>
+  <si>
+    <t>Sueldo o jornales líquidos</t>
+  </si>
+  <si>
+    <t>Del mes previo (ocupación principal: de mayores ingresos); para todos los trabajadores</t>
+  </si>
+  <si>
+    <t>Ingreso mensual de la actividad principal</t>
+  </si>
+  <si>
+    <t>B16G</t>
+  </si>
+  <si>
+    <t>Pago neto o líquido</t>
+  </si>
+  <si>
+    <t>Preguntas cercanas sobre seguro, aguinaldo, etc</t>
+  </si>
+  <si>
+    <t>V4033</t>
+  </si>
+  <si>
+    <t>Rendimiento bruto mensual</t>
+  </si>
+  <si>
+    <t>Variable auxiliar</t>
+  </si>
+  <si>
+    <t>V403312</t>
+  </si>
+  <si>
+    <t>Rendimiento bruto/retirada mensual</t>
+  </si>
+  <si>
+    <t>Valor en dinero; después aparecen otras preguntas "parecidas" (ej. 471)</t>
+  </si>
+  <si>
+    <t>s06c_25a</t>
+  </si>
+  <si>
+    <t>http://anda.ine.gob.bo/index.php/catalog/84/data-dictionary/F10?file_name=EH2019_Persona</t>
+  </si>
+  <si>
+    <t>Salario líquido (monto)</t>
+  </si>
+  <si>
+    <t> Excluyendo los descuentos de ley (AFP, IVA); ocupación principal</t>
+  </si>
+  <si>
+    <t>s06c_25b</t>
+  </si>
+  <si>
+    <t>Salario líquido (frecuencia)</t>
+  </si>
+  <si>
+    <t>Includes tips, commission and bonuses. Before taxes and other deductions</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Bruto?</t>
+  </si>
+  <si>
+    <t>Antes de descuentos
+¿cuánto ganó ... el mes
+pasado en este empleo?</t>
+  </si>
+  <si>
+    <t>Valor mensual (incluya propinas y
+comisiones y excluya viáticos y pagos en
+especie)</t>
+  </si>
+  <si>
+    <t>Pregunta literal: ingresos laborales</t>
+  </si>
+  <si>
+    <t>http://sistemas.inec.cr/pad5/index.php/catalog/239/data-dictionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este trabajo cuánto fue su salario el mes pasado, sin ningún tipo de rebajo? </t>
+  </si>
+  <si>
+    <t>(salario bruto) (incluya pago de horas extra, pero NO incluya propinas)</t>
+  </si>
+  <si>
+    <t>¿Ese dato que me dio, efectivamente es el salario?</t>
+  </si>
+  <si>
+    <t>1 - sin ningún tipo de rebajo (bruto)?  2 - sólo con rebajos de CCSS, Bco. Popular e impuesto de renta? 3 -  con toda clase de rebajos (líquido)</t>
+  </si>
+  <si>
+    <t>Bruto o neto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el mes de MAYO ¿cuál fue el monto en dinero que recibió (…) por la venta de los productos, bienes o servicios de su negocio o establecimiento? </t>
+  </si>
+  <si>
+    <t>En el mes de MAYO en su ocupación como (…) ¿cuánto dinero líquido recibió por concepto de sueldo o salario y otros ingresos?</t>
+  </si>
+  <si>
+    <t>Liquido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el mes de MAYO ¿cuánto le descontaron en total por las aportaciones al IESS, impuesto a la renta, comisariatos, almacenes, cooperativas, asociaciones, etc.? </t>
+  </si>
+  <si>
+    <t>Descuentos</t>
+  </si>
+  <si>
+    <t>Ingreso Laboral</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>p21</t>
+  </si>
+  <si>
+    <t>Ingreso de la ocupación principal</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>INCWAGE</t>
+  </si>
+  <si>
+    <t>Wage and salary income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicates each respondent's total pre-tax wage and salary income--that is, money received as an employee--for the previous calendar year.  Amounts are expressed as they were reported to the interviewer; users must adjust for inflation using Consumer Price Index [URL omitted from DDI.] adjustment factors. </t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Neto?</t>
+  </si>
+  <si>
+    <t>INCTOT</t>
+  </si>
+  <si>
+    <t>Total personal income</t>
+  </si>
+  <si>
+    <t>indicates each respondent's total pre-tax personal income or losses from all sources for the previous calendar year.  Amounts are expressed as they were reported to the interviewer; users must adjust for inflation using Consumer Price Index</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>INGOCUP</t>
+  </si>
+  <si>
+    <t>ingreso mensual</t>
+  </si>
+  <si>
+    <t>El valor registrado en esta variable es el mismo captado en la pregunta 6b (1. cada cuánto obtiene ingresos? Y 2. cantidad en pesos); la siguiente var da el ingreso horario</t>
+  </si>
+  <si>
+    <t>ingre</t>
+  </si>
+  <si>
+    <t>Ingreso total (persona)</t>
+  </si>
+  <si>
+    <t>Suma ingreso dependiente e independiente</t>
+  </si>
+  <si>
+    <t>Sueldo o salario bruto (ocupación principal) según periodicidad</t>
+  </si>
+  <si>
+    <t>Periodicidad en preg anterior</t>
+  </si>
+  <si>
+    <t>Sueldo o salario</t>
+  </si>
+  <si>
+    <t>¿Cuál fue el sueldo o salario mensual sin descuentos que (………) recibió en este trabajo? (ocupación principal)</t>
+  </si>
+  <si>
+    <t>Periodicidad</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>Encuesta Permanente de Hogares</t>
+  </si>
+  <si>
+    <t>Current Population Survey</t>
+  </si>
+  <si>
+    <t>Los cuestionarios ampliados donde se encuentra la variable de aporte a seguridad social sólo se publican en los 1eros trimestre</t>
+  </si>
+  <si>
+    <t>Mes de Julio</t>
+  </si>
+  <si>
+    <t>Variable de tamaño sólo disponible para suplemento anual ASEC - Mes de Marzo</t>
+  </si>
+  <si>
+    <t>A lo largo de todo el año. Se identifica mes de la entrevista como variable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3005,6 +3283,57 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3127,207 +3456,244 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Hipervínculo 2" xfId="2" xr:uid="{4F722B9A-536A-46D8-AFD0-3E32E4A5CDA5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2EF5810E-3CD3-4B1B-9878-96C9692F2EEC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CC879C71-3D69-4809-A3AB-C9689AE30307}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3530,11 +3896,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H413" sqref="A2:H413"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D792" sqref="D792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.95" customHeight="1"/>
@@ -3576,7 +3943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.3" customHeight="1">
+    <row r="2" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -3602,7 +3969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.3" customHeight="1">
+    <row r="3" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -3628,7 +3995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.3" customHeight="1">
+    <row r="4" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3654,7 +4021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.3" customHeight="1">
+    <row r="5" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3680,7 +4047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.3" customHeight="1">
+    <row r="6" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -3706,7 +4073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.3" customHeight="1">
+    <row r="7" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -3732,7 +4099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.3" customHeight="1">
+    <row r="8" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3758,7 +4125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.3" customHeight="1">
+    <row r="9" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -3784,7 +4151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.3" customHeight="1">
+    <row r="10" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -3810,7 +4177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.3" customHeight="1">
+    <row r="11" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -3836,7 +4203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.3" customHeight="1">
+    <row r="12" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -3862,7 +4229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.3" customHeight="1">
+    <row r="13" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -3888,7 +4255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.3" customHeight="1">
+    <row r="14" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -3914,7 +4281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.3" customHeight="1">
+    <row r="15" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -3940,7 +4307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.3" customHeight="1">
+    <row r="16" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -3966,7 +4333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.3" customHeight="1">
+    <row r="17" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -3992,7 +4359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.3" customHeight="1">
+    <row r="18" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -4018,7 +4385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.3" customHeight="1">
+    <row r="19" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -4044,7 +4411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.3" customHeight="1">
+    <row r="20" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -4070,7 +4437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.3" customHeight="1">
+    <row r="21" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -4096,7 +4463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.3" customHeight="1">
+    <row r="22" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -4122,7 +4489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.3" customHeight="1">
+    <row r="23" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -4148,7 +4515,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.3" customHeight="1">
+    <row r="24" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -4174,7 +4541,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.3" customHeight="1">
+    <row r="25" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -4200,7 +4567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.3" customHeight="1">
+    <row r="26" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -4226,7 +4593,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.3" customHeight="1">
+    <row r="27" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -4252,7 +4619,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.3" customHeight="1">
+    <row r="28" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -4278,7 +4645,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.3" customHeight="1">
+    <row r="29" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -4304,7 +4671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.3" customHeight="1">
+    <row r="30" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -4330,7 +4697,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.3" customHeight="1">
+    <row r="31" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A31" s="82" t="s">
         <v>8</v>
       </c>
@@ -4357,7 +4724,7 @@
       </c>
       <c r="J31" s="69"/>
     </row>
-    <row r="32" spans="1:10" ht="14.3" customHeight="1">
+    <row r="32" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A32" s="82" t="s">
         <v>8</v>
       </c>
@@ -4384,7 +4751,7 @@
       </c>
       <c r="J32" s="69"/>
     </row>
-    <row r="33" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="33" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A33" s="82" t="s">
         <v>8</v>
       </c>
@@ -4410,7 +4777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="34" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A34" s="82" t="s">
         <v>8</v>
       </c>
@@ -4436,7 +4803,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="35" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A35" s="82" t="s">
         <v>8</v>
       </c>
@@ -4462,7 +4829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="36" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A36" s="82" t="s">
         <v>8</v>
       </c>
@@ -4488,7 +4855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="37" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A37" s="82" t="s">
         <v>8</v>
       </c>
@@ -4514,7 +4881,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.3" customHeight="1">
+    <row r="38" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A38" s="82" t="s">
         <v>8</v>
       </c>
@@ -4541,7 +4908,7 @@
       </c>
       <c r="J38" s="69"/>
     </row>
-    <row r="39" spans="1:10" ht="14.3" customHeight="1">
+    <row r="39" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
@@ -4567,7 +4934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.3" customHeight="1">
+    <row r="40" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
@@ -4593,7 +4960,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.3" customHeight="1">
+    <row r="41" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
@@ -4619,7 +4986,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.3" customHeight="1">
+    <row r="42" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -4645,7 +5012,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="18.7" customHeight="1">
+    <row r="43" spans="1:10" ht="18.7" hidden="1" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
@@ -4671,7 +5038,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="18.7" customHeight="1">
+    <row r="44" spans="1:10" ht="18.7" hidden="1" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
@@ -4697,7 +5064,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18.7" customHeight="1">
+    <row r="45" spans="1:10" ht="18.7" hidden="1" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
@@ -4723,7 +5090,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18.7" customHeight="1">
+    <row r="46" spans="1:10" ht="18.7" hidden="1" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -4749,7 +5116,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="18.7" customHeight="1">
+    <row r="47" spans="1:10" ht="18.7" hidden="1" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -4775,7 +5142,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="18.7" customHeight="1">
+    <row r="48" spans="1:10" ht="18.7" hidden="1" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
@@ -4801,7 +5168,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.3" customHeight="1">
+    <row r="49" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
@@ -4827,7 +5194,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.3" customHeight="1">
+    <row r="50" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>8</v>
       </c>
@@ -4853,7 +5220,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.3" customHeight="1">
+    <row r="51" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
@@ -4879,7 +5246,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.3" customHeight="1">
+    <row r="52" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>8</v>
       </c>
@@ -4905,7 +5272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.3" customHeight="1">
+    <row r="53" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>108</v>
       </c>
@@ -4931,7 +5298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.3" customHeight="1">
+    <row r="54" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>108</v>
       </c>
@@ -4957,7 +5324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.3" customHeight="1">
+    <row r="55" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>108</v>
       </c>
@@ -4983,7 +5350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.3" customHeight="1">
+    <row r="56" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>108</v>
       </c>
@@ -4993,11 +5360,11 @@
       <c r="C56" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="80" t="s">
+      <c r="D56" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
       <c r="G56" s="4" t="s">
         <v>27</v>
       </c>
@@ -5005,7 +5372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.3" customHeight="1">
+    <row r="57" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>108</v>
       </c>
@@ -5015,11 +5382,11 @@
       <c r="C57" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="80" t="s">
+      <c r="D57" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
       <c r="G57" s="4" t="s">
         <v>27</v>
       </c>
@@ -5027,7 +5394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.3" customHeight="1">
+    <row r="58" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>108</v>
       </c>
@@ -5037,11 +5404,11 @@
       <c r="C58" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="80" t="s">
+      <c r="D58" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
       <c r="G58" s="4" t="s">
         <v>27</v>
       </c>
@@ -5049,7 +5416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.3" customHeight="1">
+    <row r="59" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>108</v>
       </c>
@@ -5059,11 +5426,11 @@
       <c r="C59" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="80" t="s">
+      <c r="D59" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
       <c r="G59" s="4" t="s">
         <v>27</v>
       </c>
@@ -5071,7 +5438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.3" customHeight="1">
+    <row r="60" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>108</v>
       </c>
@@ -5097,7 +5464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.3" customHeight="1">
+    <row r="61" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>108</v>
       </c>
@@ -5123,7 +5490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.3" customHeight="1">
+    <row r="62" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>108</v>
       </c>
@@ -5149,7 +5516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.3" customHeight="1">
+    <row r="63" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>108</v>
       </c>
@@ -5175,7 +5542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.3" customHeight="1">
+    <row r="64" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>108</v>
       </c>
@@ -5201,7 +5568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.3" customHeight="1">
+    <row r="65" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>108</v>
       </c>
@@ -5227,7 +5594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.3" customHeight="1">
+    <row r="66" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>108</v>
       </c>
@@ -5253,7 +5620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.3" customHeight="1">
+    <row r="67" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>108</v>
       </c>
@@ -5279,7 +5646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.3" customHeight="1">
+    <row r="68" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>108</v>
       </c>
@@ -5305,7 +5672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.3" customHeight="1">
+    <row r="69" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>108</v>
       </c>
@@ -5331,7 +5698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14.3" customHeight="1">
+    <row r="70" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>108</v>
       </c>
@@ -5357,7 +5724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14.3" customHeight="1">
+    <row r="71" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>108</v>
       </c>
@@ -5383,7 +5750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.3" customHeight="1">
+    <row r="72" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>108</v>
       </c>
@@ -5409,7 +5776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.3" customHeight="1">
+    <row r="73" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A73" s="7" t="s">
         <v>108</v>
       </c>
@@ -5435,7 +5802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.3" customHeight="1">
+    <row r="74" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>108</v>
       </c>
@@ -5461,7 +5828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14.3" customHeight="1">
+    <row r="75" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>108</v>
       </c>
@@ -5487,7 +5854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14.3" customHeight="1">
+    <row r="76" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A76" s="7" t="s">
         <v>108</v>
       </c>
@@ -5513,7 +5880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14.3" customHeight="1">
+    <row r="77" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A77" s="7" t="s">
         <v>108</v>
       </c>
@@ -5539,7 +5906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.3" customHeight="1">
+    <row r="78" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A78" s="7" t="s">
         <v>108</v>
       </c>
@@ -5565,7 +5932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.3" customHeight="1">
+    <row r="79" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -5591,7 +5958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.3" customHeight="1">
+    <row r="80" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A80" s="7" t="s">
         <v>108</v>
       </c>
@@ -5617,7 +5984,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="14.3" customHeight="1">
+    <row r="81" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A81" s="7" t="s">
         <v>108</v>
       </c>
@@ -5643,7 +6010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="14.3" customHeight="1">
+    <row r="82" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A82" s="7" t="s">
         <v>108</v>
       </c>
@@ -5669,7 +6036,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="14.3" customHeight="1">
+    <row r="83" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A83" s="7" t="s">
         <v>108</v>
       </c>
@@ -5695,7 +6062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="14.3" customHeight="1">
+    <row r="84" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A84" s="7" t="s">
         <v>108</v>
       </c>
@@ -5721,7 +6088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="14.3" customHeight="1">
+    <row r="85" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A85" s="7" t="s">
         <v>108</v>
       </c>
@@ -5747,7 +6114,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="14.3" customHeight="1">
+    <row r="86" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A86" s="7" t="s">
         <v>108</v>
       </c>
@@ -5773,7 +6140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="14.3" customHeight="1">
+    <row r="87" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A87" s="7" t="s">
         <v>108</v>
       </c>
@@ -5799,7 +6166,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="14.3" customHeight="1">
+    <row r="88" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A88" s="82" t="s">
         <v>108</v>
       </c>
@@ -5825,7 +6192,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="14.3" customHeight="1">
+    <row r="89" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A89" s="82" t="s">
         <v>108</v>
       </c>
@@ -5851,7 +6218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="14.3" customHeight="1">
+    <row r="90" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A90" s="82" t="s">
         <v>108</v>
       </c>
@@ -5877,7 +6244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="14.3" customHeight="1">
+    <row r="91" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A91" s="82" t="s">
         <v>108</v>
       </c>
@@ -5903,7 +6270,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="14.3" customHeight="1">
+    <row r="92" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A92" s="82" t="s">
         <v>108</v>
       </c>
@@ -5929,7 +6296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14.3" customHeight="1">
+    <row r="93" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A93" s="82" t="s">
         <v>108</v>
       </c>
@@ -5955,7 +6322,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="14.3" customHeight="1">
+    <row r="94" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A94" s="82" t="s">
         <v>108</v>
       </c>
@@ -5981,7 +6348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="14.3" customHeight="1">
+    <row r="95" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A95" s="82" t="s">
         <v>108</v>
       </c>
@@ -6008,7 +6375,7 @@
       </c>
       <c r="J95" s="69"/>
     </row>
-    <row r="96" spans="1:10" ht="14.3" customHeight="1">
+    <row r="96" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A96" s="82" t="s">
         <v>108</v>
       </c>
@@ -6035,7 +6402,7 @@
       </c>
       <c r="J96" s="69"/>
     </row>
-    <row r="97" spans="1:8" ht="14.3" customHeight="1">
+    <row r="97" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A97" s="82" t="s">
         <v>108</v>
       </c>
@@ -6061,7 +6428,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14.3" customHeight="1">
+    <row r="98" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A98" s="82" t="s">
         <v>108</v>
       </c>
@@ -6087,7 +6454,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14.3" customHeight="1">
+    <row r="99" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A99" s="82" t="s">
         <v>108</v>
       </c>
@@ -6113,7 +6480,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14.3" customHeight="1">
+    <row r="100" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A100" s="82" t="s">
         <v>108</v>
       </c>
@@ -6139,7 +6506,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.3" customHeight="1">
+    <row r="101" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A101" s="7" t="s">
         <v>108</v>
       </c>
@@ -6165,7 +6532,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.3" customHeight="1">
+    <row r="102" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A102" s="7" t="s">
         <v>108</v>
       </c>
@@ -6191,7 +6558,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14.3" customHeight="1">
+    <row r="103" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A103" s="7" t="s">
         <v>108</v>
       </c>
@@ -6217,7 +6584,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14.3" customHeight="1">
+    <row r="104" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A104" s="7" t="s">
         <v>108</v>
       </c>
@@ -6243,7 +6610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14.3" customHeight="1">
+    <row r="105" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A105" s="7" t="s">
         <v>108</v>
       </c>
@@ -6269,7 +6636,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14.3" customHeight="1">
+    <row r="106" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A106" s="7" t="s">
         <v>108</v>
       </c>
@@ -6295,7 +6662,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="14.3" customHeight="1">
+    <row r="107" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A107" s="7" t="s">
         <v>108</v>
       </c>
@@ -6321,7 +6688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="14.3" customHeight="1">
+    <row r="108" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A108" s="7" t="s">
         <v>108</v>
       </c>
@@ -6345,7 +6712,7 @@
       </c>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="14.3" customHeight="1">
+    <row r="109" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A109" s="7" t="s">
         <v>108</v>
       </c>
@@ -6369,7 +6736,7 @@
       </c>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="14.3" customHeight="1">
+    <row r="110" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A110" s="7" t="s">
         <v>108</v>
       </c>
@@ -6393,7 +6760,7 @@
       </c>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="14.3" customHeight="1">
+    <row r="111" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A111" s="7" t="s">
         <v>108</v>
       </c>
@@ -6417,7 +6784,7 @@
       </c>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="14.3" customHeight="1">
+    <row r="112" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A112" s="7" t="s">
         <v>108</v>
       </c>
@@ -6441,7 +6808,7 @@
       </c>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="14.3" customHeight="1">
+    <row r="113" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>108</v>
       </c>
@@ -6465,7 +6832,7 @@
       </c>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="14.3" customHeight="1">
+    <row r="114" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A114" s="7" t="s">
         <v>108</v>
       </c>
@@ -6489,7 +6856,7 @@
       </c>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="14.3" customHeight="1">
+    <row r="115" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>108</v>
       </c>
@@ -6513,7 +6880,7 @@
       </c>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="14.3" customHeight="1">
+    <row r="116" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A116" s="7" t="s">
         <v>108</v>
       </c>
@@ -6537,7 +6904,7 @@
       </c>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="14.3" customHeight="1">
+    <row r="117" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>108</v>
       </c>
@@ -6561,7 +6928,7 @@
       </c>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="14.3" customHeight="1">
+    <row r="118" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A118" s="7" t="s">
         <v>108</v>
       </c>
@@ -6585,7 +6952,7 @@
       </c>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="14.3" customHeight="1">
+    <row r="119" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>108</v>
       </c>
@@ -6609,7 +6976,7 @@
       </c>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="14.3" customHeight="1">
+    <row r="120" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A120" s="7" t="s">
         <v>108</v>
       </c>
@@ -6633,7 +7000,7 @@
       </c>
       <c r="H120" s="9"/>
     </row>
-    <row r="121" spans="1:8" ht="14.3" customHeight="1">
+    <row r="121" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A121" s="7" t="s">
         <v>108</v>
       </c>
@@ -6657,7 +7024,7 @@
       </c>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" spans="1:8" ht="14.3" customHeight="1">
+    <row r="122" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>188</v>
       </c>
@@ -6683,7 +7050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14.3" customHeight="1">
+    <row r="123" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>188</v>
       </c>
@@ -6709,7 +7076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="12.75" customHeight="1">
+    <row r="124" spans="1:8" ht="12.75" hidden="1" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>188</v>
       </c>
@@ -6735,7 +7102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="14.3" customHeight="1">
+    <row r="125" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>188</v>
       </c>
@@ -6761,7 +7128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14.3" customHeight="1">
+    <row r="126" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>188</v>
       </c>
@@ -6787,7 +7154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="14.3" customHeight="1">
+    <row r="127" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>188</v>
       </c>
@@ -6813,7 +7180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14.3" customHeight="1">
+    <row r="128" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>188</v>
       </c>
@@ -6839,7 +7206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.3" customHeight="1">
+    <row r="129" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>188</v>
       </c>
@@ -6865,7 +7232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14.3" customHeight="1">
+    <row r="130" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>188</v>
       </c>
@@ -6891,7 +7258,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14.3" customHeight="1">
+    <row r="131" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>188</v>
       </c>
@@ -6917,7 +7284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="14.3" customHeight="1">
+    <row r="132" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>188</v>
       </c>
@@ -6943,7 +7310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.3" customHeight="1">
+    <row r="133" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>188</v>
       </c>
@@ -6969,7 +7336,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14.3" customHeight="1">
+    <row r="134" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>188</v>
       </c>
@@ -6995,7 +7362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.3" customHeight="1">
+    <row r="135" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>188</v>
       </c>
@@ -7021,7 +7388,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14.3" customHeight="1">
+    <row r="136" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>188</v>
       </c>
@@ -7047,7 +7414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="14.3" customHeight="1">
+    <row r="137" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>188</v>
       </c>
@@ -7073,7 +7440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="14.3" customHeight="1">
+    <row r="138" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>188</v>
       </c>
@@ -7099,7 +7466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14.3" customHeight="1">
+    <row r="139" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>188</v>
       </c>
@@ -7125,7 +7492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.3" customHeight="1">
+    <row r="140" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>188</v>
       </c>
@@ -7151,7 +7518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14.3" customHeight="1">
+    <row r="141" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>188</v>
       </c>
@@ -7177,7 +7544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="14.3" customHeight="1">
+    <row r="142" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A142" s="4" t="s">
         <v>188</v>
       </c>
@@ -7203,7 +7570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="14.3" customHeight="1">
+    <row r="143" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A143" s="4" t="s">
         <v>188</v>
       </c>
@@ -7227,7 +7594,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.3" customHeight="1">
+    <row r="144" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A144" s="4" t="s">
         <v>188</v>
       </c>
@@ -7251,7 +7618,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.3" customHeight="1">
+    <row r="145" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A145" s="4" t="s">
         <v>188</v>
       </c>
@@ -7275,7 +7642,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.3" customHeight="1">
+    <row r="146" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A146" s="4" t="s">
         <v>188</v>
       </c>
@@ -7299,7 +7666,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="14.3" customHeight="1">
+    <row r="147" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A147" s="4" t="s">
         <v>188</v>
       </c>
@@ -7323,7 +7690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="14.3" customHeight="1">
+    <row r="148" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>188</v>
       </c>
@@ -7347,7 +7714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="14.3" customHeight="1">
+    <row r="149" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A149" s="4" t="s">
         <v>188</v>
       </c>
@@ -7371,7 +7738,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="14.3" customHeight="1">
+    <row r="150" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A150" s="4" t="s">
         <v>188</v>
       </c>
@@ -7395,7 +7762,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="14.3" customHeight="1">
+    <row r="151" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A151" s="4" t="s">
         <v>188</v>
       </c>
@@ -7419,7 +7786,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14.3" customHeight="1">
+    <row r="152" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A152" s="4" t="s">
         <v>188</v>
       </c>
@@ -7443,7 +7810,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="14.3" customHeight="1">
+    <row r="153" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A153" s="4" t="s">
         <v>188</v>
       </c>
@@ -7467,7 +7834,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="14.3" customHeight="1">
+    <row r="154" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>188</v>
       </c>
@@ -7491,7 +7858,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="14.3" customHeight="1">
+    <row r="155" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>188</v>
       </c>
@@ -7515,7 +7882,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="14.3" customHeight="1">
+    <row r="156" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A156" s="4" t="s">
         <v>188</v>
       </c>
@@ -7539,7 +7906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="14.3" customHeight="1">
+    <row r="157" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A157" s="4" t="s">
         <v>188</v>
       </c>
@@ -7563,7 +7930,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="14.3" customHeight="1">
+    <row r="158" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A158" s="82" t="s">
         <v>188</v>
       </c>
@@ -7590,7 +7957,7 @@
       </c>
       <c r="J158" s="69"/>
     </row>
-    <row r="159" spans="1:10" ht="14.3" customHeight="1">
+    <row r="159" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A159" s="82" t="s">
         <v>188</v>
       </c>
@@ -7617,7 +7984,7 @@
       </c>
       <c r="J159" s="69"/>
     </row>
-    <row r="160" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="160" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A160" s="82" t="s">
         <v>188</v>
       </c>
@@ -7643,7 +8010,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="161" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A161" s="82" t="s">
         <v>188</v>
       </c>
@@ -7669,7 +8036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="14.3" customHeight="1">
+    <row r="162" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A162" s="82" t="s">
         <v>188</v>
       </c>
@@ -7696,7 +8063,7 @@
       </c>
       <c r="J162" s="69"/>
     </row>
-    <row r="163" spans="1:10" ht="14.3" customHeight="1">
+    <row r="163" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A163" s="82" t="s">
         <v>188</v>
       </c>
@@ -7723,7 +8090,7 @@
       </c>
       <c r="J163" s="69"/>
     </row>
-    <row r="164" spans="1:10" ht="14.3" customHeight="1">
+    <row r="164" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>188</v>
       </c>
@@ -7747,7 +8114,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="14.3" customHeight="1">
+    <row r="165" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>188</v>
       </c>
@@ -7773,7 +8140,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="14.3" customHeight="1">
+    <row r="166" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>188</v>
       </c>
@@ -7799,7 +8166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="14.3" customHeight="1">
+    <row r="167" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>188</v>
       </c>
@@ -7825,7 +8192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="14.3" customHeight="1">
+    <row r="168" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A168" s="4" t="s">
         <v>188</v>
       </c>
@@ -7851,7 +8218,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="14.3" customHeight="1">
+    <row r="169" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A169" s="4" t="s">
         <v>188</v>
       </c>
@@ -7877,7 +8244,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="14.3" customHeight="1">
+    <row r="170" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A170" s="4" t="s">
         <v>188</v>
       </c>
@@ -7903,7 +8270,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="14.3" customHeight="1">
+    <row r="171" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A171" s="4" t="s">
         <v>188</v>
       </c>
@@ -7929,7 +8296,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="14.3" customHeight="1">
+    <row r="172" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A172" s="4" t="s">
         <v>188</v>
       </c>
@@ -7955,7 +8322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="14.3" customHeight="1">
+    <row r="173" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>188</v>
       </c>
@@ -7981,7 +8348,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="14.3" customHeight="1">
+    <row r="174" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>188</v>
       </c>
@@ -8005,7 +8372,7 @@
       </c>
       <c r="H174" s="9"/>
     </row>
-    <row r="175" spans="1:10" ht="12.1" customHeight="1">
+    <row r="175" spans="1:10" ht="12.1" hidden="1" customHeight="1">
       <c r="A175" s="4" t="s">
         <v>188</v>
       </c>
@@ -8029,7 +8396,7 @@
       </c>
       <c r="H175" s="9"/>
     </row>
-    <row r="176" spans="1:10" ht="13.6" customHeight="1">
+    <row r="176" spans="1:10" ht="13.6" hidden="1" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>188</v>
       </c>
@@ -8053,7 +8420,7 @@
       </c>
       <c r="H176" s="9"/>
     </row>
-    <row r="177" spans="1:8" ht="13.6" customHeight="1">
+    <row r="177" spans="1:8" ht="13.6" hidden="1" customHeight="1">
       <c r="A177" s="4" t="s">
         <v>188</v>
       </c>
@@ -8077,7 +8444,7 @@
       </c>
       <c r="H177" s="9"/>
     </row>
-    <row r="178" spans="1:8" ht="13.6" customHeight="1">
+    <row r="178" spans="1:8" ht="13.6" hidden="1" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>188</v>
       </c>
@@ -8101,7 +8468,7 @@
       </c>
       <c r="H178" s="9"/>
     </row>
-    <row r="179" spans="1:8" ht="13.6" customHeight="1">
+    <row r="179" spans="1:8" ht="13.6" hidden="1" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>188</v>
       </c>
@@ -8125,7 +8492,7 @@
       </c>
       <c r="H179" s="9"/>
     </row>
-    <row r="180" spans="1:8" ht="13.6" customHeight="1">
+    <row r="180" spans="1:8" ht="13.6" hidden="1" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>188</v>
       </c>
@@ -8149,7 +8516,7 @@
       </c>
       <c r="H180" s="9"/>
     </row>
-    <row r="181" spans="1:8" ht="13.6" customHeight="1">
+    <row r="181" spans="1:8" ht="13.6" hidden="1" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>257</v>
       </c>
@@ -8175,7 +8542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="14.3" customHeight="1">
+    <row r="182" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>257</v>
       </c>
@@ -8201,7 +8568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="14.3" customHeight="1">
+    <row r="183" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A183" s="4" t="s">
         <v>257</v>
       </c>
@@ -8227,7 +8594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="14.3" customHeight="1">
+    <row r="184" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A184" s="4" t="s">
         <v>257</v>
       </c>
@@ -8253,7 +8620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="14.3" customHeight="1">
+    <row r="185" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>257</v>
       </c>
@@ -8279,7 +8646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="14.3" customHeight="1">
+    <row r="186" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A186" s="4" t="s">
         <v>257</v>
       </c>
@@ -8305,7 +8672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="14.3" customHeight="1">
+    <row r="187" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A187" s="4" t="s">
         <v>257</v>
       </c>
@@ -8331,7 +8698,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="14.3" customHeight="1">
+    <row r="188" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A188" s="4" t="s">
         <v>257</v>
       </c>
@@ -8357,7 +8724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="14.3" customHeight="1">
+    <row r="189" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A189" s="4" t="s">
         <v>257</v>
       </c>
@@ -8383,7 +8750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="14.3" customHeight="1">
+    <row r="190" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A190" s="4" t="s">
         <v>257</v>
       </c>
@@ -8409,7 +8776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="14.3" customHeight="1">
+    <row r="191" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A191" s="4" t="s">
         <v>257</v>
       </c>
@@ -8435,7 +8802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="14.3" customHeight="1">
+    <row r="192" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A192" s="4" t="s">
         <v>257</v>
       </c>
@@ -8461,7 +8828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="14.3" customHeight="1">
+    <row r="193" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>257</v>
       </c>
@@ -8487,7 +8854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="14.3" customHeight="1">
+    <row r="194" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A194" s="4" t="s">
         <v>257</v>
       </c>
@@ -8513,7 +8880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="14.3" customHeight="1">
+    <row r="195" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A195" s="4" t="s">
         <v>257</v>
       </c>
@@ -8539,7 +8906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="14.3" customHeight="1">
+    <row r="196" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A196" s="4" t="s">
         <v>257</v>
       </c>
@@ -8565,7 +8932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="14.3" customHeight="1">
+    <row r="197" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>257</v>
       </c>
@@ -8591,7 +8958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="14.3" customHeight="1">
+    <row r="198" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>257</v>
       </c>
@@ -8617,7 +8984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="14.3" customHeight="1">
+    <row r="199" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A199" s="4" t="s">
         <v>257</v>
       </c>
@@ -8643,7 +9010,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="14.3" customHeight="1">
+    <row r="200" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A200" s="4" t="s">
         <v>257</v>
       </c>
@@ -8669,7 +9036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="14.3" customHeight="1">
+    <row r="201" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>257</v>
       </c>
@@ -8695,7 +9062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="14.3" customHeight="1">
+    <row r="202" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>257</v>
       </c>
@@ -8721,7 +9088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="14.3" customHeight="1">
+    <row r="203" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>257</v>
       </c>
@@ -8747,7 +9114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="14.3" customHeight="1">
+    <row r="204" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>257</v>
       </c>
@@ -8773,7 +9140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="14.3" customHeight="1">
+    <row r="205" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>257</v>
       </c>
@@ -8799,7 +9166,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="14.3" customHeight="1">
+    <row r="206" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A206" s="4" t="s">
         <v>257</v>
       </c>
@@ -8825,7 +9192,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="14.3" customHeight="1">
+    <row r="207" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>257</v>
       </c>
@@ -8849,7 +9216,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="208" spans="1:8" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A208" s="82" t="s">
         <v>257</v>
       </c>
@@ -8875,7 +9242,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="209" spans="1:8" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A209" s="82" t="s">
         <v>257</v>
       </c>
@@ -8901,7 +9268,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="210" spans="1:8" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A210" s="82" t="s">
         <v>257</v>
       </c>
@@ -8927,7 +9294,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="211" spans="1:8" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A211" s="82" t="s">
         <v>257</v>
       </c>
@@ -8953,7 +9320,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="14.3" customHeight="1">
+    <row r="212" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A212" s="82" t="s">
         <v>257</v>
       </c>
@@ -8979,7 +9346,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="14.3" customHeight="1">
+    <row r="213" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A213" s="82" t="s">
         <v>257</v>
       </c>
@@ -9005,7 +9372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="14.3" customHeight="1">
+    <row r="214" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>257</v>
       </c>
@@ -9031,7 +9398,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="14.3" customHeight="1">
+    <row r="215" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A215" s="4" t="s">
         <v>257</v>
       </c>
@@ -9057,7 +9424,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="14.3" customHeight="1">
+    <row r="216" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>257</v>
       </c>
@@ -9083,7 +9450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="14.3" customHeight="1">
+    <row r="217" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A217" s="4" t="s">
         <v>257</v>
       </c>
@@ -9109,7 +9476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="14.3" customHeight="1">
+    <row r="218" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>257</v>
       </c>
@@ -9135,7 +9502,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="14.3" customHeight="1">
+    <row r="219" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>257</v>
       </c>
@@ -9161,7 +9528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="14.3" customHeight="1">
+    <row r="220" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A220" s="4" t="s">
         <v>257</v>
       </c>
@@ -9187,7 +9554,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="14.3" customHeight="1">
+    <row r="221" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A221" s="4" t="s">
         <v>257</v>
       </c>
@@ -9213,7 +9580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="14.3" customHeight="1">
+    <row r="222" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A222" s="4" t="s">
         <v>257</v>
       </c>
@@ -9239,7 +9606,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="14.3" customHeight="1">
+    <row r="223" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A223" s="4" t="s">
         <v>257</v>
       </c>
@@ -9265,7 +9632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="14.3" customHeight="1">
+    <row r="224" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A224" s="4" t="s">
         <v>257</v>
       </c>
@@ -9291,7 +9658,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="14.3" customHeight="1">
+    <row r="225" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A225" s="4" t="s">
         <v>257</v>
       </c>
@@ -9317,7 +9684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="14.3" customHeight="1">
+    <row r="226" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>257</v>
       </c>
@@ -9343,7 +9710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="14.3" customHeight="1">
+    <row r="227" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A227" s="4" t="s">
         <v>257</v>
       </c>
@@ -9369,7 +9736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="14.3" customHeight="1">
+    <row r="228" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>257</v>
       </c>
@@ -9395,7 +9762,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="14.3" customHeight="1">
+    <row r="229" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>257</v>
       </c>
@@ -9419,7 +9786,7 @@
       </c>
       <c r="H229" s="9"/>
     </row>
-    <row r="230" spans="1:8" ht="14.3" customHeight="1">
+    <row r="230" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A230" s="4" t="s">
         <v>257</v>
       </c>
@@ -9443,7 +9810,7 @@
       </c>
       <c r="H230" s="9"/>
     </row>
-    <row r="231" spans="1:8" ht="14.3" customHeight="1">
+    <row r="231" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>257</v>
       </c>
@@ -9467,7 +9834,7 @@
       </c>
       <c r="H231" s="9"/>
     </row>
-    <row r="232" spans="1:8" ht="14.3" customHeight="1">
+    <row r="232" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A232" s="4" t="s">
         <v>257</v>
       </c>
@@ -9491,7 +9858,7 @@
       </c>
       <c r="H232" s="9"/>
     </row>
-    <row r="233" spans="1:8" ht="14.3" customHeight="1">
+    <row r="233" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>257</v>
       </c>
@@ -9515,7 +9882,7 @@
       </c>
       <c r="H233" s="9"/>
     </row>
-    <row r="234" spans="1:8" ht="14.3" customHeight="1">
+    <row r="234" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A234" s="4" t="s">
         <v>257</v>
       </c>
@@ -9539,7 +9906,7 @@
       </c>
       <c r="H234" s="9"/>
     </row>
-    <row r="235" spans="1:8" ht="14.3" customHeight="1">
+    <row r="235" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>257</v>
       </c>
@@ -9563,7 +9930,7 @@
       </c>
       <c r="H235" s="9"/>
     </row>
-    <row r="236" spans="1:8" ht="14.3" customHeight="1">
+    <row r="236" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A236" s="4" t="s">
         <v>316</v>
       </c>
@@ -9587,7 +9954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="14.3" customHeight="1">
+    <row r="237" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A237" s="4" t="s">
         <v>316</v>
       </c>
@@ -9613,7 +9980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="14.3" customHeight="1">
+    <row r="238" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>316</v>
       </c>
@@ -9639,7 +10006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="14.3" customHeight="1">
+    <row r="239" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A239" s="4" t="s">
         <v>316</v>
       </c>
@@ -9665,7 +10032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="14.3" customHeight="1">
+    <row r="240" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A240" s="4" t="s">
         <v>316</v>
       </c>
@@ -9691,7 +10058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="14.3" customHeight="1">
+    <row r="241" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A241" s="4" t="s">
         <v>316</v>
       </c>
@@ -9717,7 +10084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="14.3" customHeight="1">
+    <row r="242" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A242" s="4" t="s">
         <v>316</v>
       </c>
@@ -9743,7 +10110,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="14.3" customHeight="1">
+    <row r="243" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>316</v>
       </c>
@@ -9769,7 +10136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="14.3" customHeight="1">
+    <row r="244" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A244" s="4" t="s">
         <v>316</v>
       </c>
@@ -9795,7 +10162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="14.3" customHeight="1">
+    <row r="245" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>316</v>
       </c>
@@ -9821,7 +10188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="14.3" customHeight="1">
+    <row r="246" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A246" s="4" t="s">
         <v>316</v>
       </c>
@@ -9847,7 +10214,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="14.3" customHeight="1">
+    <row r="247" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A247" s="4" t="s">
         <v>316</v>
       </c>
@@ -9873,7 +10240,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="14.3" customHeight="1">
+    <row r="248" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A248" s="4" t="s">
         <v>316</v>
       </c>
@@ -9899,7 +10266,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="14.3" customHeight="1">
+    <row r="249" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A249" s="4" t="s">
         <v>316</v>
       </c>
@@ -9925,7 +10292,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="14.3" customHeight="1">
+    <row r="250" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>316</v>
       </c>
@@ -9951,7 +10318,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="14.3" customHeight="1">
+    <row r="251" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A251" s="4" t="s">
         <v>316</v>
       </c>
@@ -9977,7 +10344,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="14.3" customHeight="1">
+    <row r="252" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A252" s="4" t="s">
         <v>316</v>
       </c>
@@ -10003,7 +10370,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="14.3" customHeight="1">
+    <row r="253" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A253" s="4" t="s">
         <v>316</v>
       </c>
@@ -10029,7 +10396,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="14.3" customHeight="1">
+    <row r="254" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A254" s="4" t="s">
         <v>316</v>
       </c>
@@ -10055,7 +10422,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="14.3" customHeight="1">
+    <row r="255" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A255" s="4" t="s">
         <v>316</v>
       </c>
@@ -10081,7 +10448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="14.3" customHeight="1">
+    <row r="256" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A256" s="4" t="s">
         <v>316</v>
       </c>
@@ -10107,7 +10474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="14.3" customHeight="1">
+    <row r="257" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A257" s="4" t="s">
         <v>316</v>
       </c>
@@ -10133,7 +10500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="14.3" customHeight="1">
+    <row r="258" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A258" s="4" t="s">
         <v>316</v>
       </c>
@@ -10159,7 +10526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="14.3" customHeight="1">
+    <row r="259" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A259" s="4" t="s">
         <v>316</v>
       </c>
@@ -10185,7 +10552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="14.3" customHeight="1">
+    <row r="260" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A260" s="4" t="s">
         <v>316</v>
       </c>
@@ -10211,7 +10578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="14.3" customHeight="1">
+    <row r="261" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A261" s="4" t="s">
         <v>316</v>
       </c>
@@ -10237,7 +10604,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="14.3" customHeight="1">
+    <row r="262" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A262" s="4" t="s">
         <v>316</v>
       </c>
@@ -10263,7 +10630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="14.3" customHeight="1">
+    <row r="263" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A263" s="4" t="s">
         <v>316</v>
       </c>
@@ -10289,7 +10656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="14.3" customHeight="1">
+    <row r="264" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A264" s="4" t="s">
         <v>316</v>
       </c>
@@ -10315,7 +10682,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="14.3" customHeight="1">
+    <row r="265" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A265" s="4" t="s">
         <v>316</v>
       </c>
@@ -10341,7 +10708,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="14.3" customHeight="1">
+    <row r="266" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A266" s="4" t="s">
         <v>316</v>
       </c>
@@ -10367,7 +10734,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="14.3" customHeight="1">
+    <row r="267" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A267" s="4" t="s">
         <v>316</v>
       </c>
@@ -10391,7 +10758,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="268" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="268" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A268" s="82" t="s">
         <v>316</v>
       </c>
@@ -10417,7 +10784,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="269" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="269" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A269" s="82" t="s">
         <v>316</v>
       </c>
@@ -10443,7 +10810,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="270" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="270" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A270" s="82" t="s">
         <v>316</v>
       </c>
@@ -10469,7 +10836,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="14.3" customHeight="1">
+    <row r="271" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A271" s="82" t="s">
         <v>316</v>
       </c>
@@ -10496,7 +10863,7 @@
       </c>
       <c r="J271" s="69"/>
     </row>
-    <row r="272" spans="1:10" ht="14.3" customHeight="1">
+    <row r="272" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A272" s="82" t="s">
         <v>316</v>
       </c>
@@ -10523,7 +10890,7 @@
       </c>
       <c r="J272" s="69"/>
     </row>
-    <row r="273" spans="1:10" ht="14.3" customHeight="1">
+    <row r="273" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A273" s="82" t="s">
         <v>316</v>
       </c>
@@ -10550,7 +10917,7 @@
       </c>
       <c r="J273" s="69"/>
     </row>
-    <row r="274" spans="1:10" ht="14.3" customHeight="1">
+    <row r="274" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A274" s="82" t="s">
         <v>316</v>
       </c>
@@ -10577,7 +10944,7 @@
       </c>
       <c r="J274" s="69"/>
     </row>
-    <row r="275" spans="1:10" ht="14.3" customHeight="1">
+    <row r="275" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A275" s="82" t="s">
         <v>316</v>
       </c>
@@ -10604,7 +10971,7 @@
       </c>
       <c r="J275" s="69"/>
     </row>
-    <row r="276" spans="1:10" ht="14.3" customHeight="1">
+    <row r="276" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A276" s="82" t="s">
         <v>316</v>
       </c>
@@ -10631,7 +10998,7 @@
       </c>
       <c r="J276" s="69"/>
     </row>
-    <row r="277" spans="1:10" ht="14.3" customHeight="1">
+    <row r="277" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A277" s="82" t="s">
         <v>316</v>
       </c>
@@ -10658,7 +11025,7 @@
       </c>
       <c r="J277" s="69"/>
     </row>
-    <row r="278" spans="1:10" ht="14.3" customHeight="1">
+    <row r="278" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A278" s="82" t="s">
         <v>316</v>
       </c>
@@ -10685,7 +11052,7 @@
       </c>
       <c r="J278" s="69"/>
     </row>
-    <row r="279" spans="1:10" ht="14.3" customHeight="1">
+    <row r="279" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A279" s="4" t="s">
         <v>316</v>
       </c>
@@ -10711,7 +11078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="14.3" customHeight="1">
+    <row r="280" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A280" s="4" t="s">
         <v>316</v>
       </c>
@@ -10737,7 +11104,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="14.3" customHeight="1">
+    <row r="281" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A281" s="4" t="s">
         <v>316</v>
       </c>
@@ -10763,7 +11130,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="14.3" customHeight="1">
+    <row r="282" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A282" s="4" t="s">
         <v>316</v>
       </c>
@@ -10789,7 +11156,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="14.3" customHeight="1">
+    <row r="283" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A283" s="4" t="s">
         <v>316</v>
       </c>
@@ -10815,7 +11182,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="14.3" customHeight="1">
+    <row r="284" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A284" s="4" t="s">
         <v>316</v>
       </c>
@@ -10841,7 +11208,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="14.3" customHeight="1">
+    <row r="285" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A285" s="4" t="s">
         <v>316</v>
       </c>
@@ -10867,7 +11234,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="14.3" customHeight="1">
+    <row r="286" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A286" s="4" t="s">
         <v>316</v>
       </c>
@@ -10893,7 +11260,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="14.3" customHeight="1">
+    <row r="287" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A287" s="4" t="s">
         <v>316</v>
       </c>
@@ -10919,7 +11286,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="14.3" customHeight="1">
+    <row r="288" spans="1:10" ht="14.3" hidden="1" customHeight="1">
       <c r="A288" s="4" t="s">
         <v>316</v>
       </c>
@@ -10945,7 +11312,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="14.3" customHeight="1">
+    <row r="289" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A289" s="4" t="s">
         <v>316</v>
       </c>
@@ -10971,7 +11338,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="14.3" customHeight="1">
+    <row r="290" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A290" s="4" t="s">
         <v>316</v>
       </c>
@@ -10997,7 +11364,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="14.3" customHeight="1">
+    <row r="291" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A291" s="4" t="s">
         <v>316</v>
       </c>
@@ -11023,7 +11390,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="14.3" customHeight="1">
+    <row r="292" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A292" s="4" t="s">
         <v>316</v>
       </c>
@@ -11049,7 +11416,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="14.3" customHeight="1">
+    <row r="293" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A293" s="4" t="s">
         <v>316</v>
       </c>
@@ -11075,7 +11442,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="14.3" customHeight="1">
+    <row r="294" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A294" s="4" t="s">
         <v>316</v>
       </c>
@@ -11101,7 +11468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="14.3" customHeight="1">
+    <row r="295" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A295" s="4" t="s">
         <v>316</v>
       </c>
@@ -11127,7 +11494,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="14.3" customHeight="1">
+    <row r="296" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A296" s="4" t="s">
         <v>316</v>
       </c>
@@ -11153,7 +11520,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="14.3" customHeight="1">
+    <row r="297" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A297" s="4" t="s">
         <v>316</v>
       </c>
@@ -11179,7 +11546,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="14.3" customHeight="1">
+    <row r="298" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A298" s="4" t="s">
         <v>316</v>
       </c>
@@ -11205,7 +11572,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="14.3" customHeight="1">
+    <row r="299" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A299" s="4" t="s">
         <v>316</v>
       </c>
@@ -11231,7 +11598,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="14.3" customHeight="1">
+    <row r="300" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A300" s="4" t="s">
         <v>316</v>
       </c>
@@ -11257,7 +11624,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="14.3" customHeight="1">
+    <row r="301" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A301" s="4" t="s">
         <v>316</v>
       </c>
@@ -11283,7 +11650,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="14.3" customHeight="1">
+    <row r="302" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A302" s="4" t="s">
         <v>316</v>
       </c>
@@ -11309,7 +11676,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="14.3" customHeight="1">
+    <row r="303" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A303" s="4" t="s">
         <v>316</v>
       </c>
@@ -11335,7 +11702,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="14.3" customHeight="1">
+    <row r="304" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A304" s="4" t="s">
         <v>316</v>
       </c>
@@ -11412,7 +11779,7 @@
       <c r="B307" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C307" s="20" t="s">
+      <c r="C307" s="109" t="s">
         <v>379</v>
       </c>
       <c r="D307" s="4" t="s">
@@ -11493,7 +11860,7 @@
       </c>
       <c r="H310" s="9"/>
     </row>
-    <row r="311" spans="1:8" ht="14.3" customHeight="1">
+    <row r="311" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A311" s="4" t="s">
         <v>387</v>
       </c>
@@ -11517,7 +11884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="14.3" customHeight="1">
+    <row r="312" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A312" s="4" t="s">
         <v>387</v>
       </c>
@@ -11543,7 +11910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="14.3" customHeight="1">
+    <row r="313" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A313" s="4" t="s">
         <v>387</v>
       </c>
@@ -11569,7 +11936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="14.3" customHeight="1">
+    <row r="314" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A314" s="4" t="s">
         <v>387</v>
       </c>
@@ -11595,7 +11962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="14.3" customHeight="1">
+    <row r="315" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A315" s="4" t="s">
         <v>387</v>
       </c>
@@ -11621,7 +11988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="14.3" customHeight="1">
+    <row r="316" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A316" s="4" t="s">
         <v>387</v>
       </c>
@@ -11647,7 +12014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="14.3" customHeight="1">
+    <row r="317" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A317" s="4" t="s">
         <v>387</v>
       </c>
@@ -11673,7 +12040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="14.3" customHeight="1">
+    <row r="318" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A318" s="4" t="s">
         <v>387</v>
       </c>
@@ -11699,7 +12066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="14.3" customHeight="1">
+    <row r="319" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A319" s="4" t="s">
         <v>387</v>
       </c>
@@ -11725,7 +12092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="14.3" customHeight="1">
+    <row r="320" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A320" s="4" t="s">
         <v>387</v>
       </c>
@@ -11751,7 +12118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="14.3" customHeight="1">
+    <row r="321" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A321" s="4" t="s">
         <v>387</v>
       </c>
@@ -11777,7 +12144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="14.3" customHeight="1">
+    <row r="322" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A322" s="4" t="s">
         <v>387</v>
       </c>
@@ -11803,7 +12170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="14.3" customHeight="1">
+    <row r="323" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A323" s="4" t="s">
         <v>387</v>
       </c>
@@ -11829,7 +12196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="14.3" customHeight="1">
+    <row r="324" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A324" s="4" t="s">
         <v>387</v>
       </c>
@@ -11855,7 +12222,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="14.3" customHeight="1">
+    <row r="325" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A325" s="4" t="s">
         <v>387</v>
       </c>
@@ -11881,7 +12248,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="14.3" customHeight="1">
+    <row r="326" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A326" s="4" t="s">
         <v>387</v>
       </c>
@@ -11907,7 +12274,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="14.3" customHeight="1">
+    <row r="327" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A327" s="4" t="s">
         <v>387</v>
       </c>
@@ -11933,7 +12300,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="14.3" customHeight="1">
+    <row r="328" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A328" s="4" t="s">
         <v>387</v>
       </c>
@@ -11959,7 +12326,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="14.3" customHeight="1">
+    <row r="329" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A329" s="4" t="s">
         <v>387</v>
       </c>
@@ -11985,7 +12352,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="14.3" customHeight="1">
+    <row r="330" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A330" s="4" t="s">
         <v>387</v>
       </c>
@@ -12011,7 +12378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="14.3" customHeight="1">
+    <row r="331" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A331" s="4" t="s">
         <v>387</v>
       </c>
@@ -12037,7 +12404,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="14.3" customHeight="1">
+    <row r="332" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A332" s="4" t="s">
         <v>387</v>
       </c>
@@ -12063,7 +12430,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="14.3" customHeight="1">
+    <row r="333" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A333" s="4" t="s">
         <v>387</v>
       </c>
@@ -12089,7 +12456,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="14.3" customHeight="1">
+    <row r="334" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A334" s="4" t="s">
         <v>387</v>
       </c>
@@ -12115,7 +12482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="14.3" customHeight="1">
+    <row r="335" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A335" s="4" t="s">
         <v>387</v>
       </c>
@@ -12141,7 +12508,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="14.3" customHeight="1">
+    <row r="336" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A336" s="4" t="s">
         <v>387</v>
       </c>
@@ -12167,7 +12534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="14.3" customHeight="1">
+    <row r="337" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A337" s="4" t="s">
         <v>387</v>
       </c>
@@ -12193,7 +12560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="14.3" customHeight="1">
+    <row r="338" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A338" s="4" t="s">
         <v>387</v>
       </c>
@@ -12219,7 +12586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="14.3" customHeight="1">
+    <row r="339" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A339" s="4" t="s">
         <v>387</v>
       </c>
@@ -12245,7 +12612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="14.3" customHeight="1">
+    <row r="340" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A340" s="4" t="s">
         <v>387</v>
       </c>
@@ -12271,7 +12638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="14.3" customHeight="1">
+    <row r="341" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A341" s="4" t="s">
         <v>387</v>
       </c>
@@ -12297,7 +12664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="14.3" customHeight="1">
+    <row r="342" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A342" s="4" t="s">
         <v>387</v>
       </c>
@@ -12323,7 +12690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="14.3" customHeight="1">
+    <row r="343" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A343" s="4" t="s">
         <v>387</v>
       </c>
@@ -12349,7 +12716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="14.3" customHeight="1">
+    <row r="344" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A344" s="4" t="s">
         <v>387</v>
       </c>
@@ -12375,7 +12742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="14.3" customHeight="1">
+    <row r="345" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A345" s="4" t="s">
         <v>387</v>
       </c>
@@ -12401,7 +12768,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="14.3" customHeight="1">
+    <row r="346" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A346" s="4" t="s">
         <v>387</v>
       </c>
@@ -12427,7 +12794,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="14.3" customHeight="1">
+    <row r="347" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A347" s="4" t="s">
         <v>387</v>
       </c>
@@ -12451,7 +12818,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="14.3" customHeight="1">
+    <row r="348" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A348" s="82" t="s">
         <v>387</v>
       </c>
@@ -12477,7 +12844,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="14.3" customHeight="1">
+    <row r="349" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A349" s="82" t="s">
         <v>387</v>
       </c>
@@ -12503,7 +12870,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="14.3" customHeight="1">
+    <row r="350" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A350" s="4" t="s">
         <v>387</v>
       </c>
@@ -12529,7 +12896,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="14.3" customHeight="1">
+    <row r="351" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A351" s="4" t="s">
         <v>387</v>
       </c>
@@ -12553,7 +12920,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="14.3" customHeight="1">
+    <row r="352" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A352" s="4" t="s">
         <v>387</v>
       </c>
@@ -12579,7 +12946,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="14.3" customHeight="1">
+    <row r="353" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A353" s="4" t="s">
         <v>387</v>
       </c>
@@ -12605,7 +12972,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="14.3" customHeight="1">
+    <row r="354" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A354" s="4" t="s">
         <v>387</v>
       </c>
@@ -12631,7 +12998,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="14.3" customHeight="1">
+    <row r="355" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A355" s="4" t="s">
         <v>387</v>
       </c>
@@ -12657,7 +13024,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="14.3" customHeight="1">
+    <row r="356" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A356" s="4" t="s">
         <v>387</v>
       </c>
@@ -12683,7 +13050,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="14.3" customHeight="1">
+    <row r="357" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A357" s="4" t="s">
         <v>387</v>
       </c>
@@ -12705,7 +13072,7 @@
       </c>
       <c r="H357" s="9"/>
     </row>
-    <row r="358" spans="1:8" ht="14.3" customHeight="1">
+    <row r="358" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A358" s="4" t="s">
         <v>387</v>
       </c>
@@ -12727,7 +13094,7 @@
       </c>
       <c r="H358" s="9"/>
     </row>
-    <row r="359" spans="1:8" ht="14.3" customHeight="1">
+    <row r="359" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A359" s="4" t="s">
         <v>387</v>
       </c>
@@ -12749,7 +13116,7 @@
       </c>
       <c r="H359" s="9"/>
     </row>
-    <row r="360" spans="1:8" ht="14.3" customHeight="1">
+    <row r="360" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A360" s="4" t="s">
         <v>387</v>
       </c>
@@ -12771,7 +13138,7 @@
       </c>
       <c r="H360" s="9"/>
     </row>
-    <row r="361" spans="1:8" ht="14.3" customHeight="1">
+    <row r="361" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A361" s="4" t="s">
         <v>434</v>
       </c>
@@ -12795,7 +13162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="14.3" customHeight="1">
+    <row r="362" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A362" s="4" t="s">
         <v>434</v>
       </c>
@@ -12819,7 +13186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="14.3" customHeight="1">
+    <row r="363" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A363" s="4" t="s">
         <v>434</v>
       </c>
@@ -12843,7 +13210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="14.3" customHeight="1">
+    <row r="364" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A364" s="4" t="s">
         <v>434</v>
       </c>
@@ -12869,7 +13236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="14.3" customHeight="1">
+    <row r="365" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A365" s="4" t="s">
         <v>434</v>
       </c>
@@ -12895,7 +13262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="14.3" customHeight="1">
+    <row r="366" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A366" s="4" t="s">
         <v>434</v>
       </c>
@@ -12921,7 +13288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="14.3" customHeight="1">
+    <row r="367" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A367" s="4" t="s">
         <v>434</v>
       </c>
@@ -12947,7 +13314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="14.3" customHeight="1">
+    <row r="368" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A368" s="4" t="s">
         <v>434</v>
       </c>
@@ -12973,7 +13340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="14.3" customHeight="1">
+    <row r="369" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A369" s="4" t="s">
         <v>434</v>
       </c>
@@ -12999,7 +13366,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="14.3" customHeight="1">
+    <row r="370" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A370" s="4" t="s">
         <v>434</v>
       </c>
@@ -13025,7 +13392,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="14.3" customHeight="1">
+    <row r="371" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A371" s="4" t="s">
         <v>434</v>
       </c>
@@ -13051,7 +13418,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="14.3" customHeight="1">
+    <row r="372" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A372" s="4" t="s">
         <v>434</v>
       </c>
@@ -13077,7 +13444,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="14.3" customHeight="1">
+    <row r="373" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A373" s="4" t="s">
         <v>434</v>
       </c>
@@ -13103,7 +13470,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="14.3" customHeight="1">
+    <row r="374" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A374" s="4" t="s">
         <v>434</v>
       </c>
@@ -13129,7 +13496,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="14.3" customHeight="1">
+    <row r="375" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A375" s="4" t="s">
         <v>434</v>
       </c>
@@ -13155,7 +13522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="14.3" customHeight="1">
+    <row r="376" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A376" s="4" t="s">
         <v>434</v>
       </c>
@@ -13181,7 +13548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="14.3" customHeight="1">
+    <row r="377" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A377" s="4" t="s">
         <v>434</v>
       </c>
@@ -13207,7 +13574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="14.3" customHeight="1">
+    <row r="378" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A378" s="4" t="s">
         <v>434</v>
       </c>
@@ -13233,7 +13600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="14.3" customHeight="1">
+    <row r="379" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A379" s="4" t="s">
         <v>434</v>
       </c>
@@ -13259,7 +13626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="14.3" customHeight="1">
+    <row r="380" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A380" s="4" t="s">
         <v>434</v>
       </c>
@@ -13285,7 +13652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="14.3" customHeight="1">
+    <row r="381" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A381" s="4" t="s">
         <v>434</v>
       </c>
@@ -13311,7 +13678,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="14.3" customHeight="1">
+    <row r="382" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A382" s="4" t="s">
         <v>434</v>
       </c>
@@ -13337,7 +13704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="14.3" customHeight="1">
+    <row r="383" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A383" s="4" t="s">
         <v>434</v>
       </c>
@@ -13363,7 +13730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="14.3" customHeight="1">
+    <row r="384" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A384" s="4" t="s">
         <v>434</v>
       </c>
@@ -13389,7 +13756,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="14.3" customHeight="1">
+    <row r="385" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A385" s="4" t="s">
         <v>434</v>
       </c>
@@ -13415,7 +13782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="14.3" customHeight="1">
+    <row r="386" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A386" s="4" t="s">
         <v>434</v>
       </c>
@@ -13441,7 +13808,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="14.3" customHeight="1">
+    <row r="387" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A387" s="4" t="s">
         <v>434</v>
       </c>
@@ -13467,7 +13834,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="14.3" customHeight="1">
+    <row r="388" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A388" s="4" t="s">
         <v>434</v>
       </c>
@@ -13493,7 +13860,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="14.3" customHeight="1">
+    <row r="389" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A389" s="4" t="s">
         <v>434</v>
       </c>
@@ -13519,7 +13886,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="14.3" customHeight="1">
+    <row r="390" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A390" s="4" t="s">
         <v>434</v>
       </c>
@@ -13545,7 +13912,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="14.3" customHeight="1">
+    <row r="391" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A391" s="4" t="s">
         <v>434</v>
       </c>
@@ -13571,7 +13938,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="14.3" customHeight="1">
+    <row r="392" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A392" s="4" t="s">
         <v>434</v>
       </c>
@@ -13597,7 +13964,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="14.3" customHeight="1">
+    <row r="393" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A393" s="4" t="s">
         <v>434</v>
       </c>
@@ -13623,7 +13990,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="14.3" customHeight="1">
+    <row r="394" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A394" s="4" t="s">
         <v>434</v>
       </c>
@@ -13649,7 +14016,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="14.3" customHeight="1">
+    <row r="395" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A395" s="4" t="s">
         <v>434</v>
       </c>
@@ -13675,7 +14042,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="396" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
+    <row r="396" spans="1:8" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
       <c r="A396" s="82" t="s">
         <v>434</v>
       </c>
@@ -13701,7 +14068,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="14.3" customHeight="1">
+    <row r="397" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A397" s="82" t="s">
         <v>434</v>
       </c>
@@ -13727,7 +14094,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="14.3" customHeight="1">
+    <row r="398" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A398" s="4" t="s">
         <v>434</v>
       </c>
@@ -13753,7 +14120,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="14.3" customHeight="1">
+    <row r="399" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A399" s="4" t="s">
         <v>434</v>
       </c>
@@ -13779,7 +14146,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="14.3" customHeight="1">
+    <row r="400" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A400" s="4" t="s">
         <v>434</v>
       </c>
@@ -13805,7 +14172,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="14.3" customHeight="1">
+    <row r="401" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A401" s="4" t="s">
         <v>434</v>
       </c>
@@ -13831,7 +14198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="14.3" customHeight="1">
+    <row r="402" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A402" s="4" t="s">
         <v>434</v>
       </c>
@@ -13857,7 +14224,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="14.3" customHeight="1">
+    <row r="403" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A403" s="4" t="s">
         <v>434</v>
       </c>
@@ -13883,7 +14250,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="14.3" customHeight="1">
+    <row r="404" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A404" s="4" t="s">
         <v>434</v>
       </c>
@@ -13909,7 +14276,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="14.3" customHeight="1">
+    <row r="405" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A405" s="4" t="s">
         <v>434</v>
       </c>
@@ -13935,7 +14302,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="14.3" customHeight="1">
+    <row r="406" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A406" s="4" t="s">
         <v>434</v>
       </c>
@@ -13961,7 +14328,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="14.3" customHeight="1">
+    <row r="407" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A407" s="4" t="s">
         <v>434</v>
       </c>
@@ -13987,7 +14354,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="14.3" customHeight="1">
+    <row r="408" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A408" s="4" t="s">
         <v>434</v>
       </c>
@@ -14013,7 +14380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="14.3" customHeight="1">
+    <row r="409" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A409" s="4" t="s">
         <v>434</v>
       </c>
@@ -14039,7 +14406,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="14.3" customHeight="1">
+    <row r="410" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A410" s="4" t="s">
         <v>434</v>
       </c>
@@ -14065,7 +14432,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="14.3" customHeight="1">
+    <row r="411" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A411" s="4" t="s">
         <v>434</v>
       </c>
@@ -14091,7 +14458,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="14.3" customHeight="1">
+    <row r="412" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A412" s="4" t="s">
         <v>434</v>
       </c>
@@ -14117,7 +14484,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="14.3" customHeight="1">
+    <row r="413" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A413" s="4" t="s">
         <v>434</v>
       </c>
@@ -14139,7 +14506,7 @@
       </c>
       <c r="H413" s="9"/>
     </row>
-    <row r="414" spans="1:8" ht="14.3" customHeight="1">
+    <row r="414" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A414" s="4" t="s">
         <v>495</v>
       </c>
@@ -14165,7 +14532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="14.3" customHeight="1">
+    <row r="415" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A415" s="4" t="s">
         <v>495</v>
       </c>
@@ -14191,7 +14558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="14.3" customHeight="1">
+    <row r="416" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A416" s="4" t="s">
         <v>495</v>
       </c>
@@ -14217,7 +14584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="14.3" customHeight="1">
+    <row r="417" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A417" s="4" t="s">
         <v>495</v>
       </c>
@@ -14243,7 +14610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="14.3" customHeight="1">
+    <row r="418" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A418" s="4" t="s">
         <v>495</v>
       </c>
@@ -14269,7 +14636,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="14.3" customHeight="1">
+    <row r="419" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A419" s="4" t="s">
         <v>495</v>
       </c>
@@ -14295,7 +14662,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="14.3" customHeight="1">
+    <row r="420" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A420" s="4" t="s">
         <v>495</v>
       </c>
@@ -14321,7 +14688,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="14.3" customHeight="1">
+    <row r="421" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A421" s="4" t="s">
         <v>495</v>
       </c>
@@ -14347,7 +14714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="14.3" customHeight="1">
+    <row r="422" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A422" s="4" t="s">
         <v>495</v>
       </c>
@@ -14373,7 +14740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="14.3" customHeight="1">
+    <row r="423" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A423" s="4" t="s">
         <v>495</v>
       </c>
@@ -14399,7 +14766,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="14.3" customHeight="1">
+    <row r="424" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A424" s="4" t="s">
         <v>495</v>
       </c>
@@ -14425,7 +14792,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="14.3" customHeight="1">
+    <row r="425" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A425" s="4" t="s">
         <v>495</v>
       </c>
@@ -14451,7 +14818,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="14.3" customHeight="1">
+    <row r="426" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A426" s="4" t="s">
         <v>495</v>
       </c>
@@ -14477,7 +14844,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="14.3" customHeight="1">
+    <row r="427" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A427" s="4" t="s">
         <v>495</v>
       </c>
@@ -14503,7 +14870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="14.3" customHeight="1">
+    <row r="428" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A428" s="4" t="s">
         <v>495</v>
       </c>
@@ -14529,7 +14896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="14.3" customHeight="1">
+    <row r="429" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A429" s="4" t="s">
         <v>495</v>
       </c>
@@ -14555,7 +14922,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="14.3" customHeight="1">
+    <row r="430" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A430" s="4" t="s">
         <v>495</v>
       </c>
@@ -14581,7 +14948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="14.3" customHeight="1">
+    <row r="431" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A431" s="4" t="s">
         <v>495</v>
       </c>
@@ -14607,7 +14974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="14.3" customHeight="1">
+    <row r="432" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A432" s="4" t="s">
         <v>495</v>
       </c>
@@ -14633,7 +15000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="14.3" customHeight="1">
+    <row r="433" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A433" s="4" t="s">
         <v>495</v>
       </c>
@@ -14659,7 +15026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="14.3" customHeight="1">
+    <row r="434" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A434" s="4" t="s">
         <v>495</v>
       </c>
@@ -14685,7 +15052,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="14.3" customHeight="1">
+    <row r="435" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A435" s="4" t="s">
         <v>495</v>
       </c>
@@ -14711,7 +15078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="14.3" customHeight="1">
+    <row r="436" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A436" s="4" t="s">
         <v>495</v>
       </c>
@@ -14737,7 +15104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="14.3" customHeight="1">
+    <row r="437" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A437" s="4" t="s">
         <v>495</v>
       </c>
@@ -14763,7 +15130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="14.3" customHeight="1">
+    <row r="438" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A438" s="4" t="s">
         <v>495</v>
       </c>
@@ -14789,7 +15156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="14.3" customHeight="1">
+    <row r="439" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A439" s="4" t="s">
         <v>495</v>
       </c>
@@ -14815,7 +15182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="14.3" customHeight="1">
+    <row r="440" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A440" s="4" t="s">
         <v>495</v>
       </c>
@@ -14841,7 +15208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="14.3" customHeight="1">
+    <row r="441" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A441" s="4" t="s">
         <v>495</v>
       </c>
@@ -14867,7 +15234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="14.3" customHeight="1">
+    <row r="442" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A442" s="4" t="s">
         <v>495</v>
       </c>
@@ -14893,7 +15260,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="14.3" customHeight="1">
+    <row r="443" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A443" s="4" t="s">
         <v>495</v>
       </c>
@@ -14919,7 +15286,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="14.3" customHeight="1">
+    <row r="444" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A444" s="4" t="s">
         <v>495</v>
       </c>
@@ -14945,7 +15312,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="14.3" customHeight="1">
+    <row r="445" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A445" s="4" t="s">
         <v>495</v>
       </c>
@@ -14971,7 +15338,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="14.3" customHeight="1">
+    <row r="446" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A446" s="4" t="s">
         <v>495</v>
       </c>
@@ -14997,7 +15364,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="14.3" customHeight="1">
+    <row r="447" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A447" s="4" t="s">
         <v>495</v>
       </c>
@@ -15023,7 +15390,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="14.3" customHeight="1">
+    <row r="448" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A448" s="4" t="s">
         <v>495</v>
       </c>
@@ -15049,7 +15416,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="14.3" customHeight="1">
+    <row r="449" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A449" s="4" t="s">
         <v>495</v>
       </c>
@@ -15075,7 +15442,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="14.3" customHeight="1">
+    <row r="450" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A450" s="4" t="s">
         <v>495</v>
       </c>
@@ -15101,7 +15468,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="14.3" customHeight="1">
+    <row r="451" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A451" s="4" t="s">
         <v>495</v>
       </c>
@@ -15127,7 +15494,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="14.3" customHeight="1">
+    <row r="452" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A452" s="4" t="s">
         <v>495</v>
       </c>
@@ -15153,7 +15520,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="14.3" customHeight="1">
+    <row r="453" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A453" s="4" t="s">
         <v>495</v>
       </c>
@@ -15179,7 +15546,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="14.3" customHeight="1">
+    <row r="454" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A454" s="4" t="s">
         <v>495</v>
       </c>
@@ -15205,7 +15572,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="14.3" customHeight="1">
+    <row r="455" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A455" s="4" t="s">
         <v>495</v>
       </c>
@@ -15231,7 +15598,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="14.3" customHeight="1">
+    <row r="456" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A456" s="4" t="s">
         <v>495</v>
       </c>
@@ -15257,7 +15624,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="14.3" customHeight="1">
+    <row r="457" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A457" s="4" t="s">
         <v>495</v>
       </c>
@@ -15283,7 +15650,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="14.3" customHeight="1">
+    <row r="458" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A458" s="4" t="s">
         <v>495</v>
       </c>
@@ -15309,7 +15676,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="14.3" customHeight="1">
+    <row r="459" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A459" s="4" t="s">
         <v>495</v>
       </c>
@@ -15335,7 +15702,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="14.3" customHeight="1">
+    <row r="460" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A460" s="4" t="s">
         <v>495</v>
       </c>
@@ -15361,7 +15728,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="14.3" customHeight="1">
+    <row r="461" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A461" s="4" t="s">
         <v>495</v>
       </c>
@@ -15387,7 +15754,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="14.3" customHeight="1">
+    <row r="462" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A462" s="4" t="s">
         <v>495</v>
       </c>
@@ -15413,7 +15780,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="14.3" customHeight="1">
+    <row r="463" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A463" s="4" t="s">
         <v>495</v>
       </c>
@@ -15439,7 +15806,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="14.3" customHeight="1">
+    <row r="464" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A464" s="4" t="s">
         <v>495</v>
       </c>
@@ -15465,7 +15832,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="14.3" customHeight="1">
+    <row r="465" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A465" s="4" t="s">
         <v>495</v>
       </c>
@@ -15491,7 +15858,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="14.3" customHeight="1">
+    <row r="466" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A466" s="4" t="s">
         <v>495</v>
       </c>
@@ -15517,7 +15884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="14.3" customHeight="1">
+    <row r="467" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A467" s="4" t="s">
         <v>495</v>
       </c>
@@ -15543,7 +15910,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="14.3" customHeight="1">
+    <row r="468" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A468" s="71" t="s">
         <v>495</v>
       </c>
@@ -15569,7 +15936,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="14.3" customHeight="1">
+    <row r="469" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A469" s="71" t="s">
         <v>495</v>
       </c>
@@ -15595,7 +15962,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="14.3" customHeight="1">
+    <row r="470" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A470" s="71" t="s">
         <v>495</v>
       </c>
@@ -15621,7 +15988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="14.3" customHeight="1">
+    <row r="471" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A471" s="71" t="s">
         <v>495</v>
       </c>
@@ -15647,7 +16014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="14.3" customHeight="1">
+    <row r="472" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A472" s="4" t="s">
         <v>495</v>
       </c>
@@ -15673,7 +16040,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="14.3" customHeight="1">
+    <row r="473" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A473" s="4" t="s">
         <v>495</v>
       </c>
@@ -15699,7 +16066,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="14.3" customHeight="1">
+    <row r="474" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A474" s="4" t="s">
         <v>495</v>
       </c>
@@ -15728,7 +16095,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="14.3" customHeight="1">
+    <row r="475" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A475" s="4" t="s">
         <v>495</v>
       </c>
@@ -15757,7 +16124,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="14.3" customHeight="1">
+    <row r="476" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A476" s="4" t="s">
         <v>495</v>
       </c>
@@ -15786,7 +16153,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="14.3" customHeight="1">
+    <row r="477" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A477" s="4" t="s">
         <v>495</v>
       </c>
@@ -15815,7 +16182,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="14.3" customHeight="1">
+    <row r="478" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A478" s="4" t="s">
         <v>495</v>
       </c>
@@ -15844,7 +16211,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="14.3" customHeight="1">
+    <row r="479" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A479" s="4" t="s">
         <v>495</v>
       </c>
@@ -15870,7 +16237,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="14.3" customHeight="1">
+    <row r="480" spans="1:9" ht="14.3" hidden="1" customHeight="1">
       <c r="A480" s="4" t="s">
         <v>495</v>
       </c>
@@ -15896,7 +16263,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="14.3" customHeight="1">
+    <row r="481" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A481" s="4" t="s">
         <v>495</v>
       </c>
@@ -15922,7 +16289,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="14.3" customHeight="1">
+    <row r="482" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A482" s="4" t="s">
         <v>495</v>
       </c>
@@ -15948,7 +16315,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="14.3" customHeight="1">
+    <row r="483" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A483" s="4" t="s">
         <v>495</v>
       </c>
@@ -15974,7 +16341,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="14.3" customHeight="1">
+    <row r="484" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A484" s="4" t="s">
         <v>495</v>
       </c>
@@ -16000,7 +16367,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="14.3" customHeight="1">
+    <row r="485" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A485" s="4" t="s">
         <v>495</v>
       </c>
@@ -16026,7 +16393,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="14.3" customHeight="1">
+    <row r="486" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A486" s="4" t="s">
         <v>495</v>
       </c>
@@ -16052,7 +16419,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="14.3" customHeight="1">
+    <row r="487" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A487" s="4" t="s">
         <v>495</v>
       </c>
@@ -16078,7 +16445,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="14.3" customHeight="1">
+    <row r="488" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A488" s="4" t="s">
         <v>495</v>
       </c>
@@ -16104,7 +16471,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="14.3" customHeight="1">
+    <row r="489" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A489" s="4" t="s">
         <v>583</v>
       </c>
@@ -16130,7 +16497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="14.3" customHeight="1">
+    <row r="490" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A490" s="4" t="s">
         <v>583</v>
       </c>
@@ -16156,7 +16523,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="14.3" customHeight="1">
+    <row r="491" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A491" s="4" t="s">
         <v>583</v>
       </c>
@@ -16182,7 +16549,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="14.3" customHeight="1">
+    <row r="492" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A492" s="4" t="s">
         <v>583</v>
       </c>
@@ -16208,7 +16575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="14.3" customHeight="1">
+    <row r="493" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A493" s="4" t="s">
         <v>583</v>
       </c>
@@ -16234,7 +16601,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="14.3" customHeight="1">
+    <row r="494" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A494" s="4" t="s">
         <v>583</v>
       </c>
@@ -16260,7 +16627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="14.3" customHeight="1">
+    <row r="495" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A495" s="4" t="s">
         <v>583</v>
       </c>
@@ -16286,7 +16653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="14.3" customHeight="1">
+    <row r="496" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A496" s="4" t="s">
         <v>583</v>
       </c>
@@ -16312,7 +16679,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="14.3" customHeight="1">
+    <row r="497" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A497" s="4" t="s">
         <v>583</v>
       </c>
@@ -16338,7 +16705,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="14.3" customHeight="1">
+    <row r="498" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A498" s="4" t="s">
         <v>583</v>
       </c>
@@ -16364,7 +16731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="14.3" customHeight="1">
+    <row r="499" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A499" s="4" t="s">
         <v>583</v>
       </c>
@@ -16390,7 +16757,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="14.3" customHeight="1">
+    <row r="500" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A500" s="4" t="s">
         <v>583</v>
       </c>
@@ -16416,7 +16783,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="14.3" customHeight="1">
+    <row r="501" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A501" s="4" t="s">
         <v>583</v>
       </c>
@@ -16442,7 +16809,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="14.3" customHeight="1">
+    <row r="502" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A502" s="4" t="s">
         <v>583</v>
       </c>
@@ -16468,7 +16835,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="14.3" customHeight="1">
+    <row r="503" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A503" s="4" t="s">
         <v>583</v>
       </c>
@@ -16494,7 +16861,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="14.3" customHeight="1">
+    <row r="504" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A504" s="4" t="s">
         <v>583</v>
       </c>
@@ -16520,7 +16887,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="14.3" customHeight="1">
+    <row r="505" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A505" s="4" t="s">
         <v>583</v>
       </c>
@@ -16546,7 +16913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="14.3" customHeight="1">
+    <row r="506" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A506" s="4" t="s">
         <v>583</v>
       </c>
@@ -16572,7 +16939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="14.3" customHeight="1">
+    <row r="507" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A507" s="4" t="s">
         <v>583</v>
       </c>
@@ -16598,7 +16965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="14.3" customHeight="1">
+    <row r="508" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A508" s="4" t="s">
         <v>583</v>
       </c>
@@ -16624,7 +16991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="14.3" customHeight="1">
+    <row r="509" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A509" s="4" t="s">
         <v>583</v>
       </c>
@@ -16650,7 +17017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="14.3" customHeight="1">
+    <row r="510" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A510" s="4" t="s">
         <v>583</v>
       </c>
@@ -16676,7 +17043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="14.3" customHeight="1">
+    <row r="511" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A511" s="4" t="s">
         <v>583</v>
       </c>
@@ -16700,7 +17067,7 @@
       </c>
       <c r="H511" s="10"/>
     </row>
-    <row r="512" spans="1:8" ht="14.3" customHeight="1">
+    <row r="512" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A512" s="4" t="s">
         <v>583</v>
       </c>
@@ -16726,7 +17093,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="14.3" customHeight="1">
+    <row r="513" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A513" s="4" t="s">
         <v>583</v>
       </c>
@@ -16752,7 +17119,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="14.3" customHeight="1">
+    <row r="514" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A514" s="4" t="s">
         <v>583</v>
       </c>
@@ -16778,7 +17145,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="14.3" customHeight="1">
+    <row r="515" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A515" s="4" t="s">
         <v>583</v>
       </c>
@@ -16804,7 +17171,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="14.3" customHeight="1">
+    <row r="516" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A516" s="4" t="s">
         <v>583</v>
       </c>
@@ -16830,7 +17197,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="14.3" customHeight="1">
+    <row r="517" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A517" s="4" t="s">
         <v>583</v>
       </c>
@@ -16856,7 +17223,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="14.3" customHeight="1">
+    <row r="518" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A518" s="4" t="s">
         <v>583</v>
       </c>
@@ -16882,7 +17249,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="14.3" customHeight="1">
+    <row r="519" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A519" s="4" t="s">
         <v>583</v>
       </c>
@@ -16908,7 +17275,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="14.3" customHeight="1">
+    <row r="520" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A520" s="4" t="s">
         <v>583</v>
       </c>
@@ -16934,7 +17301,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="14.3" customHeight="1">
+    <row r="521" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A521" s="4" t="s">
         <v>583</v>
       </c>
@@ -16960,7 +17327,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="14.3" customHeight="1">
+    <row r="522" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A522" s="4" t="s">
         <v>583</v>
       </c>
@@ -16984,7 +17351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="14.3" customHeight="1">
+    <row r="523" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A523" s="4" t="s">
         <v>583</v>
       </c>
@@ -17010,7 +17377,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="14.3" customHeight="1">
+    <row r="524" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A524" s="4" t="s">
         <v>583</v>
       </c>
@@ -17036,7 +17403,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="14.3" customHeight="1">
+    <row r="525" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A525" s="4" t="s">
         <v>583</v>
       </c>
@@ -17062,7 +17429,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="14.3" customHeight="1">
+    <row r="526" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A526" s="71" t="s">
         <v>583</v>
       </c>
@@ -17088,7 +17455,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="14.3" customHeight="1">
+    <row r="527" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A527" s="71" t="s">
         <v>583</v>
       </c>
@@ -17114,7 +17481,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="14.3" customHeight="1">
+    <row r="528" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A528" s="4" t="s">
         <v>583</v>
       </c>
@@ -17140,7 +17507,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="14.3" customHeight="1">
+    <row r="529" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A529" s="4" t="s">
         <v>583</v>
       </c>
@@ -17166,7 +17533,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="14.3" customHeight="1">
+    <row r="530" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A530" s="4" t="s">
         <v>583</v>
       </c>
@@ -17192,7 +17559,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="14.3" customHeight="1">
+    <row r="531" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A531" s="4" t="s">
         <v>583</v>
       </c>
@@ -17218,7 +17585,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="14.3" customHeight="1">
+    <row r="532" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A532" s="4" t="s">
         <v>583</v>
       </c>
@@ -17244,7 +17611,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="14.3" customHeight="1">
+    <row r="533" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A533" s="4" t="s">
         <v>583</v>
       </c>
@@ -17270,7 +17637,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="14.3" customHeight="1">
+    <row r="534" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A534" s="4" t="s">
         <v>583</v>
       </c>
@@ -17296,7 +17663,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="14.3" customHeight="1">
+    <row r="535" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A535" s="4" t="s">
         <v>583</v>
       </c>
@@ -17322,7 +17689,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="14.3" customHeight="1">
+    <row r="536" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A536" s="4" t="s">
         <v>583</v>
       </c>
@@ -17348,7 +17715,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="14.3" customHeight="1">
+    <row r="537" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A537" s="4" t="s">
         <v>583</v>
       </c>
@@ -17374,7 +17741,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="14.3" customHeight="1">
+    <row r="538" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A538" s="4" t="s">
         <v>583</v>
       </c>
@@ -17400,7 +17767,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="14.3" customHeight="1">
+    <row r="539" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A539" s="4" t="s">
         <v>583</v>
       </c>
@@ -17426,7 +17793,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="14.3" customHeight="1">
+    <row r="540" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A540" s="4" t="s">
         <v>583</v>
       </c>
@@ -17452,7 +17819,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="14.3" customHeight="1">
+    <row r="541" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A541" s="4" t="s">
         <v>583</v>
       </c>
@@ -17478,7 +17845,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="14.3" customHeight="1">
+    <row r="542" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A542" s="4" t="s">
         <v>583</v>
       </c>
@@ -17504,7 +17871,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="14.3" customHeight="1">
+    <row r="543" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A543" s="4" t="s">
         <v>583</v>
       </c>
@@ -17530,7 +17897,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="14.3" customHeight="1">
+    <row r="544" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A544" s="4" t="s">
         <v>583</v>
       </c>
@@ -17556,7 +17923,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="14.3" customHeight="1">
+    <row r="545" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A545" s="4" t="s">
         <v>583</v>
       </c>
@@ -17582,7 +17949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="14.3" customHeight="1">
+    <row r="546" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A546" s="4" t="s">
         <v>583</v>
       </c>
@@ -17608,7 +17975,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="14.3" customHeight="1">
+    <row r="547" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A547" s="4" t="s">
         <v>583</v>
       </c>
@@ -17634,7 +18001,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="14.3" customHeight="1">
+    <row r="548" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A548" s="4" t="s">
         <v>583</v>
       </c>
@@ -17658,7 +18025,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="14.3" customHeight="1">
+    <row r="549" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A549" s="4" t="s">
         <v>583</v>
       </c>
@@ -17682,7 +18049,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="14.3" customHeight="1">
+    <row r="550" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A550" s="4" t="s">
         <v>583</v>
       </c>
@@ -17706,7 +18073,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="14.3" customHeight="1">
+    <row r="551" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A551" s="4" t="s">
         <v>583</v>
       </c>
@@ -17728,7 +18095,7 @@
       </c>
       <c r="H551" s="9"/>
     </row>
-    <row r="552" spans="1:8" ht="14.3" customHeight="1">
+    <row r="552" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A552" s="4" t="s">
         <v>651</v>
       </c>
@@ -17754,7 +18121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="14.3" customHeight="1">
+    <row r="553" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A553" s="4" t="s">
         <v>651</v>
       </c>
@@ -17780,7 +18147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="14.3" customHeight="1">
+    <row r="554" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A554" s="4" t="s">
         <v>651</v>
       </c>
@@ -17806,7 +18173,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="14.3" customHeight="1">
+    <row r="555" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A555" s="4" t="s">
         <v>651</v>
       </c>
@@ -17832,7 +18199,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="14.3" customHeight="1">
+    <row r="556" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A556" s="4" t="s">
         <v>651</v>
       </c>
@@ -17858,7 +18225,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="14.3" customHeight="1">
+    <row r="557" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A557" s="4" t="s">
         <v>651</v>
       </c>
@@ -17884,7 +18251,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="14.3" customHeight="1">
+    <row r="558" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A558" s="4" t="s">
         <v>651</v>
       </c>
@@ -17910,7 +18277,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="14.3" customHeight="1">
+    <row r="559" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A559" s="4" t="s">
         <v>651</v>
       </c>
@@ -17936,7 +18303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="14.3" customHeight="1">
+    <row r="560" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A560" s="4" t="s">
         <v>651</v>
       </c>
@@ -17962,7 +18329,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="14.3" customHeight="1">
+    <row r="561" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A561" s="4" t="s">
         <v>651</v>
       </c>
@@ -17988,7 +18355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="14.3" customHeight="1">
+    <row r="562" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A562" s="4" t="s">
         <v>651</v>
       </c>
@@ -18014,7 +18381,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="14.3" customHeight="1">
+    <row r="563" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A563" s="4" t="s">
         <v>651</v>
       </c>
@@ -18040,7 +18407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="14.3" customHeight="1">
+    <row r="564" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A564" s="4" t="s">
         <v>651</v>
       </c>
@@ -18066,7 +18433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="14.3" customHeight="1">
+    <row r="565" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A565" s="4" t="s">
         <v>651</v>
       </c>
@@ -18092,7 +18459,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="14.3" customHeight="1">
+    <row r="566" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A566" s="4" t="s">
         <v>651</v>
       </c>
@@ -18118,7 +18485,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="14.3" customHeight="1">
+    <row r="567" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A567" s="4" t="s">
         <v>651</v>
       </c>
@@ -18144,7 +18511,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="14.3" customHeight="1">
+    <row r="568" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A568" s="4" t="s">
         <v>651</v>
       </c>
@@ -18170,7 +18537,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="14.3" customHeight="1">
+    <row r="569" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A569" s="4" t="s">
         <v>651</v>
       </c>
@@ -18196,7 +18563,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="14.3" customHeight="1">
+    <row r="570" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A570" s="4" t="s">
         <v>651</v>
       </c>
@@ -18222,7 +18589,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="14.3" customHeight="1">
+    <row r="571" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A571" s="4" t="s">
         <v>651</v>
       </c>
@@ -18248,7 +18615,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="14.3" customHeight="1">
+    <row r="572" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A572" s="4" t="s">
         <v>651</v>
       </c>
@@ -18270,7 +18637,7 @@
       </c>
       <c r="H572" s="9"/>
     </row>
-    <row r="573" spans="1:8" ht="14.3" customHeight="1">
+    <row r="573" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A573" s="4" t="s">
         <v>651</v>
       </c>
@@ -18289,12 +18656,12 @@
       <c r="F573" s="41" t="s">
         <v>669</v>
       </c>
-      <c r="G573" s="80" t="s">
+      <c r="G573" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="H573" s="81"/>
-    </row>
-    <row r="574" spans="1:8" ht="14.3" customHeight="1">
+      <c r="H573" s="93"/>
+    </row>
+    <row r="574" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A574" s="4" t="s">
         <v>651</v>
       </c>
@@ -18313,12 +18680,12 @@
       <c r="F574" s="41" t="s">
         <v>671</v>
       </c>
-      <c r="G574" s="80" t="s">
+      <c r="G574" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="H574" s="81"/>
-    </row>
-    <row r="575" spans="1:8" ht="14.3" customHeight="1">
+      <c r="H574" s="93"/>
+    </row>
+    <row r="575" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A575" s="4" t="s">
         <v>651</v>
       </c>
@@ -18344,7 +18711,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="14.3" customHeight="1">
+    <row r="576" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A576" s="4" t="s">
         <v>651</v>
       </c>
@@ -18370,7 +18737,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="14.3" customHeight="1">
+    <row r="577" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A577" s="4" t="s">
         <v>651</v>
       </c>
@@ -18396,7 +18763,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="14.3" customHeight="1">
+    <row r="578" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A578" s="4" t="s">
         <v>651</v>
       </c>
@@ -18420,7 +18787,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="14.3" customHeight="1">
+    <row r="579" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A579" s="74" t="s">
         <v>651</v>
       </c>
@@ -18446,7 +18813,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="14.3" customHeight="1">
+    <row r="580" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A580" s="74" t="s">
         <v>651</v>
       </c>
@@ -18472,7 +18839,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="14.3" customHeight="1">
+    <row r="581" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A581" s="4" t="s">
         <v>651</v>
       </c>
@@ -18496,7 +18863,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="14.3" customHeight="1">
+    <row r="582" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A582" s="4" t="s">
         <v>651</v>
       </c>
@@ -18522,7 +18889,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="14.3" customHeight="1">
+    <row r="583" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A583" s="4" t="s">
         <v>651</v>
       </c>
@@ -18548,7 +18915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="14.3" customHeight="1">
+    <row r="584" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A584" s="4" t="s">
         <v>651</v>
       </c>
@@ -18574,7 +18941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="14.3" customHeight="1">
+    <row r="585" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A585" s="4" t="s">
         <v>651</v>
       </c>
@@ -18600,7 +18967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="14.3" customHeight="1">
+    <row r="586" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A586" s="4" t="s">
         <v>651</v>
       </c>
@@ -18626,7 +18993,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="14.3" customHeight="1">
+    <row r="587" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A587" s="4" t="s">
         <v>651</v>
       </c>
@@ -18652,7 +19019,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="14.3" customHeight="1">
+    <row r="588" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A588" s="4" t="s">
         <v>651</v>
       </c>
@@ -18678,7 +19045,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="14.3" customHeight="1">
+    <row r="589" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A589" s="4" t="s">
         <v>651</v>
       </c>
@@ -18704,7 +19071,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="14.3" customHeight="1">
+    <row r="590" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A590" s="4" t="s">
         <v>651</v>
       </c>
@@ -18730,7 +19097,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="14.3" customHeight="1">
+    <row r="591" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A591" s="4" t="s">
         <v>651</v>
       </c>
@@ -18756,7 +19123,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="14.3" customHeight="1">
+    <row r="592" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A592" s="4" t="s">
         <v>651</v>
       </c>
@@ -18782,7 +19149,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="14.3" customHeight="1">
+    <row r="593" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A593" s="4" t="s">
         <v>651</v>
       </c>
@@ -18808,7 +19175,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="14.3" customHeight="1">
+    <row r="594" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A594" s="4" t="s">
         <v>651</v>
       </c>
@@ -18834,7 +19201,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="14.3" customHeight="1">
+    <row r="595" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A595" s="4" t="s">
         <v>651</v>
       </c>
@@ -18860,7 +19227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="14.3" customHeight="1">
+    <row r="596" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A596" s="4" t="s">
         <v>651</v>
       </c>
@@ -18886,7 +19253,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="14.3" customHeight="1">
+    <row r="597" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A597" s="4" t="s">
         <v>651</v>
       </c>
@@ -18908,7 +19275,7 @@
       </c>
       <c r="H597" s="9"/>
     </row>
-    <row r="598" spans="1:8" ht="14.3" customHeight="1">
+    <row r="598" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A598" s="4" t="s">
         <v>700</v>
       </c>
@@ -18934,7 +19301,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="14.3" customHeight="1">
+    <row r="599" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A599" s="4" t="s">
         <v>700</v>
       </c>
@@ -18960,7 +19327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="14.3" customHeight="1">
+    <row r="600" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A600" s="4" t="s">
         <v>700</v>
       </c>
@@ -18986,7 +19353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="14.3" customHeight="1">
+    <row r="601" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A601" s="4" t="s">
         <v>700</v>
       </c>
@@ -19012,7 +19379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="14.3" customHeight="1">
+    <row r="602" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A602" s="4" t="s">
         <v>700</v>
       </c>
@@ -19038,7 +19405,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="14.3" customHeight="1">
+    <row r="603" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A603" s="4" t="s">
         <v>700</v>
       </c>
@@ -19064,7 +19431,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="14.3" customHeight="1">
+    <row r="604" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A604" s="4" t="s">
         <v>700</v>
       </c>
@@ -19090,7 +19457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="14.3" customHeight="1">
+    <row r="605" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A605" s="4" t="s">
         <v>700</v>
       </c>
@@ -19116,7 +19483,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="14.3" customHeight="1">
+    <row r="606" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A606" s="4" t="s">
         <v>700</v>
       </c>
@@ -19142,7 +19509,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="14.3" customHeight="1">
+    <row r="607" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A607" s="4" t="s">
         <v>700</v>
       </c>
@@ -19168,7 +19535,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="14.3" customHeight="1">
+    <row r="608" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A608" s="4" t="s">
         <v>700</v>
       </c>
@@ -19194,7 +19561,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="14.3" customHeight="1">
+    <row r="609" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A609" s="4" t="s">
         <v>700</v>
       </c>
@@ -19220,7 +19587,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="14.3" customHeight="1">
+    <row r="610" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A610" s="4" t="s">
         <v>700</v>
       </c>
@@ -19246,7 +19613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="14.3" customHeight="1">
+    <row r="611" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A611" s="4" t="s">
         <v>700</v>
       </c>
@@ -19272,7 +19639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="14.3" customHeight="1">
+    <row r="612" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A612" s="4" t="s">
         <v>700</v>
       </c>
@@ -19294,7 +19661,7 @@
       </c>
       <c r="H612" s="9"/>
     </row>
-    <row r="613" spans="1:8" ht="14.3" customHeight="1">
+    <row r="613" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A613" s="4" t="s">
         <v>700</v>
       </c>
@@ -19320,7 +19687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="14.3" customHeight="1">
+    <row r="614" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A614" s="4" t="s">
         <v>700</v>
       </c>
@@ -19346,7 +19713,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="14.3" customHeight="1">
+    <row r="615" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A615" s="4" t="s">
         <v>700</v>
       </c>
@@ -19372,7 +19739,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="14.3" customHeight="1">
+    <row r="616" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A616" s="4" t="s">
         <v>700</v>
       </c>
@@ -19398,7 +19765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="14.3" customHeight="1">
+    <row r="617" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A617" s="4" t="s">
         <v>700</v>
       </c>
@@ -19424,7 +19791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="14.3" customHeight="1">
+    <row r="618" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A618" s="4" t="s">
         <v>700</v>
       </c>
@@ -19448,7 +19815,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="14.3" customHeight="1">
+    <row r="619" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A619" s="4" t="s">
         <v>700</v>
       </c>
@@ -19474,7 +19841,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="14.3" customHeight="1">
+    <row r="620" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A620" s="4" t="s">
         <v>700</v>
       </c>
@@ -19500,7 +19867,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="14.3" customHeight="1">
+    <row r="621" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A621" s="4" t="s">
         <v>700</v>
       </c>
@@ -19526,7 +19893,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="14.3" customHeight="1">
+    <row r="622" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A622" s="4" t="s">
         <v>700</v>
       </c>
@@ -19552,7 +19919,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="14.3" customHeight="1">
+    <row r="623" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A623" s="4" t="s">
         <v>700</v>
       </c>
@@ -19578,7 +19945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="14.3" customHeight="1">
+    <row r="624" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A624" s="4" t="s">
         <v>700</v>
       </c>
@@ -19604,7 +19971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="14.3" customHeight="1">
+    <row r="625" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A625" s="4" t="s">
         <v>700</v>
       </c>
@@ -19630,7 +19997,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="14.3" customHeight="1">
+    <row r="626" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A626" s="4" t="s">
         <v>700</v>
       </c>
@@ -19656,7 +20023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="14.3" customHeight="1">
+    <row r="627" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A627" s="4" t="s">
         <v>700</v>
       </c>
@@ -19682,7 +20049,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="14.3" customHeight="1">
+    <row r="628" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A628" s="4" t="s">
         <v>700</v>
       </c>
@@ -19708,7 +20075,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="14.3" customHeight="1">
+    <row r="629" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A629" s="4" t="s">
         <v>700</v>
       </c>
@@ -19734,7 +20101,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="14.3" customHeight="1">
+    <row r="630" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A630" s="4" t="s">
         <v>700</v>
       </c>
@@ -19760,7 +20127,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="14.3" customHeight="1">
+    <row r="631" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A631" s="4" t="s">
         <v>700</v>
       </c>
@@ -19786,7 +20153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="14.3" customHeight="1">
+    <row r="632" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A632" s="4" t="s">
         <v>700</v>
       </c>
@@ -19812,7 +20179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="14.3" customHeight="1">
+    <row r="633" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A633" s="4" t="s">
         <v>700</v>
       </c>
@@ -19838,7 +20205,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="14.3" customHeight="1">
+    <row r="634" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A634" s="4" t="s">
         <v>700</v>
       </c>
@@ -19864,7 +20231,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="14.3" customHeight="1">
+    <row r="635" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A635" s="4" t="s">
         <v>700</v>
       </c>
@@ -19890,7 +20257,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="14.3" customHeight="1">
+    <row r="636" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A636" s="4" t="s">
         <v>700</v>
       </c>
@@ -19916,7 +20283,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="14.3" customHeight="1">
+    <row r="637" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A637" s="4" t="s">
         <v>700</v>
       </c>
@@ -19942,7 +20309,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="14.3" customHeight="1">
+    <row r="638" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A638" s="4" t="s">
         <v>700</v>
       </c>
@@ -19968,7 +20335,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="14.3" customHeight="1">
+    <row r="639" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A639" s="71" t="s">
         <v>700</v>
       </c>
@@ -19994,7 +20361,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="14.3" customHeight="1">
+    <row r="640" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A640" s="71" t="s">
         <v>700</v>
       </c>
@@ -20020,7 +20387,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="14.3" customHeight="1">
+    <row r="641" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A641" s="71" t="s">
         <v>700</v>
       </c>
@@ -20046,7 +20413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="14.3" customHeight="1">
+    <row r="642" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A642" s="71" t="s">
         <v>700</v>
       </c>
@@ -20072,7 +20439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="14.3" customHeight="1">
+    <row r="643" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A643" s="4" t="s">
         <v>700</v>
       </c>
@@ -20098,7 +20465,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="14.3" customHeight="1">
+    <row r="644" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A644" s="4" t="s">
         <v>700</v>
       </c>
@@ -20124,7 +20491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="14.3" customHeight="1">
+    <row r="645" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A645" s="4" t="s">
         <v>700</v>
       </c>
@@ -20150,7 +20517,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="14.3" customHeight="1">
+    <row r="646" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A646" s="4" t="s">
         <v>700</v>
       </c>
@@ -20176,7 +20543,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="14.3" customHeight="1">
+    <row r="647" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A647" s="4" t="s">
         <v>700</v>
       </c>
@@ -20202,7 +20569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="14.3" customHeight="1">
+    <row r="648" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A648" s="4" t="s">
         <v>700</v>
       </c>
@@ -20228,7 +20595,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="14.3" customHeight="1">
+    <row r="649" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A649" s="4" t="s">
         <v>700</v>
       </c>
@@ -20254,7 +20621,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="14.3" customHeight="1">
+    <row r="650" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A650" s="4" t="s">
         <v>700</v>
       </c>
@@ -20280,7 +20647,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="14.3" customHeight="1">
+    <row r="651" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A651" s="4" t="s">
         <v>700</v>
       </c>
@@ -20306,7 +20673,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="14.3" customHeight="1">
+    <row r="652" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A652" s="4" t="s">
         <v>700</v>
       </c>
@@ -20332,7 +20699,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="14.3" customHeight="1">
+    <row r="653" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A653" s="4" t="s">
         <v>700</v>
       </c>
@@ -20358,7 +20725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="14.3" customHeight="1">
+    <row r="654" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A654" s="4" t="s">
         <v>700</v>
       </c>
@@ -20384,7 +20751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="14.3" customHeight="1">
+    <row r="655" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A655" s="4" t="s">
         <v>700</v>
       </c>
@@ -20410,7 +20777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="14.3" customHeight="1">
+    <row r="656" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A656" s="4" t="s">
         <v>700</v>
       </c>
@@ -20436,7 +20803,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="14.3" customHeight="1">
+    <row r="657" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A657" s="4" t="s">
         <v>700</v>
       </c>
@@ -20462,7 +20829,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="14.3" customHeight="1">
+    <row r="658" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A658" s="4" t="s">
         <v>700</v>
       </c>
@@ -20488,7 +20855,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="14.3" customHeight="1">
+    <row r="659" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A659" s="4" t="s">
         <v>700</v>
       </c>
@@ -20514,7 +20881,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="14.3" customHeight="1">
+    <row r="660" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A660" s="4" t="s">
         <v>700</v>
       </c>
@@ -20540,7 +20907,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="14.3" customHeight="1">
+    <row r="661" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A661" s="4" t="s">
         <v>700</v>
       </c>
@@ -20566,7 +20933,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="14.3" customHeight="1">
+    <row r="662" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A662" s="4" t="s">
         <v>700</v>
       </c>
@@ -20592,7 +20959,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="14.3" customHeight="1">
+    <row r="663" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A663" s="4" t="s">
         <v>700</v>
       </c>
@@ -20618,7 +20985,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="14.3" customHeight="1">
+    <row r="664" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A664" s="4" t="s">
         <v>700</v>
       </c>
@@ -20644,7 +21011,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="14.3" customHeight="1">
+    <row r="665" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A665" s="4" t="s">
         <v>700</v>
       </c>
@@ -20670,7 +21037,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="14.3" customHeight="1">
+    <row r="666" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A666" s="4" t="s">
         <v>700</v>
       </c>
@@ -20696,7 +21063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="14.3" customHeight="1">
+    <row r="667" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A667" s="4" t="s">
         <v>700</v>
       </c>
@@ -20722,7 +21089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="14.3" customHeight="1">
+    <row r="668" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A668" s="4" t="s">
         <v>700</v>
       </c>
@@ -20744,7 +21111,7 @@
       </c>
       <c r="H668" s="9"/>
     </row>
-    <row r="669" spans="1:8" ht="14.3" customHeight="1">
+    <row r="669" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A669" s="4" t="s">
         <v>766</v>
       </c>
@@ -20770,7 +21137,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="14.3" customHeight="1">
+    <row r="670" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A670" s="4" t="s">
         <v>766</v>
       </c>
@@ -20796,7 +21163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="14.3" customHeight="1">
+    <row r="671" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A671" s="4" t="s">
         <v>766</v>
       </c>
@@ -20822,7 +21189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="14.3" customHeight="1">
+    <row r="672" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A672" s="4" t="s">
         <v>766</v>
       </c>
@@ -20848,7 +21215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="14.3" customHeight="1">
+    <row r="673" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A673" s="4" t="s">
         <v>766</v>
       </c>
@@ -20874,7 +21241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="14.3" customHeight="1">
+    <row r="674" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A674" s="4" t="s">
         <v>766</v>
       </c>
@@ -20900,7 +21267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="14.3" customHeight="1">
+    <row r="675" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A675" s="4" t="s">
         <v>766</v>
       </c>
@@ -20926,7 +21293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="14.3" customHeight="1">
+    <row r="676" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A676" s="4" t="s">
         <v>766</v>
       </c>
@@ -20952,7 +21319,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="14.3" customHeight="1">
+    <row r="677" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A677" s="4" t="s">
         <v>766</v>
       </c>
@@ -20978,7 +21345,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="14.3" customHeight="1">
+    <row r="678" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A678" s="4" t="s">
         <v>766</v>
       </c>
@@ -21004,7 +21371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="14.3" customHeight="1">
+    <row r="679" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A679" s="4" t="s">
         <v>766</v>
       </c>
@@ -21030,7 +21397,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="14.3" customHeight="1">
+    <row r="680" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A680" s="4" t="s">
         <v>766</v>
       </c>
@@ -21056,7 +21423,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="14.3" customHeight="1">
+    <row r="681" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A681" s="4" t="s">
         <v>766</v>
       </c>
@@ -21082,7 +21449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="14.3" customHeight="1">
+    <row r="682" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A682" s="4" t="s">
         <v>766</v>
       </c>
@@ -21108,7 +21475,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="14.3" customHeight="1">
+    <row r="683" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A683" s="4" t="s">
         <v>766</v>
       </c>
@@ -21134,7 +21501,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="14.3" customHeight="1">
+    <row r="684" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A684" s="4" t="s">
         <v>766</v>
       </c>
@@ -21160,7 +21527,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="14.3" customHeight="1">
+    <row r="685" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A685" s="4" t="s">
         <v>766</v>
       </c>
@@ -21186,7 +21553,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="14.3" customHeight="1">
+    <row r="686" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A686" s="4" t="s">
         <v>766</v>
       </c>
@@ -21212,7 +21579,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="14.3" customHeight="1">
+    <row r="687" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A687" s="4" t="s">
         <v>766</v>
       </c>
@@ -21238,7 +21605,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="14.3" customHeight="1">
+    <row r="688" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A688" s="4" t="s">
         <v>766</v>
       </c>
@@ -21264,7 +21631,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="14.3" customHeight="1">
+    <row r="689" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A689" s="4" t="s">
         <v>766</v>
       </c>
@@ -21290,7 +21657,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="14.3" customHeight="1">
+    <row r="690" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A690" s="4" t="s">
         <v>766</v>
       </c>
@@ -21316,7 +21683,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="14.3" customHeight="1">
+    <row r="691" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A691" s="4" t="s">
         <v>766</v>
       </c>
@@ -21342,7 +21709,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="14.3" customHeight="1">
+    <row r="692" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A692" s="4" t="s">
         <v>766</v>
       </c>
@@ -21368,7 +21735,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="14.3" customHeight="1">
+    <row r="693" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A693" s="4" t="s">
         <v>766</v>
       </c>
@@ -21394,7 +21761,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="14.3" customHeight="1">
+    <row r="694" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A694" s="4" t="s">
         <v>766</v>
       </c>
@@ -21418,7 +21785,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="14.3" customHeight="1">
+    <row r="695" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A695" s="4" t="s">
         <v>766</v>
       </c>
@@ -21444,7 +21811,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="14.3" customHeight="1">
+    <row r="696" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A696" s="4" t="s">
         <v>766</v>
       </c>
@@ -21470,7 +21837,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="14.3" customHeight="1">
+    <row r="697" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A697" s="4" t="s">
         <v>766</v>
       </c>
@@ -21496,7 +21863,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="14.3" customHeight="1">
+    <row r="698" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A698" s="4" t="s">
         <v>766</v>
       </c>
@@ -21522,7 +21889,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="14.3" customHeight="1">
+    <row r="699" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A699" s="4" t="s">
         <v>766</v>
       </c>
@@ -21548,7 +21915,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="14.3" customHeight="1">
+    <row r="700" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A700" s="4" t="s">
         <v>766</v>
       </c>
@@ -21574,7 +21941,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="14.3" customHeight="1">
+    <row r="701" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A701" s="4" t="s">
         <v>766</v>
       </c>
@@ -21600,7 +21967,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="14.3" customHeight="1">
+    <row r="702" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A702" s="71" t="s">
         <v>766</v>
       </c>
@@ -21626,7 +21993,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="14.3" customHeight="1">
+    <row r="703" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A703" s="71" t="s">
         <v>766</v>
       </c>
@@ -21652,7 +22019,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="14.3" customHeight="1">
+    <row r="704" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A704" s="4" t="s">
         <v>766</v>
       </c>
@@ -21678,7 +22045,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="14.3" customHeight="1">
+    <row r="705" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A705" s="4" t="s">
         <v>766</v>
       </c>
@@ -21704,7 +22071,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="14.3" customHeight="1">
+    <row r="706" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A706" s="4" t="s">
         <v>766</v>
       </c>
@@ -21730,14 +22097,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="707" spans="1:8" ht="14.3" customHeight="1">
+    <row r="707" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A707" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B707" s="80" t="s">
+      <c r="B707" s="92" t="s">
         <v>767</v>
       </c>
-      <c r="C707" s="81"/>
+      <c r="C707" s="93"/>
       <c r="D707" s="50" t="s">
         <v>806</v>
       </c>
@@ -21754,14 +22121,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="14.3" customHeight="1">
+    <row r="708" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A708" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B708" s="80" t="s">
+      <c r="B708" s="92" t="s">
         <v>767</v>
       </c>
-      <c r="C708" s="81"/>
+      <c r="C708" s="93"/>
       <c r="D708" s="50" t="s">
         <v>806</v>
       </c>
@@ -21778,7 +22145,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="14.3" customHeight="1">
+    <row r="709" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A709" s="4" t="s">
         <v>766</v>
       </c>
@@ -21804,7 +22171,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="14.3" customHeight="1">
+    <row r="710" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A710" s="4" t="s">
         <v>766</v>
       </c>
@@ -21830,7 +22197,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="14.3" customHeight="1">
+    <row r="711" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A711" s="4" t="s">
         <v>766</v>
       </c>
@@ -21856,7 +22223,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="14.3" customHeight="1">
+    <row r="712" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A712" s="4" t="s">
         <v>766</v>
       </c>
@@ -21882,7 +22249,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="14.3" customHeight="1">
+    <row r="713" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A713" s="4" t="s">
         <v>766</v>
       </c>
@@ -21908,7 +22275,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="14.3" customHeight="1">
+    <row r="714" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A714" s="4" t="s">
         <v>766</v>
       </c>
@@ -21934,7 +22301,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="14.3" customHeight="1">
+    <row r="715" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A715" s="4" t="s">
         <v>766</v>
       </c>
@@ -21960,7 +22327,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="14.3" customHeight="1">
+    <row r="716" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A716" s="4" t="s">
         <v>766</v>
       </c>
@@ -21986,7 +22353,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="14.3" customHeight="1">
+    <row r="717" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A717" s="4" t="s">
         <v>766</v>
       </c>
@@ -22012,7 +22379,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="14.3" customHeight="1">
+    <row r="718" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A718" s="4" t="s">
         <v>766</v>
       </c>
@@ -22038,7 +22405,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="14.3" customHeight="1">
+    <row r="719" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A719" s="4" t="s">
         <v>766</v>
       </c>
@@ -22064,7 +22431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="720" spans="1:8" ht="14.3" customHeight="1">
+    <row r="720" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A720" s="4" t="s">
         <v>766</v>
       </c>
@@ -22086,7 +22453,7 @@
       </c>
       <c r="H720" s="9"/>
     </row>
-    <row r="721" spans="1:8" ht="14.3" customHeight="1">
+    <row r="721" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A721" s="4" t="s">
         <v>821</v>
       </c>
@@ -22112,7 +22479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="14.3" customHeight="1">
+    <row r="722" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A722" s="4" t="s">
         <v>821</v>
       </c>
@@ -22138,7 +22505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="14.3" customHeight="1">
+    <row r="723" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A723" s="4" t="s">
         <v>821</v>
       </c>
@@ -22164,7 +22531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="14.3" customHeight="1">
+    <row r="724" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A724" s="4" t="s">
         <v>821</v>
       </c>
@@ -22190,7 +22557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="14.3" customHeight="1">
+    <row r="725" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A725" s="4" t="s">
         <v>821</v>
       </c>
@@ -22216,7 +22583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="14.3" customHeight="1">
+    <row r="726" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A726" s="4" t="s">
         <v>821</v>
       </c>
@@ -22242,7 +22609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="14.3" customHeight="1">
+    <row r="727" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A727" s="4" t="s">
         <v>821</v>
       </c>
@@ -22268,7 +22635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="14.3" customHeight="1">
+    <row r="728" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A728" s="4" t="s">
         <v>821</v>
       </c>
@@ -22294,7 +22661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="14.3" customHeight="1">
+    <row r="729" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A729" s="4" t="s">
         <v>821</v>
       </c>
@@ -22316,7 +22683,7 @@
       </c>
       <c r="H729" s="9"/>
     </row>
-    <row r="730" spans="1:8" ht="14.3" customHeight="1">
+    <row r="730" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A730" s="4" t="s">
         <v>821</v>
       </c>
@@ -22342,7 +22709,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="14.3" customHeight="1">
+    <row r="731" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A731" s="4" t="s">
         <v>821</v>
       </c>
@@ -22368,7 +22735,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="14.3" customHeight="1">
+    <row r="732" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A732" s="4" t="s">
         <v>821</v>
       </c>
@@ -22394,7 +22761,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="14.3" customHeight="1">
+    <row r="733" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A733" s="4" t="s">
         <v>821</v>
       </c>
@@ -22420,7 +22787,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="14.3" customHeight="1">
+    <row r="734" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A734" s="4" t="s">
         <v>821</v>
       </c>
@@ -22446,7 +22813,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="14.3" customHeight="1">
+    <row r="735" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A735" s="4" t="s">
         <v>821</v>
       </c>
@@ -22472,7 +22839,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="736" spans="1:8" ht="14.3" customHeight="1">
+    <row r="736" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A736" s="4" t="s">
         <v>821</v>
       </c>
@@ -22498,7 +22865,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="737" spans="1:8" ht="14.3" customHeight="1">
+    <row r="737" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A737" s="4" t="s">
         <v>821</v>
       </c>
@@ -22524,7 +22891,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="738" spans="1:8" ht="14.3" customHeight="1">
+    <row r="738" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A738" s="4" t="s">
         <v>821</v>
       </c>
@@ -22550,7 +22917,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="739" spans="1:8" ht="14.3" customHeight="1">
+    <row r="739" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A739" s="4" t="s">
         <v>821</v>
       </c>
@@ -22576,7 +22943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="740" spans="1:8" ht="14.3" customHeight="1">
+    <row r="740" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A740" s="4" t="s">
         <v>821</v>
       </c>
@@ -22602,7 +22969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="741" spans="1:8" ht="14.3" customHeight="1">
+    <row r="741" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A741" s="4" t="s">
         <v>821</v>
       </c>
@@ -22628,7 +22995,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="742" spans="1:8" ht="14.3" customHeight="1">
+    <row r="742" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A742" s="4" t="s">
         <v>821</v>
       </c>
@@ -22654,7 +23021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="743" spans="1:8" ht="14.3" customHeight="1">
+    <row r="743" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A743" s="4" t="s">
         <v>821</v>
       </c>
@@ -22680,7 +23047,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="744" spans="1:8" ht="14.3" customHeight="1">
+    <row r="744" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A744" s="4" t="s">
         <v>821</v>
       </c>
@@ -22706,7 +23073,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="745" spans="1:8" ht="14.3" customHeight="1">
+    <row r="745" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A745" s="4" t="s">
         <v>821</v>
       </c>
@@ -22732,7 +23099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="746" spans="1:8" ht="14.3" customHeight="1">
+    <row r="746" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A746" s="4" t="s">
         <v>821</v>
       </c>
@@ -22758,7 +23125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="747" spans="1:8" ht="14.3" customHeight="1">
+    <row r="747" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A747" s="4" t="s">
         <v>821</v>
       </c>
@@ -22784,7 +23151,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="748" spans="1:8" ht="14.3" customHeight="1">
+    <row r="748" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A748" s="4" t="s">
         <v>821</v>
       </c>
@@ -22810,7 +23177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="749" spans="1:8" ht="14.3" customHeight="1">
+    <row r="749" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A749" s="4" t="s">
         <v>821</v>
       </c>
@@ -22836,7 +23203,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="750" spans="1:8" ht="14.3" customHeight="1">
+    <row r="750" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A750" s="4" t="s">
         <v>821</v>
       </c>
@@ -22862,7 +23229,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="751" spans="1:8" ht="14.3" customHeight="1">
+    <row r="751" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A751" s="4" t="s">
         <v>821</v>
       </c>
@@ -22888,7 +23255,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="752" spans="1:8" ht="14.3" customHeight="1">
+    <row r="752" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A752" s="4" t="s">
         <v>821</v>
       </c>
@@ -22914,7 +23281,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="753" spans="1:8" ht="14.3" customHeight="1">
+    <row r="753" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A753" s="4" t="s">
         <v>821</v>
       </c>
@@ -22940,7 +23307,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="754" spans="1:8" ht="14.3" customHeight="1">
+    <row r="754" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A754" s="4" t="s">
         <v>821</v>
       </c>
@@ -22964,7 +23331,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="755" spans="1:8" ht="14.3" customHeight="1">
+    <row r="755" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A755" s="4" t="s">
         <v>821</v>
       </c>
@@ -22990,7 +23357,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="756" spans="1:8" ht="14.3" customHeight="1">
+    <row r="756" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A756" s="4" t="s">
         <v>821</v>
       </c>
@@ -23016,7 +23383,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="757" spans="1:8" ht="14.3" customHeight="1">
+    <row r="757" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A757" s="4" t="s">
         <v>821</v>
       </c>
@@ -23042,7 +23409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="758" spans="1:8" ht="14.3" customHeight="1">
+    <row r="758" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A758" s="4" t="s">
         <v>821</v>
       </c>
@@ -23068,7 +23435,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="759" spans="1:8" ht="14.3" customHeight="1">
+    <row r="759" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A759" s="4" t="s">
         <v>821</v>
       </c>
@@ -23094,7 +23461,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="760" spans="1:8" ht="14.3" customHeight="1">
+    <row r="760" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A760" s="4" t="s">
         <v>821</v>
       </c>
@@ -23120,7 +23487,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="761" spans="1:8" ht="14.3" customHeight="1">
+    <row r="761" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A761" s="4" t="s">
         <v>821</v>
       </c>
@@ -23146,7 +23513,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="762" spans="1:8" ht="14.3" customHeight="1">
+    <row r="762" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A762" s="4" t="s">
         <v>821</v>
       </c>
@@ -23172,7 +23539,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="763" spans="1:8" ht="14.3" customHeight="1">
+    <row r="763" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A763" s="4" t="s">
         <v>821</v>
       </c>
@@ -23198,7 +23565,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="764" spans="1:8" ht="14.3" customHeight="1">
+    <row r="764" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A764" s="4" t="s">
         <v>821</v>
       </c>
@@ -23224,7 +23591,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="765" spans="1:8" ht="14.3" customHeight="1">
+    <row r="765" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A765" s="74" t="s">
         <v>821</v>
       </c>
@@ -23250,7 +23617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="766" spans="1:8" ht="14.3" customHeight="1">
+    <row r="766" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A766" s="74" t="s">
         <v>821</v>
       </c>
@@ -23276,7 +23643,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="767" spans="1:8" ht="14.3" customHeight="1">
+    <row r="767" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A767" s="74" t="s">
         <v>821</v>
       </c>
@@ -23302,7 +23669,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="768" spans="1:8" ht="14.3" customHeight="1">
+    <row r="768" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A768" s="74" t="s">
         <v>821</v>
       </c>
@@ -23328,7 +23695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="769" spans="1:8" ht="14.3" customHeight="1">
+    <row r="769" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A769" s="74" t="s">
         <v>821</v>
       </c>
@@ -23354,7 +23721,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="770" spans="1:8" ht="14.3" customHeight="1">
+    <row r="770" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A770" s="74" t="s">
         <v>821</v>
       </c>
@@ -23380,7 +23747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="771" spans="1:8" ht="14.3" customHeight="1">
+    <row r="771" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A771" s="74" t="s">
         <v>821</v>
       </c>
@@ -23406,7 +23773,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="772" spans="1:8" ht="14.3" customHeight="1">
+    <row r="772" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A772" s="74" t="s">
         <v>821</v>
       </c>
@@ -23432,7 +23799,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="773" spans="1:8" ht="14.3" customHeight="1">
+    <row r="773" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A773" s="4" t="s">
         <v>821</v>
       </c>
@@ -23458,7 +23825,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="774" spans="1:8" ht="14.3" customHeight="1">
+    <row r="774" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A774" s="4" t="s">
         <v>821</v>
       </c>
@@ -23484,7 +23851,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="775" spans="1:8" ht="14.3" customHeight="1">
+    <row r="775" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A775" s="4" t="s">
         <v>821</v>
       </c>
@@ -23510,7 +23877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="776" spans="1:8" ht="14.3" customHeight="1">
+    <row r="776" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A776" s="4" t="s">
         <v>821</v>
       </c>
@@ -23536,7 +23903,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="777" spans="1:8" ht="14.3" customHeight="1">
+    <row r="777" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A777" s="4" t="s">
         <v>821</v>
       </c>
@@ -23562,7 +23929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="778" spans="1:8" ht="14.3" customHeight="1">
+    <row r="778" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A778" s="4" t="s">
         <v>821</v>
       </c>
@@ -23588,7 +23955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="779" spans="1:8" ht="14.3" customHeight="1">
+    <row r="779" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A779" s="4" t="s">
         <v>821</v>
       </c>
@@ -23614,7 +23981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="780" spans="1:8" ht="14.3" customHeight="1">
+    <row r="780" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A780" s="4" t="s">
         <v>821</v>
       </c>
@@ -23624,10 +23991,10 @@
       <c r="C780" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="D780" s="80" t="s">
+      <c r="D780" s="92" t="s">
         <v>882</v>
       </c>
-      <c r="E780" s="81"/>
+      <c r="E780" s="93"/>
       <c r="F780" s="52">
         <v>0.47222222222222221</v>
       </c>
@@ -23638,7 +24005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="781" spans="1:8" ht="14.3" customHeight="1">
+    <row r="781" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A781" s="4" t="s">
         <v>821</v>
       </c>
@@ -23664,7 +24031,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="782" spans="1:8" ht="14.3" customHeight="1">
+    <row r="782" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A782" s="4" t="s">
         <v>821</v>
       </c>
@@ -23674,10 +24041,10 @@
       <c r="C782" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="D782" s="80" t="s">
+      <c r="D782" s="92" t="s">
         <v>884</v>
       </c>
-      <c r="E782" s="81"/>
+      <c r="E782" s="93"/>
       <c r="F782" s="53">
         <v>17.290972222222223</v>
       </c>
@@ -23688,7 +24055,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="783" spans="1:8" ht="14.3" customHeight="1">
+    <row r="783" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A783" s="4" t="s">
         <v>821</v>
       </c>
@@ -23698,10 +24065,10 @@
       <c r="C783" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="D783" s="80" t="s">
+      <c r="D783" s="92" t="s">
         <v>884</v>
       </c>
-      <c r="E783" s="81"/>
+      <c r="E783" s="93"/>
       <c r="F783" s="53">
         <v>4.4437499999999996</v>
       </c>
@@ -23712,7 +24079,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="784" spans="1:8" ht="14.3" customHeight="1">
+    <row r="784" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A784" s="4" t="s">
         <v>821</v>
       </c>
@@ -23736,7 +24103,7 @@
       </c>
       <c r="H784" s="9"/>
     </row>
-    <row r="785" spans="1:8" ht="14.3" customHeight="1">
+    <row r="785" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A785" s="4" t="s">
         <v>821</v>
       </c>
@@ -23760,7 +24127,7 @@
       </c>
       <c r="H785" s="9"/>
     </row>
-    <row r="786" spans="1:8" ht="14.3" customHeight="1">
+    <row r="786" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A786" s="4" t="s">
         <v>821</v>
       </c>
@@ -23784,7 +24151,7 @@
       </c>
       <c r="H786" s="9"/>
     </row>
-    <row r="787" spans="1:8" ht="14.3" customHeight="1">
+    <row r="787" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A787" s="4" t="s">
         <v>821</v>
       </c>
@@ -23808,7 +24175,7 @@
       </c>
       <c r="H787" s="9"/>
     </row>
-    <row r="788" spans="1:8" ht="14.3" customHeight="1">
+    <row r="788" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A788" s="4" t="s">
         <v>821</v>
       </c>
@@ -24739,19 +25106,30 @@
       <c r="E1015" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H788"/>
+  <autoFilter ref="A1:H788" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="El Salvador"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Ingresos"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="11">
-    <mergeCell ref="G573:H573"/>
-    <mergeCell ref="G574:H574"/>
-    <mergeCell ref="B707:C707"/>
-    <mergeCell ref="B708:C708"/>
-    <mergeCell ref="D780:E780"/>
     <mergeCell ref="D782:E782"/>
     <mergeCell ref="D783:E783"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="D57:F57"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G573:H573"/>
+    <mergeCell ref="G574:H574"/>
+    <mergeCell ref="B707:C707"/>
+    <mergeCell ref="B708:C708"/>
+    <mergeCell ref="D780:E780"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -24759,7 +25137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -26156,4 +26534,779 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E39F68A-D908-4889-A868-9822F377BC18}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="95"/>
+    <col min="3" max="3" width="14.109375" style="95" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="95" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" style="95" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="95" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="95" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="95"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="94" t="s">
+        <v>923</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>957</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>958</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>959</v>
+      </c>
+      <c r="E1" s="94" t="s">
+        <v>960</v>
+      </c>
+      <c r="F1" s="94" t="s">
+        <v>961</v>
+      </c>
+      <c r="G1" s="94" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="95" t="s">
+        <v>931</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>963</v>
+      </c>
+      <c r="C2" s="95">
+        <v>164</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>964</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="95" t="s">
+        <v>931</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>966</v>
+      </c>
+      <c r="C3" s="95">
+        <v>230</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>967</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="95" t="s">
+        <v>495</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>968</v>
+      </c>
+      <c r="C4" s="95">
+        <v>17</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>969</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>970</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="95" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>971</v>
+      </c>
+      <c r="C5" s="95">
+        <v>21</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>972</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="95" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>974</v>
+      </c>
+      <c r="C6" s="95">
+        <v>609</v>
+      </c>
+      <c r="D6" s="95" t="s">
+        <v>975</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>764</v>
+      </c>
+      <c r="C7" s="95">
+        <v>594</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>977</v>
+      </c>
+      <c r="F7" s="95" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>978</v>
+      </c>
+      <c r="C8" s="95">
+        <v>292</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>979</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>980</v>
+      </c>
+      <c r="G8" s="95" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="95" t="s">
+        <v>651</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>981</v>
+      </c>
+      <c r="C9" s="95">
+        <v>423</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>982</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>983</v>
+      </c>
+      <c r="F9" s="95" t="s">
+        <v>890</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="95" t="s">
+        <v>651</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>984</v>
+      </c>
+      <c r="C10" s="95">
+        <v>436</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>985</v>
+      </c>
+      <c r="E10" s="95" t="s">
+        <v>986</v>
+      </c>
+      <c r="F10" s="95" t="s">
+        <v>890</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="95" t="s">
+        <v>766</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>987</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>988</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>989</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="95" t="s">
+        <v>766</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>991</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>494</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>993</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>994</v>
+      </c>
+      <c r="G13" s="95" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="40.75" customHeight="1">
+      <c r="A14" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>996</v>
+      </c>
+      <c r="E14" s="99" t="s">
+        <v>997</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>890</v>
+      </c>
+      <c r="G14" s="95" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="95">
+        <v>45</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>998</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>890</v>
+      </c>
+      <c r="G15" s="95" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>999</v>
+      </c>
+      <c r="D16" s="95" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="95" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F16" s="100" t="s">
+        <v>890</v>
+      </c>
+      <c r="G16" s="101" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.55">
+      <c r="A17" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E17" s="102" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F17" s="100" t="s">
+        <v>890</v>
+      </c>
+      <c r="G17" s="95" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="E18" s="95" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F18" s="100" t="s">
+        <v>890</v>
+      </c>
+      <c r="G18" s="100" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>429</v>
+      </c>
+      <c r="E19" s="95" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F19" s="100" t="s">
+        <v>890</v>
+      </c>
+      <c r="G19" s="103" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>430</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>431</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F20" s="100" t="s">
+        <v>890</v>
+      </c>
+      <c r="G20" s="103" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>432</v>
+      </c>
+      <c r="D21" s="95" t="s">
+        <v>433</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F21" s="100" t="s">
+        <v>890</v>
+      </c>
+      <c r="G21" s="103" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="103" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>890</v>
+      </c>
+      <c r="G22" s="103" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="95" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B23" s="104" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E23" s="95" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F23" s="100" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G23" s="103" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="95" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B24" s="105" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F24" s="100" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G24" s="103" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.3" customHeight="1">
+      <c r="A25" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B25" s="105" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C25" s="95">
+        <v>19</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E25" s="99" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F25" s="106" t="s">
+        <v>890</v>
+      </c>
+      <c r="G25" s="107" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>375</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>376</v>
+      </c>
+      <c r="F26" s="106" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" s="95" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E27" s="95" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F27" s="106" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E28" s="95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G28" s="107" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="95" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E29" s="95" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F29" s="106" t="s">
+        <v>890</v>
+      </c>
+      <c r="G29" s="107" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G29" xr:uid="{0FD2A620-0249-4C36-8836-0C5F47CB3F2A}"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" display="http://anda.ine.gob.bo/index.php/catalog/84/variable/F10/V730?name=s06c_25a" xr:uid="{BD2710F3-E8E3-4BDE-8731-51ECAF4CB6AA}"/>
+    <hyperlink ref="C16" r:id="rId2" xr:uid="{C0678378-E3A9-4EE6-82ED-5CB2D2C55E84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805967D9-A16C-4BAC-B7E7-6A55F3D3D74A}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.6"/>
+  <cols>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.95" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.6" customHeight="1" thickTop="1">
+      <c r="A2" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A3" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A4" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A5" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A6" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A7" s="80" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A8" s="80" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A9" s="80" t="s">
+        <v>495</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A10" s="80" t="s">
+        <v>583</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A11" s="80" t="s">
+        <v>651</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A12" s="80" t="s">
+        <v>700</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A13" s="95" t="s">
+        <v>931</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A14" s="81" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A15" s="80" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>890</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.6" customHeight="1">
+      <c r="A16" s="80" t="s">
+        <v>766</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="17" ht="13.6" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Guido\Trabajo\Economia\Tematicas de Investigacion\Precariedad Mundial\precariedad.mundial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D88985F-C126-4840-AE8C-C71DA067723F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B5D36C-7165-4980-94E5-FB47A344CC5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10067" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3209,11 +3209,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3224,50 +3226,60 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3292,6 +3304,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -3651,8 +3664,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="2" applyFont="1"/>
@@ -3679,6 +3690,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="2" xr:uid="{4F722B9A-536A-46D8-AFD0-3E32E4A5CDA5}"/>
@@ -3901,7 +3914,7 @@
   <dimension ref="A1:J1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D792" sqref="D792"/>
+      <selection activeCell="B307" sqref="B307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.95" customHeight="1"/>
@@ -5360,11 +5373,11 @@
       <c r="C56" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="92" t="s">
+      <c r="D56" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
       <c r="G56" s="4" t="s">
         <v>27</v>
       </c>
@@ -5382,11 +5395,11 @@
       <c r="C57" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="92" t="s">
+      <c r="D57" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="93"/>
-      <c r="F57" s="93"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="109"/>
       <c r="G57" s="4" t="s">
         <v>27</v>
       </c>
@@ -5404,11 +5417,11 @@
       <c r="C58" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="92" t="s">
+      <c r="D58" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
       <c r="G58" s="4" t="s">
         <v>27</v>
       </c>
@@ -5426,11 +5439,11 @@
       <c r="C59" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="92" t="s">
+      <c r="D59" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
       <c r="G59" s="4" t="s">
         <v>27</v>
       </c>
@@ -6976,7 +6989,7 @@
       </c>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="120" spans="1:8" ht="14.3" customHeight="1">
       <c r="A120" s="7" t="s">
         <v>108</v>
       </c>
@@ -7000,7 +7013,7 @@
       </c>
       <c r="H120" s="9"/>
     </row>
-    <row r="121" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="121" spans="1:8" ht="14.3" customHeight="1">
       <c r="A121" s="7" t="s">
         <v>108</v>
       </c>
@@ -8396,7 +8409,7 @@
       </c>
       <c r="H175" s="9"/>
     </row>
-    <row r="176" spans="1:10" ht="13.6" hidden="1" customHeight="1">
+    <row r="176" spans="1:10" ht="13.6" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>188</v>
       </c>
@@ -8420,7 +8433,7 @@
       </c>
       <c r="H176" s="9"/>
     </row>
-    <row r="177" spans="1:8" ht="13.6" hidden="1" customHeight="1">
+    <row r="177" spans="1:8" ht="13.6" customHeight="1">
       <c r="A177" s="4" t="s">
         <v>188</v>
       </c>
@@ -8444,7 +8457,7 @@
       </c>
       <c r="H177" s="9"/>
     </row>
-    <row r="178" spans="1:8" ht="13.6" hidden="1" customHeight="1">
+    <row r="178" spans="1:8" ht="13.6" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>188</v>
       </c>
@@ -8468,7 +8481,7 @@
       </c>
       <c r="H178" s="9"/>
     </row>
-    <row r="179" spans="1:8" ht="13.6" hidden="1" customHeight="1">
+    <row r="179" spans="1:8" ht="13.6" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>188</v>
       </c>
@@ -8492,7 +8505,7 @@
       </c>
       <c r="H179" s="9"/>
     </row>
-    <row r="180" spans="1:8" ht="13.6" hidden="1" customHeight="1">
+    <row r="180" spans="1:8" ht="13.6" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>188</v>
       </c>
@@ -9906,7 +9919,7 @@
       </c>
       <c r="H234" s="9"/>
     </row>
-    <row r="235" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="235" spans="1:8" ht="14.3" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>257</v>
       </c>
@@ -11779,7 +11792,7 @@
       <c r="B307" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C307" s="109" t="s">
+      <c r="C307" s="107" t="s">
         <v>379</v>
       </c>
       <c r="D307" s="4" t="s">
@@ -13050,7 +13063,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="357" spans="1:8" ht="14.3" customHeight="1">
       <c r="A357" s="4" t="s">
         <v>387</v>
       </c>
@@ -13072,7 +13085,7 @@
       </c>
       <c r="H357" s="9"/>
     </row>
-    <row r="358" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="358" spans="1:8" ht="14.3" customHeight="1">
       <c r="A358" s="4" t="s">
         <v>387</v>
       </c>
@@ -13094,7 +13107,7 @@
       </c>
       <c r="H358" s="9"/>
     </row>
-    <row r="359" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="359" spans="1:8" ht="14.3" customHeight="1">
       <c r="A359" s="4" t="s">
         <v>387</v>
       </c>
@@ -13116,7 +13129,7 @@
       </c>
       <c r="H359" s="9"/>
     </row>
-    <row r="360" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="360" spans="1:8" ht="14.3" customHeight="1">
       <c r="A360" s="4" t="s">
         <v>387</v>
       </c>
@@ -14484,7 +14497,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="413" spans="1:8" ht="14.3" customHeight="1">
       <c r="A413" s="4" t="s">
         <v>434</v>
       </c>
@@ -18073,7 +18086,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="551" spans="1:8" ht="14.3" customHeight="1">
       <c r="A551" s="4" t="s">
         <v>583</v>
       </c>
@@ -18656,10 +18669,10 @@
       <c r="F573" s="41" t="s">
         <v>669</v>
       </c>
-      <c r="G573" s="92" t="s">
+      <c r="G573" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="H573" s="93"/>
+      <c r="H573" s="109"/>
     </row>
     <row r="574" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A574" s="4" t="s">
@@ -18680,10 +18693,10 @@
       <c r="F574" s="41" t="s">
         <v>671</v>
       </c>
-      <c r="G574" s="92" t="s">
+      <c r="G574" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="H574" s="93"/>
+      <c r="H574" s="109"/>
     </row>
     <row r="575" spans="1:8" ht="14.3" hidden="1" customHeight="1">
       <c r="A575" s="4" t="s">
@@ -19253,7 +19266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="597" spans="1:8" ht="14.3" customHeight="1">
       <c r="A597" s="4" t="s">
         <v>651</v>
       </c>
@@ -21089,7 +21102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="668" spans="1:8" ht="14.3" customHeight="1">
       <c r="A668" s="4" t="s">
         <v>700</v>
       </c>
@@ -22101,10 +22114,10 @@
       <c r="A707" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B707" s="92" t="s">
+      <c r="B707" s="108" t="s">
         <v>767</v>
       </c>
-      <c r="C707" s="93"/>
+      <c r="C707" s="109"/>
       <c r="D707" s="50" t="s">
         <v>806</v>
       </c>
@@ -22125,10 +22138,10 @@
       <c r="A708" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B708" s="92" t="s">
+      <c r="B708" s="108" t="s">
         <v>767</v>
       </c>
-      <c r="C708" s="93"/>
+      <c r="C708" s="109"/>
       <c r="D708" s="50" t="s">
         <v>806</v>
       </c>
@@ -22431,7 +22444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="720" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="720" spans="1:8" ht="14.3" customHeight="1">
       <c r="A720" s="4" t="s">
         <v>766</v>
       </c>
@@ -23991,10 +24004,10 @@
       <c r="C780" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="D780" s="92" t="s">
+      <c r="D780" s="108" t="s">
         <v>882</v>
       </c>
-      <c r="E780" s="93"/>
+      <c r="E780" s="109"/>
       <c r="F780" s="52">
         <v>0.47222222222222221</v>
       </c>
@@ -24041,10 +24054,10 @@
       <c r="C782" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="D782" s="92" t="s">
+      <c r="D782" s="108" t="s">
         <v>884</v>
       </c>
-      <c r="E782" s="93"/>
+      <c r="E782" s="109"/>
       <c r="F782" s="53">
         <v>17.290972222222223</v>
       </c>
@@ -24065,10 +24078,10 @@
       <c r="C783" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="D783" s="92" t="s">
+      <c r="D783" s="108" t="s">
         <v>884</v>
       </c>
-      <c r="E783" s="93"/>
+      <c r="E783" s="109"/>
       <c r="F783" s="53">
         <v>4.4437499999999996</v>
       </c>
@@ -24079,7 +24092,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="784" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="784" spans="1:8" ht="14.3" customHeight="1">
       <c r="A784" s="4" t="s">
         <v>821</v>
       </c>
@@ -24103,7 +24116,7 @@
       </c>
       <c r="H784" s="9"/>
     </row>
-    <row r="785" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="785" spans="1:8" ht="14.3" customHeight="1">
       <c r="A785" s="4" t="s">
         <v>821</v>
       </c>
@@ -24127,7 +24140,7 @@
       </c>
       <c r="H785" s="9"/>
     </row>
-    <row r="786" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="786" spans="1:8" ht="14.3" customHeight="1">
       <c r="A786" s="4" t="s">
         <v>821</v>
       </c>
@@ -24151,7 +24164,7 @@
       </c>
       <c r="H786" s="9"/>
     </row>
-    <row r="787" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="787" spans="1:8" ht="14.3" customHeight="1">
       <c r="A787" s="4" t="s">
         <v>821</v>
       </c>
@@ -24175,7 +24188,7 @@
       </c>
       <c r="H787" s="9"/>
     </row>
-    <row r="788" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="788" spans="1:8" ht="14.3" customHeight="1">
       <c r="A788" s="4" t="s">
         <v>821</v>
       </c>
@@ -25107,11 +25120,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H788" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="El Salvador"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="Ingresos"/>
@@ -25119,17 +25127,17 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="G573:H573"/>
+    <mergeCell ref="G574:H574"/>
+    <mergeCell ref="B707:C707"/>
+    <mergeCell ref="B708:C708"/>
+    <mergeCell ref="D780:E780"/>
     <mergeCell ref="D782:E782"/>
     <mergeCell ref="D783:E783"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="D57:F57"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G573:H573"/>
-    <mergeCell ref="G574:H574"/>
-    <mergeCell ref="B707:C707"/>
-    <mergeCell ref="B708:C708"/>
-    <mergeCell ref="D780:E780"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -26544,565 +26552,565 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="95"/>
-    <col min="3" max="3" width="14.109375" style="95" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="95" customWidth="1"/>
-    <col min="5" max="5" width="70.33203125" style="95" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="95" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="95" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="95"/>
+    <col min="1" max="2" width="11.5546875" style="93"/>
+    <col min="3" max="3" width="14.109375" style="93" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="93" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" style="93" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="93" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="93" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="92" t="s">
         <v>923</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="92" t="s">
         <v>957</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="92" t="s">
         <v>958</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="92" t="s">
         <v>959</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="92" t="s">
         <v>960</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="92" t="s">
         <v>961</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="92" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>931</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="93" t="s">
         <v>963</v>
       </c>
-      <c r="C2" s="95">
+      <c r="C2" s="93">
         <v>164</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="93" t="s">
         <v>964</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="93" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="93" t="s">
         <v>931</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="93" t="s">
         <v>966</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="93">
         <v>230</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="93" t="s">
         <v>967</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="93" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="93" t="s">
         <v>495</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="93" t="s">
         <v>968</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="93">
         <v>17</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="93" t="s">
         <v>969</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="93" t="s">
         <v>970</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="93" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="93" t="s">
         <v>495</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="93" t="s">
         <v>971</v>
       </c>
-      <c r="C5" s="95">
+      <c r="C5" s="93">
         <v>21</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="93" t="s">
         <v>972</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="93" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="93" t="s">
         <v>583</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="93" t="s">
         <v>974</v>
       </c>
-      <c r="C6" s="95">
+      <c r="C6" s="93">
         <v>609</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="93" t="s">
         <v>975</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="93" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="93" t="s">
         <v>700</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="93" t="s">
         <v>764</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="93">
         <v>594</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="93" t="s">
         <v>977</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="93" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="93" t="s">
         <v>700</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="93" t="s">
         <v>978</v>
       </c>
-      <c r="C8" s="95">
+      <c r="C8" s="93">
         <v>292</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="93" t="s">
         <v>979</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="93" t="s">
         <v>980</v>
       </c>
-      <c r="G8" s="95" t="s">
+      <c r="G8" s="93" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="93" t="s">
         <v>651</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="93" t="s">
         <v>981</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="93">
         <v>423</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="93" t="s">
         <v>982</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="93" t="s">
         <v>983</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="93" t="s">
         <v>890</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="93" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="93" t="s">
         <v>651</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="93" t="s">
         <v>984</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="93">
         <v>436</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="93" t="s">
         <v>985</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="93" t="s">
         <v>986</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="93" t="s">
         <v>890</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="93" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="93" t="s">
         <v>766</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="94" t="s">
         <v>987</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="93" t="s">
         <v>988</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="93" t="s">
         <v>989</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="95" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="93" t="s">
         <v>766</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="96" t="s">
         <v>991</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="93" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="93" t="s">
         <v>434</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="93" t="s">
         <v>493</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="93" t="s">
         <v>494</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="93" t="s">
         <v>993</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="93" t="s">
         <v>994</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="93" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.75" customHeight="1">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="97" t="s">
         <v>996</v>
       </c>
-      <c r="E14" s="99" t="s">
+      <c r="E14" s="97" t="s">
         <v>997</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="98" t="s">
         <v>890</v>
       </c>
-      <c r="G14" s="95" t="s">
+      <c r="G14" s="93" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="95">
+      <c r="C15" s="93">
         <v>45</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="93" t="s">
         <v>998</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="98" t="s">
         <v>890</v>
       </c>
-      <c r="G15" s="95" t="s">
+      <c r="G15" s="93" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="99" t="s">
         <v>999</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="93" t="s">
         <v>1000</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="93" t="s">
         <v>1001</v>
       </c>
-      <c r="F16" s="100" t="s">
+      <c r="F16" s="98" t="s">
         <v>890</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="99" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.55">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="100" t="s">
         <v>1002</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="100" t="s">
         <v>1003</v>
       </c>
-      <c r="F17" s="100" t="s">
+      <c r="F17" s="98" t="s">
         <v>890</v>
       </c>
-      <c r="G17" s="95" t="s">
+      <c r="G17" s="93" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="96" t="s">
         <v>426</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="93" t="s">
         <v>427</v>
       </c>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="93" t="s">
         <v>1005</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="98" t="s">
         <v>890</v>
       </c>
-      <c r="G18" s="100" t="s">
+      <c r="G18" s="98" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="96" t="s">
         <v>428</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="93" t="s">
         <v>429</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="93" t="s">
         <v>1006</v>
       </c>
-      <c r="F19" s="100" t="s">
+      <c r="F19" s="98" t="s">
         <v>890</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="101" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="96" t="s">
         <v>430</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="93" t="s">
         <v>431</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="E20" s="93" t="s">
         <v>1008</v>
       </c>
-      <c r="F20" s="100" t="s">
+      <c r="F20" s="98" t="s">
         <v>890</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="G20" s="101" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="96" t="s">
         <v>432</v>
       </c>
-      <c r="D21" s="95" t="s">
+      <c r="D21" s="93" t="s">
         <v>433</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="93" t="s">
         <v>1010</v>
       </c>
-      <c r="F21" s="100" t="s">
+      <c r="F21" s="98" t="s">
         <v>890</v>
       </c>
-      <c r="G21" s="103" t="s">
+      <c r="G21" s="101" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="101" t="s">
         <v>1012</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="96" t="s">
         <v>1013</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="93" t="s">
         <v>1014</v>
       </c>
-      <c r="F22" s="100" t="s">
+      <c r="F22" s="98" t="s">
         <v>890</v>
       </c>
-      <c r="G22" s="103" t="s">
+      <c r="G22" s="101" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="93" t="s">
         <v>1015</v>
       </c>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="102" t="s">
         <v>1016</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="103" t="s">
         <v>1017</v>
       </c>
-      <c r="E23" s="95" t="s">
+      <c r="E23" s="93" t="s">
         <v>1018</v>
       </c>
-      <c r="F23" s="100" t="s">
+      <c r="F23" s="98" t="s">
         <v>1019</v>
       </c>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="101" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="93" t="s">
         <v>1015</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="103" t="s">
         <v>1021</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="103" t="s">
         <v>1022</v>
       </c>
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="93" t="s">
         <v>1023</v>
       </c>
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="98" t="s">
         <v>1019</v>
       </c>
-      <c r="G24" s="103" t="s">
+      <c r="G24" s="101" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.3" customHeight="1">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="93" t="s">
         <v>1024</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="103" t="s">
         <v>1025</v>
       </c>
-      <c r="C25" s="95">
+      <c r="C25" s="93">
         <v>19</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="103" t="s">
         <v>1026</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="97" t="s">
         <v>1027</v>
       </c>
-      <c r="F25" s="106" t="s">
+      <c r="F25" s="104" t="s">
         <v>890</v>
       </c>
-      <c r="G25" s="107" t="s">
+      <c r="G25" s="105" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="93" t="s">
         <v>316</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="93" t="s">
         <v>375</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="106" t="s">
+      <c r="F26" s="104" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="93" t="s">
         <v>316</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="93" t="s">
         <v>1028</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="D27" s="93" t="s">
         <v>1029</v>
       </c>
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="93" t="s">
         <v>1030</v>
       </c>
-      <c r="F27" s="106" t="s">
+      <c r="F27" s="104" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="93" t="s">
         <v>316</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="93" t="s">
         <v>1031</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="93" t="s">
         <v>1032</v>
       </c>
-      <c r="G28" s="107" t="s">
+      <c r="G28" s="105" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="93" t="s">
         <v>313</v>
       </c>
-      <c r="D29" s="95" t="s">
+      <c r="D29" s="93" t="s">
         <v>1033</v>
       </c>
-      <c r="E29" s="95" t="s">
+      <c r="E29" s="93" t="s">
         <v>1034</v>
       </c>
-      <c r="F29" s="106" t="s">
+      <c r="F29" s="104" t="s">
         <v>890</v>
       </c>
-      <c r="G29" s="107" t="s">
+      <c r="G29" s="105" t="s">
         <v>254</v>
       </c>
     </row>
@@ -27191,7 +27199,7 @@
       <c r="B5" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="106" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -27264,7 +27272,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="93" t="s">
         <v>931</v>
       </c>
       <c r="B13" s="91" t="s">

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,22 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Guido\Trabajo\Economia\Tematicas de Investigacion\Precariedad Mundial\precariedad.mundial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B5D36C-7165-4980-94E5-FB47A344CC5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96402554-77CE-4454-8768-E476EB8D15A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10067" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10067" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Procedimiento" sheetId="2" r:id="rId2"/>
     <sheet name="Ingresos" sheetId="4" r:id="rId3"/>
     <sheet name="Periodicidad Encuestas" sheetId="5" r:id="rId4"/>
+    <sheet name="Links" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Ingresos!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Links!$A$1:$E$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metadata!$A$1:$H$788</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miwbJz/ooLDg0TpP5RJ4gNcrXXX9A=="/>
     </ext>
@@ -31,8 +42,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gweks</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{B387C6DE-E327-492C-9535-D69E80296822}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Gweks:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Para diccionarios&gt; 
+https://www23.statcan.gc.ca/imdb/p2SV.pl?Function=getSurvey&amp;Id=1291829#a4</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5784" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5819" uniqueCount="1067">
   <si>
     <t>Pais</t>
   </si>
@@ -3178,20 +3224,94 @@
     <t>Los cuestionarios ampliados donde se encuentra la variable de aporte a seguridad social sólo se publican en los 1eros trimestre</t>
   </si>
   <si>
-    <t>Mes de Julio</t>
-  </si>
-  <si>
     <t>Variable de tamaño sólo disponible para suplemento anual ASEC - Mes de Marzo</t>
   </si>
   <si>
-    <t>A lo largo de todo el año. Se identifica mes de la entrevista como variable</t>
+    <t>Relevamiento durante mes de Julio</t>
+  </si>
+  <si>
+    <t>Relevamiento a lo largo de todo el año. Se identifica mes de la entrevista como variable</t>
+  </si>
+  <si>
+    <t>Población Referencia (urbano/rural?)</t>
+  </si>
+  <si>
+    <t>Link micro-datos</t>
+  </si>
+  <si>
+    <t>Disponiblidad</t>
+  </si>
+  <si>
+    <t>El diseño muestral de la Enaho considera como dominios de estudio el nivel nacional, zona urbana y rural, y las seis regiones de planificación.</t>
+  </si>
+  <si>
+    <t>http://sistemas.inec.cr/pad5/index.php/catalog/239/study-description</t>
+  </si>
+  <si>
+    <t>Julio 2010 - Julio 2020</t>
+  </si>
+  <si>
+    <t>urbano metropolitano, resto urbano y rural nacional</t>
+  </si>
+  <si>
+    <t>https://www.ine.gob.gt/ine/estadisticas/bases-de-datos/encuesta-nacional-de-empleo-e-ingresos/</t>
+  </si>
+  <si>
+    <t>2002 - 2020, encuestas en meses puntuales del año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La muestra trimestral es de 120 mil 260 viviendas, las cuales
+se distribuyen tanto en áreas urbanas como rurales a lo largo
+y ancho del país. </t>
+  </si>
+  <si>
+    <t>https://www.inegi.org.mx/programas/enoe/15ymas/</t>
+  </si>
+  <si>
+    <t>2005-2020</t>
+  </si>
+  <si>
+    <t>La EHPM se realizó a nivel nacional en los 14 departamentos del país, por lo tanto tiene una cobertura a nivel nacional, por área urbana, rural y área Metropolitana de San Salvador (AMSS); además es posible obtener información agregada por departamento, región y a nivel de los 50 municipios autos representados.</t>
+  </si>
+  <si>
+    <t>http://digestyc.microdatahub.com/index.php/catalog/16/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998 - 2016. EHPM 2016 se desarrolló de enero a diciembre una programación mensual de la muestra total de 23,670 </t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Encuesta de Hogares de Propósitos Múltiples (EHPM)</t>
+  </si>
+  <si>
+    <t>incorporando en la muestra tanto áreas rurales como urbanas. En esta oportunidad se levantó información en 16 de los 18 departamentos del país, quedando fuera de muestra los departamentos de Gracias a Dios e Islas de la Bahía</t>
+  </si>
+  <si>
+    <t>No pude bajar las bases. Hay links rotos</t>
+  </si>
+  <si>
+    <t>1990 - 2017, encuestas en meses puntuales del año. Junio</t>
+  </si>
+  <si>
+    <t>https://www150.statcan.gc.ca/n1/en/catalogue/71M0001X                                                     https://www23.statcan.gc.ca/imdb/p2SV.pl?Function=getSurvey&amp;amp;SDDS=3701</t>
+  </si>
+  <si>
+    <t>Frencuencia mensual. 1976-2020</t>
+  </si>
+  <si>
+    <t>semestral (aprox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002 - 2020: Encuestas en meses puntuales del año. 2019 en Mayo y Noviembre </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3352,8 +3472,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3402,8 +3554,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3468,14 +3626,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3690,14 +3948,68 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="4"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Hipervínculo 2" xfId="2" xr:uid="{4F722B9A-536A-46D8-AFD0-3E32E4A5CDA5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2EF5810E-3CD3-4B1B-9878-96C9692F2EEC}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CC879C71-3D69-4809-A3AB-C9689AE30307}"/>
+    <cellStyle name="Normal 2 2 2" xfId="5" xr:uid="{5A5D3ABF-7649-4A8B-B074-015FF1AA1A5B}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5B2E3B8C-AA5D-45A1-8062-D5BFA039002E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3910,11 +4222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B307" sqref="B307"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.95" customHeight="1"/>
@@ -3956,7 +4267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="2" spans="1:8" ht="14.3" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -3982,7 +4293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="3" spans="1:8" ht="14.3" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -4008,7 +4319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="4" spans="1:8" ht="14.3" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -4034,7 +4345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="5" spans="1:8" ht="14.3" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -4060,7 +4371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="6" spans="1:8" ht="14.3" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -4086,7 +4397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="7" spans="1:8" ht="14.3" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -4112,7 +4423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="8" spans="1:8" ht="14.3" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -4138,7 +4449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="9" spans="1:8" ht="14.3" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -4164,7 +4475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="10" spans="1:8" ht="14.3" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -4190,7 +4501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="11" spans="1:8" ht="14.3" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -4216,7 +4527,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="12" spans="1:8" ht="14.3" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -4242,7 +4553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="13" spans="1:8" ht="14.3" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -4268,7 +4579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="14" spans="1:8" ht="14.3" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -4294,7 +4605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="15" spans="1:8" ht="14.3" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -4320,7 +4631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="16" spans="1:8" ht="14.3" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -4346,7 +4657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="17" spans="1:10" ht="14.3" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -4372,7 +4683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="18" spans="1:10" ht="14.3" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -4398,7 +4709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="19" spans="1:10" ht="14.3" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
@@ -4424,7 +4735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="20" spans="1:10" ht="14.3" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -4450,7 +4761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="21" spans="1:10" ht="14.3" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -4476,7 +4787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="22" spans="1:10" ht="14.3" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -4502,7 +4813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="23" spans="1:10" ht="14.3" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
@@ -4528,7 +4839,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="24" spans="1:10" ht="14.3" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -4554,7 +4865,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="25" spans="1:10" ht="14.3" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -4580,7 +4891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="26" spans="1:10" ht="14.3" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
@@ -4606,7 +4917,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="27" spans="1:10" ht="14.3" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
@@ -4632,7 +4943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="28" spans="1:10" ht="14.3" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -4658,7 +4969,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="29" spans="1:10" ht="14.3" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -4684,7 +4995,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="30" spans="1:10" ht="14.3" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -4710,7 +5021,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="31" spans="1:10" ht="14.3" customHeight="1">
       <c r="A31" s="82" t="s">
         <v>8</v>
       </c>
@@ -4737,7 +5048,7 @@
       </c>
       <c r="J31" s="69"/>
     </row>
-    <row r="32" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="32" spans="1:10" ht="14.3" customHeight="1">
       <c r="A32" s="82" t="s">
         <v>8</v>
       </c>
@@ -4764,7 +5075,7 @@
       </c>
       <c r="J32" s="69"/>
     </row>
-    <row r="33" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="33" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A33" s="82" t="s">
         <v>8</v>
       </c>
@@ -4790,7 +5101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="34" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A34" s="82" t="s">
         <v>8</v>
       </c>
@@ -4816,7 +5127,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="35" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A35" s="82" t="s">
         <v>8</v>
       </c>
@@ -4842,7 +5153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="36" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A36" s="82" t="s">
         <v>8</v>
       </c>
@@ -4868,7 +5179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="37" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A37" s="82" t="s">
         <v>8</v>
       </c>
@@ -4894,7 +5205,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="38" spans="1:10" ht="14.3" customHeight="1">
       <c r="A38" s="82" t="s">
         <v>8</v>
       </c>
@@ -4921,7 +5232,7 @@
       </c>
       <c r="J38" s="69"/>
     </row>
-    <row r="39" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="39" spans="1:10" ht="14.3" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
@@ -4947,7 +5258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="40" spans="1:10" ht="14.3" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
@@ -4973,7 +5284,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="41" spans="1:10" ht="14.3" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
@@ -4999,7 +5310,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="42" spans="1:10" ht="14.3" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -5025,7 +5336,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="18.7" hidden="1" customHeight="1">
+    <row r="43" spans="1:10" ht="18.7" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
@@ -5051,7 +5362,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="18.7" hidden="1" customHeight="1">
+    <row r="44" spans="1:10" ht="18.7" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
@@ -5077,7 +5388,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18.7" hidden="1" customHeight="1">
+    <row r="45" spans="1:10" ht="18.7" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
@@ -5103,7 +5414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18.7" hidden="1" customHeight="1">
+    <row r="46" spans="1:10" ht="18.7" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -5129,7 +5440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="18.7" hidden="1" customHeight="1">
+    <row r="47" spans="1:10" ht="18.7" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -5155,7 +5466,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="18.7" hidden="1" customHeight="1">
+    <row r="48" spans="1:10" ht="18.7" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
@@ -5181,7 +5492,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="49" spans="1:8" ht="14.3" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
@@ -5207,7 +5518,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="50" spans="1:8" ht="14.3" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>8</v>
       </c>
@@ -5233,7 +5544,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="51" spans="1:8" ht="14.3" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
@@ -5259,7 +5570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="52" spans="1:8" ht="14.3" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>8</v>
       </c>
@@ -5285,7 +5596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="53" spans="1:8" ht="14.3" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>108</v>
       </c>
@@ -5311,7 +5622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="54" spans="1:8" ht="14.3" customHeight="1">
       <c r="A54" s="7" t="s">
         <v>108</v>
       </c>
@@ -5337,7 +5648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="55" spans="1:8" ht="14.3" customHeight="1">
       <c r="A55" s="7" t="s">
         <v>108</v>
       </c>
@@ -5363,7 +5674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="56" spans="1:8" ht="14.3" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>108</v>
       </c>
@@ -5373,11 +5684,11 @@
       <c r="C56" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="108" t="s">
+      <c r="D56" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="109"/>
-      <c r="F56" s="109"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="123"/>
       <c r="G56" s="4" t="s">
         <v>27</v>
       </c>
@@ -5385,7 +5696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="57" spans="1:8" ht="14.3" customHeight="1">
       <c r="A57" s="7" t="s">
         <v>108</v>
       </c>
@@ -5395,11 +5706,11 @@
       <c r="C57" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="108" t="s">
+      <c r="D57" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="109"/>
-      <c r="F57" s="109"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
       <c r="G57" s="4" t="s">
         <v>27</v>
       </c>
@@ -5407,7 +5718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="58" spans="1:8" ht="14.3" customHeight="1">
       <c r="A58" s="7" t="s">
         <v>108</v>
       </c>
@@ -5417,11 +5728,11 @@
       <c r="C58" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="108" t="s">
+      <c r="D58" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="109"/>
-      <c r="F58" s="109"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
       <c r="G58" s="4" t="s">
         <v>27</v>
       </c>
@@ -5429,7 +5740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="59" spans="1:8" ht="14.3" customHeight="1">
       <c r="A59" s="7" t="s">
         <v>108</v>
       </c>
@@ -5439,11 +5750,11 @@
       <c r="C59" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="108" t="s">
+      <c r="D59" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="109"/>
-      <c r="F59" s="109"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
       <c r="G59" s="4" t="s">
         <v>27</v>
       </c>
@@ -5451,7 +5762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="60" spans="1:8" ht="14.3" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>108</v>
       </c>
@@ -5477,7 +5788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="61" spans="1:8" ht="14.3" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>108</v>
       </c>
@@ -5503,7 +5814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="62" spans="1:8" ht="14.3" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>108</v>
       </c>
@@ -5529,7 +5840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="63" spans="1:8" ht="14.3" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>108</v>
       </c>
@@ -5555,7 +5866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="64" spans="1:8" ht="14.3" customHeight="1">
       <c r="A64" s="7" t="s">
         <v>108</v>
       </c>
@@ -5581,7 +5892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="65" spans="1:8" ht="14.3" customHeight="1">
       <c r="A65" s="7" t="s">
         <v>108</v>
       </c>
@@ -5607,7 +5918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="66" spans="1:8" ht="14.3" customHeight="1">
       <c r="A66" s="7" t="s">
         <v>108</v>
       </c>
@@ -5633,7 +5944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="67" spans="1:8" ht="14.3" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>108</v>
       </c>
@@ -5659,7 +5970,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="68" spans="1:8" ht="14.3" customHeight="1">
       <c r="A68" s="7" t="s">
         <v>108</v>
       </c>
@@ -5685,7 +5996,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="69" spans="1:8" ht="14.3" customHeight="1">
       <c r="A69" s="7" t="s">
         <v>108</v>
       </c>
@@ -5711,7 +6022,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="70" spans="1:8" ht="14.3" customHeight="1">
       <c r="A70" s="7" t="s">
         <v>108</v>
       </c>
@@ -5737,7 +6048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="71" spans="1:8" ht="14.3" customHeight="1">
       <c r="A71" s="7" t="s">
         <v>108</v>
       </c>
@@ -5763,7 +6074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="72" spans="1:8" ht="14.3" customHeight="1">
       <c r="A72" s="7" t="s">
         <v>108</v>
       </c>
@@ -5789,7 +6100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="73" spans="1:8" ht="14.3" customHeight="1">
       <c r="A73" s="7" t="s">
         <v>108</v>
       </c>
@@ -5815,7 +6126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="74" spans="1:8" ht="14.3" customHeight="1">
       <c r="A74" s="7" t="s">
         <v>108</v>
       </c>
@@ -5841,7 +6152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="75" spans="1:8" ht="14.3" customHeight="1">
       <c r="A75" s="7" t="s">
         <v>108</v>
       </c>
@@ -5867,7 +6178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="76" spans="1:8" ht="14.3" customHeight="1">
       <c r="A76" s="7" t="s">
         <v>108</v>
       </c>
@@ -5893,7 +6204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="77" spans="1:8" ht="14.3" customHeight="1">
       <c r="A77" s="7" t="s">
         <v>108</v>
       </c>
@@ -5919,7 +6230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="78" spans="1:8" ht="14.3" customHeight="1">
       <c r="A78" s="7" t="s">
         <v>108</v>
       </c>
@@ -5945,7 +6256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="79" spans="1:8" ht="14.3" customHeight="1">
       <c r="A79" s="7" t="s">
         <v>108</v>
       </c>
@@ -5971,7 +6282,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="80" spans="1:8" ht="14.3" customHeight="1">
       <c r="A80" s="7" t="s">
         <v>108</v>
       </c>
@@ -5997,7 +6308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="81" spans="1:10" ht="14.3" customHeight="1">
       <c r="A81" s="7" t="s">
         <v>108</v>
       </c>
@@ -6023,7 +6334,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="82" spans="1:10" ht="14.3" customHeight="1">
       <c r="A82" s="7" t="s">
         <v>108</v>
       </c>
@@ -6049,7 +6360,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="83" spans="1:10" ht="14.3" customHeight="1">
       <c r="A83" s="7" t="s">
         <v>108</v>
       </c>
@@ -6075,7 +6386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="84" spans="1:10" ht="14.3" customHeight="1">
       <c r="A84" s="7" t="s">
         <v>108</v>
       </c>
@@ -6101,7 +6412,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="85" spans="1:10" ht="14.3" customHeight="1">
       <c r="A85" s="7" t="s">
         <v>108</v>
       </c>
@@ -6127,7 +6438,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="86" spans="1:10" ht="14.3" customHeight="1">
       <c r="A86" s="7" t="s">
         <v>108</v>
       </c>
@@ -6153,7 +6464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="87" spans="1:10" ht="14.3" customHeight="1">
       <c r="A87" s="7" t="s">
         <v>108</v>
       </c>
@@ -6179,7 +6490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="88" spans="1:10" ht="14.3" customHeight="1">
       <c r="A88" s="82" t="s">
         <v>108</v>
       </c>
@@ -6205,7 +6516,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="89" spans="1:10" ht="14.3" customHeight="1">
       <c r="A89" s="82" t="s">
         <v>108</v>
       </c>
@@ -6231,7 +6542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="90" spans="1:10" ht="14.3" customHeight="1">
       <c r="A90" s="82" t="s">
         <v>108</v>
       </c>
@@ -6257,7 +6568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="91" spans="1:10" ht="14.3" customHeight="1">
       <c r="A91" s="82" t="s">
         <v>108</v>
       </c>
@@ -6283,7 +6594,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="92" spans="1:10" ht="14.3" customHeight="1">
       <c r="A92" s="82" t="s">
         <v>108</v>
       </c>
@@ -6309,7 +6620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="93" spans="1:10" ht="14.3" customHeight="1">
       <c r="A93" s="82" t="s">
         <v>108</v>
       </c>
@@ -6335,7 +6646,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="94" spans="1:10" ht="14.3" customHeight="1">
       <c r="A94" s="82" t="s">
         <v>108</v>
       </c>
@@ -6361,7 +6672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="95" spans="1:10" ht="14.3" customHeight="1">
       <c r="A95" s="82" t="s">
         <v>108</v>
       </c>
@@ -6388,7 +6699,7 @@
       </c>
       <c r="J95" s="69"/>
     </row>
-    <row r="96" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="96" spans="1:10" ht="14.3" customHeight="1">
       <c r="A96" s="82" t="s">
         <v>108</v>
       </c>
@@ -6415,7 +6726,7 @@
       </c>
       <c r="J96" s="69"/>
     </row>
-    <row r="97" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="97" spans="1:8" ht="14.3" customHeight="1">
       <c r="A97" s="82" t="s">
         <v>108</v>
       </c>
@@ -6441,7 +6752,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="98" spans="1:8" ht="14.3" customHeight="1">
       <c r="A98" s="82" t="s">
         <v>108</v>
       </c>
@@ -6467,7 +6778,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="99" spans="1:8" ht="14.3" customHeight="1">
       <c r="A99" s="82" t="s">
         <v>108</v>
       </c>
@@ -6493,7 +6804,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="100" spans="1:8" ht="14.3" customHeight="1">
       <c r="A100" s="82" t="s">
         <v>108</v>
       </c>
@@ -6519,7 +6830,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="101" spans="1:8" ht="14.3" customHeight="1">
       <c r="A101" s="7" t="s">
         <v>108</v>
       </c>
@@ -6545,7 +6856,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="102" spans="1:8" ht="14.3" customHeight="1">
       <c r="A102" s="7" t="s">
         <v>108</v>
       </c>
@@ -6571,7 +6882,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="103" spans="1:8" ht="14.3" customHeight="1">
       <c r="A103" s="7" t="s">
         <v>108</v>
       </c>
@@ -6597,7 +6908,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="104" spans="1:8" ht="14.3" customHeight="1">
       <c r="A104" s="7" t="s">
         <v>108</v>
       </c>
@@ -6623,7 +6934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="105" spans="1:8" ht="14.3" customHeight="1">
       <c r="A105" s="7" t="s">
         <v>108</v>
       </c>
@@ -6649,7 +6960,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="106" spans="1:8" ht="14.3" customHeight="1">
       <c r="A106" s="7" t="s">
         <v>108</v>
       </c>
@@ -6675,7 +6986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="107" spans="1:8" ht="14.3" customHeight="1">
       <c r="A107" s="7" t="s">
         <v>108</v>
       </c>
@@ -6701,7 +7012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="108" spans="1:8" ht="14.3" customHeight="1">
       <c r="A108" s="7" t="s">
         <v>108</v>
       </c>
@@ -6725,7 +7036,7 @@
       </c>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="109" spans="1:8" ht="14.3" customHeight="1">
       <c r="A109" s="7" t="s">
         <v>108</v>
       </c>
@@ -6749,7 +7060,7 @@
       </c>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="110" spans="1:8" ht="14.3" customHeight="1">
       <c r="A110" s="7" t="s">
         <v>108</v>
       </c>
@@ -6773,7 +7084,7 @@
       </c>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="111" spans="1:8" ht="14.3" customHeight="1">
       <c r="A111" s="7" t="s">
         <v>108</v>
       </c>
@@ -6797,7 +7108,7 @@
       </c>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="112" spans="1:8" ht="14.3" customHeight="1">
       <c r="A112" s="7" t="s">
         <v>108</v>
       </c>
@@ -6821,7 +7132,7 @@
       </c>
       <c r="H112" s="9"/>
     </row>
-    <row r="113" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="113" spans="1:8" ht="14.3" customHeight="1">
       <c r="A113" s="7" t="s">
         <v>108</v>
       </c>
@@ -6845,7 +7156,7 @@
       </c>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="114" spans="1:8" ht="14.3" customHeight="1">
       <c r="A114" s="7" t="s">
         <v>108</v>
       </c>
@@ -6869,7 +7180,7 @@
       </c>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="115" spans="1:8" ht="14.3" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>108</v>
       </c>
@@ -6893,7 +7204,7 @@
       </c>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="116" spans="1:8" ht="14.3" customHeight="1">
       <c r="A116" s="7" t="s">
         <v>108</v>
       </c>
@@ -6917,7 +7228,7 @@
       </c>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="117" spans="1:8" ht="14.3" customHeight="1">
       <c r="A117" s="7" t="s">
         <v>108</v>
       </c>
@@ -6941,7 +7252,7 @@
       </c>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="118" spans="1:8" ht="14.3" customHeight="1">
       <c r="A118" s="7" t="s">
         <v>108</v>
       </c>
@@ -6965,7 +7276,7 @@
       </c>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="119" spans="1:8" ht="14.3" customHeight="1">
       <c r="A119" s="7" t="s">
         <v>108</v>
       </c>
@@ -7037,7 +7348,7 @@
       </c>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="122" spans="1:8" ht="14.3" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>188</v>
       </c>
@@ -7063,7 +7374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="123" spans="1:8" ht="14.3" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>188</v>
       </c>
@@ -7089,7 +7400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="12.75" hidden="1" customHeight="1">
+    <row r="124" spans="1:8" ht="12.75" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>188</v>
       </c>
@@ -7115,7 +7426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="125" spans="1:8" ht="14.3" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>188</v>
       </c>
@@ -7141,7 +7452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="126" spans="1:8" ht="14.3" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>188</v>
       </c>
@@ -7167,7 +7478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="127" spans="1:8" ht="14.3" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>188</v>
       </c>
@@ -7193,7 +7504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="128" spans="1:8" ht="14.3" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>188</v>
       </c>
@@ -7219,7 +7530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="129" spans="1:8" ht="14.3" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>188</v>
       </c>
@@ -7245,7 +7556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="130" spans="1:8" ht="14.3" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>188</v>
       </c>
@@ -7271,7 +7582,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="131" spans="1:8" ht="14.3" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>188</v>
       </c>
@@ -7297,7 +7608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="132" spans="1:8" ht="14.3" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>188</v>
       </c>
@@ -7323,7 +7634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="133" spans="1:8" ht="14.3" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>188</v>
       </c>
@@ -7349,7 +7660,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="134" spans="1:8" ht="14.3" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>188</v>
       </c>
@@ -7375,7 +7686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="135" spans="1:8" ht="14.3" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>188</v>
       </c>
@@ -7401,7 +7712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="136" spans="1:8" ht="14.3" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>188</v>
       </c>
@@ -7427,7 +7738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="137" spans="1:8" ht="14.3" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>188</v>
       </c>
@@ -7453,7 +7764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="138" spans="1:8" ht="14.3" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>188</v>
       </c>
@@ -7479,7 +7790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="139" spans="1:8" ht="14.3" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>188</v>
       </c>
@@ -7505,7 +7816,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="140" spans="1:8" ht="14.3" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>188</v>
       </c>
@@ -7531,7 +7842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="141" spans="1:8" ht="14.3" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>188</v>
       </c>
@@ -7557,7 +7868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="142" spans="1:8" ht="14.3" customHeight="1">
       <c r="A142" s="4" t="s">
         <v>188</v>
       </c>
@@ -7583,7 +7894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="143" spans="1:8" ht="14.3" customHeight="1">
       <c r="A143" s="4" t="s">
         <v>188</v>
       </c>
@@ -7607,7 +7918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="144" spans="1:8" ht="14.3" customHeight="1">
       <c r="A144" s="4" t="s">
         <v>188</v>
       </c>
@@ -7631,7 +7942,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="145" spans="1:10" ht="14.3" customHeight="1">
       <c r="A145" s="4" t="s">
         <v>188</v>
       </c>
@@ -7655,7 +7966,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="146" spans="1:10" ht="14.3" customHeight="1">
       <c r="A146" s="4" t="s">
         <v>188</v>
       </c>
@@ -7679,7 +7990,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="147" spans="1:10" ht="14.3" customHeight="1">
       <c r="A147" s="4" t="s">
         <v>188</v>
       </c>
@@ -7703,7 +8014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="148" spans="1:10" ht="14.3" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>188</v>
       </c>
@@ -7727,7 +8038,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="149" spans="1:10" ht="14.3" customHeight="1">
       <c r="A149" s="4" t="s">
         <v>188</v>
       </c>
@@ -7751,7 +8062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="150" spans="1:10" ht="14.3" customHeight="1">
       <c r="A150" s="4" t="s">
         <v>188</v>
       </c>
@@ -7775,7 +8086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="151" spans="1:10" ht="14.3" customHeight="1">
       <c r="A151" s="4" t="s">
         <v>188</v>
       </c>
@@ -7799,7 +8110,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="152" spans="1:10" ht="14.3" customHeight="1">
       <c r="A152" s="4" t="s">
         <v>188</v>
       </c>
@@ -7823,7 +8134,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="153" spans="1:10" ht="14.3" customHeight="1">
       <c r="A153" s="4" t="s">
         <v>188</v>
       </c>
@@ -7847,7 +8158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="154" spans="1:10" ht="14.3" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>188</v>
       </c>
@@ -7871,7 +8182,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="155" spans="1:10" ht="14.3" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>188</v>
       </c>
@@ -7895,7 +8206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="156" spans="1:10" ht="14.3" customHeight="1">
       <c r="A156" s="4" t="s">
         <v>188</v>
       </c>
@@ -7919,7 +8230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="157" spans="1:10" ht="14.3" customHeight="1">
       <c r="A157" s="4" t="s">
         <v>188</v>
       </c>
@@ -7943,7 +8254,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="158" spans="1:10" ht="14.3" customHeight="1">
       <c r="A158" s="82" t="s">
         <v>188</v>
       </c>
@@ -7970,7 +8281,7 @@
       </c>
       <c r="J158" s="69"/>
     </row>
-    <row r="159" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="159" spans="1:10" ht="14.3" customHeight="1">
       <c r="A159" s="82" t="s">
         <v>188</v>
       </c>
@@ -7997,7 +8308,7 @@
       </c>
       <c r="J159" s="69"/>
     </row>
-    <row r="160" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="160" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A160" s="82" t="s">
         <v>188</v>
       </c>
@@ -8023,7 +8334,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="161" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A161" s="82" t="s">
         <v>188</v>
       </c>
@@ -8049,7 +8360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="162" spans="1:10" ht="14.3" customHeight="1">
       <c r="A162" s="82" t="s">
         <v>188</v>
       </c>
@@ -8076,7 +8387,7 @@
       </c>
       <c r="J162" s="69"/>
     </row>
-    <row r="163" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="163" spans="1:10" ht="14.3" customHeight="1">
       <c r="A163" s="82" t="s">
         <v>188</v>
       </c>
@@ -8103,7 +8414,7 @@
       </c>
       <c r="J163" s="69"/>
     </row>
-    <row r="164" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="164" spans="1:10" ht="14.3" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>188</v>
       </c>
@@ -8127,7 +8438,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="165" spans="1:10" ht="14.3" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>188</v>
       </c>
@@ -8153,7 +8464,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="166" spans="1:10" ht="14.3" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>188</v>
       </c>
@@ -8179,7 +8490,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="167" spans="1:10" ht="14.3" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>188</v>
       </c>
@@ -8205,7 +8516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="168" spans="1:10" ht="14.3" customHeight="1">
       <c r="A168" s="4" t="s">
         <v>188</v>
       </c>
@@ -8231,7 +8542,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="169" spans="1:10" ht="14.3" customHeight="1">
       <c r="A169" s="4" t="s">
         <v>188</v>
       </c>
@@ -8257,7 +8568,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="170" spans="1:10" ht="14.3" customHeight="1">
       <c r="A170" s="4" t="s">
         <v>188</v>
       </c>
@@ -8283,7 +8594,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="171" spans="1:10" ht="14.3" customHeight="1">
       <c r="A171" s="4" t="s">
         <v>188</v>
       </c>
@@ -8309,7 +8620,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="172" spans="1:10" ht="14.3" customHeight="1">
       <c r="A172" s="4" t="s">
         <v>188</v>
       </c>
@@ -8335,7 +8646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="173" spans="1:10" ht="14.3" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>188</v>
       </c>
@@ -8361,7 +8672,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="174" spans="1:10" ht="14.3" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>188</v>
       </c>
@@ -8385,7 +8696,7 @@
       </c>
       <c r="H174" s="9"/>
     </row>
-    <row r="175" spans="1:10" ht="12.1" hidden="1" customHeight="1">
+    <row r="175" spans="1:10" ht="12.1" customHeight="1">
       <c r="A175" s="4" t="s">
         <v>188</v>
       </c>
@@ -8529,7 +8840,7 @@
       </c>
       <c r="H180" s="9"/>
     </row>
-    <row r="181" spans="1:8" ht="13.6" hidden="1" customHeight="1">
+    <row r="181" spans="1:8" ht="13.6" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>257</v>
       </c>
@@ -8555,7 +8866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="182" spans="1:8" ht="14.3" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>257</v>
       </c>
@@ -8581,7 +8892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="183" spans="1:8" ht="14.3" customHeight="1">
       <c r="A183" s="4" t="s">
         <v>257</v>
       </c>
@@ -8607,7 +8918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="184" spans="1:8" ht="14.3" customHeight="1">
       <c r="A184" s="4" t="s">
         <v>257</v>
       </c>
@@ -8633,7 +8944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="185" spans="1:8" ht="14.3" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>257</v>
       </c>
@@ -8659,7 +8970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="186" spans="1:8" ht="14.3" customHeight="1">
       <c r="A186" s="4" t="s">
         <v>257</v>
       </c>
@@ -8685,7 +8996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="187" spans="1:8" ht="14.3" customHeight="1">
       <c r="A187" s="4" t="s">
         <v>257</v>
       </c>
@@ -8711,7 +9022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="188" spans="1:8" ht="14.3" customHeight="1">
       <c r="A188" s="4" t="s">
         <v>257</v>
       </c>
@@ -8737,7 +9048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="189" spans="1:8" ht="14.3" customHeight="1">
       <c r="A189" s="4" t="s">
         <v>257</v>
       </c>
@@ -8763,7 +9074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="190" spans="1:8" ht="14.3" customHeight="1">
       <c r="A190" s="4" t="s">
         <v>257</v>
       </c>
@@ -8789,7 +9100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="191" spans="1:8" ht="14.3" customHeight="1">
       <c r="A191" s="4" t="s">
         <v>257</v>
       </c>
@@ -8815,7 +9126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="192" spans="1:8" ht="14.3" customHeight="1">
       <c r="A192" s="4" t="s">
         <v>257</v>
       </c>
@@ -8841,7 +9152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="193" spans="1:8" ht="14.3" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>257</v>
       </c>
@@ -8867,7 +9178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="194" spans="1:8" ht="14.3" customHeight="1">
       <c r="A194" s="4" t="s">
         <v>257</v>
       </c>
@@ -8893,7 +9204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="195" spans="1:8" ht="14.3" customHeight="1">
       <c r="A195" s="4" t="s">
         <v>257</v>
       </c>
@@ -8919,7 +9230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="196" spans="1:8" ht="14.3" customHeight="1">
       <c r="A196" s="4" t="s">
         <v>257</v>
       </c>
@@ -8945,7 +9256,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="197" spans="1:8" ht="14.3" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>257</v>
       </c>
@@ -8971,7 +9282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="198" spans="1:8" ht="14.3" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>257</v>
       </c>
@@ -8997,7 +9308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="199" spans="1:8" ht="14.3" customHeight="1">
       <c r="A199" s="4" t="s">
         <v>257</v>
       </c>
@@ -9023,7 +9334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="200" spans="1:8" ht="14.3" customHeight="1">
       <c r="A200" s="4" t="s">
         <v>257</v>
       </c>
@@ -9049,7 +9360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="201" spans="1:8" ht="14.3" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>257</v>
       </c>
@@ -9075,7 +9386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="202" spans="1:8" ht="14.3" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>257</v>
       </c>
@@ -9101,7 +9412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="203" spans="1:8" ht="14.3" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>257</v>
       </c>
@@ -9127,7 +9438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="204" spans="1:8" ht="14.3" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>257</v>
       </c>
@@ -9153,7 +9464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="205" spans="1:8" ht="14.3" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>257</v>
       </c>
@@ -9179,7 +9490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="206" spans="1:8" ht="14.3" customHeight="1">
       <c r="A206" s="4" t="s">
         <v>257</v>
       </c>
@@ -9205,7 +9516,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="207" spans="1:8" ht="14.3" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>257</v>
       </c>
@@ -9229,7 +9540,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="208" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A208" s="82" t="s">
         <v>257</v>
       </c>
@@ -9255,7 +9566,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="209" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A209" s="82" t="s">
         <v>257</v>
       </c>
@@ -9281,7 +9592,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="210" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A210" s="82" t="s">
         <v>257</v>
       </c>
@@ -9307,7 +9618,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="211" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A211" s="82" t="s">
         <v>257</v>
       </c>
@@ -9333,7 +9644,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="212" spans="1:8" ht="14.3" customHeight="1">
       <c r="A212" s="82" t="s">
         <v>257</v>
       </c>
@@ -9359,7 +9670,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="213" spans="1:8" ht="14.3" customHeight="1">
       <c r="A213" s="82" t="s">
         <v>257</v>
       </c>
@@ -9385,7 +9696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="214" spans="1:8" ht="14.3" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>257</v>
       </c>
@@ -9411,7 +9722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="215" spans="1:8" ht="14.3" customHeight="1">
       <c r="A215" s="4" t="s">
         <v>257</v>
       </c>
@@ -9437,7 +9748,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="216" spans="1:8" ht="14.3" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>257</v>
       </c>
@@ -9463,7 +9774,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="217" spans="1:8" ht="14.3" customHeight="1">
       <c r="A217" s="4" t="s">
         <v>257</v>
       </c>
@@ -9489,7 +9800,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="218" spans="1:8" ht="14.3" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>257</v>
       </c>
@@ -9515,7 +9826,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="219" spans="1:8" ht="14.3" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>257</v>
       </c>
@@ -9541,7 +9852,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="220" spans="1:8" ht="14.3" customHeight="1">
       <c r="A220" s="4" t="s">
         <v>257</v>
       </c>
@@ -9567,7 +9878,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="221" spans="1:8" ht="14.3" customHeight="1">
       <c r="A221" s="4" t="s">
         <v>257</v>
       </c>
@@ -9593,7 +9904,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="222" spans="1:8" ht="14.3" customHeight="1">
       <c r="A222" s="4" t="s">
         <v>257</v>
       </c>
@@ -9619,7 +9930,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="223" spans="1:8" ht="14.3" customHeight="1">
       <c r="A223" s="4" t="s">
         <v>257</v>
       </c>
@@ -9645,7 +9956,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="224" spans="1:8" ht="14.3" customHeight="1">
       <c r="A224" s="4" t="s">
         <v>257</v>
       </c>
@@ -9671,7 +9982,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="225" spans="1:8" ht="14.3" customHeight="1">
       <c r="A225" s="4" t="s">
         <v>257</v>
       </c>
@@ -9697,7 +10008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="226" spans="1:8" ht="14.3" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>257</v>
       </c>
@@ -9723,7 +10034,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="227" spans="1:8" ht="14.3" customHeight="1">
       <c r="A227" s="4" t="s">
         <v>257</v>
       </c>
@@ -9749,7 +10060,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="228" spans="1:8" ht="14.3" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>257</v>
       </c>
@@ -9775,7 +10086,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="229" spans="1:8" ht="14.3" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>257</v>
       </c>
@@ -9799,7 +10110,7 @@
       </c>
       <c r="H229" s="9"/>
     </row>
-    <row r="230" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="230" spans="1:8" ht="14.3" customHeight="1">
       <c r="A230" s="4" t="s">
         <v>257</v>
       </c>
@@ -9823,7 +10134,7 @@
       </c>
       <c r="H230" s="9"/>
     </row>
-    <row r="231" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="231" spans="1:8" ht="14.3" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>257</v>
       </c>
@@ -9847,7 +10158,7 @@
       </c>
       <c r="H231" s="9"/>
     </row>
-    <row r="232" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="232" spans="1:8" ht="14.3" customHeight="1">
       <c r="A232" s="4" t="s">
         <v>257</v>
       </c>
@@ -9871,7 +10182,7 @@
       </c>
       <c r="H232" s="9"/>
     </row>
-    <row r="233" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="233" spans="1:8" ht="14.3" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>257</v>
       </c>
@@ -9895,7 +10206,7 @@
       </c>
       <c r="H233" s="9"/>
     </row>
-    <row r="234" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="234" spans="1:8" ht="14.3" customHeight="1">
       <c r="A234" s="4" t="s">
         <v>257</v>
       </c>
@@ -9943,7 +10254,7 @@
       </c>
       <c r="H235" s="9"/>
     </row>
-    <row r="236" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="236" spans="1:8" ht="14.3" customHeight="1">
       <c r="A236" s="4" t="s">
         <v>316</v>
       </c>
@@ -9967,7 +10278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="237" spans="1:8" ht="14.3" customHeight="1">
       <c r="A237" s="4" t="s">
         <v>316</v>
       </c>
@@ -9993,7 +10304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="238" spans="1:8" ht="14.3" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>316</v>
       </c>
@@ -10019,7 +10330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="239" spans="1:8" ht="14.3" customHeight="1">
       <c r="A239" s="4" t="s">
         <v>316</v>
       </c>
@@ -10045,7 +10356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="240" spans="1:8" ht="14.3" customHeight="1">
       <c r="A240" s="4" t="s">
         <v>316</v>
       </c>
@@ -10071,7 +10382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="241" spans="1:8" ht="14.3" customHeight="1">
       <c r="A241" s="4" t="s">
         <v>316</v>
       </c>
@@ -10097,7 +10408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="242" spans="1:8" ht="14.3" customHeight="1">
       <c r="A242" s="4" t="s">
         <v>316</v>
       </c>
@@ -10123,7 +10434,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="243" spans="1:8" ht="14.3" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>316</v>
       </c>
@@ -10149,7 +10460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="244" spans="1:8" ht="14.3" customHeight="1">
       <c r="A244" s="4" t="s">
         <v>316</v>
       </c>
@@ -10175,7 +10486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="245" spans="1:8" ht="14.3" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>316</v>
       </c>
@@ -10201,7 +10512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="246" spans="1:8" ht="14.3" customHeight="1">
       <c r="A246" s="4" t="s">
         <v>316</v>
       </c>
@@ -10227,7 +10538,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="247" spans="1:8" ht="14.3" customHeight="1">
       <c r="A247" s="4" t="s">
         <v>316</v>
       </c>
@@ -10253,7 +10564,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="248" spans="1:8" ht="14.3" customHeight="1">
       <c r="A248" s="4" t="s">
         <v>316</v>
       </c>
@@ -10279,7 +10590,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="249" spans="1:8" ht="14.3" customHeight="1">
       <c r="A249" s="4" t="s">
         <v>316</v>
       </c>
@@ -10305,7 +10616,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="250" spans="1:8" ht="14.3" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>316</v>
       </c>
@@ -10331,7 +10642,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="251" spans="1:8" ht="14.3" customHeight="1">
       <c r="A251" s="4" t="s">
         <v>316</v>
       </c>
@@ -10357,7 +10668,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="252" spans="1:8" ht="14.3" customHeight="1">
       <c r="A252" s="4" t="s">
         <v>316</v>
       </c>
@@ -10383,7 +10694,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="253" spans="1:8" ht="14.3" customHeight="1">
       <c r="A253" s="4" t="s">
         <v>316</v>
       </c>
@@ -10409,7 +10720,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="254" spans="1:8" ht="14.3" customHeight="1">
       <c r="A254" s="4" t="s">
         <v>316</v>
       </c>
@@ -10435,7 +10746,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="255" spans="1:8" ht="14.3" customHeight="1">
       <c r="A255" s="4" t="s">
         <v>316</v>
       </c>
@@ -10461,7 +10772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="256" spans="1:8" ht="14.3" customHeight="1">
       <c r="A256" s="4" t="s">
         <v>316</v>
       </c>
@@ -10487,7 +10798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="257" spans="1:10" ht="14.3" customHeight="1">
       <c r="A257" s="4" t="s">
         <v>316</v>
       </c>
@@ -10513,7 +10824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="258" spans="1:10" ht="14.3" customHeight="1">
       <c r="A258" s="4" t="s">
         <v>316</v>
       </c>
@@ -10539,7 +10850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="259" spans="1:10" ht="14.3" customHeight="1">
       <c r="A259" s="4" t="s">
         <v>316</v>
       </c>
@@ -10565,7 +10876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="260" spans="1:10" ht="14.3" customHeight="1">
       <c r="A260" s="4" t="s">
         <v>316</v>
       </c>
@@ -10591,7 +10902,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="261" spans="1:10" ht="14.3" customHeight="1">
       <c r="A261" s="4" t="s">
         <v>316</v>
       </c>
@@ -10617,7 +10928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="262" spans="1:10" ht="14.3" customHeight="1">
       <c r="A262" s="4" t="s">
         <v>316</v>
       </c>
@@ -10643,7 +10954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="263" spans="1:10" ht="14.3" customHeight="1">
       <c r="A263" s="4" t="s">
         <v>316</v>
       </c>
@@ -10669,7 +10980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="264" spans="1:10" ht="14.3" customHeight="1">
       <c r="A264" s="4" t="s">
         <v>316</v>
       </c>
@@ -10695,7 +11006,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="265" spans="1:10" ht="14.3" customHeight="1">
       <c r="A265" s="4" t="s">
         <v>316</v>
       </c>
@@ -10721,7 +11032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="266" spans="1:10" ht="14.3" customHeight="1">
       <c r="A266" s="4" t="s">
         <v>316</v>
       </c>
@@ -10747,7 +11058,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="267" spans="1:10" ht="14.3" customHeight="1">
       <c r="A267" s="4" t="s">
         <v>316</v>
       </c>
@@ -10771,7 +11082,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="268" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="268" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A268" s="82" t="s">
         <v>316</v>
       </c>
@@ -10797,7 +11108,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="269" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="269" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A269" s="82" t="s">
         <v>316</v>
       </c>
@@ -10823,7 +11134,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="270" spans="1:10" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="270" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A270" s="82" t="s">
         <v>316</v>
       </c>
@@ -10849,7 +11160,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="271" spans="1:10" ht="14.3" customHeight="1">
       <c r="A271" s="82" t="s">
         <v>316</v>
       </c>
@@ -10876,7 +11187,7 @@
       </c>
       <c r="J271" s="69"/>
     </row>
-    <row r="272" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="272" spans="1:10" ht="14.3" customHeight="1">
       <c r="A272" s="82" t="s">
         <v>316</v>
       </c>
@@ -10903,7 +11214,7 @@
       </c>
       <c r="J272" s="69"/>
     </row>
-    <row r="273" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="273" spans="1:10" ht="14.3" customHeight="1">
       <c r="A273" s="82" t="s">
         <v>316</v>
       </c>
@@ -10930,7 +11241,7 @@
       </c>
       <c r="J273" s="69"/>
     </row>
-    <row r="274" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="274" spans="1:10" ht="14.3" customHeight="1">
       <c r="A274" s="82" t="s">
         <v>316</v>
       </c>
@@ -10957,7 +11268,7 @@
       </c>
       <c r="J274" s="69"/>
     </row>
-    <row r="275" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="275" spans="1:10" ht="14.3" customHeight="1">
       <c r="A275" s="82" t="s">
         <v>316</v>
       </c>
@@ -10984,7 +11295,7 @@
       </c>
       <c r="J275" s="69"/>
     </row>
-    <row r="276" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="276" spans="1:10" ht="14.3" customHeight="1">
       <c r="A276" s="82" t="s">
         <v>316</v>
       </c>
@@ -11011,7 +11322,7 @@
       </c>
       <c r="J276" s="69"/>
     </row>
-    <row r="277" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="277" spans="1:10" ht="14.3" customHeight="1">
       <c r="A277" s="82" t="s">
         <v>316</v>
       </c>
@@ -11038,7 +11349,7 @@
       </c>
       <c r="J277" s="69"/>
     </row>
-    <row r="278" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="278" spans="1:10" ht="14.3" customHeight="1">
       <c r="A278" s="82" t="s">
         <v>316</v>
       </c>
@@ -11065,7 +11376,7 @@
       </c>
       <c r="J278" s="69"/>
     </row>
-    <row r="279" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="279" spans="1:10" ht="14.3" customHeight="1">
       <c r="A279" s="4" t="s">
         <v>316</v>
       </c>
@@ -11091,7 +11402,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="280" spans="1:10" ht="14.3" customHeight="1">
       <c r="A280" s="4" t="s">
         <v>316</v>
       </c>
@@ -11117,7 +11428,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="281" spans="1:10" ht="14.3" customHeight="1">
       <c r="A281" s="4" t="s">
         <v>316</v>
       </c>
@@ -11143,7 +11454,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="282" spans="1:10" ht="14.3" customHeight="1">
       <c r="A282" s="4" t="s">
         <v>316</v>
       </c>
@@ -11169,7 +11480,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="283" spans="1:10" ht="14.3" customHeight="1">
       <c r="A283" s="4" t="s">
         <v>316</v>
       </c>
@@ -11195,7 +11506,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="284" spans="1:10" ht="14.3" customHeight="1">
       <c r="A284" s="4" t="s">
         <v>316</v>
       </c>
@@ -11221,7 +11532,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="285" spans="1:10" ht="14.3" customHeight="1">
       <c r="A285" s="4" t="s">
         <v>316</v>
       </c>
@@ -11247,7 +11558,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="286" spans="1:10" ht="14.3" customHeight="1">
       <c r="A286" s="4" t="s">
         <v>316</v>
       </c>
@@ -11273,7 +11584,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="287" spans="1:10" ht="14.3" customHeight="1">
       <c r="A287" s="4" t="s">
         <v>316</v>
       </c>
@@ -11299,7 +11610,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="14.3" hidden="1" customHeight="1">
+    <row r="288" spans="1:10" ht="14.3" customHeight="1">
       <c r="A288" s="4" t="s">
         <v>316</v>
       </c>
@@ -11325,7 +11636,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="289" spans="1:8" ht="14.3" customHeight="1">
       <c r="A289" s="4" t="s">
         <v>316</v>
       </c>
@@ -11351,7 +11662,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="290" spans="1:8" ht="14.3" customHeight="1">
       <c r="A290" s="4" t="s">
         <v>316</v>
       </c>
@@ -11377,7 +11688,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="291" spans="1:8" ht="14.3" customHeight="1">
       <c r="A291" s="4" t="s">
         <v>316</v>
       </c>
@@ -11403,7 +11714,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="292" spans="1:8" ht="14.3" customHeight="1">
       <c r="A292" s="4" t="s">
         <v>316</v>
       </c>
@@ -11429,7 +11740,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="293" spans="1:8" ht="14.3" customHeight="1">
       <c r="A293" s="4" t="s">
         <v>316</v>
       </c>
@@ -11455,7 +11766,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="294" spans="1:8" ht="14.3" customHeight="1">
       <c r="A294" s="4" t="s">
         <v>316</v>
       </c>
@@ -11481,7 +11792,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="295" spans="1:8" ht="14.3" customHeight="1">
       <c r="A295" s="4" t="s">
         <v>316</v>
       </c>
@@ -11507,7 +11818,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="296" spans="1:8" ht="14.3" customHeight="1">
       <c r="A296" s="4" t="s">
         <v>316</v>
       </c>
@@ -11533,7 +11844,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="297" spans="1:8" ht="14.3" customHeight="1">
       <c r="A297" s="4" t="s">
         <v>316</v>
       </c>
@@ -11559,7 +11870,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="298" spans="1:8" ht="14.3" customHeight="1">
       <c r="A298" s="4" t="s">
         <v>316</v>
       </c>
@@ -11585,7 +11896,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="299" spans="1:8" ht="14.3" customHeight="1">
       <c r="A299" s="4" t="s">
         <v>316</v>
       </c>
@@ -11611,7 +11922,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="300" spans="1:8" ht="14.3" customHeight="1">
       <c r="A300" s="4" t="s">
         <v>316</v>
       </c>
@@ -11637,7 +11948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="301" spans="1:8" ht="14.3" customHeight="1">
       <c r="A301" s="4" t="s">
         <v>316</v>
       </c>
@@ -11663,7 +11974,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="302" spans="1:8" ht="14.3" customHeight="1">
       <c r="A302" s="4" t="s">
         <v>316</v>
       </c>
@@ -11689,7 +12000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="303" spans="1:8" ht="14.3" customHeight="1">
       <c r="A303" s="4" t="s">
         <v>316</v>
       </c>
@@ -11715,7 +12026,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="304" spans="1:8" ht="14.3" customHeight="1">
       <c r="A304" s="4" t="s">
         <v>316</v>
       </c>
@@ -11873,7 +12184,7 @@
       </c>
       <c r="H310" s="9"/>
     </row>
-    <row r="311" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="311" spans="1:8" ht="14.3" customHeight="1">
       <c r="A311" s="4" t="s">
         <v>387</v>
       </c>
@@ -11897,7 +12208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="312" spans="1:8" ht="14.3" customHeight="1">
       <c r="A312" s="4" t="s">
         <v>387</v>
       </c>
@@ -11923,7 +12234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="313" spans="1:8" ht="14.3" customHeight="1">
       <c r="A313" s="4" t="s">
         <v>387</v>
       </c>
@@ -11949,7 +12260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="314" spans="1:8" ht="14.3" customHeight="1">
       <c r="A314" s="4" t="s">
         <v>387</v>
       </c>
@@ -11975,7 +12286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="315" spans="1:8" ht="14.3" customHeight="1">
       <c r="A315" s="4" t="s">
         <v>387</v>
       </c>
@@ -12001,7 +12312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="316" spans="1:8" ht="14.3" customHeight="1">
       <c r="A316" s="4" t="s">
         <v>387</v>
       </c>
@@ -12027,7 +12338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="317" spans="1:8" ht="14.3" customHeight="1">
       <c r="A317" s="4" t="s">
         <v>387</v>
       </c>
@@ -12053,7 +12364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="318" spans="1:8" ht="14.3" customHeight="1">
       <c r="A318" s="4" t="s">
         <v>387</v>
       </c>
@@ -12079,7 +12390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="319" spans="1:8" ht="14.3" customHeight="1">
       <c r="A319" s="4" t="s">
         <v>387</v>
       </c>
@@ -12105,7 +12416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="320" spans="1:8" ht="14.3" customHeight="1">
       <c r="A320" s="4" t="s">
         <v>387</v>
       </c>
@@ -12131,7 +12442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="321" spans="1:8" ht="14.3" customHeight="1">
       <c r="A321" s="4" t="s">
         <v>387</v>
       </c>
@@ -12157,7 +12468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="322" spans="1:8" ht="14.3" customHeight="1">
       <c r="A322" s="4" t="s">
         <v>387</v>
       </c>
@@ -12183,7 +12494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="323" spans="1:8" ht="14.3" customHeight="1">
       <c r="A323" s="4" t="s">
         <v>387</v>
       </c>
@@ -12209,7 +12520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="324" spans="1:8" ht="14.3" customHeight="1">
       <c r="A324" s="4" t="s">
         <v>387</v>
       </c>
@@ -12235,7 +12546,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="325" spans="1:8" ht="14.3" customHeight="1">
       <c r="A325" s="4" t="s">
         <v>387</v>
       </c>
@@ -12261,7 +12572,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="326" spans="1:8" ht="14.3" customHeight="1">
       <c r="A326" s="4" t="s">
         <v>387</v>
       </c>
@@ -12287,7 +12598,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="327" spans="1:8" ht="14.3" customHeight="1">
       <c r="A327" s="4" t="s">
         <v>387</v>
       </c>
@@ -12313,7 +12624,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="328" spans="1:8" ht="14.3" customHeight="1">
       <c r="A328" s="4" t="s">
         <v>387</v>
       </c>
@@ -12339,7 +12650,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="329" spans="1:8" ht="14.3" customHeight="1">
       <c r="A329" s="4" t="s">
         <v>387</v>
       </c>
@@ -12365,7 +12676,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="330" spans="1:8" ht="14.3" customHeight="1">
       <c r="A330" s="4" t="s">
         <v>387</v>
       </c>
@@ -12391,7 +12702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="331" spans="1:8" ht="14.3" customHeight="1">
       <c r="A331" s="4" t="s">
         <v>387</v>
       </c>
@@ -12417,7 +12728,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="332" spans="1:8" ht="14.3" customHeight="1">
       <c r="A332" s="4" t="s">
         <v>387</v>
       </c>
@@ -12443,7 +12754,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="333" spans="1:8" ht="14.3" customHeight="1">
       <c r="A333" s="4" t="s">
         <v>387</v>
       </c>
@@ -12469,7 +12780,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="334" spans="1:8" ht="14.3" customHeight="1">
       <c r="A334" s="4" t="s">
         <v>387</v>
       </c>
@@ -12495,7 +12806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="335" spans="1:8" ht="14.3" customHeight="1">
       <c r="A335" s="4" t="s">
         <v>387</v>
       </c>
@@ -12521,7 +12832,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="336" spans="1:8" ht="14.3" customHeight="1">
       <c r="A336" s="4" t="s">
         <v>387</v>
       </c>
@@ -12547,7 +12858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="337" spans="1:8" ht="14.3" customHeight="1">
       <c r="A337" s="4" t="s">
         <v>387</v>
       </c>
@@ -12573,7 +12884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="338" spans="1:8" ht="14.3" customHeight="1">
       <c r="A338" s="4" t="s">
         <v>387</v>
       </c>
@@ -12599,7 +12910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="339" spans="1:8" ht="14.3" customHeight="1">
       <c r="A339" s="4" t="s">
         <v>387</v>
       </c>
@@ -12625,7 +12936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="340" spans="1:8" ht="14.3" customHeight="1">
       <c r="A340" s="4" t="s">
         <v>387</v>
       </c>
@@ -12651,7 +12962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="341" spans="1:8" ht="14.3" customHeight="1">
       <c r="A341" s="4" t="s">
         <v>387</v>
       </c>
@@ -12677,7 +12988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="342" spans="1:8" ht="14.3" customHeight="1">
       <c r="A342" s="4" t="s">
         <v>387</v>
       </c>
@@ -12703,7 +13014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="343" spans="1:8" ht="14.3" customHeight="1">
       <c r="A343" s="4" t="s">
         <v>387</v>
       </c>
@@ -12729,7 +13040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="344" spans="1:8" ht="14.3" customHeight="1">
       <c r="A344" s="4" t="s">
         <v>387</v>
       </c>
@@ -12755,7 +13066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="345" spans="1:8" ht="14.3" customHeight="1">
       <c r="A345" s="4" t="s">
         <v>387</v>
       </c>
@@ -12781,7 +13092,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="346" spans="1:8" ht="14.3" customHeight="1">
       <c r="A346" s="4" t="s">
         <v>387</v>
       </c>
@@ -12807,7 +13118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="347" spans="1:8" ht="14.3" customHeight="1">
       <c r="A347" s="4" t="s">
         <v>387</v>
       </c>
@@ -12831,7 +13142,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="348" spans="1:8" ht="14.3" customHeight="1">
       <c r="A348" s="82" t="s">
         <v>387</v>
       </c>
@@ -12857,7 +13168,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="349" spans="1:8" ht="14.3" customHeight="1">
       <c r="A349" s="82" t="s">
         <v>387</v>
       </c>
@@ -12883,7 +13194,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="350" spans="1:8" ht="14.3" customHeight="1">
       <c r="A350" s="4" t="s">
         <v>387</v>
       </c>
@@ -12909,7 +13220,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="351" spans="1:8" ht="14.3" customHeight="1">
       <c r="A351" s="4" t="s">
         <v>387</v>
       </c>
@@ -12933,7 +13244,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="352" spans="1:8" ht="14.3" customHeight="1">
       <c r="A352" s="4" t="s">
         <v>387</v>
       </c>
@@ -12959,7 +13270,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="353" spans="1:8" ht="14.3" customHeight="1">
       <c r="A353" s="4" t="s">
         <v>387</v>
       </c>
@@ -12985,7 +13296,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="354" spans="1:8" ht="14.3" customHeight="1">
       <c r="A354" s="4" t="s">
         <v>387</v>
       </c>
@@ -13011,7 +13322,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="355" spans="1:8" ht="14.3" customHeight="1">
       <c r="A355" s="4" t="s">
         <v>387</v>
       </c>
@@ -13037,7 +13348,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="356" spans="1:8" ht="14.3" customHeight="1">
       <c r="A356" s="4" t="s">
         <v>387</v>
       </c>
@@ -13151,7 +13462,7 @@
       </c>
       <c r="H360" s="9"/>
     </row>
-    <row r="361" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="361" spans="1:8" ht="14.3" customHeight="1">
       <c r="A361" s="4" t="s">
         <v>434</v>
       </c>
@@ -13175,7 +13486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="362" spans="1:8" ht="14.3" customHeight="1">
       <c r="A362" s="4" t="s">
         <v>434</v>
       </c>
@@ -13199,7 +13510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="363" spans="1:8" ht="14.3" customHeight="1">
       <c r="A363" s="4" t="s">
         <v>434</v>
       </c>
@@ -13223,7 +13534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="364" spans="1:8" ht="14.3" customHeight="1">
       <c r="A364" s="4" t="s">
         <v>434</v>
       </c>
@@ -13249,7 +13560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="365" spans="1:8" ht="14.3" customHeight="1">
       <c r="A365" s="4" t="s">
         <v>434</v>
       </c>
@@ -13275,7 +13586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="366" spans="1:8" ht="14.3" customHeight="1">
       <c r="A366" s="4" t="s">
         <v>434</v>
       </c>
@@ -13301,7 +13612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="367" spans="1:8" ht="14.3" customHeight="1">
       <c r="A367" s="4" t="s">
         <v>434</v>
       </c>
@@ -13327,7 +13638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="368" spans="1:8" ht="14.3" customHeight="1">
       <c r="A368" s="4" t="s">
         <v>434</v>
       </c>
@@ -13353,7 +13664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="369" spans="1:8" ht="14.3" customHeight="1">
       <c r="A369" s="4" t="s">
         <v>434</v>
       </c>
@@ -13379,7 +13690,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="370" spans="1:8" ht="14.3" customHeight="1">
       <c r="A370" s="4" t="s">
         <v>434</v>
       </c>
@@ -13405,7 +13716,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="371" spans="1:8" ht="14.3" customHeight="1">
       <c r="A371" s="4" t="s">
         <v>434</v>
       </c>
@@ -13431,7 +13742,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="372" spans="1:8" ht="14.3" customHeight="1">
       <c r="A372" s="4" t="s">
         <v>434</v>
       </c>
@@ -13457,7 +13768,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="373" spans="1:8" ht="14.3" customHeight="1">
       <c r="A373" s="4" t="s">
         <v>434</v>
       </c>
@@ -13483,7 +13794,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="374" spans="1:8" ht="14.3" customHeight="1">
       <c r="A374" s="4" t="s">
         <v>434</v>
       </c>
@@ -13509,7 +13820,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="375" spans="1:8" ht="14.3" customHeight="1">
       <c r="A375" s="4" t="s">
         <v>434</v>
       </c>
@@ -13535,7 +13846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="376" spans="1:8" ht="14.3" customHeight="1">
       <c r="A376" s="4" t="s">
         <v>434</v>
       </c>
@@ -13561,7 +13872,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="377" spans="1:8" ht="14.3" customHeight="1">
       <c r="A377" s="4" t="s">
         <v>434</v>
       </c>
@@ -13587,7 +13898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="378" spans="1:8" ht="14.3" customHeight="1">
       <c r="A378" s="4" t="s">
         <v>434</v>
       </c>
@@ -13613,7 +13924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="379" spans="1:8" ht="14.3" customHeight="1">
       <c r="A379" s="4" t="s">
         <v>434</v>
       </c>
@@ -13639,7 +13950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="380" spans="1:8" ht="14.3" customHeight="1">
       <c r="A380" s="4" t="s">
         <v>434</v>
       </c>
@@ -13665,7 +13976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="381" spans="1:8" ht="14.3" customHeight="1">
       <c r="A381" s="4" t="s">
         <v>434</v>
       </c>
@@ -13691,7 +14002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="382" spans="1:8" ht="14.3" customHeight="1">
       <c r="A382" s="4" t="s">
         <v>434</v>
       </c>
@@ -13717,7 +14028,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="383" spans="1:8" ht="14.3" customHeight="1">
       <c r="A383" s="4" t="s">
         <v>434</v>
       </c>
@@ -13743,7 +14054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="384" spans="1:8" ht="14.3" customHeight="1">
       <c r="A384" s="4" t="s">
         <v>434</v>
       </c>
@@ -13769,7 +14080,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="385" spans="1:8" ht="14.3" customHeight="1">
       <c r="A385" s="4" t="s">
         <v>434</v>
       </c>
@@ -13795,7 +14106,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="386" spans="1:8" ht="14.3" customHeight="1">
       <c r="A386" s="4" t="s">
         <v>434</v>
       </c>
@@ -13821,7 +14132,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="387" spans="1:8" ht="14.3" customHeight="1">
       <c r="A387" s="4" t="s">
         <v>434</v>
       </c>
@@ -13847,7 +14158,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="388" spans="1:8" ht="14.3" customHeight="1">
       <c r="A388" s="4" t="s">
         <v>434</v>
       </c>
@@ -13873,7 +14184,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="389" spans="1:8" ht="14.3" customHeight="1">
       <c r="A389" s="4" t="s">
         <v>434</v>
       </c>
@@ -13899,7 +14210,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="390" spans="1:8" ht="14.3" customHeight="1">
       <c r="A390" s="4" t="s">
         <v>434</v>
       </c>
@@ -13925,7 +14236,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="391" spans="1:8" ht="14.3" customHeight="1">
       <c r="A391" s="4" t="s">
         <v>434</v>
       </c>
@@ -13951,7 +14262,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="392" spans="1:8" ht="14.3" customHeight="1">
       <c r="A392" s="4" t="s">
         <v>434</v>
       </c>
@@ -13977,7 +14288,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="393" spans="1:8" ht="14.3" customHeight="1">
       <c r="A393" s="4" t="s">
         <v>434</v>
       </c>
@@ -14003,7 +14314,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="394" spans="1:8" ht="14.3" customHeight="1">
       <c r="A394" s="4" t="s">
         <v>434</v>
       </c>
@@ -14029,7 +14340,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="395" spans="1:8" ht="14.3" customHeight="1">
       <c r="A395" s="4" t="s">
         <v>434</v>
       </c>
@@ -14055,7 +14366,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="396" spans="1:8" s="69" customFormat="1" ht="14.3" hidden="1" customHeight="1">
+    <row r="396" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
       <c r="A396" s="82" t="s">
         <v>434</v>
       </c>
@@ -14081,7 +14392,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="397" spans="1:8" ht="14.3" customHeight="1">
       <c r="A397" s="82" t="s">
         <v>434</v>
       </c>
@@ -14107,7 +14418,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="398" spans="1:8" ht="14.3" customHeight="1">
       <c r="A398" s="4" t="s">
         <v>434</v>
       </c>
@@ -14133,7 +14444,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="399" spans="1:8" ht="14.3" customHeight="1">
       <c r="A399" s="4" t="s">
         <v>434</v>
       </c>
@@ -14159,7 +14470,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="400" spans="1:8" ht="14.3" customHeight="1">
       <c r="A400" s="4" t="s">
         <v>434</v>
       </c>
@@ -14185,7 +14496,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="401" spans="1:8" ht="14.3" customHeight="1">
       <c r="A401" s="4" t="s">
         <v>434</v>
       </c>
@@ -14211,7 +14522,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="402" spans="1:8" ht="14.3" customHeight="1">
       <c r="A402" s="4" t="s">
         <v>434</v>
       </c>
@@ -14237,7 +14548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="403" spans="1:8" ht="14.3" customHeight="1">
       <c r="A403" s="4" t="s">
         <v>434</v>
       </c>
@@ -14263,7 +14574,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="404" spans="1:8" ht="14.3" customHeight="1">
       <c r="A404" s="4" t="s">
         <v>434</v>
       </c>
@@ -14289,7 +14600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="405" spans="1:8" ht="14.3" customHeight="1">
       <c r="A405" s="4" t="s">
         <v>434</v>
       </c>
@@ -14315,7 +14626,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="406" spans="1:8" ht="14.3" customHeight="1">
       <c r="A406" s="4" t="s">
         <v>434</v>
       </c>
@@ -14341,7 +14652,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="407" spans="1:8" ht="14.3" customHeight="1">
       <c r="A407" s="4" t="s">
         <v>434</v>
       </c>
@@ -14367,7 +14678,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="408" spans="1:8" ht="14.3" customHeight="1">
       <c r="A408" s="4" t="s">
         <v>434</v>
       </c>
@@ -14393,7 +14704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="409" spans="1:8" ht="14.3" customHeight="1">
       <c r="A409" s="4" t="s">
         <v>434</v>
       </c>
@@ -14419,7 +14730,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="410" spans="1:8" ht="14.3" customHeight="1">
       <c r="A410" s="4" t="s">
         <v>434</v>
       </c>
@@ -14445,7 +14756,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="411" spans="1:8" ht="14.3" customHeight="1">
       <c r="A411" s="4" t="s">
         <v>434</v>
       </c>
@@ -14471,7 +14782,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="412" spans="1:8" ht="14.3" customHeight="1">
       <c r="A412" s="4" t="s">
         <v>434</v>
       </c>
@@ -14519,7 +14830,7 @@
       </c>
       <c r="H413" s="9"/>
     </row>
-    <row r="414" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="414" spans="1:8" ht="14.3" customHeight="1">
       <c r="A414" s="4" t="s">
         <v>495</v>
       </c>
@@ -14545,7 +14856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="415" spans="1:8" ht="14.3" customHeight="1">
       <c r="A415" s="4" t="s">
         <v>495</v>
       </c>
@@ -14571,7 +14882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="416" spans="1:8" ht="14.3" customHeight="1">
       <c r="A416" s="4" t="s">
         <v>495</v>
       </c>
@@ -14597,7 +14908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="417" spans="1:8" ht="14.3" customHeight="1">
       <c r="A417" s="4" t="s">
         <v>495</v>
       </c>
@@ -14623,7 +14934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="418" spans="1:8" ht="14.3" customHeight="1">
       <c r="A418" s="4" t="s">
         <v>495</v>
       </c>
@@ -14649,7 +14960,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="419" spans="1:8" ht="14.3" customHeight="1">
       <c r="A419" s="4" t="s">
         <v>495</v>
       </c>
@@ -14675,7 +14986,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="420" spans="1:8" ht="14.3" customHeight="1">
       <c r="A420" s="4" t="s">
         <v>495</v>
       </c>
@@ -14701,7 +15012,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="421" spans="1:8" ht="14.3" customHeight="1">
       <c r="A421" s="4" t="s">
         <v>495</v>
       </c>
@@ -14727,7 +15038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="422" spans="1:8" ht="14.3" customHeight="1">
       <c r="A422" s="4" t="s">
         <v>495</v>
       </c>
@@ -14753,7 +15064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="423" spans="1:8" ht="14.3" customHeight="1">
       <c r="A423" s="4" t="s">
         <v>495</v>
       </c>
@@ -14779,7 +15090,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="424" spans="1:8" ht="14.3" customHeight="1">
       <c r="A424" s="4" t="s">
         <v>495</v>
       </c>
@@ -14805,7 +15116,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="425" spans="1:8" ht="14.3" customHeight="1">
       <c r="A425" s="4" t="s">
         <v>495</v>
       </c>
@@ -14831,7 +15142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="426" spans="1:8" ht="14.3" customHeight="1">
       <c r="A426" s="4" t="s">
         <v>495</v>
       </c>
@@ -14857,7 +15168,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="427" spans="1:8" ht="14.3" customHeight="1">
       <c r="A427" s="4" t="s">
         <v>495</v>
       </c>
@@ -14883,7 +15194,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="428" spans="1:8" ht="14.3" customHeight="1">
       <c r="A428" s="4" t="s">
         <v>495</v>
       </c>
@@ -14909,7 +15220,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="429" spans="1:8" ht="14.3" customHeight="1">
       <c r="A429" s="4" t="s">
         <v>495</v>
       </c>
@@ -14935,7 +15246,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="430" spans="1:8" ht="14.3" customHeight="1">
       <c r="A430" s="4" t="s">
         <v>495</v>
       </c>
@@ -14961,7 +15272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="431" spans="1:8" ht="14.3" customHeight="1">
       <c r="A431" s="4" t="s">
         <v>495</v>
       </c>
@@ -14987,7 +15298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="432" spans="1:8" ht="14.3" customHeight="1">
       <c r="A432" s="4" t="s">
         <v>495</v>
       </c>
@@ -15013,7 +15324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="433" spans="1:8" ht="14.3" customHeight="1">
       <c r="A433" s="4" t="s">
         <v>495</v>
       </c>
@@ -15039,7 +15350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="434" spans="1:8" ht="14.3" customHeight="1">
       <c r="A434" s="4" t="s">
         <v>495</v>
       </c>
@@ -15065,7 +15376,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="435" spans="1:8" ht="14.3" customHeight="1">
       <c r="A435" s="4" t="s">
         <v>495</v>
       </c>
@@ -15091,7 +15402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="436" spans="1:8" ht="14.3" customHeight="1">
       <c r="A436" s="4" t="s">
         <v>495</v>
       </c>
@@ -15117,7 +15428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="437" spans="1:8" ht="14.3" customHeight="1">
       <c r="A437" s="4" t="s">
         <v>495</v>
       </c>
@@ -15143,7 +15454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="438" spans="1:8" ht="14.3" customHeight="1">
       <c r="A438" s="4" t="s">
         <v>495</v>
       </c>
@@ -15169,7 +15480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="439" spans="1:8" ht="14.3" customHeight="1">
       <c r="A439" s="4" t="s">
         <v>495</v>
       </c>
@@ -15195,7 +15506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="440" spans="1:8" ht="14.3" customHeight="1">
       <c r="A440" s="4" t="s">
         <v>495</v>
       </c>
@@ -15221,7 +15532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="441" spans="1:8" ht="14.3" customHeight="1">
       <c r="A441" s="4" t="s">
         <v>495</v>
       </c>
@@ -15247,7 +15558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="442" spans="1:8" ht="14.3" customHeight="1">
       <c r="A442" s="4" t="s">
         <v>495</v>
       </c>
@@ -15273,7 +15584,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="443" spans="1:8" ht="14.3" customHeight="1">
       <c r="A443" s="4" t="s">
         <v>495</v>
       </c>
@@ -15299,7 +15610,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="444" spans="1:8" ht="14.3" customHeight="1">
       <c r="A444" s="4" t="s">
         <v>495</v>
       </c>
@@ -15325,7 +15636,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="445" spans="1:8" ht="14.3" customHeight="1">
       <c r="A445" s="4" t="s">
         <v>495</v>
       </c>
@@ -15351,7 +15662,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="446" spans="1:8" ht="14.3" customHeight="1">
       <c r="A446" s="4" t="s">
         <v>495</v>
       </c>
@@ -15377,7 +15688,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="447" spans="1:8" ht="14.3" customHeight="1">
       <c r="A447" s="4" t="s">
         <v>495</v>
       </c>
@@ -15403,7 +15714,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="448" spans="1:8" ht="14.3" customHeight="1">
       <c r="A448" s="4" t="s">
         <v>495</v>
       </c>
@@ -15429,7 +15740,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="449" spans="1:8" ht="14.3" customHeight="1">
       <c r="A449" s="4" t="s">
         <v>495</v>
       </c>
@@ -15455,7 +15766,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="450" spans="1:8" ht="14.3" customHeight="1">
       <c r="A450" s="4" t="s">
         <v>495</v>
       </c>
@@ -15481,7 +15792,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="451" spans="1:8" ht="14.3" customHeight="1">
       <c r="A451" s="4" t="s">
         <v>495</v>
       </c>
@@ -15507,7 +15818,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="452" spans="1:8" ht="14.3" customHeight="1">
       <c r="A452" s="4" t="s">
         <v>495</v>
       </c>
@@ -15533,7 +15844,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="453" spans="1:8" ht="14.3" customHeight="1">
       <c r="A453" s="4" t="s">
         <v>495</v>
       </c>
@@ -15559,7 +15870,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="454" spans="1:8" ht="14.3" customHeight="1">
       <c r="A454" s="4" t="s">
         <v>495</v>
       </c>
@@ -15585,7 +15896,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="455" spans="1:8" ht="14.3" customHeight="1">
       <c r="A455" s="4" t="s">
         <v>495</v>
       </c>
@@ -15611,7 +15922,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="456" spans="1:8" ht="14.3" customHeight="1">
       <c r="A456" s="4" t="s">
         <v>495</v>
       </c>
@@ -15637,7 +15948,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="457" spans="1:8" ht="14.3" customHeight="1">
       <c r="A457" s="4" t="s">
         <v>495</v>
       </c>
@@ -15663,7 +15974,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="458" spans="1:8" ht="14.3" customHeight="1">
       <c r="A458" s="4" t="s">
         <v>495</v>
       </c>
@@ -15689,7 +16000,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="459" spans="1:8" ht="14.3" customHeight="1">
       <c r="A459" s="4" t="s">
         <v>495</v>
       </c>
@@ -15715,7 +16026,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="460" spans="1:8" ht="14.3" customHeight="1">
       <c r="A460" s="4" t="s">
         <v>495</v>
       </c>
@@ -15741,7 +16052,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="461" spans="1:8" ht="14.3" customHeight="1">
       <c r="A461" s="4" t="s">
         <v>495</v>
       </c>
@@ -15767,7 +16078,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="462" spans="1:8" ht="14.3" customHeight="1">
       <c r="A462" s="4" t="s">
         <v>495</v>
       </c>
@@ -15793,7 +16104,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="463" spans="1:8" ht="14.3" customHeight="1">
       <c r="A463" s="4" t="s">
         <v>495</v>
       </c>
@@ -15819,7 +16130,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="464" spans="1:8" ht="14.3" customHeight="1">
       <c r="A464" s="4" t="s">
         <v>495</v>
       </c>
@@ -15845,7 +16156,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="465" spans="1:9" ht="14.3" customHeight="1">
       <c r="A465" s="4" t="s">
         <v>495</v>
       </c>
@@ -15871,7 +16182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="466" spans="1:9" ht="14.3" customHeight="1">
       <c r="A466" s="4" t="s">
         <v>495</v>
       </c>
@@ -15897,7 +16208,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="467" spans="1:9" ht="14.3" customHeight="1">
       <c r="A467" s="4" t="s">
         <v>495</v>
       </c>
@@ -15923,7 +16234,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="468" spans="1:9" ht="14.3" customHeight="1">
       <c r="A468" s="71" t="s">
         <v>495</v>
       </c>
@@ -15949,7 +16260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="469" spans="1:9" ht="14.3" customHeight="1">
       <c r="A469" s="71" t="s">
         <v>495</v>
       </c>
@@ -15975,7 +16286,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="470" spans="1:9" ht="14.3" customHeight="1">
       <c r="A470" s="71" t="s">
         <v>495</v>
       </c>
@@ -16001,7 +16312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="471" spans="1:9" ht="14.3" customHeight="1">
       <c r="A471" s="71" t="s">
         <v>495</v>
       </c>
@@ -16027,7 +16338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="472" spans="1:9" ht="14.3" customHeight="1">
       <c r="A472" s="4" t="s">
         <v>495</v>
       </c>
@@ -16053,7 +16364,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="473" spans="1:9" ht="14.3" customHeight="1">
       <c r="A473" s="4" t="s">
         <v>495</v>
       </c>
@@ -16079,7 +16390,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="474" spans="1:9" ht="14.3" customHeight="1">
       <c r="A474" s="4" t="s">
         <v>495</v>
       </c>
@@ -16108,7 +16419,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="475" spans="1:9" ht="14.3" customHeight="1">
       <c r="A475" s="4" t="s">
         <v>495</v>
       </c>
@@ -16137,7 +16448,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="476" spans="1:9" ht="14.3" customHeight="1">
       <c r="A476" s="4" t="s">
         <v>495</v>
       </c>
@@ -16166,7 +16477,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="477" spans="1:9" ht="14.3" customHeight="1">
       <c r="A477" s="4" t="s">
         <v>495</v>
       </c>
@@ -16195,7 +16506,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="478" spans="1:9" ht="14.3" customHeight="1">
       <c r="A478" s="4" t="s">
         <v>495</v>
       </c>
@@ -16224,7 +16535,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="479" spans="1:9" ht="14.3" customHeight="1">
       <c r="A479" s="4" t="s">
         <v>495</v>
       </c>
@@ -16250,7 +16561,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="14.3" hidden="1" customHeight="1">
+    <row r="480" spans="1:9" ht="14.3" customHeight="1">
       <c r="A480" s="4" t="s">
         <v>495</v>
       </c>
@@ -16276,7 +16587,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="481" spans="1:8" ht="14.3" customHeight="1">
       <c r="A481" s="4" t="s">
         <v>495</v>
       </c>
@@ -16302,7 +16613,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="482" spans="1:8" ht="14.3" customHeight="1">
       <c r="A482" s="4" t="s">
         <v>495</v>
       </c>
@@ -16328,7 +16639,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="483" spans="1:8" ht="14.3" customHeight="1">
       <c r="A483" s="4" t="s">
         <v>495</v>
       </c>
@@ -16354,7 +16665,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="484" spans="1:8" ht="14.3" customHeight="1">
       <c r="A484" s="4" t="s">
         <v>495</v>
       </c>
@@ -16380,7 +16691,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="485" spans="1:8" ht="14.3" customHeight="1">
       <c r="A485" s="4" t="s">
         <v>495</v>
       </c>
@@ -16406,7 +16717,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="486" spans="1:8" ht="14.3" customHeight="1">
       <c r="A486" s="4" t="s">
         <v>495</v>
       </c>
@@ -16432,7 +16743,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="487" spans="1:8" ht="14.3" customHeight="1">
       <c r="A487" s="4" t="s">
         <v>495</v>
       </c>
@@ -16458,7 +16769,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="488" spans="1:8" ht="14.3" customHeight="1">
       <c r="A488" s="4" t="s">
         <v>495</v>
       </c>
@@ -16484,7 +16795,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="489" spans="1:8" ht="14.3" customHeight="1">
       <c r="A489" s="4" t="s">
         <v>583</v>
       </c>
@@ -16510,7 +16821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="490" spans="1:8" ht="14.3" customHeight="1">
       <c r="A490" s="4" t="s">
         <v>583</v>
       </c>
@@ -16536,7 +16847,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="491" spans="1:8" ht="14.3" customHeight="1">
       <c r="A491" s="4" t="s">
         <v>583</v>
       </c>
@@ -16562,7 +16873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="492" spans="1:8" ht="14.3" customHeight="1">
       <c r="A492" s="4" t="s">
         <v>583</v>
       </c>
@@ -16588,7 +16899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="493" spans="1:8" ht="14.3" customHeight="1">
       <c r="A493" s="4" t="s">
         <v>583</v>
       </c>
@@ -16614,7 +16925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="494" spans="1:8" ht="14.3" customHeight="1">
       <c r="A494" s="4" t="s">
         <v>583</v>
       </c>
@@ -16640,7 +16951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="495" spans="1:8" ht="14.3" customHeight="1">
       <c r="A495" s="4" t="s">
         <v>583</v>
       </c>
@@ -16666,7 +16977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="496" spans="1:8" ht="14.3" customHeight="1">
       <c r="A496" s="4" t="s">
         <v>583</v>
       </c>
@@ -16692,7 +17003,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="497" spans="1:8" ht="14.3" customHeight="1">
       <c r="A497" s="4" t="s">
         <v>583</v>
       </c>
@@ -16718,7 +17029,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="498" spans="1:8" ht="14.3" customHeight="1">
       <c r="A498" s="4" t="s">
         <v>583</v>
       </c>
@@ -16744,7 +17055,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="499" spans="1:8" ht="14.3" customHeight="1">
       <c r="A499" s="4" t="s">
         <v>583</v>
       </c>
@@ -16770,7 +17081,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="500" spans="1:8" ht="14.3" customHeight="1">
       <c r="A500" s="4" t="s">
         <v>583</v>
       </c>
@@ -16796,7 +17107,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="501" spans="1:8" ht="14.3" customHeight="1">
       <c r="A501" s="4" t="s">
         <v>583</v>
       </c>
@@ -16822,7 +17133,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="502" spans="1:8" ht="14.3" customHeight="1">
       <c r="A502" s="4" t="s">
         <v>583</v>
       </c>
@@ -16848,7 +17159,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="503" spans="1:8" ht="14.3" customHeight="1">
       <c r="A503" s="4" t="s">
         <v>583</v>
       </c>
@@ -16874,7 +17185,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="504" spans="1:8" ht="14.3" customHeight="1">
       <c r="A504" s="4" t="s">
         <v>583</v>
       </c>
@@ -16900,7 +17211,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="505" spans="1:8" ht="14.3" customHeight="1">
       <c r="A505" s="4" t="s">
         <v>583</v>
       </c>
@@ -16926,7 +17237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="506" spans="1:8" ht="14.3" customHeight="1">
       <c r="A506" s="4" t="s">
         <v>583</v>
       </c>
@@ -16952,7 +17263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="507" spans="1:8" ht="14.3" customHeight="1">
       <c r="A507" s="4" t="s">
         <v>583</v>
       </c>
@@ -16978,7 +17289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="508" spans="1:8" ht="14.3" customHeight="1">
       <c r="A508" s="4" t="s">
         <v>583</v>
       </c>
@@ -17004,7 +17315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="509" spans="1:8" ht="14.3" customHeight="1">
       <c r="A509" s="4" t="s">
         <v>583</v>
       </c>
@@ -17030,7 +17341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="510" spans="1:8" ht="14.3" customHeight="1">
       <c r="A510" s="4" t="s">
         <v>583</v>
       </c>
@@ -17056,7 +17367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="511" spans="1:8" ht="14.3" customHeight="1">
       <c r="A511" s="4" t="s">
         <v>583</v>
       </c>
@@ -17080,7 +17391,7 @@
       </c>
       <c r="H511" s="10"/>
     </row>
-    <row r="512" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="512" spans="1:8" ht="14.3" customHeight="1">
       <c r="A512" s="4" t="s">
         <v>583</v>
       </c>
@@ -17106,7 +17417,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="513" spans="1:8" ht="14.3" customHeight="1">
       <c r="A513" s="4" t="s">
         <v>583</v>
       </c>
@@ -17132,7 +17443,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="514" spans="1:8" ht="14.3" customHeight="1">
       <c r="A514" s="4" t="s">
         <v>583</v>
       </c>
@@ -17158,7 +17469,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="515" spans="1:8" ht="14.3" customHeight="1">
       <c r="A515" s="4" t="s">
         <v>583</v>
       </c>
@@ -17184,7 +17495,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="516" spans="1:8" ht="14.3" customHeight="1">
       <c r="A516" s="4" t="s">
         <v>583</v>
       </c>
@@ -17210,7 +17521,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="517" spans="1:8" ht="14.3" customHeight="1">
       <c r="A517" s="4" t="s">
         <v>583</v>
       </c>
@@ -17236,7 +17547,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="518" spans="1:8" ht="14.3" customHeight="1">
       <c r="A518" s="4" t="s">
         <v>583</v>
       </c>
@@ -17262,7 +17573,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="519" spans="1:8" ht="14.3" customHeight="1">
       <c r="A519" s="4" t="s">
         <v>583</v>
       </c>
@@ -17288,7 +17599,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="520" spans="1:8" ht="14.3" customHeight="1">
       <c r="A520" s="4" t="s">
         <v>583</v>
       </c>
@@ -17314,7 +17625,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="521" spans="1:8" ht="14.3" customHeight="1">
       <c r="A521" s="4" t="s">
         <v>583</v>
       </c>
@@ -17340,7 +17651,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="522" spans="1:8" ht="14.3" customHeight="1">
       <c r="A522" s="4" t="s">
         <v>583</v>
       </c>
@@ -17364,7 +17675,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="523" spans="1:8" ht="14.3" customHeight="1">
       <c r="A523" s="4" t="s">
         <v>583</v>
       </c>
@@ -17390,7 +17701,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="524" spans="1:8" ht="14.3" customHeight="1">
       <c r="A524" s="4" t="s">
         <v>583</v>
       </c>
@@ -17416,7 +17727,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="525" spans="1:8" ht="14.3" customHeight="1">
       <c r="A525" s="4" t="s">
         <v>583</v>
       </c>
@@ -17442,7 +17753,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="526" spans="1:8" ht="14.3" customHeight="1">
       <c r="A526" s="71" t="s">
         <v>583</v>
       </c>
@@ -17468,7 +17779,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="527" spans="1:8" ht="14.3" customHeight="1">
       <c r="A527" s="71" t="s">
         <v>583</v>
       </c>
@@ -17494,7 +17805,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="528" spans="1:8" ht="14.3" customHeight="1">
       <c r="A528" s="4" t="s">
         <v>583</v>
       </c>
@@ -17520,7 +17831,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="529" spans="1:8" ht="14.3" customHeight="1">
       <c r="A529" s="4" t="s">
         <v>583</v>
       </c>
@@ -17546,7 +17857,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="530" spans="1:8" ht="14.3" customHeight="1">
       <c r="A530" s="4" t="s">
         <v>583</v>
       </c>
@@ -17572,7 +17883,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="531" spans="1:8" ht="14.3" customHeight="1">
       <c r="A531" s="4" t="s">
         <v>583</v>
       </c>
@@ -17598,7 +17909,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="532" spans="1:8" ht="14.3" customHeight="1">
       <c r="A532" s="4" t="s">
         <v>583</v>
       </c>
@@ -17624,7 +17935,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="533" spans="1:8" ht="14.3" customHeight="1">
       <c r="A533" s="4" t="s">
         <v>583</v>
       </c>
@@ -17650,7 +17961,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="534" spans="1:8" ht="14.3" customHeight="1">
       <c r="A534" s="4" t="s">
         <v>583</v>
       </c>
@@ -17676,7 +17987,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="535" spans="1:8" ht="14.3" customHeight="1">
       <c r="A535" s="4" t="s">
         <v>583</v>
       </c>
@@ -17702,7 +18013,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="536" spans="1:8" ht="14.3" customHeight="1">
       <c r="A536" s="4" t="s">
         <v>583</v>
       </c>
@@ -17728,7 +18039,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="537" spans="1:8" ht="14.3" customHeight="1">
       <c r="A537" s="4" t="s">
         <v>583</v>
       </c>
@@ -17754,7 +18065,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="538" spans="1:8" ht="14.3" customHeight="1">
       <c r="A538" s="4" t="s">
         <v>583</v>
       </c>
@@ -17780,7 +18091,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="539" spans="1:8" ht="14.3" customHeight="1">
       <c r="A539" s="4" t="s">
         <v>583</v>
       </c>
@@ -17806,7 +18117,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="540" spans="1:8" ht="14.3" customHeight="1">
       <c r="A540" s="4" t="s">
         <v>583</v>
       </c>
@@ -17832,7 +18143,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="541" spans="1:8" ht="14.3" customHeight="1">
       <c r="A541" s="4" t="s">
         <v>583</v>
       </c>
@@ -17858,7 +18169,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="542" spans="1:8" ht="14.3" customHeight="1">
       <c r="A542" s="4" t="s">
         <v>583</v>
       </c>
@@ -17884,7 +18195,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="543" spans="1:8" ht="14.3" customHeight="1">
       <c r="A543" s="4" t="s">
         <v>583</v>
       </c>
@@ -17910,7 +18221,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="544" spans="1:8" ht="14.3" customHeight="1">
       <c r="A544" s="4" t="s">
         <v>583</v>
       </c>
@@ -17936,7 +18247,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="545" spans="1:8" ht="14.3" customHeight="1">
       <c r="A545" s="4" t="s">
         <v>583</v>
       </c>
@@ -17962,7 +18273,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="546" spans="1:8" ht="14.3" customHeight="1">
       <c r="A546" s="4" t="s">
         <v>583</v>
       </c>
@@ -17988,7 +18299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="547" spans="1:8" ht="14.3" customHeight="1">
       <c r="A547" s="4" t="s">
         <v>583</v>
       </c>
@@ -18014,7 +18325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="548" spans="1:8" ht="14.3" customHeight="1">
       <c r="A548" s="4" t="s">
         <v>583</v>
       </c>
@@ -18038,7 +18349,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="549" spans="1:8" ht="14.3" customHeight="1">
       <c r="A549" s="4" t="s">
         <v>583</v>
       </c>
@@ -18062,7 +18373,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="550" spans="1:8" ht="14.3" customHeight="1">
       <c r="A550" s="4" t="s">
         <v>583</v>
       </c>
@@ -18108,7 +18419,7 @@
       </c>
       <c r="H551" s="9"/>
     </row>
-    <row r="552" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="552" spans="1:8" ht="14.3" customHeight="1">
       <c r="A552" s="4" t="s">
         <v>651</v>
       </c>
@@ -18134,7 +18445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="553" spans="1:8" ht="14.3" customHeight="1">
       <c r="A553" s="4" t="s">
         <v>651</v>
       </c>
@@ -18160,7 +18471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="554" spans="1:8" ht="14.3" customHeight="1">
       <c r="A554" s="4" t="s">
         <v>651</v>
       </c>
@@ -18186,7 +18497,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="555" spans="1:8" ht="14.3" customHeight="1">
       <c r="A555" s="4" t="s">
         <v>651</v>
       </c>
@@ -18212,7 +18523,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="556" spans="1:8" ht="14.3" customHeight="1">
       <c r="A556" s="4" t="s">
         <v>651</v>
       </c>
@@ -18238,7 +18549,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="557" spans="1:8" ht="14.3" customHeight="1">
       <c r="A557" s="4" t="s">
         <v>651</v>
       </c>
@@ -18264,7 +18575,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="558" spans="1:8" ht="14.3" customHeight="1">
       <c r="A558" s="4" t="s">
         <v>651</v>
       </c>
@@ -18290,7 +18601,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="559" spans="1:8" ht="14.3" customHeight="1">
       <c r="A559" s="4" t="s">
         <v>651</v>
       </c>
@@ -18316,7 +18627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="560" spans="1:8" ht="14.3" customHeight="1">
       <c r="A560" s="4" t="s">
         <v>651</v>
       </c>
@@ -18342,7 +18653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="561" spans="1:8" ht="14.3" customHeight="1">
       <c r="A561" s="4" t="s">
         <v>651</v>
       </c>
@@ -18368,7 +18679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="562" spans="1:8" ht="14.3" customHeight="1">
       <c r="A562" s="4" t="s">
         <v>651</v>
       </c>
@@ -18394,7 +18705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="563" spans="1:8" ht="14.3" customHeight="1">
       <c r="A563" s="4" t="s">
         <v>651</v>
       </c>
@@ -18420,7 +18731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="564" spans="1:8" ht="14.3" customHeight="1">
       <c r="A564" s="4" t="s">
         <v>651</v>
       </c>
@@ -18446,7 +18757,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="565" spans="1:8" ht="14.3" customHeight="1">
       <c r="A565" s="4" t="s">
         <v>651</v>
       </c>
@@ -18472,7 +18783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="566" spans="1:8" ht="14.3" customHeight="1">
       <c r="A566" s="4" t="s">
         <v>651</v>
       </c>
@@ -18498,7 +18809,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="567" spans="1:8" ht="14.3" customHeight="1">
       <c r="A567" s="4" t="s">
         <v>651</v>
       </c>
@@ -18524,7 +18835,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="568" spans="1:8" ht="14.3" customHeight="1">
       <c r="A568" s="4" t="s">
         <v>651</v>
       </c>
@@ -18550,7 +18861,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="569" spans="1:8" ht="14.3" customHeight="1">
       <c r="A569" s="4" t="s">
         <v>651</v>
       </c>
@@ -18576,7 +18887,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="570" spans="1:8" ht="14.3" customHeight="1">
       <c r="A570" s="4" t="s">
         <v>651</v>
       </c>
@@ -18602,7 +18913,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="571" spans="1:8" ht="14.3" customHeight="1">
       <c r="A571" s="4" t="s">
         <v>651</v>
       </c>
@@ -18628,7 +18939,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="572" spans="1:8" ht="14.3" customHeight="1">
       <c r="A572" s="4" t="s">
         <v>651</v>
       </c>
@@ -18650,7 +18961,7 @@
       </c>
       <c r="H572" s="9"/>
     </row>
-    <row r="573" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="573" spans="1:8" ht="14.3" customHeight="1">
       <c r="A573" s="4" t="s">
         <v>651</v>
       </c>
@@ -18669,12 +18980,12 @@
       <c r="F573" s="41" t="s">
         <v>669</v>
       </c>
-      <c r="G573" s="108" t="s">
+      <c r="G573" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="H573" s="109"/>
-    </row>
-    <row r="574" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+      <c r="H573" s="123"/>
+    </row>
+    <row r="574" spans="1:8" ht="14.3" customHeight="1">
       <c r="A574" s="4" t="s">
         <v>651</v>
       </c>
@@ -18693,12 +19004,12 @@
       <c r="F574" s="41" t="s">
         <v>671</v>
       </c>
-      <c r="G574" s="108" t="s">
+      <c r="G574" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="H574" s="109"/>
-    </row>
-    <row r="575" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+      <c r="H574" s="123"/>
+    </row>
+    <row r="575" spans="1:8" ht="14.3" customHeight="1">
       <c r="A575" s="4" t="s">
         <v>651</v>
       </c>
@@ -18724,7 +19035,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="576" spans="1:8" ht="14.3" customHeight="1">
       <c r="A576" s="4" t="s">
         <v>651</v>
       </c>
@@ -18750,7 +19061,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="577" spans="1:8" ht="14.3" customHeight="1">
       <c r="A577" s="4" t="s">
         <v>651</v>
       </c>
@@ -18776,7 +19087,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="578" spans="1:8" ht="14.3" customHeight="1">
       <c r="A578" s="4" t="s">
         <v>651</v>
       </c>
@@ -18800,7 +19111,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="579" spans="1:8" ht="14.3" customHeight="1">
       <c r="A579" s="74" t="s">
         <v>651</v>
       </c>
@@ -18826,7 +19137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="580" spans="1:8" ht="14.3" customHeight="1">
       <c r="A580" s="74" t="s">
         <v>651</v>
       </c>
@@ -18852,7 +19163,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="581" spans="1:8" ht="14.3" customHeight="1">
       <c r="A581" s="4" t="s">
         <v>651</v>
       </c>
@@ -18876,7 +19187,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="582" spans="1:8" ht="14.3" customHeight="1">
       <c r="A582" s="4" t="s">
         <v>651</v>
       </c>
@@ -18902,7 +19213,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="583" spans="1:8" ht="14.3" customHeight="1">
       <c r="A583" s="4" t="s">
         <v>651</v>
       </c>
@@ -18928,7 +19239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="584" spans="1:8" ht="14.3" customHeight="1">
       <c r="A584" s="4" t="s">
         <v>651</v>
       </c>
@@ -18954,7 +19265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="585" spans="1:8" ht="14.3" customHeight="1">
       <c r="A585" s="4" t="s">
         <v>651</v>
       </c>
@@ -18980,7 +19291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="586" spans="1:8" ht="14.3" customHeight="1">
       <c r="A586" s="4" t="s">
         <v>651</v>
       </c>
@@ -19006,7 +19317,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="587" spans="1:8" ht="14.3" customHeight="1">
       <c r="A587" s="4" t="s">
         <v>651</v>
       </c>
@@ -19032,7 +19343,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="588" spans="1:8" ht="14.3" customHeight="1">
       <c r="A588" s="4" t="s">
         <v>651</v>
       </c>
@@ -19058,7 +19369,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="589" spans="1:8" ht="14.3" customHeight="1">
       <c r="A589" s="4" t="s">
         <v>651</v>
       </c>
@@ -19084,7 +19395,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="590" spans="1:8" ht="14.3" customHeight="1">
       <c r="A590" s="4" t="s">
         <v>651</v>
       </c>
@@ -19110,7 +19421,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="591" spans="1:8" ht="14.3" customHeight="1">
       <c r="A591" s="4" t="s">
         <v>651</v>
       </c>
@@ -19136,7 +19447,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="592" spans="1:8" ht="14.3" customHeight="1">
       <c r="A592" s="4" t="s">
         <v>651</v>
       </c>
@@ -19162,7 +19473,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="593" spans="1:8" ht="14.3" customHeight="1">
       <c r="A593" s="4" t="s">
         <v>651</v>
       </c>
@@ -19188,7 +19499,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="594" spans="1:8" ht="14.3" customHeight="1">
       <c r="A594" s="4" t="s">
         <v>651</v>
       </c>
@@ -19214,7 +19525,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="595" spans="1:8" ht="14.3" customHeight="1">
       <c r="A595" s="4" t="s">
         <v>651</v>
       </c>
@@ -19240,7 +19551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="596" spans="1:8" ht="14.3" customHeight="1">
       <c r="A596" s="4" t="s">
         <v>651</v>
       </c>
@@ -19288,7 +19599,7 @@
       </c>
       <c r="H597" s="9"/>
     </row>
-    <row r="598" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="598" spans="1:8" ht="14.3" customHeight="1">
       <c r="A598" s="4" t="s">
         <v>700</v>
       </c>
@@ -19314,7 +19625,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="599" spans="1:8" ht="14.3" customHeight="1">
       <c r="A599" s="4" t="s">
         <v>700</v>
       </c>
@@ -19340,7 +19651,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="600" spans="1:8" ht="14.3" customHeight="1">
       <c r="A600" s="4" t="s">
         <v>700</v>
       </c>
@@ -19366,7 +19677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="601" spans="1:8" ht="14.3" customHeight="1">
       <c r="A601" s="4" t="s">
         <v>700</v>
       </c>
@@ -19392,7 +19703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="602" spans="1:8" ht="14.3" customHeight="1">
       <c r="A602" s="4" t="s">
         <v>700</v>
       </c>
@@ -19418,7 +19729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="603" spans="1:8" ht="14.3" customHeight="1">
       <c r="A603" s="4" t="s">
         <v>700</v>
       </c>
@@ -19444,7 +19755,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="604" spans="1:8" ht="14.3" customHeight="1">
       <c r="A604" s="4" t="s">
         <v>700</v>
       </c>
@@ -19470,7 +19781,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="605" spans="1:8" ht="14.3" customHeight="1">
       <c r="A605" s="4" t="s">
         <v>700</v>
       </c>
@@ -19496,7 +19807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="606" spans="1:8" ht="14.3" customHeight="1">
       <c r="A606" s="4" t="s">
         <v>700</v>
       </c>
@@ -19522,7 +19833,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="607" spans="1:8" ht="14.3" customHeight="1">
       <c r="A607" s="4" t="s">
         <v>700</v>
       </c>
@@ -19548,7 +19859,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="608" spans="1:8" ht="14.3" customHeight="1">
       <c r="A608" s="4" t="s">
         <v>700</v>
       </c>
@@ -19574,7 +19885,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="609" spans="1:8" ht="14.3" customHeight="1">
       <c r="A609" s="4" t="s">
         <v>700</v>
       </c>
@@ -19600,7 +19911,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="610" spans="1:8" ht="14.3" customHeight="1">
       <c r="A610" s="4" t="s">
         <v>700</v>
       </c>
@@ -19626,7 +19937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="611" spans="1:8" ht="14.3" customHeight="1">
       <c r="A611" s="4" t="s">
         <v>700</v>
       </c>
@@ -19652,7 +19963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="612" spans="1:8" ht="14.3" customHeight="1">
       <c r="A612" s="4" t="s">
         <v>700</v>
       </c>
@@ -19674,7 +19985,7 @@
       </c>
       <c r="H612" s="9"/>
     </row>
-    <row r="613" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="613" spans="1:8" ht="14.3" customHeight="1">
       <c r="A613" s="4" t="s">
         <v>700</v>
       </c>
@@ -19700,7 +20011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="614" spans="1:8" ht="14.3" customHeight="1">
       <c r="A614" s="4" t="s">
         <v>700</v>
       </c>
@@ -19726,7 +20037,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="615" spans="1:8" ht="14.3" customHeight="1">
       <c r="A615" s="4" t="s">
         <v>700</v>
       </c>
@@ -19752,7 +20063,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="616" spans="1:8" ht="14.3" customHeight="1">
       <c r="A616" s="4" t="s">
         <v>700</v>
       </c>
@@ -19778,7 +20089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="617" spans="1:8" ht="14.3" customHeight="1">
       <c r="A617" s="4" t="s">
         <v>700</v>
       </c>
@@ -19804,7 +20115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="618" spans="1:8" ht="14.3" customHeight="1">
       <c r="A618" s="4" t="s">
         <v>700</v>
       </c>
@@ -19828,7 +20139,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="619" spans="1:8" ht="14.3" customHeight="1">
       <c r="A619" s="4" t="s">
         <v>700</v>
       </c>
@@ -19854,7 +20165,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="620" spans="1:8" ht="14.3" customHeight="1">
       <c r="A620" s="4" t="s">
         <v>700</v>
       </c>
@@ -19880,7 +20191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="621" spans="1:8" ht="14.3" customHeight="1">
       <c r="A621" s="4" t="s">
         <v>700</v>
       </c>
@@ -19906,7 +20217,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="622" spans="1:8" ht="14.3" customHeight="1">
       <c r="A622" s="4" t="s">
         <v>700</v>
       </c>
@@ -19932,7 +20243,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="623" spans="1:8" ht="14.3" customHeight="1">
       <c r="A623" s="4" t="s">
         <v>700</v>
       </c>
@@ -19958,7 +20269,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="624" spans="1:8" ht="14.3" customHeight="1">
       <c r="A624" s="4" t="s">
         <v>700</v>
       </c>
@@ -19984,7 +20295,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="625" spans="1:8" ht="14.3" customHeight="1">
       <c r="A625" s="4" t="s">
         <v>700</v>
       </c>
@@ -20010,7 +20321,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="626" spans="1:8" ht="14.3" customHeight="1">
       <c r="A626" s="4" t="s">
         <v>700</v>
       </c>
@@ -20036,7 +20347,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="627" spans="1:8" ht="14.3" customHeight="1">
       <c r="A627" s="4" t="s">
         <v>700</v>
       </c>
@@ -20062,7 +20373,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="628" spans="1:8" ht="14.3" customHeight="1">
       <c r="A628" s="4" t="s">
         <v>700</v>
       </c>
@@ -20088,7 +20399,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="629" spans="1:8" ht="14.3" customHeight="1">
       <c r="A629" s="4" t="s">
         <v>700</v>
       </c>
@@ -20114,7 +20425,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="630" spans="1:8" ht="14.3" customHeight="1">
       <c r="A630" s="4" t="s">
         <v>700</v>
       </c>
@@ -20140,7 +20451,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="631" spans="1:8" ht="14.3" customHeight="1">
       <c r="A631" s="4" t="s">
         <v>700</v>
       </c>
@@ -20166,7 +20477,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="632" spans="1:8" ht="14.3" customHeight="1">
       <c r="A632" s="4" t="s">
         <v>700</v>
       </c>
@@ -20192,7 +20503,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="633" spans="1:8" ht="14.3" customHeight="1">
       <c r="A633" s="4" t="s">
         <v>700</v>
       </c>
@@ -20218,7 +20529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="634" spans="1:8" ht="14.3" customHeight="1">
       <c r="A634" s="4" t="s">
         <v>700</v>
       </c>
@@ -20244,7 +20555,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="635" spans="1:8" ht="14.3" customHeight="1">
       <c r="A635" s="4" t="s">
         <v>700</v>
       </c>
@@ -20270,7 +20581,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="636" spans="1:8" ht="14.3" customHeight="1">
       <c r="A636" s="4" t="s">
         <v>700</v>
       </c>
@@ -20296,7 +20607,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="637" spans="1:8" ht="14.3" customHeight="1">
       <c r="A637" s="4" t="s">
         <v>700</v>
       </c>
@@ -20322,7 +20633,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="638" spans="1:8" ht="14.3" customHeight="1">
       <c r="A638" s="4" t="s">
         <v>700</v>
       </c>
@@ -20348,7 +20659,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="639" spans="1:8" ht="14.3" customHeight="1">
       <c r="A639" s="71" t="s">
         <v>700</v>
       </c>
@@ -20374,7 +20685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="640" spans="1:8" ht="14.3" customHeight="1">
       <c r="A640" s="71" t="s">
         <v>700</v>
       </c>
@@ -20400,7 +20711,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="641" spans="1:8" ht="14.3" customHeight="1">
       <c r="A641" s="71" t="s">
         <v>700</v>
       </c>
@@ -20426,7 +20737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="642" spans="1:8" ht="14.3" customHeight="1">
       <c r="A642" s="71" t="s">
         <v>700</v>
       </c>
@@ -20452,7 +20763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="643" spans="1:8" ht="14.3" customHeight="1">
       <c r="A643" s="4" t="s">
         <v>700</v>
       </c>
@@ -20478,7 +20789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="644" spans="1:8" ht="14.3" customHeight="1">
       <c r="A644" s="4" t="s">
         <v>700</v>
       </c>
@@ -20504,7 +20815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="645" spans="1:8" ht="14.3" customHeight="1">
       <c r="A645" s="4" t="s">
         <v>700</v>
       </c>
@@ -20530,7 +20841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="646" spans="1:8" ht="14.3" customHeight="1">
       <c r="A646" s="4" t="s">
         <v>700</v>
       </c>
@@ -20556,7 +20867,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="647" spans="1:8" ht="14.3" customHeight="1">
       <c r="A647" s="4" t="s">
         <v>700</v>
       </c>
@@ -20582,7 +20893,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="648" spans="1:8" ht="14.3" customHeight="1">
       <c r="A648" s="4" t="s">
         <v>700</v>
       </c>
@@ -20608,7 +20919,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="649" spans="1:8" ht="14.3" customHeight="1">
       <c r="A649" s="4" t="s">
         <v>700</v>
       </c>
@@ -20634,7 +20945,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="650" spans="1:8" ht="14.3" customHeight="1">
       <c r="A650" s="4" t="s">
         <v>700</v>
       </c>
@@ -20660,7 +20971,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="651" spans="1:8" ht="14.3" customHeight="1">
       <c r="A651" s="4" t="s">
         <v>700</v>
       </c>
@@ -20686,7 +20997,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="652" spans="1:8" ht="14.3" customHeight="1">
       <c r="A652" s="4" t="s">
         <v>700</v>
       </c>
@@ -20712,7 +21023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="653" spans="1:8" ht="14.3" customHeight="1">
       <c r="A653" s="4" t="s">
         <v>700</v>
       </c>
@@ -20738,7 +21049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="654" spans="1:8" ht="14.3" customHeight="1">
       <c r="A654" s="4" t="s">
         <v>700</v>
       </c>
@@ -20764,7 +21075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="655" spans="1:8" ht="14.3" customHeight="1">
       <c r="A655" s="4" t="s">
         <v>700</v>
       </c>
@@ -20790,7 +21101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="656" spans="1:8" ht="14.3" customHeight="1">
       <c r="A656" s="4" t="s">
         <v>700</v>
       </c>
@@ -20816,7 +21127,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="657" spans="1:8" ht="14.3" customHeight="1">
       <c r="A657" s="4" t="s">
         <v>700</v>
       </c>
@@ -20842,7 +21153,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="658" spans="1:8" ht="14.3" customHeight="1">
       <c r="A658" s="4" t="s">
         <v>700</v>
       </c>
@@ -20868,7 +21179,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="659" spans="1:8" ht="14.3" customHeight="1">
       <c r="A659" s="4" t="s">
         <v>700</v>
       </c>
@@ -20894,7 +21205,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="660" spans="1:8" ht="14.3" customHeight="1">
       <c r="A660" s="4" t="s">
         <v>700</v>
       </c>
@@ -20920,7 +21231,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="661" spans="1:8" ht="14.3" customHeight="1">
       <c r="A661" s="4" t="s">
         <v>700</v>
       </c>
@@ -20946,7 +21257,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="662" spans="1:8" ht="14.3" customHeight="1">
       <c r="A662" s="4" t="s">
         <v>700</v>
       </c>
@@ -20972,7 +21283,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="663" spans="1:8" ht="14.3" customHeight="1">
       <c r="A663" s="4" t="s">
         <v>700</v>
       </c>
@@ -20998,7 +21309,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="664" spans="1:8" ht="14.3" customHeight="1">
       <c r="A664" s="4" t="s">
         <v>700</v>
       </c>
@@ -21024,7 +21335,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="665" spans="1:8" ht="14.3" customHeight="1">
       <c r="A665" s="4" t="s">
         <v>700</v>
       </c>
@@ -21050,7 +21361,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="666" spans="1:8" ht="14.3" customHeight="1">
       <c r="A666" s="4" t="s">
         <v>700</v>
       </c>
@@ -21076,7 +21387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="667" spans="1:8" ht="14.3" customHeight="1">
       <c r="A667" s="4" t="s">
         <v>700</v>
       </c>
@@ -21124,7 +21435,7 @@
       </c>
       <c r="H668" s="9"/>
     </row>
-    <row r="669" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="669" spans="1:8" ht="14.3" customHeight="1">
       <c r="A669" s="4" t="s">
         <v>766</v>
       </c>
@@ -21150,7 +21461,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="670" spans="1:8" ht="14.3" customHeight="1">
       <c r="A670" s="4" t="s">
         <v>766</v>
       </c>
@@ -21176,7 +21487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="671" spans="1:8" ht="14.3" customHeight="1">
       <c r="A671" s="4" t="s">
         <v>766</v>
       </c>
@@ -21202,7 +21513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="672" spans="1:8" ht="14.3" customHeight="1">
       <c r="A672" s="4" t="s">
         <v>766</v>
       </c>
@@ -21228,7 +21539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="673" spans="1:8" ht="14.3" customHeight="1">
       <c r="A673" s="4" t="s">
         <v>766</v>
       </c>
@@ -21254,7 +21565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="674" spans="1:8" ht="14.3" customHeight="1">
       <c r="A674" s="4" t="s">
         <v>766</v>
       </c>
@@ -21280,7 +21591,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="675" spans="1:8" ht="14.3" customHeight="1">
       <c r="A675" s="4" t="s">
         <v>766</v>
       </c>
@@ -21306,7 +21617,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="676" spans="1:8" ht="14.3" customHeight="1">
       <c r="A676" s="4" t="s">
         <v>766</v>
       </c>
@@ -21332,7 +21643,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="677" spans="1:8" ht="14.3" customHeight="1">
       <c r="A677" s="4" t="s">
         <v>766</v>
       </c>
@@ -21358,7 +21669,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="678" spans="1:8" ht="14.3" customHeight="1">
       <c r="A678" s="4" t="s">
         <v>766</v>
       </c>
@@ -21384,7 +21695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="679" spans="1:8" ht="14.3" customHeight="1">
       <c r="A679" s="4" t="s">
         <v>766</v>
       </c>
@@ -21410,7 +21721,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="680" spans="1:8" ht="14.3" customHeight="1">
       <c r="A680" s="4" t="s">
         <v>766</v>
       </c>
@@ -21436,7 +21747,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="681" spans="1:8" ht="14.3" customHeight="1">
       <c r="A681" s="4" t="s">
         <v>766</v>
       </c>
@@ -21462,7 +21773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="682" spans="1:8" ht="14.3" customHeight="1">
       <c r="A682" s="4" t="s">
         <v>766</v>
       </c>
@@ -21488,7 +21799,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="683" spans="1:8" ht="14.3" customHeight="1">
       <c r="A683" s="4" t="s">
         <v>766</v>
       </c>
@@ -21514,7 +21825,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="684" spans="1:8" ht="14.3" customHeight="1">
       <c r="A684" s="4" t="s">
         <v>766</v>
       </c>
@@ -21540,7 +21851,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="685" spans="1:8" ht="14.3" customHeight="1">
       <c r="A685" s="4" t="s">
         <v>766</v>
       </c>
@@ -21566,7 +21877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="686" spans="1:8" ht="14.3" customHeight="1">
       <c r="A686" s="4" t="s">
         <v>766</v>
       </c>
@@ -21592,7 +21903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="687" spans="1:8" ht="14.3" customHeight="1">
       <c r="A687" s="4" t="s">
         <v>766</v>
       </c>
@@ -21618,7 +21929,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="688" spans="1:8" ht="14.3" customHeight="1">
       <c r="A688" s="4" t="s">
         <v>766</v>
       </c>
@@ -21644,7 +21955,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="689" spans="1:8" ht="14.3" customHeight="1">
       <c r="A689" s="4" t="s">
         <v>766</v>
       </c>
@@ -21670,7 +21981,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="690" spans="1:8" ht="14.3" customHeight="1">
       <c r="A690" s="4" t="s">
         <v>766</v>
       </c>
@@ -21696,7 +22007,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="691" spans="1:8" ht="14.3" customHeight="1">
       <c r="A691" s="4" t="s">
         <v>766</v>
       </c>
@@ -21722,7 +22033,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="692" spans="1:8" ht="14.3" customHeight="1">
       <c r="A692" s="4" t="s">
         <v>766</v>
       </c>
@@ -21748,7 +22059,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="693" spans="1:8" ht="14.3" customHeight="1">
       <c r="A693" s="4" t="s">
         <v>766</v>
       </c>
@@ -21774,7 +22085,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="694" spans="1:8" ht="14.3" customHeight="1">
       <c r="A694" s="4" t="s">
         <v>766</v>
       </c>
@@ -21798,7 +22109,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="695" spans="1:8" ht="14.3" customHeight="1">
       <c r="A695" s="4" t="s">
         <v>766</v>
       </c>
@@ -21824,7 +22135,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="696" spans="1:8" ht="14.3" customHeight="1">
       <c r="A696" s="4" t="s">
         <v>766</v>
       </c>
@@ -21850,7 +22161,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="697" spans="1:8" ht="14.3" customHeight="1">
       <c r="A697" s="4" t="s">
         <v>766</v>
       </c>
@@ -21876,7 +22187,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="698" spans="1:8" ht="14.3" customHeight="1">
       <c r="A698" s="4" t="s">
         <v>766</v>
       </c>
@@ -21902,7 +22213,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="699" spans="1:8" ht="14.3" customHeight="1">
       <c r="A699" s="4" t="s">
         <v>766</v>
       </c>
@@ -21928,7 +22239,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="700" spans="1:8" ht="14.3" customHeight="1">
       <c r="A700" s="4" t="s">
         <v>766</v>
       </c>
@@ -21954,7 +22265,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="701" spans="1:8" ht="14.3" customHeight="1">
       <c r="A701" s="4" t="s">
         <v>766</v>
       </c>
@@ -21980,7 +22291,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="702" spans="1:8" ht="14.3" customHeight="1">
       <c r="A702" s="71" t="s">
         <v>766</v>
       </c>
@@ -22006,7 +22317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="703" spans="1:8" ht="14.3" customHeight="1">
       <c r="A703" s="71" t="s">
         <v>766</v>
       </c>
@@ -22032,7 +22343,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="704" spans="1:8" ht="14.3" customHeight="1">
       <c r="A704" s="4" t="s">
         <v>766</v>
       </c>
@@ -22058,7 +22369,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="705" spans="1:8" ht="14.3" customHeight="1">
       <c r="A705" s="4" t="s">
         <v>766</v>
       </c>
@@ -22084,7 +22395,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="706" spans="1:8" ht="14.3" customHeight="1">
       <c r="A706" s="4" t="s">
         <v>766</v>
       </c>
@@ -22110,14 +22421,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="707" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="707" spans="1:8" ht="14.3" customHeight="1">
       <c r="A707" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B707" s="108" t="s">
+      <c r="B707" s="122" t="s">
         <v>767</v>
       </c>
-      <c r="C707" s="109"/>
+      <c r="C707" s="123"/>
       <c r="D707" s="50" t="s">
         <v>806</v>
       </c>
@@ -22134,14 +22445,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="708" spans="1:8" ht="14.3" customHeight="1">
       <c r="A708" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B708" s="108" t="s">
+      <c r="B708" s="122" t="s">
         <v>767</v>
       </c>
-      <c r="C708" s="109"/>
+      <c r="C708" s="123"/>
       <c r="D708" s="50" t="s">
         <v>806</v>
       </c>
@@ -22158,7 +22469,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="709" spans="1:8" ht="14.3" customHeight="1">
       <c r="A709" s="4" t="s">
         <v>766</v>
       </c>
@@ -22184,7 +22495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="710" spans="1:8" ht="14.3" customHeight="1">
       <c r="A710" s="4" t="s">
         <v>766</v>
       </c>
@@ -22210,7 +22521,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="711" spans="1:8" ht="14.3" customHeight="1">
       <c r="A711" s="4" t="s">
         <v>766</v>
       </c>
@@ -22236,7 +22547,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="712" spans="1:8" ht="14.3" customHeight="1">
       <c r="A712" s="4" t="s">
         <v>766</v>
       </c>
@@ -22262,7 +22573,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="713" spans="1:8" ht="14.3" customHeight="1">
       <c r="A713" s="4" t="s">
         <v>766</v>
       </c>
@@ -22288,7 +22599,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="714" spans="1:8" ht="14.3" customHeight="1">
       <c r="A714" s="4" t="s">
         <v>766</v>
       </c>
@@ -22314,7 +22625,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="715" spans="1:8" ht="14.3" customHeight="1">
       <c r="A715" s="4" t="s">
         <v>766</v>
       </c>
@@ -22340,7 +22651,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="716" spans="1:8" ht="14.3" customHeight="1">
       <c r="A716" s="4" t="s">
         <v>766</v>
       </c>
@@ -22366,7 +22677,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="717" spans="1:8" ht="14.3" customHeight="1">
       <c r="A717" s="4" t="s">
         <v>766</v>
       </c>
@@ -22392,7 +22703,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="718" spans="1:8" ht="14.3" customHeight="1">
       <c r="A718" s="4" t="s">
         <v>766</v>
       </c>
@@ -22418,7 +22729,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="719" spans="1:8" ht="14.3" customHeight="1">
       <c r="A719" s="4" t="s">
         <v>766</v>
       </c>
@@ -22466,7 +22777,7 @@
       </c>
       <c r="H720" s="9"/>
     </row>
-    <row r="721" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="721" spans="1:8" ht="14.3" customHeight="1">
       <c r="A721" s="4" t="s">
         <v>821</v>
       </c>
@@ -22492,7 +22803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="722" spans="1:8" ht="14.3" customHeight="1">
       <c r="A722" s="4" t="s">
         <v>821</v>
       </c>
@@ -22518,7 +22829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="723" spans="1:8" ht="14.3" customHeight="1">
       <c r="A723" s="4" t="s">
         <v>821</v>
       </c>
@@ -22544,7 +22855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="724" spans="1:8" ht="14.3" customHeight="1">
       <c r="A724" s="4" t="s">
         <v>821</v>
       </c>
@@ -22570,7 +22881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="725" spans="1:8" ht="14.3" customHeight="1">
       <c r="A725" s="4" t="s">
         <v>821</v>
       </c>
@@ -22596,7 +22907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="726" spans="1:8" ht="14.3" customHeight="1">
       <c r="A726" s="4" t="s">
         <v>821</v>
       </c>
@@ -22622,7 +22933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="727" spans="1:8" ht="14.3" customHeight="1">
       <c r="A727" s="4" t="s">
         <v>821</v>
       </c>
@@ -22648,7 +22959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="728" spans="1:8" ht="14.3" customHeight="1">
       <c r="A728" s="4" t="s">
         <v>821</v>
       </c>
@@ -22674,7 +22985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="729" spans="1:8" ht="14.3" customHeight="1">
       <c r="A729" s="4" t="s">
         <v>821</v>
       </c>
@@ -22696,7 +23007,7 @@
       </c>
       <c r="H729" s="9"/>
     </row>
-    <row r="730" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="730" spans="1:8" ht="14.3" customHeight="1">
       <c r="A730" s="4" t="s">
         <v>821</v>
       </c>
@@ -22722,7 +23033,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="731" spans="1:8" ht="14.3" customHeight="1">
       <c r="A731" s="4" t="s">
         <v>821</v>
       </c>
@@ -22748,7 +23059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="732" spans="1:8" ht="14.3" customHeight="1">
       <c r="A732" s="4" t="s">
         <v>821</v>
       </c>
@@ -22774,7 +23085,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="733" spans="1:8" ht="14.3" customHeight="1">
       <c r="A733" s="4" t="s">
         <v>821</v>
       </c>
@@ -22800,7 +23111,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="734" spans="1:8" ht="14.3" customHeight="1">
       <c r="A734" s="4" t="s">
         <v>821</v>
       </c>
@@ -22826,7 +23137,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="735" spans="1:8" ht="14.3" customHeight="1">
       <c r="A735" s="4" t="s">
         <v>821</v>
       </c>
@@ -22852,7 +23163,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="736" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="736" spans="1:8" ht="14.3" customHeight="1">
       <c r="A736" s="4" t="s">
         <v>821</v>
       </c>
@@ -22878,7 +23189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="737" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="737" spans="1:8" ht="14.3" customHeight="1">
       <c r="A737" s="4" t="s">
         <v>821</v>
       </c>
@@ -22904,7 +23215,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="738" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="738" spans="1:8" ht="14.3" customHeight="1">
       <c r="A738" s="4" t="s">
         <v>821</v>
       </c>
@@ -22930,7 +23241,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="739" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="739" spans="1:8" ht="14.3" customHeight="1">
       <c r="A739" s="4" t="s">
         <v>821</v>
       </c>
@@ -22956,7 +23267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="740" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="740" spans="1:8" ht="14.3" customHeight="1">
       <c r="A740" s="4" t="s">
         <v>821</v>
       </c>
@@ -22982,7 +23293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="741" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="741" spans="1:8" ht="14.3" customHeight="1">
       <c r="A741" s="4" t="s">
         <v>821</v>
       </c>
@@ -23008,7 +23319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="742" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="742" spans="1:8" ht="14.3" customHeight="1">
       <c r="A742" s="4" t="s">
         <v>821</v>
       </c>
@@ -23034,7 +23345,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="743" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="743" spans="1:8" ht="14.3" customHeight="1">
       <c r="A743" s="4" t="s">
         <v>821</v>
       </c>
@@ -23060,7 +23371,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="744" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="744" spans="1:8" ht="14.3" customHeight="1">
       <c r="A744" s="4" t="s">
         <v>821</v>
       </c>
@@ -23086,7 +23397,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="745" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="745" spans="1:8" ht="14.3" customHeight="1">
       <c r="A745" s="4" t="s">
         <v>821</v>
       </c>
@@ -23112,7 +23423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="746" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="746" spans="1:8" ht="14.3" customHeight="1">
       <c r="A746" s="4" t="s">
         <v>821</v>
       </c>
@@ -23138,7 +23449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="747" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="747" spans="1:8" ht="14.3" customHeight="1">
       <c r="A747" s="4" t="s">
         <v>821</v>
       </c>
@@ -23164,7 +23475,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="748" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="748" spans="1:8" ht="14.3" customHeight="1">
       <c r="A748" s="4" t="s">
         <v>821</v>
       </c>
@@ -23190,7 +23501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="749" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="749" spans="1:8" ht="14.3" customHeight="1">
       <c r="A749" s="4" t="s">
         <v>821</v>
       </c>
@@ -23216,7 +23527,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="750" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="750" spans="1:8" ht="14.3" customHeight="1">
       <c r="A750" s="4" t="s">
         <v>821</v>
       </c>
@@ -23242,7 +23553,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="751" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="751" spans="1:8" ht="14.3" customHeight="1">
       <c r="A751" s="4" t="s">
         <v>821</v>
       </c>
@@ -23268,7 +23579,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="752" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="752" spans="1:8" ht="14.3" customHeight="1">
       <c r="A752" s="4" t="s">
         <v>821</v>
       </c>
@@ -23294,7 +23605,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="753" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="753" spans="1:8" ht="14.3" customHeight="1">
       <c r="A753" s="4" t="s">
         <v>821</v>
       </c>
@@ -23320,7 +23631,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="754" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="754" spans="1:8" ht="14.3" customHeight="1">
       <c r="A754" s="4" t="s">
         <v>821</v>
       </c>
@@ -23344,7 +23655,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="755" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="755" spans="1:8" ht="14.3" customHeight="1">
       <c r="A755" s="4" t="s">
         <v>821</v>
       </c>
@@ -23370,7 +23681,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="756" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="756" spans="1:8" ht="14.3" customHeight="1">
       <c r="A756" s="4" t="s">
         <v>821</v>
       </c>
@@ -23396,7 +23707,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="757" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="757" spans="1:8" ht="14.3" customHeight="1">
       <c r="A757" s="4" t="s">
         <v>821</v>
       </c>
@@ -23422,7 +23733,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="758" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="758" spans="1:8" ht="14.3" customHeight="1">
       <c r="A758" s="4" t="s">
         <v>821</v>
       </c>
@@ -23448,7 +23759,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="759" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="759" spans="1:8" ht="14.3" customHeight="1">
       <c r="A759" s="4" t="s">
         <v>821</v>
       </c>
@@ -23474,7 +23785,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="760" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="760" spans="1:8" ht="14.3" customHeight="1">
       <c r="A760" s="4" t="s">
         <v>821</v>
       </c>
@@ -23500,7 +23811,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="761" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="761" spans="1:8" ht="14.3" customHeight="1">
       <c r="A761" s="4" t="s">
         <v>821</v>
       </c>
@@ -23526,7 +23837,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="762" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="762" spans="1:8" ht="14.3" customHeight="1">
       <c r="A762" s="4" t="s">
         <v>821</v>
       </c>
@@ -23552,7 +23863,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="763" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="763" spans="1:8" ht="14.3" customHeight="1">
       <c r="A763" s="4" t="s">
         <v>821</v>
       </c>
@@ -23578,7 +23889,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="764" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="764" spans="1:8" ht="14.3" customHeight="1">
       <c r="A764" s="4" t="s">
         <v>821</v>
       </c>
@@ -23604,7 +23915,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="765" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="765" spans="1:8" ht="14.3" customHeight="1">
       <c r="A765" s="74" t="s">
         <v>821</v>
       </c>
@@ -23630,7 +23941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="766" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="766" spans="1:8" ht="14.3" customHeight="1">
       <c r="A766" s="74" t="s">
         <v>821</v>
       </c>
@@ -23656,7 +23967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="767" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="767" spans="1:8" ht="14.3" customHeight="1">
       <c r="A767" s="74" t="s">
         <v>821</v>
       </c>
@@ -23682,7 +23993,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="768" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="768" spans="1:8" ht="14.3" customHeight="1">
       <c r="A768" s="74" t="s">
         <v>821</v>
       </c>
@@ -23708,7 +24019,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="769" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="769" spans="1:8" ht="14.3" customHeight="1">
       <c r="A769" s="74" t="s">
         <v>821</v>
       </c>
@@ -23734,7 +24045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="770" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="770" spans="1:8" ht="14.3" customHeight="1">
       <c r="A770" s="74" t="s">
         <v>821</v>
       </c>
@@ -23760,7 +24071,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="771" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="771" spans="1:8" ht="14.3" customHeight="1">
       <c r="A771" s="74" t="s">
         <v>821</v>
       </c>
@@ -23786,7 +24097,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="772" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="772" spans="1:8" ht="14.3" customHeight="1">
       <c r="A772" s="74" t="s">
         <v>821</v>
       </c>
@@ -23812,7 +24123,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="773" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="773" spans="1:8" ht="14.3" customHeight="1">
       <c r="A773" s="4" t="s">
         <v>821</v>
       </c>
@@ -23838,7 +24149,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="774" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="774" spans="1:8" ht="14.3" customHeight="1">
       <c r="A774" s="4" t="s">
         <v>821</v>
       </c>
@@ -23864,7 +24175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="775" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="775" spans="1:8" ht="14.3" customHeight="1">
       <c r="A775" s="4" t="s">
         <v>821</v>
       </c>
@@ -23890,7 +24201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="776" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="776" spans="1:8" ht="14.3" customHeight="1">
       <c r="A776" s="4" t="s">
         <v>821</v>
       </c>
@@ -23916,7 +24227,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="777" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="777" spans="1:8" ht="14.3" customHeight="1">
       <c r="A777" s="4" t="s">
         <v>821</v>
       </c>
@@ -23942,7 +24253,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="778" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="778" spans="1:8" ht="14.3" customHeight="1">
       <c r="A778" s="4" t="s">
         <v>821</v>
       </c>
@@ -23968,7 +24279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="779" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="779" spans="1:8" ht="14.3" customHeight="1">
       <c r="A779" s="4" t="s">
         <v>821</v>
       </c>
@@ -23994,7 +24305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="780" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="780" spans="1:8" ht="14.3" customHeight="1">
       <c r="A780" s="4" t="s">
         <v>821</v>
       </c>
@@ -24004,10 +24315,10 @@
       <c r="C780" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="D780" s="108" t="s">
+      <c r="D780" s="122" t="s">
         <v>882</v>
       </c>
-      <c r="E780" s="109"/>
+      <c r="E780" s="123"/>
       <c r="F780" s="52">
         <v>0.47222222222222221</v>
       </c>
@@ -24018,7 +24329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="781" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="781" spans="1:8" ht="14.3" customHeight="1">
       <c r="A781" s="4" t="s">
         <v>821</v>
       </c>
@@ -24044,7 +24355,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="782" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="782" spans="1:8" ht="14.3" customHeight="1">
       <c r="A782" s="4" t="s">
         <v>821</v>
       </c>
@@ -24054,10 +24365,10 @@
       <c r="C782" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="D782" s="108" t="s">
+      <c r="D782" s="122" t="s">
         <v>884</v>
       </c>
-      <c r="E782" s="109"/>
+      <c r="E782" s="123"/>
       <c r="F782" s="53">
         <v>17.290972222222223</v>
       </c>
@@ -24068,7 +24379,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="783" spans="1:8" ht="14.3" hidden="1" customHeight="1">
+    <row r="783" spans="1:8" ht="14.3" customHeight="1">
       <c r="A783" s="4" t="s">
         <v>821</v>
       </c>
@@ -24078,10 +24389,10 @@
       <c r="C783" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="D783" s="108" t="s">
+      <c r="D783" s="122" t="s">
         <v>884</v>
       </c>
-      <c r="E783" s="109"/>
+      <c r="E783" s="123"/>
       <c r="F783" s="53">
         <v>4.4437499999999996</v>
       </c>
@@ -25119,13 +25430,7 @@
       <c r="E1015" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H788" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Ingresos"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H788" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
     <mergeCell ref="G573:H573"/>
     <mergeCell ref="G574:H574"/>
@@ -25149,7 +25454,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D39"/>
+      <selection activeCell="A25" sqref="A25:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.95" customHeight="1"/>
@@ -27130,7 +27435,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.6"/>
@@ -27189,7 +27494,7 @@
         <v>1019</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.6" customHeight="1">
@@ -27200,7 +27505,10 @@
         <v>258</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>1036</v>
+        <v>1065</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.6" customHeight="1">
@@ -27301,7 +27609,7 @@
         <v>890</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.6" customHeight="1">
@@ -27317,4 +27625,169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F73259B-4B92-4779-941C-4A0C4539E183}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" style="109" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="109" customWidth="1"/>
+    <col min="3" max="5" width="52.5546875" style="109" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="108"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.55" customHeight="1">
+      <c r="A1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="124" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D1" s="124" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E1" s="124" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.55" customHeight="1">
+      <c r="A2" s="125"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+    </row>
+    <row r="3" spans="1:5" ht="30.1" customHeight="1" thickBot="1">
+      <c r="A3" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D3" s="113" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="54.2" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="114" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E4" s="117" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30.1" customHeight="1" thickTop="1">
+      <c r="A5" s="118" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="118" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.1" customHeight="1" thickBot="1">
+      <c r="A6" s="110" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="112" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D6" s="113" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E6" s="112" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.1" customHeight="1" thickTop="1">
+      <c r="A7" s="118" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C7" s="118" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E7" s="118" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="56.4" customHeight="1">
+      <c r="A8" s="110" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="119" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="120"/>
+      <c r="D8" s="121" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E8" s="119" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{29080CD7-0E43-4C4A-8334-94BA186689ED}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{863636CC-9A3F-4B7B-90A7-1ED88EB3BF12}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{68EA6635-B054-4D16-A5F9-CEFDFE801DF3}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{FF26228D-1F7F-481B-A0DF-7901EF7095D0}"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://www150.statcan.gc.ca/n1/en/catalogue/71M0001X" xr:uid="{D5286C9E-075D-4813-AB17-F9989508F86E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
+</worksheet>
 </file>
--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Guido\Trabajo\Economia\Tematicas de Investigacion\Precariedad Mundial\precariedad.mundial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96402554-77CE-4454-8768-E476EB8D15A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A8133B-8C51-4481-89B1-F65EFB93BAF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10067" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10067" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miwbJz/ooLDg0TpP5RJ4gNcrXXX9A=="/>
     </ext>
   </extLst>
 </workbook>
@@ -78,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5819" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5842" uniqueCount="1081">
   <si>
     <t>Pais</t>
   </si>
@@ -3209,9 +3206,6 @@
     <t>¿Cuál fue el sueldo o salario mensual sin descuentos que (………) recibió en este trabajo? (ocupación principal)</t>
   </si>
   <si>
-    <t>Periodicidad</t>
-  </si>
-  <si>
     <t>Trimestral</t>
   </si>
   <si>
@@ -3305,17 +3299,69 @@
   </si>
   <si>
     <t xml:space="preserve">2002 - 2020: Encuestas en meses puntuales del año. 2019 en Mayo y Noviembre </t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Usar 1er trimestre</t>
+  </si>
+  <si>
+    <t>Usar única base</t>
+  </si>
+  <si>
+    <t>Promediar</t>
+  </si>
+  <si>
+    <t>Usar base Marzo</t>
+  </si>
+  <si>
+    <t>Periodicidad bases</t>
+  </si>
+  <si>
+    <t>Argenina</t>
+  </si>
+  <si>
+    <t>PP04D_COD</t>
+  </si>
+  <si>
+    <t>CON 2001</t>
+  </si>
+  <si>
+    <t>Encontre crosswalk</t>
+  </si>
+  <si>
+    <t>GRUPOS CIUO</t>
+  </si>
+  <si>
+    <t>4 niveles de calificación asimilables a los de CIUO y EPH</t>
+  </si>
+  <si>
+    <t>Cruce ad-hoc</t>
+  </si>
+  <si>
+    <t>En curso cross c tablas oficiales</t>
+  </si>
+  <si>
+    <t>Chequeo 17-5-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3727,281 +3773,282 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="4"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="4"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hipervínculo 2" xfId="2" xr:uid="{4F722B9A-536A-46D8-AFD0-3E32E4A5CDA5}"/>
@@ -5022,215 +5069,215 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="82" t="s">
+      <c r="D31" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="83">
+      <c r="E31" s="82">
         <v>1</v>
       </c>
-      <c r="F31" s="82" t="s">
+      <c r="F31" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="82" t="s">
+      <c r="G31" s="81" t="s">
         <v>948</v>
       </c>
-      <c r="H31" s="82" t="s">
+      <c r="H31" s="81" t="s">
         <v>948</v>
       </c>
-      <c r="J31" s="69"/>
+      <c r="J31" s="68"/>
     </row>
     <row r="32" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="83">
+      <c r="E32" s="82">
         <v>2</v>
       </c>
-      <c r="F32" s="82" t="s">
+      <c r="F32" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="82" t="s">
+      <c r="G32" s="81" t="s">
         <v>948</v>
       </c>
-      <c r="H32" s="82" t="s">
+      <c r="H32" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="69"/>
-    </row>
-    <row r="33" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A33" s="82" t="s">
+      <c r="J32" s="68"/>
+    </row>
+    <row r="33" spans="1:10" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A33" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="82" t="s">
+      <c r="D33" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="83">
+      <c r="E33" s="82">
         <v>3</v>
       </c>
-      <c r="F33" s="82" t="s">
+      <c r="F33" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="82" t="s">
+      <c r="G33" s="81" t="s">
         <v>948</v>
       </c>
-      <c r="H33" s="82" t="s">
+      <c r="H33" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A34" s="82" t="s">
+    <row r="34" spans="1:10" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A34" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="83" t="s">
         <v>946</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="84" t="s">
         <v>947</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="82">
         <v>1</v>
       </c>
-      <c r="F34" s="82" t="s">
+      <c r="F34" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="G34" s="82" t="s">
+      <c r="G34" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="82" t="s">
+      <c r="H34" s="81" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A35" s="82" t="s">
+    <row r="35" spans="1:10" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A35" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="83" t="s">
         <v>946</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="84" t="s">
         <v>947</v>
       </c>
-      <c r="E35" s="83">
+      <c r="E35" s="82">
         <v>2</v>
       </c>
-      <c r="F35" s="82" t="s">
+      <c r="F35" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="82" t="s">
+      <c r="G35" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="82" t="s">
+      <c r="H35" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A36" s="82" t="s">
+    <row r="36" spans="1:10" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A36" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="83" t="s">
         <v>946</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D36" s="84" t="s">
         <v>947</v>
       </c>
-      <c r="E36" s="83">
+      <c r="E36" s="82">
         <v>9</v>
       </c>
-      <c r="F36" s="82" t="s">
+      <c r="F36" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="82" t="s">
+      <c r="G36" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="82" t="s">
+      <c r="H36" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A37" s="82" t="s">
+    <row r="37" spans="1:10" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A37" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="83" t="s">
         <v>940</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="84" t="s">
         <v>941</v>
       </c>
-      <c r="E37" s="83">
+      <c r="E37" s="82">
         <v>4</v>
       </c>
-      <c r="F37" s="82" t="s">
+      <c r="F37" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="82" t="s">
+      <c r="G37" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H37" s="82" t="s">
+      <c r="H37" s="81" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="83" t="s">
         <v>940</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="84" t="s">
         <v>941</v>
       </c>
-      <c r="E38" s="83" t="s">
+      <c r="E38" s="82" t="s">
         <v>731</v>
       </c>
-      <c r="F38" s="82" t="s">
+      <c r="F38" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="82" t="s">
+      <c r="G38" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H38" s="82" t="s">
+      <c r="H38" s="81" t="s">
         <v>945</v>
       </c>
-      <c r="J38" s="69"/>
+      <c r="J38" s="68"/>
     </row>
     <row r="39" spans="1:10" ht="14.3" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -5684,11 +5731,11 @@
       <c r="C56" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="122" t="s">
+      <c r="D56" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
       <c r="G56" s="4" t="s">
         <v>27</v>
       </c>
@@ -5706,11 +5753,11 @@
       <c r="C57" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="122" t="s">
+      <c r="D57" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
       <c r="G57" s="4" t="s">
         <v>27</v>
       </c>
@@ -5728,11 +5775,11 @@
       <c r="C58" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="122" t="s">
+      <c r="D58" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="123"/>
-      <c r="F58" s="123"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
       <c r="G58" s="4" t="s">
         <v>27</v>
       </c>
@@ -5750,11 +5797,11 @@
       <c r="C59" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="122" t="s">
+      <c r="D59" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
       <c r="G59" s="4" t="s">
         <v>27</v>
       </c>
@@ -6491,342 +6538,342 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="82" t="s">
+      <c r="B88" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="83" t="s">
+      <c r="C88" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="D88" s="82" t="s">
+      <c r="D88" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="E88" s="83">
+      <c r="E88" s="82">
         <v>1</v>
       </c>
-      <c r="F88" s="82" t="s">
+      <c r="F88" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="G88" s="82" t="s">
+      <c r="G88" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H88" s="82" t="s">
+      <c r="H88" s="81" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="82" t="s">
+      <c r="B89" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C89" s="83" t="s">
+      <c r="C89" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="D89" s="82" t="s">
+      <c r="D89" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="E89" s="83">
+      <c r="E89" s="82">
         <v>2</v>
       </c>
-      <c r="F89" s="82" t="s">
+      <c r="F89" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="G89" s="82" t="s">
+      <c r="G89" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H89" s="82" t="s">
+      <c r="H89" s="81" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A90" s="82" t="s">
+      <c r="A90" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B90" s="82" t="s">
+      <c r="B90" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="83" t="s">
+      <c r="C90" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D90" s="82" t="s">
+      <c r="D90" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="E90" s="83">
+      <c r="E90" s="82">
         <v>1</v>
       </c>
-      <c r="F90" s="82" t="s">
+      <c r="F90" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="G90" s="82" t="s">
+      <c r="G90" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H90" s="82" t="s">
+      <c r="H90" s="81" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A91" s="82" t="s">
+      <c r="A91" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="82" t="s">
+      <c r="B91" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C91" s="83" t="s">
+      <c r="C91" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D91" s="82" t="s">
+      <c r="D91" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="E91" s="83">
+      <c r="E91" s="82">
         <v>2</v>
       </c>
-      <c r="F91" s="82" t="s">
+      <c r="F91" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="G91" s="82" t="s">
+      <c r="G91" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H91" s="82" t="s">
+      <c r="H91" s="81" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A92" s="82" t="s">
+      <c r="A92" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B92" s="82" t="s">
+      <c r="B92" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C92" s="83" t="s">
+      <c r="C92" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D92" s="82" t="s">
+      <c r="D92" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="E92" s="83">
+      <c r="E92" s="82">
         <v>3</v>
       </c>
-      <c r="F92" s="82" t="s">
+      <c r="F92" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="G92" s="82" t="s">
+      <c r="G92" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H92" s="82" t="s">
+      <c r="H92" s="81" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A93" s="82" t="s">
+      <c r="A93" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B93" s="82" t="s">
+      <c r="B93" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C93" s="82" t="s">
+      <c r="C93" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="D93" s="82" t="s">
+      <c r="D93" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="E93" s="83">
+      <c r="E93" s="82">
         <v>1</v>
       </c>
-      <c r="F93" s="82" t="s">
+      <c r="F93" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="G93" s="82" t="s">
+      <c r="G93" s="81" t="s">
         <v>948</v>
       </c>
-      <c r="H93" s="82" t="s">
+      <c r="H93" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A94" s="82" t="s">
+      <c r="A94" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="82" t="s">
+      <c r="B94" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C94" s="82" t="s">
+      <c r="C94" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="D94" s="82" t="s">
+      <c r="D94" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="E94" s="83">
+      <c r="E94" s="82">
         <v>2</v>
       </c>
-      <c r="F94" s="82" t="s">
+      <c r="F94" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="G94" s="82" t="s">
+      <c r="G94" s="81" t="s">
         <v>948</v>
       </c>
-      <c r="H94" s="82" t="s">
+      <c r="H94" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A95" s="82" t="s">
+      <c r="A95" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B95" s="82" t="s">
+      <c r="B95" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C95" s="82" t="s">
+      <c r="C95" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="D95" s="82" t="s">
+      <c r="D95" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="E95" s="83">
+      <c r="E95" s="82">
         <v>1</v>
       </c>
-      <c r="F95" s="82" t="s">
+      <c r="F95" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="G95" s="82" t="s">
+      <c r="G95" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H95" s="82" t="s">
+      <c r="H95" s="81" t="s">
         <v>944</v>
       </c>
-      <c r="J95" s="69"/>
+      <c r="J95" s="68"/>
     </row>
     <row r="96" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A96" s="82" t="s">
+      <c r="A96" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="82" t="s">
+      <c r="B96" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C96" s="82" t="s">
+      <c r="C96" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="D96" s="82" t="s">
+      <c r="D96" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="E96" s="83">
+      <c r="E96" s="82">
         <v>2</v>
       </c>
-      <c r="F96" s="82" t="s">
+      <c r="F96" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="G96" s="82" t="s">
+      <c r="G96" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H96" s="82" t="s">
+      <c r="H96" s="81" t="s">
         <v>945</v>
       </c>
-      <c r="J96" s="69"/>
+      <c r="J96" s="68"/>
     </row>
     <row r="97" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A97" s="82" t="s">
+      <c r="A97" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="82" t="s">
+      <c r="B97" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C97" s="82" t="s">
+      <c r="C97" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="D97" s="82" t="s">
+      <c r="D97" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="E97" s="83">
+      <c r="E97" s="82">
         <v>1</v>
       </c>
-      <c r="F97" s="86" t="s">
+      <c r="F97" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="G97" s="82" t="s">
+      <c r="G97" s="81" t="s">
         <v>948</v>
       </c>
-      <c r="H97" s="82" t="s">
+      <c r="H97" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A98" s="82" t="s">
+      <c r="A98" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B98" s="82" t="s">
+      <c r="B98" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="82" t="s">
+      <c r="C98" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="D98" s="82" t="s">
+      <c r="D98" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="E98" s="83">
+      <c r="E98" s="82">
         <v>2</v>
       </c>
-      <c r="F98" s="86" t="s">
+      <c r="F98" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="G98" s="82" t="s">
+      <c r="G98" s="81" t="s">
         <v>948</v>
       </c>
-      <c r="H98" s="82" t="s">
+      <c r="H98" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A99" s="82" t="s">
+      <c r="A99" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="82" t="s">
+      <c r="B99" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C99" s="82" t="s">
+      <c r="C99" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="D99" s="82" t="s">
+      <c r="D99" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="E99" s="83">
+      <c r="E99" s="82">
         <v>3</v>
       </c>
-      <c r="F99" s="86" t="s">
+      <c r="F99" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="G99" s="82" t="s">
+      <c r="G99" s="81" t="s">
         <v>948</v>
       </c>
-      <c r="H99" s="82" t="s">
+      <c r="H99" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A100" s="82" t="s">
+      <c r="A100" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="B100" s="82" t="s">
+      <c r="B100" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C100" s="82" t="s">
+      <c r="C100" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="D100" s="82" t="s">
+      <c r="D100" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="E100" s="83">
+      <c r="E100" s="82">
         <v>4</v>
       </c>
-      <c r="F100" s="86" t="s">
+      <c r="F100" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="G100" s="82" t="s">
+      <c r="G100" s="81" t="s">
         <v>948</v>
       </c>
-      <c r="H100" s="82" t="s">
+      <c r="H100" s="81" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8255,164 +8302,164 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A158" s="82" t="s">
+      <c r="A158" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="B158" s="82" t="s">
+      <c r="B158" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C158" s="83" t="s">
+      <c r="C158" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="D158" s="82" t="s">
+      <c r="D158" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="E158" s="83">
+      <c r="E158" s="82">
         <v>1</v>
       </c>
-      <c r="F158" s="82" t="s">
+      <c r="F158" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="G158" s="82" t="s">
+      <c r="G158" s="81" t="s">
         <v>948</v>
       </c>
-      <c r="H158" s="82" t="s">
+      <c r="H158" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="J158" s="69"/>
+      <c r="J158" s="68"/>
     </row>
     <row r="159" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A159" s="82" t="s">
+      <c r="A159" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="B159" s="82" t="s">
+      <c r="B159" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C159" s="83" t="s">
+      <c r="C159" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="D159" s="82" t="s">
+      <c r="D159" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="E159" s="83">
+      <c r="E159" s="82">
         <v>2</v>
       </c>
-      <c r="F159" s="82" t="s">
+      <c r="F159" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="G159" s="82" t="s">
+      <c r="G159" s="81" t="s">
         <v>948</v>
       </c>
-      <c r="H159" s="82" t="s">
+      <c r="H159" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="J159" s="69"/>
-    </row>
-    <row r="160" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A160" s="82" t="s">
+      <c r="J159" s="68"/>
+    </row>
+    <row r="160" spans="1:10" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A160" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="B160" s="82" t="s">
+      <c r="B160" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C160" s="83" t="s">
+      <c r="C160" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="D160" s="82" t="s">
+      <c r="D160" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="E160" s="83">
+      <c r="E160" s="82">
         <v>1</v>
       </c>
-      <c r="F160" s="82" t="s">
+      <c r="F160" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="G160" s="82" t="s">
+      <c r="G160" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H160" s="82" t="s">
+      <c r="H160" s="81" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A161" s="82" t="s">
+    <row r="161" spans="1:10" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A161" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="B161" s="82" t="s">
+      <c r="B161" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C161" s="83" t="s">
+      <c r="C161" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="D161" s="82" t="s">
+      <c r="D161" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="E161" s="83">
+      <c r="E161" s="82">
         <v>2</v>
       </c>
-      <c r="F161" s="82" t="s">
+      <c r="F161" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="G161" s="82" t="s">
+      <c r="G161" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H161" s="82" t="s">
+      <c r="H161" s="81" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A162" s="82" t="s">
+      <c r="A162" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="B162" s="82" t="s">
+      <c r="B162" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C162" s="83" t="s">
+      <c r="C162" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="D162" s="82" t="s">
+      <c r="D162" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="E162" s="83">
+      <c r="E162" s="82">
         <v>1</v>
       </c>
-      <c r="F162" s="82" t="s">
+      <c r="F162" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="G162" s="82" t="s">
+      <c r="G162" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H162" s="82" t="s">
+      <c r="H162" s="81" t="s">
         <v>944</v>
       </c>
-      <c r="J162" s="69"/>
+      <c r="J162" s="68"/>
     </row>
     <row r="163" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A163" s="82" t="s">
+      <c r="A163" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="B163" s="82" t="s">
+      <c r="B163" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C163" s="83" t="s">
+      <c r="C163" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="D163" s="82" t="s">
+      <c r="D163" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="E163" s="83">
+      <c r="E163" s="82">
         <v>2</v>
       </c>
-      <c r="F163" s="82" t="s">
+      <c r="F163" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="G163" s="82" t="s">
+      <c r="G163" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H163" s="82" t="s">
+      <c r="H163" s="81" t="s">
         <v>945</v>
       </c>
-      <c r="J163" s="69"/>
+      <c r="J163" s="68"/>
     </row>
     <row r="164" spans="1:10" ht="14.3" customHeight="1">
       <c r="A164" s="4" t="s">
@@ -9540,159 +9587,159 @@
         <v>228</v>
       </c>
     </row>
-    <row r="208" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A208" s="82" t="s">
+    <row r="208" spans="1:8" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A208" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="B208" s="82" t="s">
+      <c r="B208" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="C208" s="82" t="s">
+      <c r="C208" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="D208" s="82" t="s">
+      <c r="D208" s="81" t="s">
         <v>949</v>
       </c>
       <c r="E208" s="54" t="s">
         <v>950</v>
       </c>
-      <c r="F208" s="68" t="s">
+      <c r="F208" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="G208" s="82" t="s">
+      <c r="G208" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H208" s="68" t="s">
+      <c r="H208" s="67" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A209" s="82" t="s">
+    <row r="209" spans="1:8" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A209" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="B209" s="82" t="s">
+      <c r="B209" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="C209" s="82" t="s">
+      <c r="C209" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="D209" s="82" t="s">
+      <c r="D209" s="81" t="s">
         <v>949</v>
       </c>
       <c r="E209" s="54" t="s">
         <v>951</v>
       </c>
-      <c r="F209" s="68" t="s">
+      <c r="F209" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="G209" s="82" t="s">
+      <c r="G209" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H209" s="68" t="s">
+      <c r="H209" s="67" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A210" s="82" t="s">
+    <row r="210" spans="1:8" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A210" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="B210" s="82" t="s">
+      <c r="B210" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="C210" s="82" t="s">
+      <c r="C210" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="D210" s="82" t="s">
+      <c r="D210" s="81" t="s">
         <v>949</v>
       </c>
       <c r="E210" s="54" t="s">
         <v>952</v>
       </c>
-      <c r="F210" s="68" t="s">
+      <c r="F210" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="G210" s="82" t="s">
+      <c r="G210" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H210" s="68" t="s">
+      <c r="H210" s="67" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A211" s="82" t="s">
+    <row r="211" spans="1:8" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A211" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="B211" s="82" t="s">
+      <c r="B211" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="C211" s="82" t="s">
+      <c r="C211" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="D211" s="82" t="s">
+      <c r="D211" s="81" t="s">
         <v>949</v>
       </c>
       <c r="E211" s="54" t="s">
         <v>953</v>
       </c>
-      <c r="F211" s="68" t="s">
+      <c r="F211" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="G211" s="82" t="s">
+      <c r="G211" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H211" s="68" t="s">
+      <c r="H211" s="67" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A212" s="82" t="s">
+      <c r="A212" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="B212" s="82" t="s">
+      <c r="B212" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="C212" s="82" t="s">
+      <c r="C212" s="81" t="s">
         <v>284</v>
       </c>
-      <c r="D212" s="82" t="s">
+      <c r="D212" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="E212" s="83">
+      <c r="E212" s="82">
         <v>1</v>
       </c>
-      <c r="F212" s="82" t="s">
+      <c r="F212" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="G212" s="82" t="s">
+      <c r="G212" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H212" s="82" t="s">
+      <c r="H212" s="81" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A213" s="82" t="s">
+      <c r="A213" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="B213" s="82" t="s">
+      <c r="B213" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="C213" s="82" t="s">
+      <c r="C213" s="81" t="s">
         <v>284</v>
       </c>
-      <c r="D213" s="82" t="s">
+      <c r="D213" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="E213" s="83">
+      <c r="E213" s="82">
         <v>2</v>
       </c>
-      <c r="F213" s="82" t="s">
+      <c r="F213" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="G213" s="82" t="s">
+      <c r="G213" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H213" s="82" t="s">
+      <c r="H213" s="81" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11082,299 +11129,299 @@
         <v>228</v>
       </c>
     </row>
-    <row r="268" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A268" s="82" t="s">
+    <row r="268" spans="1:10" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A268" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B268" s="82" t="s">
+      <c r="B268" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C268" s="69" t="s">
+      <c r="C268" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="D268" s="91" t="s">
+      <c r="D268" s="90" t="s">
         <v>956</v>
       </c>
       <c r="E268" s="54">
         <v>1</v>
       </c>
-      <c r="F268" s="68" t="s">
+      <c r="F268" s="67" t="s">
         <v>954</v>
       </c>
-      <c r="G268" s="82" t="s">
+      <c r="G268" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H268" s="68" t="s">
+      <c r="H268" s="67" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="269" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A269" s="82" t="s">
+    <row r="269" spans="1:10" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A269" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B269" s="82" t="s">
+      <c r="B269" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C269" s="69" t="s">
+      <c r="C269" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="D269" s="91" t="s">
+      <c r="D269" s="90" t="s">
         <v>956</v>
       </c>
       <c r="E269" s="54">
         <v>2</v>
       </c>
-      <c r="F269" s="68" t="s">
+      <c r="F269" s="67" t="s">
         <v>955</v>
       </c>
-      <c r="G269" s="82" t="s">
+      <c r="G269" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H269" s="68" t="s">
+      <c r="H269" s="67" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="270" spans="1:10" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A270" s="82" t="s">
+    <row r="270" spans="1:10" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A270" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B270" s="82" t="s">
+      <c r="B270" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C270" s="69" t="s">
+      <c r="C270" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="D270" s="91" t="s">
+      <c r="D270" s="90" t="s">
         <v>956</v>
       </c>
       <c r="E270" s="54">
         <v>3</v>
       </c>
-      <c r="F270" s="68" t="s">
+      <c r="F270" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="G270" s="82" t="s">
+      <c r="G270" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H270" s="68" t="s">
+      <c r="H270" s="67" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A271" s="82" t="s">
+      <c r="A271" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B271" s="82" t="s">
+      <c r="B271" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C271" s="82" t="s">
+      <c r="C271" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="D271" s="82" t="s">
+      <c r="D271" s="81" t="s">
         <v>346</v>
       </c>
-      <c r="E271" s="89">
+      <c r="E271" s="88">
         <v>1</v>
       </c>
-      <c r="F271" s="90" t="s">
+      <c r="F271" s="89" t="s">
         <v>347</v>
       </c>
-      <c r="G271" s="82" t="s">
+      <c r="G271" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H271" s="82" t="s">
+      <c r="H271" s="81" t="s">
         <v>942</v>
       </c>
-      <c r="J271" s="69"/>
+      <c r="J271" s="68"/>
     </row>
     <row r="272" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A272" s="82" t="s">
+      <c r="A272" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B272" s="82" t="s">
+      <c r="B272" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C272" s="82" t="s">
+      <c r="C272" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="D272" s="82" t="s">
+      <c r="D272" s="81" t="s">
         <v>346</v>
       </c>
-      <c r="E272" s="89">
+      <c r="E272" s="88">
         <v>2</v>
       </c>
-      <c r="F272" s="90" t="s">
+      <c r="F272" s="89" t="s">
         <v>348</v>
       </c>
-      <c r="G272" s="82" t="s">
+      <c r="G272" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H272" s="82" t="s">
+      <c r="H272" s="81" t="s">
         <v>942</v>
       </c>
-      <c r="J272" s="69"/>
+      <c r="J272" s="68"/>
     </row>
     <row r="273" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A273" s="82" t="s">
+      <c r="A273" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B273" s="82" t="s">
+      <c r="B273" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C273" s="82" t="s">
+      <c r="C273" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="D273" s="82" t="s">
+      <c r="D273" s="81" t="s">
         <v>346</v>
       </c>
-      <c r="E273" s="89">
+      <c r="E273" s="88">
         <v>3</v>
       </c>
-      <c r="F273" s="90" t="s">
+      <c r="F273" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="G273" s="82" t="s">
+      <c r="G273" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H273" s="82" t="s">
+      <c r="H273" s="81" t="s">
         <v>942</v>
       </c>
-      <c r="J273" s="69"/>
+      <c r="J273" s="68"/>
     </row>
     <row r="274" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A274" s="82" t="s">
+      <c r="A274" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B274" s="82" t="s">
+      <c r="B274" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C274" s="82" t="s">
+      <c r="C274" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="D274" s="82" t="s">
+      <c r="D274" s="81" t="s">
         <v>346</v>
       </c>
-      <c r="E274" s="89">
+      <c r="E274" s="88">
         <v>4</v>
       </c>
-      <c r="F274" s="90" t="s">
+      <c r="F274" s="89" t="s">
         <v>350</v>
       </c>
-      <c r="G274" s="82" t="s">
+      <c r="G274" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H274" s="82" t="s">
+      <c r="H274" s="81" t="s">
         <v>942</v>
       </c>
-      <c r="J274" s="69"/>
+      <c r="J274" s="68"/>
     </row>
     <row r="275" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A275" s="82" t="s">
+      <c r="A275" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B275" s="82" t="s">
+      <c r="B275" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C275" s="82" t="s">
+      <c r="C275" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="D275" s="82" t="s">
+      <c r="D275" s="81" t="s">
         <v>346</v>
       </c>
-      <c r="E275" s="89">
+      <c r="E275" s="88">
         <v>5</v>
       </c>
-      <c r="F275" s="90" t="s">
+      <c r="F275" s="89" t="s">
         <v>351</v>
       </c>
-      <c r="G275" s="82" t="s">
+      <c r="G275" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H275" s="82" t="s">
+      <c r="H275" s="81" t="s">
         <v>942</v>
       </c>
-      <c r="J275" s="69"/>
+      <c r="J275" s="68"/>
     </row>
     <row r="276" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A276" s="82" t="s">
+      <c r="A276" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B276" s="82" t="s">
+      <c r="B276" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C276" s="82" t="s">
+      <c r="C276" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="D276" s="82" t="s">
+      <c r="D276" s="81" t="s">
         <v>346</v>
       </c>
-      <c r="E276" s="89">
+      <c r="E276" s="88">
         <v>6</v>
       </c>
-      <c r="F276" s="90" t="s">
+      <c r="F276" s="89" t="s">
         <v>352</v>
       </c>
-      <c r="G276" s="82" t="s">
+      <c r="G276" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H276" s="82" t="s">
+      <c r="H276" s="81" t="s">
         <v>942</v>
       </c>
-      <c r="J276" s="69"/>
+      <c r="J276" s="68"/>
     </row>
     <row r="277" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A277" s="82" t="s">
+      <c r="A277" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B277" s="82" t="s">
+      <c r="B277" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C277" s="82" t="s">
+      <c r="C277" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="D277" s="82" t="s">
+      <c r="D277" s="81" t="s">
         <v>346</v>
       </c>
-      <c r="E277" s="89">
+      <c r="E277" s="88">
         <v>7</v>
       </c>
-      <c r="F277" s="90" t="s">
+      <c r="F277" s="89" t="s">
         <v>353</v>
       </c>
-      <c r="G277" s="82" t="s">
+      <c r="G277" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H277" s="82" t="s">
+      <c r="H277" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="J277" s="69"/>
+      <c r="J277" s="68"/>
     </row>
     <row r="278" spans="1:10" ht="14.3" customHeight="1">
-      <c r="A278" s="82" t="s">
+      <c r="A278" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B278" s="82" t="s">
+      <c r="B278" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="C278" s="82" t="s">
+      <c r="C278" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="D278" s="82" t="s">
+      <c r="D278" s="81" t="s">
         <v>346</v>
       </c>
-      <c r="E278" s="89">
+      <c r="E278" s="88">
         <v>8</v>
       </c>
-      <c r="F278" s="90" t="s">
+      <c r="F278" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="G278" s="82" t="s">
+      <c r="G278" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H278" s="82" t="s">
+      <c r="H278" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="J278" s="69"/>
+      <c r="J278" s="68"/>
     </row>
     <row r="279" spans="1:10" ht="14.3" customHeight="1">
       <c r="A279" s="4" t="s">
@@ -12103,7 +12150,7 @@
       <c r="B307" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C307" s="107" t="s">
+      <c r="C307" s="106" t="s">
         <v>379</v>
       </c>
       <c r="D307" s="4" t="s">
@@ -13143,54 +13190,54 @@
       </c>
     </row>
     <row r="348" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A348" s="82" t="s">
+      <c r="A348" s="81" t="s">
         <v>387</v>
       </c>
-      <c r="B348" s="82" t="s">
+      <c r="B348" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="C348" s="87" t="s">
+      <c r="C348" s="86" t="s">
         <v>416</v>
       </c>
-      <c r="D348" s="88" t="s">
+      <c r="D348" s="87" t="s">
         <v>417</v>
       </c>
-      <c r="E348" s="89">
+      <c r="E348" s="88">
         <v>1</v>
       </c>
-      <c r="F348" s="90" t="s">
+      <c r="F348" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="G348" s="82" t="s">
+      <c r="G348" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H348" s="82" t="s">
+      <c r="H348" s="81" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="349" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A349" s="82" t="s">
+      <c r="A349" s="81" t="s">
         <v>387</v>
       </c>
-      <c r="B349" s="82" t="s">
+      <c r="B349" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="C349" s="88" t="s">
+      <c r="C349" s="87" t="s">
         <v>416</v>
       </c>
-      <c r="D349" s="88" t="s">
+      <c r="D349" s="87" t="s">
         <v>417</v>
       </c>
-      <c r="E349" s="89">
+      <c r="E349" s="88">
         <v>2</v>
       </c>
-      <c r="F349" s="90" t="s">
+      <c r="F349" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="G349" s="82" t="s">
+      <c r="G349" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H349" s="82" t="s">
+      <c r="H349" s="81" t="s">
         <v>945</v>
       </c>
     </row>
@@ -14366,55 +14413,55 @@
         <v>471</v>
       </c>
     </row>
-    <row r="396" spans="1:8" s="69" customFormat="1" ht="14.3" customHeight="1">
-      <c r="A396" s="82" t="s">
+    <row r="396" spans="1:8" s="68" customFormat="1" ht="14.3" customHeight="1">
+      <c r="A396" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="B396" s="82" t="s">
+      <c r="B396" s="81" t="s">
         <v>435</v>
       </c>
-      <c r="C396" s="82" t="s">
+      <c r="C396" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="D396" s="82" t="s">
+      <c r="D396" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="E396" s="82" t="s">
+      <c r="E396" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="F396" s="82" t="s">
+      <c r="F396" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="G396" s="82" t="s">
+      <c r="G396" s="81" t="s">
         <v>943</v>
       </c>
-      <c r="H396" s="82" t="s">
+      <c r="H396" s="81" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A397" s="82" t="s">
+      <c r="A397" s="81" t="s">
         <v>434</v>
       </c>
-      <c r="B397" s="82" t="s">
+      <c r="B397" s="81" t="s">
         <v>435</v>
       </c>
-      <c r="C397" s="82" t="s">
+      <c r="C397" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="D397" s="82" t="s">
+      <c r="D397" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="E397" s="82" t="s">
+      <c r="E397" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="F397" s="82" t="s">
+      <c r="F397" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="G397" s="82" t="s">
+      <c r="G397" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H397" s="82" t="s">
+      <c r="H397" s="81" t="s">
         <v>112</v>
       </c>
     </row>
@@ -16235,106 +16282,106 @@
       </c>
     </row>
     <row r="468" spans="1:9" ht="14.3" customHeight="1">
-      <c r="A468" s="71" t="s">
+      <c r="A468" s="70" t="s">
         <v>495</v>
       </c>
-      <c r="B468" s="71" t="s">
+      <c r="B468" s="70" t="s">
         <v>496</v>
       </c>
-      <c r="C468" s="72" t="s">
+      <c r="C468" s="71" t="s">
         <v>554</v>
       </c>
-      <c r="D468" s="71" t="s">
+      <c r="D468" s="70" t="s">
         <v>555</v>
       </c>
-      <c r="E468" s="72">
+      <c r="E468" s="71">
         <v>1</v>
       </c>
-      <c r="F468" s="73" t="s">
+      <c r="F468" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="G468" s="71" t="s">
+      <c r="G468" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H468" s="71" t="s">
+      <c r="H468" s="70" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="469" spans="1:9" ht="14.3" customHeight="1">
-      <c r="A469" s="71" t="s">
+      <c r="A469" s="70" t="s">
         <v>495</v>
       </c>
-      <c r="B469" s="71" t="s">
+      <c r="B469" s="70" t="s">
         <v>496</v>
       </c>
-      <c r="C469" s="72" t="s">
+      <c r="C469" s="71" t="s">
         <v>554</v>
       </c>
-      <c r="D469" s="71" t="s">
+      <c r="D469" s="70" t="s">
         <v>555</v>
       </c>
-      <c r="E469" s="72">
+      <c r="E469" s="71">
         <v>2</v>
       </c>
-      <c r="F469" s="73" t="s">
+      <c r="F469" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="G469" s="71" t="s">
+      <c r="G469" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H469" s="71" t="s">
+      <c r="H469" s="70" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="470" spans="1:9" ht="14.3" customHeight="1">
-      <c r="A470" s="71" t="s">
+      <c r="A470" s="70" t="s">
         <v>495</v>
       </c>
-      <c r="B470" s="71" t="s">
+      <c r="B470" s="70" t="s">
         <v>496</v>
       </c>
-      <c r="C470" s="72" t="s">
+      <c r="C470" s="71" t="s">
         <v>554</v>
       </c>
-      <c r="D470" s="71" t="s">
+      <c r="D470" s="70" t="s">
         <v>555</v>
       </c>
-      <c r="E470" s="72">
+      <c r="E470" s="71">
         <v>88</v>
       </c>
-      <c r="F470" s="73" t="s">
+      <c r="F470" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="G470" s="71" t="s">
+      <c r="G470" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H470" s="71" t="s">
+      <c r="H470" s="70" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="471" spans="1:9" ht="14.3" customHeight="1">
-      <c r="A471" s="71" t="s">
+      <c r="A471" s="70" t="s">
         <v>495</v>
       </c>
-      <c r="B471" s="71" t="s">
+      <c r="B471" s="70" t="s">
         <v>496</v>
       </c>
-      <c r="C471" s="72" t="s">
+      <c r="C471" s="71" t="s">
         <v>554</v>
       </c>
-      <c r="D471" s="71" t="s">
+      <c r="D471" s="70" t="s">
         <v>555</v>
       </c>
-      <c r="E471" s="72">
+      <c r="E471" s="71">
         <v>99</v>
       </c>
-      <c r="F471" s="73" t="s">
+      <c r="F471" s="72" t="s">
         <v>557</v>
       </c>
-      <c r="G471" s="71" t="s">
+      <c r="G471" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H471" s="71" t="s">
+      <c r="H471" s="70" t="s">
         <v>30</v>
       </c>
     </row>
@@ -17754,54 +17801,54 @@
       </c>
     </row>
     <row r="526" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A526" s="71" t="s">
+      <c r="A526" s="70" t="s">
         <v>583</v>
       </c>
-      <c r="B526" s="71" t="s">
+      <c r="B526" s="70" t="s">
         <v>584</v>
       </c>
-      <c r="C526" s="72" t="s">
+      <c r="C526" s="71" t="s">
         <v>622</v>
       </c>
-      <c r="D526" s="79" t="s">
+      <c r="D526" s="78" t="s">
         <v>623</v>
       </c>
-      <c r="E526" s="72">
+      <c r="E526" s="71">
         <v>1</v>
       </c>
-      <c r="F526" s="71" t="s">
+      <c r="F526" s="70" t="s">
         <v>621</v>
       </c>
-      <c r="G526" s="71" t="s">
+      <c r="G526" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H526" s="71" t="s">
+      <c r="H526" s="70" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="527" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A527" s="71" t="s">
+      <c r="A527" s="70" t="s">
         <v>583</v>
       </c>
-      <c r="B527" s="71" t="s">
+      <c r="B527" s="70" t="s">
         <v>584</v>
       </c>
-      <c r="C527" s="72" t="s">
+      <c r="C527" s="71" t="s">
         <v>622</v>
       </c>
-      <c r="D527" s="79" t="s">
+      <c r="D527" s="78" t="s">
         <v>623</v>
       </c>
-      <c r="E527" s="72">
+      <c r="E527" s="71">
         <v>2</v>
       </c>
-      <c r="F527" s="71" t="s">
+      <c r="F527" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="G527" s="71" t="s">
+      <c r="G527" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H527" s="71" t="s">
+      <c r="H527" s="70" t="s">
         <v>556</v>
       </c>
     </row>
@@ -18980,10 +19027,10 @@
       <c r="F573" s="41" t="s">
         <v>669</v>
       </c>
-      <c r="G573" s="122" t="s">
+      <c r="G573" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="H573" s="123"/>
+      <c r="H573" s="125"/>
     </row>
     <row r="574" spans="1:8" ht="14.3" customHeight="1">
       <c r="A574" s="4" t="s">
@@ -19004,10 +19051,10 @@
       <c r="F574" s="41" t="s">
         <v>671</v>
       </c>
-      <c r="G574" s="122" t="s">
+      <c r="G574" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="H574" s="123"/>
+      <c r="H574" s="125"/>
     </row>
     <row r="575" spans="1:8" ht="14.3" customHeight="1">
       <c r="A575" s="4" t="s">
@@ -19112,54 +19159,54 @@
       </c>
     </row>
     <row r="579" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A579" s="74" t="s">
+      <c r="A579" s="73" t="s">
         <v>651</v>
       </c>
-      <c r="B579" s="74" t="s">
+      <c r="B579" s="73" t="s">
         <v>652</v>
       </c>
-      <c r="C579" s="75" t="s">
+      <c r="C579" s="74" t="s">
         <v>653</v>
       </c>
-      <c r="D579" s="74" t="s">
+      <c r="D579" s="73" t="s">
         <v>654</v>
       </c>
-      <c r="E579" s="75">
+      <c r="E579" s="74">
         <v>1</v>
       </c>
-      <c r="F579" s="74" t="s">
+      <c r="F579" s="73" t="s">
         <v>655</v>
       </c>
-      <c r="G579" s="74" t="s">
+      <c r="G579" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="H579" s="74" t="s">
+      <c r="H579" s="73" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="580" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A580" s="74" t="s">
+      <c r="A580" s="73" t="s">
         <v>651</v>
       </c>
-      <c r="B580" s="74" t="s">
+      <c r="B580" s="73" t="s">
         <v>652</v>
       </c>
-      <c r="C580" s="75" t="s">
+      <c r="C580" s="74" t="s">
         <v>653</v>
       </c>
-      <c r="D580" s="74" t="s">
+      <c r="D580" s="73" t="s">
         <v>654</v>
       </c>
-      <c r="E580" s="75">
+      <c r="E580" s="74">
         <v>2</v>
       </c>
-      <c r="F580" s="74" t="s">
+      <c r="F580" s="73" t="s">
         <v>656</v>
       </c>
-      <c r="G580" s="74" t="s">
+      <c r="G580" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="H580" s="74" t="s">
+      <c r="H580" s="73" t="s">
         <v>556</v>
       </c>
     </row>
@@ -20660,106 +20707,106 @@
       </c>
     </row>
     <row r="639" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A639" s="71" t="s">
+      <c r="A639" s="70" t="s">
         <v>700</v>
       </c>
-      <c r="B639" s="71" t="s">
+      <c r="B639" s="70" t="s">
         <v>701</v>
       </c>
-      <c r="C639" s="72" t="s">
+      <c r="C639" s="71" t="s">
         <v>740</v>
       </c>
-      <c r="D639" s="76" t="s">
+      <c r="D639" s="75" t="s">
         <v>741</v>
       </c>
-      <c r="E639" s="77">
+      <c r="E639" s="76">
         <v>1</v>
       </c>
-      <c r="F639" s="78" t="s">
+      <c r="F639" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="G639" s="71" t="s">
+      <c r="G639" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H639" s="71" t="s">
+      <c r="H639" s="70" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="640" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A640" s="71" t="s">
+      <c r="A640" s="70" t="s">
         <v>700</v>
       </c>
-      <c r="B640" s="71" t="s">
+      <c r="B640" s="70" t="s">
         <v>701</v>
       </c>
-      <c r="C640" s="72" t="s">
+      <c r="C640" s="71" t="s">
         <v>740</v>
       </c>
-      <c r="D640" s="76" t="s">
+      <c r="D640" s="75" t="s">
         <v>741</v>
       </c>
-      <c r="E640" s="77">
+      <c r="E640" s="76">
         <v>6</v>
       </c>
-      <c r="F640" s="78" t="s">
+      <c r="F640" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="G640" s="71" t="s">
+      <c r="G640" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H640" s="71" t="s">
+      <c r="H640" s="70" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="641" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A641" s="71" t="s">
+      <c r="A641" s="70" t="s">
         <v>700</v>
       </c>
-      <c r="B641" s="71" t="s">
+      <c r="B641" s="70" t="s">
         <v>701</v>
       </c>
-      <c r="C641" s="72" t="s">
+      <c r="C641" s="71" t="s">
         <v>740</v>
       </c>
-      <c r="D641" s="76" t="s">
+      <c r="D641" s="75" t="s">
         <v>741</v>
       </c>
-      <c r="E641" s="77">
+      <c r="E641" s="76">
         <v>9</v>
       </c>
-      <c r="F641" s="78" t="s">
+      <c r="F641" s="77" t="s">
         <v>714</v>
       </c>
-      <c r="G641" s="71" t="s">
+      <c r="G641" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H641" s="71" t="s">
+      <c r="H641" s="70" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="642" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A642" s="71" t="s">
+      <c r="A642" s="70" t="s">
         <v>700</v>
       </c>
-      <c r="B642" s="71" t="s">
+      <c r="B642" s="70" t="s">
         <v>701</v>
       </c>
-      <c r="C642" s="72" t="s">
+      <c r="C642" s="71" t="s">
         <v>740</v>
       </c>
-      <c r="D642" s="76" t="s">
+      <c r="D642" s="75" t="s">
         <v>741</v>
       </c>
-      <c r="E642" s="77" t="s">
+      <c r="E642" s="76" t="s">
         <v>731</v>
       </c>
-      <c r="F642" s="78" t="s">
+      <c r="F642" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="G642" s="71" t="s">
+      <c r="G642" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H642" s="71" t="s">
+      <c r="H642" s="70" t="s">
         <v>30</v>
       </c>
     </row>
@@ -22292,54 +22339,54 @@
       </c>
     </row>
     <row r="702" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A702" s="71" t="s">
+      <c r="A702" s="70" t="s">
         <v>766</v>
       </c>
-      <c r="B702" s="71" t="s">
+      <c r="B702" s="70" t="s">
         <v>767</v>
       </c>
-      <c r="C702" s="72" t="s">
+      <c r="C702" s="71" t="s">
         <v>801</v>
       </c>
-      <c r="D702" s="70" t="s">
+      <c r="D702" s="69" t="s">
         <v>802</v>
       </c>
-      <c r="E702" s="72">
+      <c r="E702" s="71">
         <v>1</v>
       </c>
-      <c r="F702" s="71" t="s">
+      <c r="F702" s="70" t="s">
         <v>621</v>
       </c>
-      <c r="G702" s="71" t="s">
+      <c r="G702" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H702" s="71" t="s">
+      <c r="H702" s="70" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="703" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A703" s="71" t="s">
+      <c r="A703" s="70" t="s">
         <v>766</v>
       </c>
-      <c r="B703" s="71" t="s">
+      <c r="B703" s="70" t="s">
         <v>767</v>
       </c>
-      <c r="C703" s="72" t="s">
+      <c r="C703" s="71" t="s">
         <v>801</v>
       </c>
-      <c r="D703" s="70" t="s">
+      <c r="D703" s="69" t="s">
         <v>802</v>
       </c>
-      <c r="E703" s="72">
+      <c r="E703" s="71">
         <v>2</v>
       </c>
-      <c r="F703" s="71" t="s">
+      <c r="F703" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="G703" s="71" t="s">
+      <c r="G703" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="H703" s="71" t="s">
+      <c r="H703" s="70" t="s">
         <v>556</v>
       </c>
     </row>
@@ -22425,10 +22472,10 @@
       <c r="A707" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B707" s="122" t="s">
+      <c r="B707" s="124" t="s">
         <v>767</v>
       </c>
-      <c r="C707" s="123"/>
+      <c r="C707" s="125"/>
       <c r="D707" s="50" t="s">
         <v>806</v>
       </c>
@@ -22449,10 +22496,10 @@
       <c r="A708" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B708" s="122" t="s">
+      <c r="B708" s="124" t="s">
         <v>767</v>
       </c>
-      <c r="C708" s="123"/>
+      <c r="C708" s="125"/>
       <c r="D708" s="50" t="s">
         <v>806</v>
       </c>
@@ -23916,210 +23963,210 @@
       </c>
     </row>
     <row r="765" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A765" s="74" t="s">
+      <c r="A765" s="73" t="s">
         <v>821</v>
       </c>
-      <c r="B765" s="74" t="s">
+      <c r="B765" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="C765" s="75" t="s">
+      <c r="C765" s="74" t="s">
         <v>863</v>
       </c>
-      <c r="D765" s="74" t="s">
+      <c r="D765" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="E765" s="75">
+      <c r="E765" s="74">
         <v>1</v>
       </c>
-      <c r="F765" s="74" t="s">
+      <c r="F765" s="73" t="s">
         <v>865</v>
       </c>
-      <c r="G765" s="74" t="s">
+      <c r="G765" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="H765" s="74" t="s">
+      <c r="H765" s="73" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="766" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A766" s="74" t="s">
+      <c r="A766" s="73" t="s">
         <v>821</v>
       </c>
-      <c r="B766" s="74" t="s">
+      <c r="B766" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="C766" s="75" t="s">
+      <c r="C766" s="74" t="s">
         <v>863</v>
       </c>
-      <c r="D766" s="74" t="s">
+      <c r="D766" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="E766" s="75">
+      <c r="E766" s="74">
         <v>2</v>
       </c>
-      <c r="F766" s="74" t="s">
+      <c r="F766" s="73" t="s">
         <v>866</v>
       </c>
-      <c r="G766" s="74" t="s">
+      <c r="G766" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="H766" s="74" t="s">
+      <c r="H766" s="73" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="767" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A767" s="74" t="s">
+      <c r="A767" s="73" t="s">
         <v>821</v>
       </c>
-      <c r="B767" s="74" t="s">
+      <c r="B767" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="C767" s="75" t="s">
+      <c r="C767" s="74" t="s">
         <v>863</v>
       </c>
-      <c r="D767" s="74" t="s">
+      <c r="D767" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="E767" s="75">
+      <c r="E767" s="74">
         <v>3</v>
       </c>
-      <c r="F767" s="74" t="s">
+      <c r="F767" s="73" t="s">
         <v>867</v>
       </c>
-      <c r="G767" s="74" t="s">
+      <c r="G767" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="H767" s="74" t="s">
+      <c r="H767" s="73" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="768" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A768" s="74" t="s">
+      <c r="A768" s="73" t="s">
         <v>821</v>
       </c>
-      <c r="B768" s="74" t="s">
+      <c r="B768" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="C768" s="75" t="s">
+      <c r="C768" s="74" t="s">
         <v>863</v>
       </c>
-      <c r="D768" s="74" t="s">
+      <c r="D768" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="E768" s="75">
+      <c r="E768" s="74">
         <v>4</v>
       </c>
-      <c r="F768" s="74" t="s">
+      <c r="F768" s="73" t="s">
         <v>868</v>
       </c>
-      <c r="G768" s="74" t="s">
+      <c r="G768" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="H768" s="74" t="s">
+      <c r="H768" s="73" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="769" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A769" s="74" t="s">
+      <c r="A769" s="73" t="s">
         <v>821</v>
       </c>
-      <c r="B769" s="74" t="s">
+      <c r="B769" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="C769" s="75" t="s">
+      <c r="C769" s="74" t="s">
         <v>863</v>
       </c>
-      <c r="D769" s="74" t="s">
+      <c r="D769" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="E769" s="75">
+      <c r="E769" s="74">
         <v>5</v>
       </c>
-      <c r="F769" s="74" t="s">
+      <c r="F769" s="73" t="s">
         <v>869</v>
       </c>
-      <c r="G769" s="74" t="s">
+      <c r="G769" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="H769" s="74" t="s">
+      <c r="H769" s="73" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="770" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A770" s="74" t="s">
+      <c r="A770" s="73" t="s">
         <v>821</v>
       </c>
-      <c r="B770" s="74" t="s">
+      <c r="B770" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="C770" s="75" t="s">
+      <c r="C770" s="74" t="s">
         <v>863</v>
       </c>
-      <c r="D770" s="74" t="s">
+      <c r="D770" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="E770" s="75">
+      <c r="E770" s="74">
         <v>6</v>
       </c>
-      <c r="F770" s="74" t="s">
+      <c r="F770" s="73" t="s">
         <v>870</v>
       </c>
-      <c r="G770" s="74" t="s">
+      <c r="G770" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="H770" s="74" t="s">
+      <c r="H770" s="73" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="771" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A771" s="74" t="s">
+      <c r="A771" s="73" t="s">
         <v>821</v>
       </c>
-      <c r="B771" s="74" t="s">
+      <c r="B771" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="C771" s="75" t="s">
+      <c r="C771" s="74" t="s">
         <v>863</v>
       </c>
-      <c r="D771" s="74" t="s">
+      <c r="D771" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="E771" s="75">
+      <c r="E771" s="74">
         <v>7</v>
       </c>
-      <c r="F771" s="74" t="s">
+      <c r="F771" s="73" t="s">
         <v>871</v>
       </c>
-      <c r="G771" s="74" t="s">
+      <c r="G771" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="H771" s="74" t="s">
+      <c r="H771" s="73" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="772" spans="1:8" ht="14.3" customHeight="1">
-      <c r="A772" s="74" t="s">
+      <c r="A772" s="73" t="s">
         <v>821</v>
       </c>
-      <c r="B772" s="74" t="s">
+      <c r="B772" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="C772" s="75" t="s">
+      <c r="C772" s="74" t="s">
         <v>863</v>
       </c>
-      <c r="D772" s="74" t="s">
+      <c r="D772" s="73" t="s">
         <v>864</v>
       </c>
-      <c r="E772" s="75">
+      <c r="E772" s="74">
         <v>8</v>
       </c>
-      <c r="F772" s="74" t="s">
+      <c r="F772" s="73" t="s">
         <v>842</v>
       </c>
-      <c r="G772" s="74" t="s">
+      <c r="G772" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="H772" s="74" t="s">
+      <c r="H772" s="73" t="s">
         <v>738</v>
       </c>
     </row>
@@ -24315,10 +24362,10 @@
       <c r="C780" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="D780" s="122" t="s">
+      <c r="D780" s="124" t="s">
         <v>882</v>
       </c>
-      <c r="E780" s="123"/>
+      <c r="E780" s="125"/>
       <c r="F780" s="52">
         <v>0.47222222222222221</v>
       </c>
@@ -24365,10 +24412,10 @@
       <c r="C782" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="D782" s="122" t="s">
+      <c r="D782" s="124" t="s">
         <v>884</v>
       </c>
-      <c r="E782" s="123"/>
+      <c r="E782" s="125"/>
       <c r="F782" s="53">
         <v>17.290972222222223</v>
       </c>
@@ -24389,10 +24436,10 @@
       <c r="C783" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="D783" s="122" t="s">
+      <c r="D783" s="124" t="s">
         <v>884</v>
       </c>
-      <c r="E783" s="123"/>
+      <c r="E783" s="125"/>
       <c r="F783" s="53">
         <v>4.4437499999999996</v>
       </c>
@@ -25432,17 +25479,17 @@
   </sheetData>
   <autoFilter ref="A1:H788" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="11">
-    <mergeCell ref="G573:H573"/>
-    <mergeCell ref="G574:H574"/>
-    <mergeCell ref="B707:C707"/>
-    <mergeCell ref="B708:C708"/>
-    <mergeCell ref="D780:E780"/>
     <mergeCell ref="D782:E782"/>
     <mergeCell ref="D783:E783"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="D57:F57"/>
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G573:H573"/>
+    <mergeCell ref="G574:H574"/>
+    <mergeCell ref="B707:C707"/>
+    <mergeCell ref="B708:C708"/>
+    <mergeCell ref="D780:E780"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -25451,10 +25498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.95" customHeight="1"/>
@@ -25657,7 +25704,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.3" customHeight="1">
+    <row r="17" spans="1:5" ht="14.3" customHeight="1">
       <c r="A17" s="54">
         <v>16</v>
       </c>
@@ -25668,7 +25715,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.3" customHeight="1">
+    <row r="18" spans="1:5" ht="14.3" customHeight="1">
       <c r="A18" s="54">
         <v>17</v>
       </c>
@@ -25679,7 +25726,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.3" customHeight="1">
+    <row r="19" spans="1:5" ht="14.3" customHeight="1">
       <c r="A19" s="54">
         <v>18</v>
       </c>
@@ -25690,7 +25737,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.3" customHeight="1">
+    <row r="20" spans="1:5" ht="14.3" customHeight="1">
       <c r="A20" s="54">
         <v>19</v>
       </c>
@@ -25704,19 +25751,19 @@
         <v>921</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.3" customHeight="1">
+    <row r="21" spans="1:5" ht="14.3" customHeight="1">
       <c r="A21" s="54"/>
       <c r="B21" s="54"/>
     </row>
-    <row r="22" spans="1:4" ht="14.3" customHeight="1"/>
-    <row r="23" spans="1:4" ht="14.3" customHeight="1"/>
-    <row r="24" spans="1:4" ht="14.3" customHeight="1"/>
-    <row r="25" spans="1:4" ht="14.3" customHeight="1">
+    <row r="22" spans="1:5" ht="14.3" customHeight="1"/>
+    <row r="23" spans="1:5" ht="14.3" customHeight="1"/>
+    <row r="24" spans="1:5" ht="14.3" customHeight="1"/>
+    <row r="25" spans="1:5" ht="14.3" customHeight="1">
       <c r="A25" s="60" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.3" customHeight="1">
+    <row r="26" spans="1:5" ht="14.3" customHeight="1">
       <c r="A26" s="61" t="s">
         <v>923</v>
       </c>
@@ -25729,8 +25776,11 @@
       <c r="D26" s="65" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.3" customHeight="1">
+      <c r="E26" s="130" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.3" customHeight="1">
       <c r="A27" s="60" t="s">
         <v>925</v>
       </c>
@@ -25741,7 +25791,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.3" customHeight="1">
+    <row r="28" spans="1:5" ht="14.3" customHeight="1">
       <c r="A28" s="60" t="s">
         <v>583</v>
       </c>
@@ -25752,7 +25802,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.3" customHeight="1">
+    <row r="29" spans="1:5" ht="14.3" customHeight="1">
       <c r="A29" s="60" t="s">
         <v>651</v>
       </c>
@@ -25763,7 +25813,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.3" customHeight="1">
+    <row r="30" spans="1:5" ht="14.3" customHeight="1">
       <c r="A30" s="60" t="s">
         <v>700</v>
       </c>
@@ -25774,7 +25824,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.3" customHeight="1">
+    <row r="31" spans="1:5" ht="14.3" customHeight="1">
       <c r="A31" s="60" t="s">
         <v>766</v>
       </c>
@@ -25785,7 +25835,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.3" customHeight="1">
+    <row r="32" spans="1:5" ht="14.3" customHeight="1">
       <c r="A32" s="60" t="s">
         <v>931</v>
       </c>
@@ -25796,7 +25846,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.3" customHeight="1">
+    <row r="33" spans="1:5" ht="14.3" customHeight="1">
       <c r="A33" s="16" t="s">
         <v>8</v>
       </c>
@@ -25809,8 +25859,11 @@
       <c r="D33" s="64" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.3" customHeight="1">
+      <c r="E33" s="123" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.3" customHeight="1">
       <c r="A34" s="16" t="s">
         <v>108</v>
       </c>
@@ -25823,8 +25876,11 @@
       <c r="D34" s="64" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="14.3" customHeight="1">
+      <c r="E34" s="64" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.3" customHeight="1">
       <c r="A35" s="16" t="s">
         <v>188</v>
       </c>
@@ -25834,19 +25890,25 @@
       <c r="C35" s="66" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.3" customHeight="1">
+      <c r="E35" s="64" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.3" customHeight="1">
       <c r="A36" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="54" t="s">
         <v>282</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.3" customHeight="1">
+      <c r="E36" s="64" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.3" customHeight="1">
       <c r="A37" s="16" t="s">
         <v>316</v>
       </c>
@@ -25856,8 +25918,11 @@
       <c r="C37" s="16" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.3" customHeight="1">
+      <c r="E37" s="64" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.3" customHeight="1">
       <c r="A38" s="16" t="s">
         <v>387</v>
       </c>
@@ -25867,8 +25932,11 @@
       <c r="C38" s="16" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.3" customHeight="1">
+      <c r="E38" s="64" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.3" customHeight="1">
       <c r="A39" s="16" t="s">
         <v>434</v>
       </c>
@@ -25881,16 +25949,35 @@
       <c r="D39" s="64" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.3" customHeight="1"/>
-    <row r="41" spans="1:4" ht="14.3" customHeight="1"/>
-    <row r="42" spans="1:4" ht="14.3" customHeight="1"/>
-    <row r="43" spans="1:4" ht="14.3" customHeight="1"/>
-    <row r="44" spans="1:4" ht="14.3" customHeight="1"/>
-    <row r="45" spans="1:4" ht="14.3" customHeight="1"/>
-    <row r="46" spans="1:4" ht="14.3" customHeight="1"/>
-    <row r="47" spans="1:4" ht="14.3" customHeight="1"/>
-    <row r="48" spans="1:4" ht="14.3" customHeight="1"/>
+      <c r="E39" s="64" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.3" customHeight="1">
+      <c r="A40" s="123" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C40" s="123" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E40" s="123" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.3" customHeight="1"/>
+    <row r="42" spans="1:5" ht="14.3" customHeight="1"/>
+    <row r="43" spans="1:5" ht="14.3" customHeight="1"/>
+    <row r="44" spans="1:5" ht="14.3" customHeight="1"/>
+    <row r="45" spans="1:5" ht="14.3" customHeight="1"/>
+    <row r="46" spans="1:5" ht="14.3" customHeight="1"/>
+    <row r="47" spans="1:5" ht="14.3" customHeight="1"/>
+    <row r="48" spans="1:5" ht="14.3" customHeight="1"/>
     <row r="49" ht="14.3" customHeight="1"/>
     <row r="50" ht="14.3" customHeight="1"/>
     <row r="51" ht="14.3" customHeight="1"/>
@@ -26853,569 +26940,571 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E39F68A-D908-4889-A868-9822F377BC18}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="93"/>
-    <col min="3" max="3" width="14.109375" style="93" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="93" customWidth="1"/>
-    <col min="5" max="5" width="70.33203125" style="93" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="93" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="93" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="93"/>
+    <col min="1" max="2" width="11.5546875" style="92"/>
+    <col min="3" max="3" width="14.109375" style="92" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="92" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" style="92" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="92" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="92" customWidth="1"/>
+    <col min="8" max="16384" width="11.5546875" style="92"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>923</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="91" t="s">
         <v>957</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>958</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>959</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="91" t="s">
         <v>960</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="91" t="s">
         <v>961</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="91" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>931</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="92" t="s">
         <v>963</v>
       </c>
-      <c r="C2" s="93">
+      <c r="C2" s="92">
         <v>164</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="92" t="s">
         <v>964</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="92" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="92" t="s">
         <v>931</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="92" t="s">
         <v>966</v>
       </c>
-      <c r="C3" s="93">
+      <c r="C3" s="92">
         <v>230</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="92" t="s">
         <v>967</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="92" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="92" t="s">
         <v>495</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="92" t="s">
         <v>968</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="92">
         <v>17</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="92" t="s">
         <v>969</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="92" t="s">
         <v>970</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="92" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="92" t="s">
         <v>495</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="92" t="s">
         <v>971</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="92">
         <v>21</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="92" t="s">
         <v>972</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="92" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="92" t="s">
         <v>583</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="92" t="s">
         <v>974</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="92">
         <v>609</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="92" t="s">
         <v>975</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="92" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="92" t="s">
         <v>700</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="92" t="s">
         <v>764</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="92">
         <v>594</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="92" t="s">
         <v>977</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="92" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="92" t="s">
         <v>700</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="92" t="s">
         <v>978</v>
       </c>
-      <c r="C8" s="93">
+      <c r="C8" s="92">
         <v>292</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="92" t="s">
         <v>979</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="92" t="s">
         <v>980</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="92" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="92" t="s">
         <v>651</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="92" t="s">
         <v>981</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="92">
         <v>423</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="92" t="s">
         <v>982</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="92" t="s">
         <v>983</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="92" t="s">
         <v>890</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="92" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="92" t="s">
         <v>651</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="92" t="s">
         <v>984</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="92">
         <v>436</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="92" t="s">
         <v>985</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="92" t="s">
         <v>986</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="92" t="s">
         <v>890</v>
       </c>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="92" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="92" t="s">
         <v>766</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="93" t="s">
         <v>987</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="92" t="s">
         <v>988</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="92" t="s">
         <v>989</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="94" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="92" t="s">
         <v>766</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="95" t="s">
         <v>991</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="92" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="92" t="s">
         <v>434</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="92" t="s">
         <v>493</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="122" t="s">
         <v>494</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="92" t="s">
         <v>993</v>
       </c>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="92" t="s">
         <v>994</v>
       </c>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="92" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.75" customHeight="1">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="96" t="s">
         <v>996</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="96" t="s">
         <v>997</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="F14" s="97" t="s">
         <v>890</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="92" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="92">
         <v>45</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="92" t="s">
         <v>998</v>
       </c>
-      <c r="F15" s="98" t="s">
+      <c r="F15" s="97" t="s">
         <v>890</v>
       </c>
-      <c r="G15" s="93" t="s">
+      <c r="G15" s="92" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="92" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="98" t="s">
         <v>999</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="92" t="s">
         <v>1000</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="92" t="s">
         <v>1001</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="97" t="s">
         <v>890</v>
       </c>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="98" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.55">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="99" t="s">
         <v>1002</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="99" t="s">
         <v>1003</v>
       </c>
-      <c r="F17" s="98" t="s">
+      <c r="F17" s="97" t="s">
         <v>890</v>
       </c>
-      <c r="G17" s="93" t="s">
+      <c r="G17" s="92" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="92" t="s">
         <v>387</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="95" t="s">
         <v>426</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="92" t="s">
         <v>427</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="92" t="s">
         <v>1005</v>
       </c>
-      <c r="F18" s="98" t="s">
+      <c r="F18" s="97" t="s">
         <v>890</v>
       </c>
-      <c r="G18" s="98" t="s">
+      <c r="G18" s="97" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="92" t="s">
         <v>387</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="95" t="s">
         <v>428</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="92" t="s">
         <v>429</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="92" t="s">
         <v>1006</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="97" t="s">
         <v>890</v>
       </c>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="100" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="93" t="s">
+      <c r="A20" s="92" t="s">
         <v>387</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="95" t="s">
         <v>430</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="92" t="s">
         <v>431</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="92" t="s">
         <v>1008</v>
       </c>
-      <c r="F20" s="98" t="s">
+      <c r="F20" s="97" t="s">
         <v>890</v>
       </c>
-      <c r="G20" s="101" t="s">
+      <c r="G20" s="100" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="92" t="s">
         <v>387</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="95" t="s">
         <v>432</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="92" t="s">
         <v>433</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="92" t="s">
         <v>1010</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="F21" s="97" t="s">
         <v>890</v>
       </c>
-      <c r="G21" s="101" t="s">
+      <c r="G21" s="100" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="100" t="s">
         <v>1012</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="95" t="s">
         <v>1013</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="92" t="s">
         <v>1014</v>
       </c>
-      <c r="F22" s="98" t="s">
+      <c r="F22" s="97" t="s">
         <v>890</v>
       </c>
-      <c r="G22" s="101" t="s">
+      <c r="G22" s="100" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="92" t="s">
         <v>1015</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="101" t="s">
         <v>1016</v>
       </c>
-      <c r="D23" s="103" t="s">
+      <c r="D23" s="102" t="s">
         <v>1017</v>
       </c>
-      <c r="E23" s="93" t="s">
+      <c r="E23" s="92" t="s">
         <v>1018</v>
       </c>
-      <c r="F23" s="98" t="s">
+      <c r="F23" s="97" t="s">
         <v>1019</v>
       </c>
-      <c r="G23" s="101" t="s">
+      <c r="G23" s="100" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="92" t="s">
         <v>1015</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="102" t="s">
         <v>1021</v>
       </c>
-      <c r="D24" s="103" t="s">
+      <c r="D24" s="102" t="s">
         <v>1022</v>
       </c>
-      <c r="E24" s="93" t="s">
+      <c r="E24" s="92" t="s">
         <v>1023</v>
       </c>
-      <c r="F24" s="98" t="s">
+      <c r="F24" s="97" t="s">
         <v>1019</v>
       </c>
-      <c r="G24" s="101" t="s">
+      <c r="G24" s="100" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.3" customHeight="1">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="102" t="s">
         <v>1025</v>
       </c>
-      <c r="C25" s="93">
+      <c r="C25" s="92">
         <v>19</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="102" t="s">
         <v>1026</v>
       </c>
-      <c r="E25" s="97" t="s">
+      <c r="E25" s="96" t="s">
         <v>1027</v>
       </c>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="103" t="s">
         <v>890</v>
       </c>
-      <c r="G25" s="105" t="s">
+      <c r="G25" s="104" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="92" t="s">
         <v>316</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="92" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="104" t="s">
+      <c r="F26" s="103" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="92" t="s">
         <v>316</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="92" t="s">
         <v>1028</v>
       </c>
-      <c r="D27" s="93" t="s">
+      <c r="D27" s="92" t="s">
         <v>1029</v>
       </c>
-      <c r="E27" s="93" t="s">
+      <c r="E27" s="92" t="s">
         <v>1030</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="103" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="92" t="s">
         <v>316</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="92" t="s">
         <v>385</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="92" t="s">
         <v>1031</v>
       </c>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="92" t="s">
         <v>1032</v>
       </c>
-      <c r="G28" s="105" t="s">
+      <c r="G28" s="104" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="92" t="s">
         <v>313</v>
       </c>
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="92" t="s">
         <v>1033</v>
       </c>
-      <c r="E29" s="93" t="s">
+      <c r="E29" s="92" t="s">
         <v>1034</v>
       </c>
-      <c r="F29" s="104" t="s">
+      <c r="F29" s="103" t="s">
         <v>890</v>
       </c>
-      <c r="G29" s="105" t="s">
+      <c r="G29" s="104" t="s">
         <v>254</v>
       </c>
     </row>
@@ -27432,19 +27521,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805967D9-A16C-4BAC-B7E7-6A55F3D3D74A}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.6"/>
   <cols>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="121" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.95" thickBot="1">
+    <row r="1" spans="1:5" ht="14.95" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>923</v>
       </c>
@@ -27452,171 +27542,201 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.6" customHeight="1" thickTop="1">
+      <c r="A2" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>1035</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.6" customHeight="1" thickTop="1">
-      <c r="A2" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="D2" s="121" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A3" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="90" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="D3" s="105" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A4" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>189</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>1019</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A5" s="80" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A5" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="105" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E5" t="s">
         <v>1065</v>
       </c>
-      <c r="D5" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A6" s="80" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A6" s="79" t="s">
         <v>316</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="90" t="s">
         <v>189</v>
       </c>
       <c r="C6" s="64" t="s">
         <v>1019</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A7" s="80" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A7" s="79" t="s">
         <v>387</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="90" t="s">
         <v>388</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A8" s="80" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A8" s="79" t="s">
         <v>434</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="90" t="s">
         <v>435</v>
       </c>
       <c r="C8" s="64" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A9" s="80" t="s">
+      <c r="D8" s="64" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A9" s="79" t="s">
         <v>495</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="90" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A10" s="80" t="s">
+    <row r="10" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A10" s="79" t="s">
         <v>583</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="90" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A11" s="80" t="s">
+    <row r="11" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A11" s="79" t="s">
         <v>651</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="90" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A12" s="80" t="s">
+    <row r="12" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A12" s="79" t="s">
         <v>700</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="90" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A13" s="93" t="s">
+    <row r="13" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A13" s="92" t="s">
         <v>931</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="90" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A14" s="81" t="s">
+    <row r="14" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A14" s="80" t="s">
         <v>1012</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="90" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A15" s="79" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B15" s="90" t="s">
         <v>1037</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A15" s="80" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>1038</v>
       </c>
       <c r="C15" s="64" t="s">
         <v>890</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.6" customHeight="1">
-      <c r="A16" s="80" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.6" customHeight="1">
+      <c r="A16" s="79" t="s">
         <v>766</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="90" t="s">
         <v>767</v>
       </c>
     </row>
@@ -27631,143 +27751,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F73259B-4B92-4779-941C-4A0C4539E183}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="109" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" style="109" customWidth="1"/>
-    <col min="3" max="5" width="52.5546875" style="109" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="108"/>
+    <col min="1" max="1" width="32.6640625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="108" customWidth="1"/>
+    <col min="3" max="5" width="52.5546875" style="108" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.55" customHeight="1">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="126" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D1" s="126" t="s">
         <v>1043</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="E1" s="126" t="s">
         <v>1044</v>
       </c>
-      <c r="E1" s="124" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="20.55" customHeight="1">
+      <c r="A2" s="127"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+    </row>
+    <row r="3" spans="1:5" ht="30.1" customHeight="1" thickBot="1">
+      <c r="A3" s="109" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="111" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.55" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-    </row>
-    <row r="3" spans="1:5" ht="30.1" customHeight="1" thickBot="1">
-      <c r="A3" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="111" t="s">
+      <c r="D3" s="112" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="54.2" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="114" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E4" s="116" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30.1" customHeight="1" thickTop="1">
+      <c r="A5" s="117" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E5" s="117" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.1" customHeight="1" thickBot="1">
+      <c r="A6" s="109" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="112" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D3" s="113" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E3" s="112" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="54.2" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="115" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="115" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="114" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D4" s="116" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E4" s="117" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30.1" customHeight="1" thickTop="1">
-      <c r="A5" s="118" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B5" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="118" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D5" s="118" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E5" s="118" t="s">
+      <c r="C6" s="111" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30.1" customHeight="1" thickBot="1">
-      <c r="A6" s="110" t="s">
-        <v>316</v>
-      </c>
-      <c r="B6" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="112" t="s">
+      <c r="D6" s="112" t="s">
         <v>1055</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="E6" s="111" t="s">
         <v>1056</v>
       </c>
-      <c r="E6" s="112" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="30.1" customHeight="1" thickTop="1">
+      <c r="A7" s="117" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30.1" customHeight="1" thickTop="1">
-      <c r="A7" s="118" t="s">
+      <c r="B7" s="117" t="s">
         <v>1058</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="C7" s="117" t="s">
         <v>1059</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="D7" s="117" t="s">
         <v>1060</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="E7" s="117" t="s">
         <v>1061</v>
       </c>
-      <c r="E7" s="118" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="56.4" customHeight="1">
+      <c r="A8" s="109" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="119"/>
+      <c r="D8" s="120" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="56.4" customHeight="1">
-      <c r="A8" s="110" t="s">
-        <v>434</v>
-      </c>
-      <c r="B8" s="119" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="121" t="s">
+      <c r="E8" s="118" t="s">
         <v>1063</v>
-      </c>
-      <c r="E8" s="119" t="s">
-        <v>1064</v>
       </c>
     </row>
   </sheetData>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Economia\Tematicas de Investigacion\Precariedad Mundial\precariedad.mundial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5166D087-2163-40DF-8808-8FC2E86B4BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACF1016-D794-41FF-8676-A59CBC425B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Ingresos!$A$1:$G$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Links!$A$1:$E$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metadata!$A$1:$J$928</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metadata!$A$1:$J$941</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6852" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6930" uniqueCount="1317">
   <si>
     <t>Pais</t>
   </si>
@@ -4012,6 +4012,60 @@
   </si>
   <si>
     <t>RAMA</t>
+  </si>
+  <si>
+    <t>A13_1</t>
+  </si>
+  <si>
+    <t>Degree of Education (Only for the household members whose ages ≥6; For students still at school, please write the education level at the end of 2018)</t>
+  </si>
+  <si>
+    <t>Never schooled</t>
+  </si>
+  <si>
+    <t>Elementary school</t>
+  </si>
+  <si>
+    <t>Junior middle school</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Senior middle school</t>
+  </si>
+  <si>
+    <t>Vocational senior secondary school/technical school</t>
+  </si>
+  <si>
+    <t>Specialized secondary school</t>
+  </si>
+  <si>
+    <t>Polytechnic college</t>
+  </si>
+  <si>
+    <t>Undergraduate (Bachelor’s degree)</t>
+  </si>
+  <si>
+    <t>Graduate (Master’s degree or above)</t>
+  </si>
+  <si>
+    <t>EDUC</t>
+  </si>
+  <si>
+    <t>A13_2</t>
+  </si>
+  <si>
+    <t>Completion of final education level</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>Studied but did not graduate</t>
+  </si>
+  <si>
+    <t>Dropout</t>
+  </si>
+  <si>
+    <t>Still in school</t>
   </si>
 </sst>
 </file>
@@ -4826,8 +4880,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I326" sqref="I326:I887"/>
+    <sheetView tabSelected="1" topLeftCell="C321" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I343" sqref="I343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13417,7 +13471,7 @@
       </c>
       <c r="I312" s="4"/>
     </row>
-    <row r="313" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="313" spans="1:9" ht="14.25" customHeight="1">
       <c r="A313" s="4" t="s">
         <v>401</v>
       </c>
@@ -13442,7 +13496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="314" spans="1:9" ht="14.25" customHeight="1">
       <c r="A314" s="4" t="s">
         <v>401</v>
       </c>
@@ -13469,7 +13523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="315" spans="1:9" ht="14.25" customHeight="1">
       <c r="A315" s="4" t="s">
         <v>401</v>
       </c>
@@ -13496,7 +13550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="316" spans="1:9" ht="14.25" customHeight="1">
       <c r="A316" s="4" t="s">
         <v>401</v>
       </c>
@@ -13523,7 +13577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="317" spans="1:9" ht="14.25" customHeight="1">
       <c r="A317" s="4" t="s">
         <v>401</v>
       </c>
@@ -13550,7 +13604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="318" spans="1:9" ht="14.25" customHeight="1">
       <c r="A318" s="4" t="s">
         <v>401</v>
       </c>
@@ -13577,7 +13631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="319" spans="1:9" ht="14.25" customHeight="1">
       <c r="A319" s="4" t="s">
         <v>401</v>
       </c>
@@ -13604,7 +13658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="320" spans="1:9" ht="14.25" customHeight="1">
       <c r="A320" s="4" t="s">
         <v>401</v>
       </c>
@@ -13631,7 +13685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="321" spans="1:9" ht="14.25" customHeight="1">
       <c r="A321" s="4" t="s">
         <v>401</v>
       </c>
@@ -13658,7 +13712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="322" spans="1:9" ht="14.25" customHeight="1">
       <c r="A322" s="4" t="s">
         <v>401</v>
       </c>
@@ -13685,7 +13739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="323" spans="1:9" ht="14.25" customHeight="1">
       <c r="A323" s="4" t="s">
         <v>401</v>
       </c>
@@ -13712,7 +13766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="324" spans="1:9" ht="14.25" customHeight="1">
       <c r="A324" s="4" t="s">
         <v>401</v>
       </c>
@@ -13739,7 +13793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="325" spans="1:9" ht="14.25" customHeight="1">
       <c r="A325" s="4" t="s">
         <v>401</v>
       </c>
@@ -13793,7 +13847,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="327" spans="1:9" ht="14.25" customHeight="1">
       <c r="A327" s="4" t="s">
         <v>401</v>
       </c>
@@ -13820,7 +13874,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="328" spans="1:9" ht="14.25" customHeight="1">
       <c r="A328" s="4" t="s">
         <v>401</v>
       </c>
@@ -13847,7 +13901,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="329" spans="1:9" ht="14.25" customHeight="1">
       <c r="A329" s="4" t="s">
         <v>401</v>
       </c>
@@ -13874,7 +13928,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="330" spans="1:9" ht="14.25" customHeight="1">
       <c r="A330" s="4" t="s">
         <v>401</v>
       </c>
@@ -13901,7 +13955,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="331" spans="1:9" ht="14.25" customHeight="1">
       <c r="A331" s="4" t="s">
         <v>401</v>
       </c>
@@ -13928,7 +13982,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="332" spans="1:9" ht="14.25" customHeight="1">
       <c r="A332" s="4" t="s">
         <v>401</v>
       </c>
@@ -13955,7 +14009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="333" spans="1:9" ht="14.25" customHeight="1">
       <c r="A333" s="4" t="s">
         <v>401</v>
       </c>
@@ -13982,7 +14036,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="334" spans="1:9" ht="14.25" customHeight="1">
       <c r="A334" s="4" t="s">
         <v>401</v>
       </c>
@@ -14009,7 +14063,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="335" spans="1:9" ht="14.25" customHeight="1">
       <c r="A335" s="4" t="s">
         <v>401</v>
       </c>
@@ -14036,7 +14090,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="336" spans="1:9" ht="14.25" customHeight="1">
       <c r="A336" s="4" t="s">
         <v>401</v>
       </c>
@@ -14060,10 +14114,10 @@
         <v>1288</v>
       </c>
       <c r="I336" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="14.25" customHeight="1">
       <c r="A337" s="4" t="s">
         <v>401</v>
       </c>
@@ -14090,7 +14144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="338" spans="1:9" ht="14.25" customHeight="1">
       <c r="A338" s="4" t="s">
         <v>401</v>
       </c>
@@ -14117,7 +14171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="339" spans="1:9" ht="14.25" customHeight="1">
       <c r="A339" s="4" t="s">
         <v>401</v>
       </c>
@@ -14141,10 +14195,10 @@
         <v>1288</v>
       </c>
       <c r="I339" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="14.25" customHeight="1">
       <c r="A340" s="4" t="s">
         <v>401</v>
       </c>
@@ -14171,7 +14225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="341" spans="1:9" ht="14.25" customHeight="1">
       <c r="A341" s="4" t="s">
         <v>401</v>
       </c>
@@ -14195,10 +14249,10 @@
         <v>1288</v>
       </c>
       <c r="I341" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="14.25" customHeight="1">
       <c r="A342" s="4" t="s">
         <v>401</v>
       </c>
@@ -14225,7 +14279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="343" spans="1:9" ht="14.25" customHeight="1">
       <c r="A343" s="4" t="s">
         <v>401</v>
       </c>
@@ -14252,7 +14306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="344" spans="1:9" ht="14.25" customHeight="1">
       <c r="A344" s="4" t="s">
         <v>401</v>
       </c>
@@ -14276,10 +14330,10 @@
         <v>1288</v>
       </c>
       <c r="I344" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="14.25" customHeight="1">
       <c r="A345" s="4" t="s">
         <v>401</v>
       </c>
@@ -14303,10 +14357,10 @@
         <v>1288</v>
       </c>
       <c r="I345" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="14.25" customHeight="1">
       <c r="A346" s="4" t="s">
         <v>401</v>
       </c>
@@ -14333,7 +14387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="347" spans="1:9" ht="14.25" customHeight="1">
       <c r="A347" s="4" t="s">
         <v>401</v>
       </c>
@@ -14360,7 +14414,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="348" spans="1:9" ht="14.25" customHeight="1">
       <c r="A348" s="4" t="s">
         <v>401</v>
       </c>
@@ -14387,7 +14441,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="349" spans="1:9" ht="14.25" customHeight="1">
       <c r="A349" s="4" t="s">
         <v>401</v>
       </c>
@@ -14412,7 +14466,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="350" spans="1:9" ht="14.25" customHeight="1">
       <c r="A350" s="4" t="s">
         <v>401</v>
       </c>
@@ -14439,7 +14493,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="351" spans="1:9" ht="14.25" customHeight="1">
       <c r="A351" s="4" t="s">
         <v>401</v>
       </c>
@@ -14466,7 +14520,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="352" spans="1:9" ht="14.25" customHeight="1">
       <c r="A352" s="4" t="s">
         <v>401</v>
       </c>
@@ -14493,7 +14547,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="353" spans="1:9" ht="14.25" customHeight="1">
       <c r="A353" s="4" t="s">
         <v>401</v>
       </c>
@@ -14518,7 +14572,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="354" spans="1:9" ht="14.25" customHeight="1">
       <c r="A354" s="4" t="s">
         <v>401</v>
       </c>
@@ -14545,7 +14599,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="355" spans="1:9" ht="14.25" customHeight="1">
       <c r="A355" s="4" t="s">
         <v>401</v>
       </c>
@@ -14572,7 +14626,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="356" spans="1:9" ht="14.25" customHeight="1">
       <c r="A356" s="4" t="s">
         <v>401</v>
       </c>
@@ -14599,7 +14653,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="357" spans="1:9" ht="14.25" customHeight="1">
       <c r="A357" s="4" t="s">
         <v>401</v>
       </c>
@@ -14626,7 +14680,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="358" spans="1:9" ht="14.25" customHeight="1">
       <c r="A358" s="4" t="s">
         <v>401</v>
       </c>
@@ -14653,7 +14707,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="359" spans="1:9" ht="14.25" customHeight="1">
       <c r="A359" s="4" t="s">
         <v>401</v>
       </c>
@@ -14676,7 +14730,7 @@
       </c>
       <c r="I359" s="4"/>
     </row>
-    <row r="360" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="360" spans="1:9" ht="14.25" customHeight="1">
       <c r="A360" s="4" t="s">
         <v>401</v>
       </c>
@@ -14699,7 +14753,7 @@
       </c>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="361" spans="1:9" ht="14.25" customHeight="1">
       <c r="A361" s="4" t="s">
         <v>401</v>
       </c>
@@ -14722,7 +14776,7 @@
       </c>
       <c r="I361" s="4"/>
     </row>
-    <row r="362" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="362" spans="1:9" ht="14.25" customHeight="1">
       <c r="A362" s="4" t="s">
         <v>401</v>
       </c>
@@ -16292,7 +16346,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="14.25" customHeight="1">
+    <row r="420" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A420" s="4" t="s">
         <v>508</v>
       </c>
@@ -18301,7 +18355,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="14.25" customHeight="1">
+    <row r="494" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A494" s="4" t="s">
         <v>600</v>
       </c>
@@ -18463,7 +18517,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="14.25" customHeight="1">
+    <row r="500" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A500" s="4" t="s">
         <v>600</v>
       </c>
@@ -20154,7 +20208,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="14.25" customHeight="1">
+    <row r="563" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A563" s="4" t="s">
         <v>670</v>
       </c>
@@ -20181,7 +20235,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="14.25" customHeight="1">
+    <row r="564" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A564" s="4" t="s">
         <v>670</v>
       </c>
@@ -20208,7 +20262,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="14.25" customHeight="1">
+    <row r="565" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A565" s="4" t="s">
         <v>670</v>
       </c>
@@ -21326,7 +21380,7 @@
       </c>
       <c r="I606" s="4"/>
     </row>
-    <row r="607" spans="1:9" ht="14.25" customHeight="1">
+    <row r="607" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A607" s="4" t="s">
         <v>723</v>
       </c>
@@ -23125,7 +23179,7 @@
       </c>
       <c r="I673" s="4"/>
     </row>
-    <row r="674" spans="1:9" ht="14.25" customHeight="1">
+    <row r="674" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A674" s="4" t="s">
         <v>780</v>
       </c>
@@ -25082,7 +25136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="747" spans="1:9" ht="14.25" customHeight="1">
+    <row r="747" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A747" s="4" t="s">
         <v>834</v>
       </c>
@@ -25109,7 +25163,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="748" spans="1:9" ht="14.25" customHeight="1">
+    <row r="748" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A748" s="4" t="s">
         <v>834</v>
       </c>
@@ -28757,7 +28811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="886" spans="1:9" ht="14.25" customHeight="1">
+    <row r="886" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A886" s="36" t="s">
         <v>1021</v>
       </c>
@@ -28786,7 +28840,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="887" spans="1:9" ht="14.25" customHeight="1">
+    <row r="887" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A887" s="36" t="s">
         <v>1021</v>
       </c>
@@ -29923,67 +29977,353 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="929" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D929" s="5"/>
-      <c r="F929" s="5"/>
-    </row>
-    <row r="930" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D930" s="5"/>
-      <c r="F930" s="5"/>
-    </row>
-    <row r="931" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D931" s="5"/>
-      <c r="F931" s="5"/>
-    </row>
-    <row r="932" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D932" s="5"/>
-      <c r="F932" s="5"/>
-    </row>
-    <row r="933" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D933" s="5"/>
-      <c r="F933" s="5"/>
-    </row>
-    <row r="934" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D934" s="5"/>
-      <c r="F934" s="5"/>
-    </row>
-    <row r="935" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D935" s="5"/>
-      <c r="F935" s="5"/>
-    </row>
-    <row r="936" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D936" s="5"/>
-      <c r="F936" s="5"/>
-    </row>
-    <row r="937" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D937" s="5"/>
-      <c r="F937" s="5"/>
-    </row>
-    <row r="938" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D938" s="5"/>
-      <c r="F938" s="5"/>
-    </row>
-    <row r="939" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D939" s="5"/>
-      <c r="F939" s="5"/>
-    </row>
-    <row r="940" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D940" s="5"/>
-      <c r="F940" s="5"/>
-    </row>
-    <row r="941" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D941" s="5"/>
-      <c r="F941" s="5"/>
-    </row>
-    <row r="942" spans="4:6" ht="14.25" customHeight="1">
+    <row r="929" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A929" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B929" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C929" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D929" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E929" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F929" s="5">
+        <v>1</v>
+      </c>
+      <c r="G929" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H929" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A930" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B930" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C930" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D930" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E930" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F930" s="5">
+        <v>2</v>
+      </c>
+      <c r="G930" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H930" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A931" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B931" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C931" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D931" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E931" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F931" s="5">
+        <v>3</v>
+      </c>
+      <c r="G931" s="12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H931" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A932" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B932" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C932" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D932" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E932" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F932" s="5">
+        <v>4</v>
+      </c>
+      <c r="G932" s="12" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H932" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A933" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B933" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C933" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D933" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E933" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F933" s="5">
+        <v>5</v>
+      </c>
+      <c r="G933" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H933" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A934" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B934" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C934" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D934" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E934" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F934" s="5">
+        <v>6</v>
+      </c>
+      <c r="G934" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H934" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A935" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B935" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C935" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D935" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E935" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F935" s="5">
+        <v>7</v>
+      </c>
+      <c r="G935" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H935" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A936" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B936" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C936" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D936" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E936" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F936" s="5">
+        <v>8</v>
+      </c>
+      <c r="G936" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H936" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A937" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B937" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C937" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D937" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E937" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F937" s="5">
+        <v>9</v>
+      </c>
+      <c r="G937" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H937" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A938" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B938" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C938" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D938" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E938" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F938" s="5">
+        <v>1</v>
+      </c>
+      <c r="G938" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H938" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A939" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B939" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C939" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D939" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E939" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F939" s="5">
+        <v>2</v>
+      </c>
+      <c r="G939" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H939" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A940" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B940" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C940" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D940" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E940" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F940" s="5">
+        <v>3</v>
+      </c>
+      <c r="G940" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H940" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+      <c r="A941" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B941" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C941" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D941" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E941" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F941" s="5">
+        <v>4</v>
+      </c>
+      <c r="G941" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H941" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" ht="14.25" customHeight="1">
       <c r="D942" s="5"/>
       <c r="F942" s="5"/>
     </row>
-    <row r="943" spans="4:6" ht="14.25" customHeight="1">
+    <row r="943" spans="1:8" ht="14.25" customHeight="1">
       <c r="D943" s="5"/>
       <c r="F943" s="5"/>
     </row>
-    <row r="944" spans="4:6" ht="14.25" customHeight="1">
+    <row r="944" spans="1:8" ht="14.25" customHeight="1">
       <c r="D944" s="5"/>
       <c r="F944" s="5"/>
     </row>
@@ -30332,15 +30672,10 @@
       <c r="F1030" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J928" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="7">
+  <autoFilter ref="A1:J941" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
       <filters>
-        <filter val="SECTOR"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Publico"/>
+        <filter val="Ecuador"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Economia\Tematicas de Investigacion\Precariedad Mundial\precariedad.mundial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56F0510-F1B3-4B4C-B895-5EFB6EB66607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB66B56E-7D59-4934-BD76-1DCFA296BF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -5103,10 +5103,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1065"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80:I82"/>
+    <sheetView topLeftCell="A864" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H871" sqref="H871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5152,7 +5153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1">
+    <row r="2" spans="1:9" ht="14.25" hidden="1" customHeight="1" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1">
+    <row r="3" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -5204,7 +5205,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1">
+    <row r="4" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -5229,7 +5230,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1">
+    <row r="5" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5254,7 +5255,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1">
+    <row r="6" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -5279,7 +5280,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1">
+    <row r="7" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -5304,7 +5305,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1">
+    <row r="8" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5331,7 +5332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1">
+    <row r="10" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1">
+    <row r="11" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1">
+    <row r="12" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1">
+    <row r="13" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1">
+    <row r="14" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1">
+    <row r="15" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1">
+    <row r="16" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1">
+    <row r="17" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1">
+    <row r="18" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1">
+    <row r="19" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -5628,7 +5629,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1">
+    <row r="20" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1">
+    <row r="21" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1">
+    <row r="22" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1">
+    <row r="23" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1">
+    <row r="24" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1">
+    <row r="25" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -5790,7 +5791,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1">
+    <row r="26" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
@@ -5817,7 +5818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1">
+    <row r="27" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1">
+    <row r="28" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1">
+    <row r="29" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1">
+    <row r="30" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1">
+    <row r="31" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -5952,7 +5953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1">
+    <row r="32" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="14.25" customHeight="1">
+    <row r="33" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="14.25" customHeight="1">
+    <row r="34" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
@@ -6033,7 +6034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="14.25" customHeight="1">
+    <row r="35" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -6060,7 +6061,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="14.25" customHeight="1">
+    <row r="36" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
@@ -6088,7 +6089,7 @@
       </c>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:27" ht="14.25" customHeight="1">
+    <row r="37" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
@@ -6116,7 +6117,7 @@
       </c>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:27" ht="14.25" customHeight="1">
+    <row r="38" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
@@ -6161,7 +6162,7 @@
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
     </row>
-    <row r="39" spans="1:27" ht="14.25" customHeight="1">
+    <row r="39" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>9</v>
       </c>
@@ -6206,7 +6207,7 @@
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
     </row>
-    <row r="40" spans="1:27" ht="14.25" customHeight="1">
+    <row r="40" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -6251,7 +6252,7 @@
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
     </row>
-    <row r="41" spans="1:27" ht="14.25" customHeight="1">
+    <row r="41" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -6296,7 +6297,7 @@
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
     </row>
-    <row r="42" spans="1:27" ht="14.25" customHeight="1">
+    <row r="42" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>9</v>
       </c>
@@ -6341,7 +6342,7 @@
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
     </row>
-    <row r="43" spans="1:27" ht="14.25" customHeight="1">
+    <row r="43" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
@@ -6369,7 +6370,7 @@
       </c>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:27" ht="14.25" customHeight="1">
+    <row r="44" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>9</v>
       </c>
@@ -6396,7 +6397,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="14.25" customHeight="1">
+    <row r="45" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>9</v>
       </c>
@@ -6423,7 +6424,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="14.25" customHeight="1">
+    <row r="46" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="14.25" customHeight="1">
+    <row r="47" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="18" customHeight="1">
+    <row r="48" spans="1:27" ht="18" hidden="1" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18" customHeight="1">
+    <row r="49" spans="1:9" ht="18" hidden="1" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -6531,7 +6532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18" customHeight="1">
+    <row r="50" spans="1:9" ht="18" hidden="1" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>9</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18" customHeight="1">
+    <row r="51" spans="1:9" ht="18" hidden="1" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>9</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18" customHeight="1">
+    <row r="52" spans="1:9" ht="18" hidden="1" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>9</v>
       </c>
@@ -6612,7 +6613,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18" customHeight="1">
+    <row r="53" spans="1:9" ht="18" hidden="1" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1">
+    <row r="54" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>9</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="14.25" customHeight="1">
+    <row r="55" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
@@ -6693,7 +6694,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.25" customHeight="1">
+    <row r="56" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>9</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.25" customHeight="1">
+    <row r="57" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>9</v>
       </c>
@@ -6747,7 +6748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="14.25" customHeight="1">
+    <row r="58" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>110</v>
       </c>
@@ -6774,7 +6775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="14.25" customHeight="1">
+    <row r="59" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>110</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.25" customHeight="1">
+    <row r="60" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>110</v>
       </c>
@@ -6828,7 +6829,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.25" customHeight="1">
+    <row r="61" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>110</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="14.25" customHeight="1">
+    <row r="62" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>110</v>
       </c>
@@ -6882,7 +6883,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="14.25" customHeight="1">
+    <row r="63" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>110</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="14.25" customHeight="1">
+    <row r="64" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>110</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="14.25" customHeight="1">
+    <row r="65" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>110</v>
       </c>
@@ -6963,7 +6964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.25" customHeight="1">
+    <row r="66" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>110</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.25" customHeight="1">
+    <row r="67" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>110</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.25" customHeight="1">
+    <row r="68" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>110</v>
       </c>
@@ -7036,7 +7037,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.25" customHeight="1">
+    <row r="69" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>110</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="14.25" customHeight="1">
+    <row r="70" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>110</v>
       </c>
@@ -7082,7 +7083,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="14.25" customHeight="1">
+    <row r="71" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>110</v>
       </c>
@@ -7109,7 +7110,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.25" customHeight="1">
+    <row r="72" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>110</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="14.25" customHeight="1">
+    <row r="73" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>110</v>
       </c>
@@ -7163,7 +7164,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="14.25" customHeight="1">
+    <row r="74" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>110</v>
       </c>
@@ -7190,7 +7191,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="14.25" customHeight="1">
+    <row r="75" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>110</v>
       </c>
@@ -7217,7 +7218,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="14.25" customHeight="1">
+    <row r="76" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>110</v>
       </c>
@@ -7244,7 +7245,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="14.25" customHeight="1">
+    <row r="77" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>110</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="14.25" customHeight="1">
+    <row r="78" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>110</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="14.25" customHeight="1">
+    <row r="79" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>110</v>
       </c>
@@ -7325,7 +7326,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="14.25" customHeight="1">
+    <row r="80" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>110</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="14.25" customHeight="1">
+    <row r="81" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>110</v>
       </c>
@@ -7379,7 +7380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="14.25" customHeight="1">
+    <row r="82" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>110</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="14.25" customHeight="1">
+    <row r="83" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>110</v>
       </c>
@@ -7433,7 +7434,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="14.25" customHeight="1">
+    <row r="84" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>110</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.25" customHeight="1">
+    <row r="85" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>110</v>
       </c>
@@ -7487,7 +7488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="14.25" customHeight="1">
+    <row r="86" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>110</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="14.25" customHeight="1">
+    <row r="87" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>110</v>
       </c>
@@ -7541,7 +7542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="14.25" customHeight="1">
+    <row r="88" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>110</v>
       </c>
@@ -7568,7 +7569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="14.25" customHeight="1">
+    <row r="89" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>110</v>
       </c>
@@ -7595,7 +7596,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="14.25" customHeight="1">
+    <row r="90" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>110</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="14.25" customHeight="1">
+    <row r="91" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>110</v>
       </c>
@@ -7649,7 +7650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="14.25" customHeight="1">
+    <row r="92" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>110</v>
       </c>
@@ -7676,7 +7677,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="14.25" customHeight="1">
+    <row r="93" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>110</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="14.25" customHeight="1">
+    <row r="94" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>110</v>
       </c>
@@ -7730,7 +7731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.25" customHeight="1">
+    <row r="95" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>110</v>
       </c>
@@ -7757,7 +7758,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="14.25" customHeight="1">
+    <row r="96" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>110</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="14.25" customHeight="1">
+    <row r="97" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>110</v>
       </c>
@@ -7811,7 +7812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="14.25" customHeight="1">
+    <row r="98" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>110</v>
       </c>
@@ -7838,7 +7839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="14.25" customHeight="1">
+    <row r="99" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>110</v>
       </c>
@@ -7865,7 +7866,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.25" customHeight="1">
+    <row r="100" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>110</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="14.25" customHeight="1">
+    <row r="101" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>110</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.25" customHeight="1">
+    <row r="102" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>110</v>
       </c>
@@ -7946,7 +7947,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.25" customHeight="1">
+    <row r="103" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>110</v>
       </c>
@@ -7973,7 +7974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="14.25" customHeight="1">
+    <row r="104" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>110</v>
       </c>
@@ -8000,7 +8001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="14.25" customHeight="1">
+    <row r="105" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>110</v>
       </c>
@@ -8027,7 +8028,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="14.25" customHeight="1">
+    <row r="106" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>110</v>
       </c>
@@ -8055,7 +8056,7 @@
       </c>
       <c r="K106" s="7"/>
     </row>
-    <row r="107" spans="1:11" ht="14.25" customHeight="1">
+    <row r="107" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>110</v>
       </c>
@@ -8083,7 +8084,7 @@
       </c>
       <c r="K107" s="7"/>
     </row>
-    <row r="108" spans="1:11" ht="14.25" customHeight="1">
+    <row r="108" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>110</v>
       </c>
@@ -8110,7 +8111,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="14.25" customHeight="1">
+    <row r="109" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>110</v>
       </c>
@@ -8137,7 +8138,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="14.25" customHeight="1">
+    <row r="110" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>110</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="14.25" customHeight="1">
+    <row r="111" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>110</v>
       </c>
@@ -8191,7 +8192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="14.25" customHeight="1">
+    <row r="112" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>110</v>
       </c>
@@ -8218,7 +8219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="14.25" customHeight="1">
+    <row r="113" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>110</v>
       </c>
@@ -8245,7 +8246,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="14.25" customHeight="1">
+    <row r="114" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>110</v>
       </c>
@@ -8272,7 +8273,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="14.25" customHeight="1">
+    <row r="115" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>110</v>
       </c>
@@ -8299,7 +8300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="14.25" customHeight="1">
+    <row r="116" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>110</v>
       </c>
@@ -8326,7 +8327,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="14.25" customHeight="1">
+    <row r="117" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>110</v>
       </c>
@@ -8353,7 +8354,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="14.25" customHeight="1">
+    <row r="118" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>110</v>
       </c>
@@ -8380,7 +8381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="14.25" customHeight="1">
+    <row r="119" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>110</v>
       </c>
@@ -8405,7 +8406,7 @@
       </c>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" ht="14.25" customHeight="1">
+    <row r="120" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>110</v>
       </c>
@@ -8430,7 +8431,7 @@
       </c>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" ht="14.25" customHeight="1">
+    <row r="121" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>110</v>
       </c>
@@ -8455,7 +8456,7 @@
       </c>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" ht="14.25" customHeight="1">
+    <row r="122" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>110</v>
       </c>
@@ -8480,7 +8481,7 @@
       </c>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" ht="14.25" customHeight="1">
+    <row r="123" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>110</v>
       </c>
@@ -8505,7 +8506,7 @@
       </c>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" ht="14.25" customHeight="1">
+    <row r="124" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>110</v>
       </c>
@@ -8530,7 +8531,7 @@
       </c>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9" ht="14.25" customHeight="1">
+    <row r="125" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>110</v>
       </c>
@@ -8555,7 +8556,7 @@
       </c>
       <c r="I125" s="4"/>
     </row>
-    <row r="126" spans="1:9" ht="14.25" customHeight="1">
+    <row r="126" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>110</v>
       </c>
@@ -8580,7 +8581,7 @@
       </c>
       <c r="I126" s="4"/>
     </row>
-    <row r="127" spans="1:9" ht="14.25" customHeight="1">
+    <row r="127" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>110</v>
       </c>
@@ -8605,7 +8606,7 @@
       </c>
       <c r="I127" s="4"/>
     </row>
-    <row r="128" spans="1:9" ht="14.25" customHeight="1">
+    <row r="128" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>110</v>
       </c>
@@ -8630,7 +8631,7 @@
       </c>
       <c r="I128" s="4"/>
     </row>
-    <row r="129" spans="1:9" ht="14.25" customHeight="1">
+    <row r="129" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>110</v>
       </c>
@@ -8655,7 +8656,7 @@
       </c>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="1:9" ht="14.25" customHeight="1">
+    <row r="130" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>110</v>
       </c>
@@ -8680,7 +8681,7 @@
       </c>
       <c r="I130" s="4"/>
     </row>
-    <row r="131" spans="1:9" ht="14.25" customHeight="1">
+    <row r="131" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>110</v>
       </c>
@@ -8705,7 +8706,7 @@
       </c>
       <c r="I131" s="4"/>
     </row>
-    <row r="132" spans="1:9" ht="14.25" customHeight="1">
+    <row r="132" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>110</v>
       </c>
@@ -8730,11 +8731,13 @@
       </c>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="1:9" ht="14.25" customHeight="1">
+    <row r="133" spans="1:9" ht="14.25" hidden="1" customHeight="1" thickTop="1">
       <c r="A133" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B133" s="4"/>
+      <c r="B133" s="4">
+        <v>2019</v>
+      </c>
       <c r="C133" s="4" t="s">
         <v>187</v>
       </c>
@@ -8757,11 +8760,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="14.25" customHeight="1">
+    <row r="134" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B134" s="4"/>
+      <c r="B134" s="4">
+        <v>2019</v>
+      </c>
       <c r="C134" s="4" t="s">
         <v>187</v>
       </c>
@@ -8784,11 +8789,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="12.75" customHeight="1">
+    <row r="135" spans="1:9" ht="12.75" hidden="1" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B135" s="4"/>
+      <c r="B135" s="4">
+        <v>2019</v>
+      </c>
       <c r="C135" s="4" t="s">
         <v>187</v>
       </c>
@@ -8811,11 +8818,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="14.25" customHeight="1">
+    <row r="136" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B136" s="4"/>
+      <c r="B136" s="4">
+        <v>2019</v>
+      </c>
       <c r="C136" s="4" t="s">
         <v>187</v>
       </c>
@@ -8838,11 +8847,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="14.25" customHeight="1">
+    <row r="137" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B137" s="4"/>
+      <c r="B137" s="4">
+        <v>2019</v>
+      </c>
       <c r="C137" s="4" t="s">
         <v>187</v>
       </c>
@@ -8865,11 +8876,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="14.25" customHeight="1">
+    <row r="138" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B138" s="4"/>
+      <c r="B138" s="4">
+        <v>2019</v>
+      </c>
       <c r="C138" s="4" t="s">
         <v>187</v>
       </c>
@@ -8892,11 +8905,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="14.25" customHeight="1">
+    <row r="139" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B139" s="4"/>
+      <c r="B139" s="4">
+        <v>2019</v>
+      </c>
       <c r="C139" s="4" t="s">
         <v>187</v>
       </c>
@@ -8919,11 +8934,13 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="14.25" customHeight="1">
+    <row r="140" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B140" s="4"/>
+      <c r="B140" s="4">
+        <v>2019</v>
+      </c>
       <c r="C140" s="4" t="s">
         <v>187</v>
       </c>
@@ -8946,11 +8963,13 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="14.25" customHeight="1">
+    <row r="141" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B141" s="4"/>
+      <c r="B141" s="4">
+        <v>2019</v>
+      </c>
       <c r="C141" s="4" t="s">
         <v>187</v>
       </c>
@@ -8973,11 +8992,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="14.25" customHeight="1">
+    <row r="142" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A142" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B142" s="4"/>
+      <c r="B142" s="4">
+        <v>2019</v>
+      </c>
       <c r="C142" s="4" t="s">
         <v>187</v>
       </c>
@@ -9000,11 +9021,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="14.25" customHeight="1">
+    <row r="143" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A143" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B143" s="4"/>
+      <c r="B143" s="4">
+        <v>2019</v>
+      </c>
       <c r="C143" s="4" t="s">
         <v>187</v>
       </c>
@@ -9027,11 +9050,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="14.25" customHeight="1">
+    <row r="144" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A144" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B144" s="4"/>
+      <c r="B144" s="4">
+        <v>2019</v>
+      </c>
       <c r="C144" s="4" t="s">
         <v>187</v>
       </c>
@@ -9054,11 +9079,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="14.25" customHeight="1">
+    <row r="145" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A145" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B145" s="4"/>
+      <c r="B145" s="4">
+        <v>2019</v>
+      </c>
       <c r="C145" s="4" t="s">
         <v>187</v>
       </c>
@@ -9081,11 +9108,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="14.25" customHeight="1">
+    <row r="146" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A146" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B146" s="4"/>
+      <c r="B146" s="4">
+        <v>2019</v>
+      </c>
       <c r="C146" s="4" t="s">
         <v>187</v>
       </c>
@@ -9108,11 +9137,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="14.25" customHeight="1">
+    <row r="147" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A147" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B147" s="4"/>
+      <c r="B147" s="4">
+        <v>2019</v>
+      </c>
       <c r="C147" s="4" t="s">
         <v>187</v>
       </c>
@@ -9135,11 +9166,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="14.25" customHeight="1">
+    <row r="148" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B148" s="4"/>
+      <c r="B148" s="4">
+        <v>2019</v>
+      </c>
       <c r="C148" s="4" t="s">
         <v>187</v>
       </c>
@@ -9162,11 +9195,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="14.25" customHeight="1">
+    <row r="149" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A149" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B149" s="4"/>
+      <c r="B149" s="4">
+        <v>2019</v>
+      </c>
       <c r="C149" s="4" t="s">
         <v>187</v>
       </c>
@@ -9189,11 +9224,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="14.25" customHeight="1">
+    <row r="150" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A150" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B150" s="4"/>
+      <c r="B150" s="4">
+        <v>2019</v>
+      </c>
       <c r="C150" s="4" t="s">
         <v>187</v>
       </c>
@@ -9216,11 +9253,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="14.25" customHeight="1">
+    <row r="151" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A151" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B151" s="4"/>
+      <c r="B151" s="4">
+        <v>2019</v>
+      </c>
       <c r="C151" s="4" t="s">
         <v>187</v>
       </c>
@@ -9243,11 +9282,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="14.25" customHeight="1">
+    <row r="152" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A152" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="4"/>
+      <c r="B152" s="4">
+        <v>2019</v>
+      </c>
       <c r="C152" s="4" t="s">
         <v>187</v>
       </c>
@@ -9270,11 +9311,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="14.25" customHeight="1">
+    <row r="153" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A153" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B153" s="4"/>
+      <c r="B153" s="4">
+        <v>2019</v>
+      </c>
       <c r="C153" s="4" t="s">
         <v>187</v>
       </c>
@@ -9297,11 +9340,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="14.25" customHeight="1">
+    <row r="154" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B154" s="4"/>
+      <c r="B154" s="4">
+        <v>2019</v>
+      </c>
       <c r="C154" s="4" t="s">
         <v>187</v>
       </c>
@@ -9322,11 +9367,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="14.25" customHeight="1">
+    <row r="155" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B155" s="4"/>
+      <c r="B155" s="4">
+        <v>2019</v>
+      </c>
       <c r="C155" s="4" t="s">
         <v>187</v>
       </c>
@@ -9347,11 +9394,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="14.25" customHeight="1">
+    <row r="156" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A156" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B156" s="4"/>
+      <c r="B156" s="4">
+        <v>2019</v>
+      </c>
       <c r="C156" s="4" t="s">
         <v>187</v>
       </c>
@@ -9372,11 +9421,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="14.25" customHeight="1">
+    <row r="157" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A157" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B157" s="4"/>
+      <c r="B157" s="4">
+        <v>2019</v>
+      </c>
       <c r="C157" s="4" t="s">
         <v>187</v>
       </c>
@@ -9397,11 +9448,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="14.25" customHeight="1">
+    <row r="158" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A158" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B158" s="4"/>
+      <c r="B158" s="4">
+        <v>2019</v>
+      </c>
       <c r="C158" s="4" t="s">
         <v>187</v>
       </c>
@@ -9422,11 +9475,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="14.25" customHeight="1">
+    <row r="159" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A159" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B159" s="4"/>
+      <c r="B159" s="4">
+        <v>2019</v>
+      </c>
       <c r="C159" s="4" t="s">
         <v>187</v>
       </c>
@@ -9447,11 +9502,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="14.25" customHeight="1">
+    <row r="160" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A160" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B160" s="4"/>
+      <c r="B160" s="4">
+        <v>2019</v>
+      </c>
       <c r="C160" s="4" t="s">
         <v>187</v>
       </c>
@@ -9472,11 +9529,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="14.25" customHeight="1">
+    <row r="161" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A161" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B161" s="4"/>
+      <c r="B161" s="4">
+        <v>2019</v>
+      </c>
       <c r="C161" s="4" t="s">
         <v>187</v>
       </c>
@@ -9497,11 +9556,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="14.25" customHeight="1">
+    <row r="162" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A162" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B162" s="4"/>
+      <c r="B162" s="4">
+        <v>2019</v>
+      </c>
       <c r="C162" s="4" t="s">
         <v>187</v>
       </c>
@@ -9522,11 +9583,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="14.25" customHeight="1">
+    <row r="163" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A163" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B163" s="4"/>
+      <c r="B163" s="4">
+        <v>2019</v>
+      </c>
       <c r="C163" s="4" t="s">
         <v>187</v>
       </c>
@@ -9547,11 +9610,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="14.25" customHeight="1">
+    <row r="164" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B164" s="4"/>
+      <c r="B164" s="4">
+        <v>2019</v>
+      </c>
       <c r="C164" s="4" t="s">
         <v>187</v>
       </c>
@@ -9572,11 +9637,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="14.25" customHeight="1">
+    <row r="165" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B165" s="4"/>
+      <c r="B165" s="4">
+        <v>2019</v>
+      </c>
       <c r="C165" s="4" t="s">
         <v>187</v>
       </c>
@@ -9597,11 +9664,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="14.25" customHeight="1">
+    <row r="166" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B166" s="4"/>
+      <c r="B166" s="4">
+        <v>2019</v>
+      </c>
       <c r="C166" s="4" t="s">
         <v>187</v>
       </c>
@@ -9622,11 +9691,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="14.25" customHeight="1">
+    <row r="167" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B167" s="4"/>
+      <c r="B167" s="4">
+        <v>2019</v>
+      </c>
       <c r="C167" s="4" t="s">
         <v>187</v>
       </c>
@@ -9647,11 +9718,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="14.25" customHeight="1">
+    <row r="168" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A168" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B168" s="4"/>
+      <c r="B168" s="4">
+        <v>2019</v>
+      </c>
       <c r="C168" s="4" t="s">
         <v>187</v>
       </c>
@@ -9672,11 +9745,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="14.25" customHeight="1">
+    <row r="169" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B169" s="4"/>
+      <c r="B169" s="4">
+        <v>2019</v>
+      </c>
       <c r="C169" s="4" t="s">
         <v>187</v>
       </c>
@@ -9700,11 +9775,13 @@
       </c>
       <c r="K169" s="7"/>
     </row>
-    <row r="170" spans="1:27" ht="14.25" customHeight="1">
+    <row r="170" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B170" s="4"/>
+      <c r="B170" s="4">
+        <v>2019</v>
+      </c>
       <c r="C170" s="4" t="s">
         <v>187</v>
       </c>
@@ -9728,11 +9805,13 @@
       </c>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:27" ht="14.25" customHeight="1">
+    <row r="171" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B171" s="4"/>
+      <c r="B171" s="4">
+        <v>2019</v>
+      </c>
       <c r="C171" s="4" t="s">
         <v>187</v>
       </c>
@@ -9773,11 +9852,13 @@
       <c r="Z171" s="7"/>
       <c r="AA171" s="7"/>
     </row>
-    <row r="172" spans="1:27" ht="14.25" customHeight="1">
+    <row r="172" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B172" s="4"/>
+      <c r="B172" s="4">
+        <v>2019</v>
+      </c>
       <c r="C172" s="4" t="s">
         <v>187</v>
       </c>
@@ -9818,11 +9899,13 @@
       <c r="Z172" s="7"/>
       <c r="AA172" s="7"/>
     </row>
-    <row r="173" spans="1:27" ht="14.25" customHeight="1">
+    <row r="173" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B173" s="4"/>
+      <c r="B173" s="4">
+        <v>2019</v>
+      </c>
       <c r="C173" s="4" t="s">
         <v>187</v>
       </c>
@@ -9846,11 +9929,13 @@
       </c>
       <c r="K173" s="7"/>
     </row>
-    <row r="174" spans="1:27" ht="14.25" customHeight="1">
+    <row r="174" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B174" s="4"/>
+      <c r="B174" s="4">
+        <v>2019</v>
+      </c>
       <c r="C174" s="4" t="s">
         <v>187</v>
       </c>
@@ -9874,11 +9959,13 @@
       </c>
       <c r="K174" s="7"/>
     </row>
-    <row r="175" spans="1:27" ht="14.25" customHeight="1">
+    <row r="175" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A175" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B175" s="4"/>
+      <c r="B175" s="4">
+        <v>2019</v>
+      </c>
       <c r="C175" s="4" t="s">
         <v>187</v>
       </c>
@@ -9899,11 +9986,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="14.25" customHeight="1">
+    <row r="176" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B176" s="4"/>
+      <c r="B176" s="4">
+        <v>2019</v>
+      </c>
       <c r="C176" s="4" t="s">
         <v>187</v>
       </c>
@@ -9926,11 +10015,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="14.25" customHeight="1">
+    <row r="177" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A177" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B177" s="4"/>
+      <c r="B177" s="4">
+        <v>2019</v>
+      </c>
       <c r="C177" s="4" t="s">
         <v>187</v>
       </c>
@@ -9953,11 +10044,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="14.25" customHeight="1">
+    <row r="178" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="4"/>
+      <c r="B178" s="4">
+        <v>2019</v>
+      </c>
       <c r="C178" s="4" t="s">
         <v>187</v>
       </c>
@@ -9980,11 +10073,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="14.25" customHeight="1">
+    <row r="179" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B179" s="4"/>
+      <c r="B179" s="4">
+        <v>2019</v>
+      </c>
       <c r="C179" s="4" t="s">
         <v>187</v>
       </c>
@@ -10007,11 +10102,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="14.25" customHeight="1">
+    <row r="180" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B180" s="4"/>
+      <c r="B180" s="4">
+        <v>2019</v>
+      </c>
       <c r="C180" s="4" t="s">
         <v>187</v>
       </c>
@@ -10034,11 +10131,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="14.25" customHeight="1">
+    <row r="181" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B181" s="4"/>
+      <c r="B181" s="4">
+        <v>2019</v>
+      </c>
       <c r="C181" s="4" t="s">
         <v>187</v>
       </c>
@@ -10061,11 +10160,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="14.25" customHeight="1">
+    <row r="182" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B182" s="4"/>
+      <c r="B182" s="4">
+        <v>2019</v>
+      </c>
       <c r="C182" s="4" t="s">
         <v>187</v>
       </c>
@@ -10088,11 +10189,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="14.25" customHeight="1">
+    <row r="183" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A183" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B183" s="4"/>
+      <c r="B183" s="4">
+        <v>2019</v>
+      </c>
       <c r="C183" s="4" t="s">
         <v>187</v>
       </c>
@@ -10115,11 +10218,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="14.25" customHeight="1">
+    <row r="184" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A184" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B184" s="4"/>
+      <c r="B184" s="4">
+        <v>2019</v>
+      </c>
       <c r="C184" s="4" t="s">
         <v>187</v>
       </c>
@@ -10142,11 +10247,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="14.25" customHeight="1">
+    <row r="185" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B185" s="4"/>
+      <c r="B185" s="4">
+        <v>2019</v>
+      </c>
       <c r="C185" s="4" t="s">
         <v>187</v>
       </c>
@@ -10165,13 +10272,17 @@
       <c r="H185" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="I185" s="4"/>
-    </row>
-    <row r="186" spans="1:9" ht="12" customHeight="1">
+      <c r="I185" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="12" hidden="1" customHeight="1">
       <c r="A186" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B186" s="4"/>
+      <c r="B186" s="4">
+        <v>2019</v>
+      </c>
       <c r="C186" s="4" t="s">
         <v>187</v>
       </c>
@@ -10190,13 +10301,17 @@
       <c r="H186" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="I186" s="4"/>
-    </row>
-    <row r="187" spans="1:9" ht="13.5" customHeight="1">
+      <c r="I186" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A187" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="4"/>
+      <c r="B187" s="4">
+        <v>2019</v>
+      </c>
       <c r="C187" s="4" t="s">
         <v>187</v>
       </c>
@@ -10219,11 +10334,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="13.5" customHeight="1">
+    <row r="188" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A188" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B188" s="4"/>
+      <c r="B188" s="4">
+        <v>2019</v>
+      </c>
       <c r="C188" s="4" t="s">
         <v>187</v>
       </c>
@@ -10246,11 +10363,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="13.5" customHeight="1">
+    <row r="189" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A189" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B189" s="4"/>
+      <c r="B189" s="4">
+        <v>2019</v>
+      </c>
       <c r="C189" s="4" t="s">
         <v>187</v>
       </c>
@@ -10273,11 +10392,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="13.5" customHeight="1">
+    <row r="190" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A190" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B190" s="4"/>
+      <c r="B190" s="4">
+        <v>2019</v>
+      </c>
       <c r="C190" s="4" t="s">
         <v>187</v>
       </c>
@@ -10300,11 +10421,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="13.5" customHeight="1">
+    <row r="191" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A191" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B191" s="4"/>
+      <c r="B191" s="4">
+        <v>2019</v>
+      </c>
       <c r="C191" s="4" t="s">
         <v>187</v>
       </c>
@@ -10327,11 +10450,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="13.5" customHeight="1">
+    <row r="192" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A192" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B192" s="4"/>
+      <c r="B192" s="4">
+        <v>2019</v>
+      </c>
       <c r="C192" s="4" t="s">
         <v>187</v>
       </c>
@@ -10354,7 +10479,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="13.5" customHeight="1">
+    <row r="193" spans="1:9" ht="13.5" hidden="1" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>259</v>
       </c>
@@ -10381,7 +10506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="14.25" customHeight="1">
+    <row r="194" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A194" s="4" t="s">
         <v>259</v>
       </c>
@@ -10408,7 +10533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="14.25" customHeight="1">
+    <row r="195" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A195" s="4" t="s">
         <v>259</v>
       </c>
@@ -10435,7 +10560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="14.25" customHeight="1">
+    <row r="196" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A196" s="4" t="s">
         <v>259</v>
       </c>
@@ -10462,7 +10587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="14.25" customHeight="1">
+    <row r="197" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>259</v>
       </c>
@@ -10489,7 +10614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="14.25" customHeight="1">
+    <row r="198" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>259</v>
       </c>
@@ -10516,7 +10641,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="14.25" customHeight="1">
+    <row r="199" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A199" s="4" t="s">
         <v>259</v>
       </c>
@@ -10543,7 +10668,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="14.25" customHeight="1">
+    <row r="200" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A200" s="4" t="s">
         <v>259</v>
       </c>
@@ -10570,7 +10695,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="14.25" customHeight="1">
+    <row r="201" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>259</v>
       </c>
@@ -10597,7 +10722,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="14.25" customHeight="1">
+    <row r="202" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>259</v>
       </c>
@@ -10624,7 +10749,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="14.25" customHeight="1">
+    <row r="203" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>259</v>
       </c>
@@ -10651,7 +10776,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="14.25" customHeight="1">
+    <row r="204" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>259</v>
       </c>
@@ -10678,7 +10803,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="14.25" customHeight="1">
+    <row r="205" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>259</v>
       </c>
@@ -10705,7 +10830,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="14.25" customHeight="1">
+    <row r="206" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A206" s="4" t="s">
         <v>259</v>
       </c>
@@ -10732,7 +10857,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="14.25" customHeight="1">
+    <row r="207" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>259</v>
       </c>
@@ -10759,7 +10884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="14.25" customHeight="1">
+    <row r="208" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A208" s="4" t="s">
         <v>259</v>
       </c>
@@ -10786,7 +10911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="14.25" customHeight="1">
+    <row r="209" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>259</v>
       </c>
@@ -10813,7 +10938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="14.25" customHeight="1">
+    <row r="210" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A210" s="4" t="s">
         <v>259</v>
       </c>
@@ -10840,7 +10965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:27" ht="14.25" customHeight="1">
+    <row r="211" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>259</v>
       </c>
@@ -10867,7 +10992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:27" ht="14.25" customHeight="1">
+    <row r="212" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A212" s="4" t="s">
         <v>259</v>
       </c>
@@ -10894,7 +11019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="14.25" customHeight="1">
+    <row r="213" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A213" s="4" t="s">
         <v>259</v>
       </c>
@@ -10921,7 +11046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="14.25" customHeight="1">
+    <row r="214" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>259</v>
       </c>
@@ -10948,7 +11073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="14.25" customHeight="1">
+    <row r="215" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A215" s="4" t="s">
         <v>259</v>
       </c>
@@ -10975,7 +11100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="14.25" customHeight="1">
+    <row r="216" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>259</v>
       </c>
@@ -11002,7 +11127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="14.25" customHeight="1">
+    <row r="217" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A217" s="4" t="s">
         <v>259</v>
       </c>
@@ -11029,7 +11154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="14.25" customHeight="1">
+    <row r="218" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>259</v>
       </c>
@@ -11056,7 +11181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="14.25" customHeight="1">
+    <row r="219" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>259</v>
       </c>
@@ -11081,7 +11206,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="14.25" customHeight="1">
+    <row r="220" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A220" s="4" t="s">
         <v>259</v>
       </c>
@@ -11126,7 +11251,7 @@
       <c r="Z220" s="7"/>
       <c r="AA220" s="7"/>
     </row>
-    <row r="221" spans="1:27" ht="14.25" customHeight="1">
+    <row r="221" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A221" s="4" t="s">
         <v>259</v>
       </c>
@@ -11171,7 +11296,7 @@
       <c r="Z221" s="7"/>
       <c r="AA221" s="7"/>
     </row>
-    <row r="222" spans="1:27" ht="14.25" customHeight="1">
+    <row r="222" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A222" s="4" t="s">
         <v>259</v>
       </c>
@@ -11216,7 +11341,7 @@
       <c r="Z222" s="7"/>
       <c r="AA222" s="7"/>
     </row>
-    <row r="223" spans="1:27" ht="14.25" customHeight="1">
+    <row r="223" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A223" s="4" t="s">
         <v>259</v>
       </c>
@@ -11261,7 +11386,7 @@
       <c r="Z223" s="7"/>
       <c r="AA223" s="7"/>
     </row>
-    <row r="224" spans="1:27" ht="14.25" customHeight="1">
+    <row r="224" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A224" s="4" t="s">
         <v>259</v>
       </c>
@@ -11288,7 +11413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="14.25" customHeight="1">
+    <row r="225" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A225" s="4" t="s">
         <v>259</v>
       </c>
@@ -11315,7 +11440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="14.25" customHeight="1">
+    <row r="226" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>259</v>
       </c>
@@ -11342,7 +11467,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="14.25" customHeight="1">
+    <row r="227" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A227" s="4" t="s">
         <v>259</v>
       </c>
@@ -11369,7 +11494,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="14.25" customHeight="1">
+    <row r="228" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>259</v>
       </c>
@@ -11396,7 +11521,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="14.25" customHeight="1">
+    <row r="229" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>259</v>
       </c>
@@ -11423,7 +11548,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="14.25" customHeight="1">
+    <row r="230" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A230" s="4" t="s">
         <v>259</v>
       </c>
@@ -11450,7 +11575,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="14.25" customHeight="1">
+    <row r="231" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>259</v>
       </c>
@@ -11477,7 +11602,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="14.25" customHeight="1">
+    <row r="232" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A232" s="4" t="s">
         <v>259</v>
       </c>
@@ -11504,7 +11629,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="14.25" customHeight="1">
+    <row r="233" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>259</v>
       </c>
@@ -11531,7 +11656,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="14.25" customHeight="1">
+    <row r="234" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A234" s="4" t="s">
         <v>259</v>
       </c>
@@ -11558,7 +11683,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="14.25" customHeight="1">
+    <row r="235" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>259</v>
       </c>
@@ -11585,7 +11710,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="14.25" customHeight="1">
+    <row r="236" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A236" s="4" t="s">
         <v>259</v>
       </c>
@@ -11612,7 +11737,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="14.25" customHeight="1">
+    <row r="237" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A237" s="4" t="s">
         <v>259</v>
       </c>
@@ -11639,7 +11764,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="14.25" customHeight="1">
+    <row r="238" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>259</v>
       </c>
@@ -11666,7 +11791,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="14.25" customHeight="1">
+    <row r="239" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A239" s="4" t="s">
         <v>259</v>
       </c>
@@ -11693,7 +11818,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="14.25" customHeight="1">
+    <row r="240" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A240" s="4" t="s">
         <v>259</v>
       </c>
@@ -11720,7 +11845,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="14.25" customHeight="1">
+    <row r="241" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A241" s="4" t="s">
         <v>259</v>
       </c>
@@ -11745,7 +11870,7 @@
       </c>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="1:9" ht="14.25" customHeight="1">
+    <row r="242" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A242" s="4" t="s">
         <v>259</v>
       </c>
@@ -11770,7 +11895,7 @@
       </c>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="1:9" ht="14.25" customHeight="1">
+    <row r="243" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>259</v>
       </c>
@@ -11795,7 +11920,7 @@
       </c>
       <c r="I243" s="4"/>
     </row>
-    <row r="244" spans="1:9" ht="14.25" customHeight="1">
+    <row r="244" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A244" s="4" t="s">
         <v>259</v>
       </c>
@@ -11820,7 +11945,7 @@
       </c>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="1:9" ht="14.25" customHeight="1">
+    <row r="245" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>259</v>
       </c>
@@ -11845,7 +11970,7 @@
       </c>
       <c r="I245" s="4"/>
     </row>
-    <row r="246" spans="1:9" ht="14.25" customHeight="1">
+    <row r="246" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A246" s="4" t="s">
         <v>259</v>
       </c>
@@ -11870,7 +11995,7 @@
       </c>
       <c r="I246" s="4"/>
     </row>
-    <row r="247" spans="1:9" ht="14.25" customHeight="1">
+    <row r="247" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A247" s="4" t="s">
         <v>259</v>
       </c>
@@ -11897,7 +12022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="14.25" customHeight="1">
+    <row r="248" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A248" s="4" t="s">
         <v>259</v>
       </c>
@@ -11924,7 +12049,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="14.25" customHeight="1">
+    <row r="249" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A249" s="4" t="s">
         <v>326</v>
       </c>
@@ -11949,7 +12074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="14.25" customHeight="1">
+    <row r="250" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>326</v>
       </c>
@@ -11976,7 +12101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="14.25" customHeight="1">
+    <row r="251" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A251" s="4" t="s">
         <v>326</v>
       </c>
@@ -12003,7 +12128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="14.25" customHeight="1">
+    <row r="252" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A252" s="4" t="s">
         <v>326</v>
       </c>
@@ -12030,7 +12155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="14.25" customHeight="1">
+    <row r="253" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A253" s="4" t="s">
         <v>326</v>
       </c>
@@ -12057,7 +12182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="14.25" customHeight="1">
+    <row r="254" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A254" s="4" t="s">
         <v>326</v>
       </c>
@@ -12084,7 +12209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="14.25" customHeight="1">
+    <row r="255" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A255" s="4" t="s">
         <v>326</v>
       </c>
@@ -12111,7 +12236,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="14.25" customHeight="1">
+    <row r="256" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A256" s="4" t="s">
         <v>326</v>
       </c>
@@ -12138,7 +12263,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="14.25" customHeight="1">
+    <row r="257" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A257" s="4" t="s">
         <v>326</v>
       </c>
@@ -12165,7 +12290,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="14.25" customHeight="1">
+    <row r="258" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A258" s="4" t="s">
         <v>326</v>
       </c>
@@ -12192,7 +12317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="14.25" customHeight="1">
+    <row r="259" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A259" s="4" t="s">
         <v>326</v>
       </c>
@@ -12219,7 +12344,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="14.25" customHeight="1">
+    <row r="260" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A260" s="4" t="s">
         <v>326</v>
       </c>
@@ -12246,7 +12371,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="14.25" customHeight="1">
+    <row r="261" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A261" s="4" t="s">
         <v>326</v>
       </c>
@@ -12273,7 +12398,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="14.25" customHeight="1">
+    <row r="262" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A262" s="4" t="s">
         <v>326</v>
       </c>
@@ -12300,7 +12425,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="14.25" customHeight="1">
+    <row r="263" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A263" s="4" t="s">
         <v>326</v>
       </c>
@@ -12327,7 +12452,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="14.25" customHeight="1">
+    <row r="264" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A264" s="4" t="s">
         <v>326</v>
       </c>
@@ -12354,7 +12479,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="14.25" customHeight="1">
+    <row r="265" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A265" s="4" t="s">
         <v>326</v>
       </c>
@@ -12381,7 +12506,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="14.25" customHeight="1">
+    <row r="266" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A266" s="4" t="s">
         <v>326</v>
       </c>
@@ -12408,7 +12533,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="14.25" customHeight="1">
+    <row r="267" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A267" s="4" t="s">
         <v>326</v>
       </c>
@@ -12435,7 +12560,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="14.25" customHeight="1">
+    <row r="268" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A268" s="4" t="s">
         <v>326</v>
       </c>
@@ -12462,7 +12587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="14.25" customHeight="1">
+    <row r="269" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A269" s="4" t="s">
         <v>326</v>
       </c>
@@ -12489,7 +12614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="14.25" customHeight="1">
+    <row r="270" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A270" s="4" t="s">
         <v>326</v>
       </c>
@@ -12516,7 +12641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="14.25" customHeight="1">
+    <row r="271" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A271" s="4" t="s">
         <v>326</v>
       </c>
@@ -12543,7 +12668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="14.25" customHeight="1">
+    <row r="272" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A272" s="4" t="s">
         <v>326</v>
       </c>
@@ -12570,7 +12695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="14.25" customHeight="1">
+    <row r="273" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A273" s="4" t="s">
         <v>326</v>
       </c>
@@ -12597,7 +12722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="14.25" customHeight="1">
+    <row r="274" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A274" s="4" t="s">
         <v>326</v>
       </c>
@@ -12624,7 +12749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="14.25" customHeight="1">
+    <row r="275" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A275" s="4" t="s">
         <v>326</v>
       </c>
@@ -12651,7 +12776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="276" spans="1:27" ht="14.25" customHeight="1">
+    <row r="276" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A276" s="4" t="s">
         <v>326</v>
       </c>
@@ -12678,7 +12803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="14.25" customHeight="1">
+    <row r="277" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A277" s="4" t="s">
         <v>326</v>
       </c>
@@ -12705,7 +12830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="14.25" customHeight="1">
+    <row r="278" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A278" s="4" t="s">
         <v>326</v>
       </c>
@@ -12732,7 +12857,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="14.25" customHeight="1">
+    <row r="279" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A279" s="4" t="s">
         <v>326</v>
       </c>
@@ -12759,7 +12884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="14.25" customHeight="1">
+    <row r="280" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A280" s="4" t="s">
         <v>326</v>
       </c>
@@ -12784,7 +12909,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="14.25" customHeight="1">
+    <row r="281" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A281" s="4" t="s">
         <v>326</v>
       </c>
@@ -12829,7 +12954,7 @@
       <c r="Z281" s="7"/>
       <c r="AA281" s="7"/>
     </row>
-    <row r="282" spans="1:27" ht="14.25" customHeight="1">
+    <row r="282" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A282" s="4" t="s">
         <v>326</v>
       </c>
@@ -12874,7 +12999,7 @@
       <c r="Z282" s="7"/>
       <c r="AA282" s="7"/>
     </row>
-    <row r="283" spans="1:27" ht="14.25" customHeight="1">
+    <row r="283" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A283" s="4" t="s">
         <v>326</v>
       </c>
@@ -12919,7 +13044,7 @@
       <c r="Z283" s="7"/>
       <c r="AA283" s="7"/>
     </row>
-    <row r="284" spans="1:27" ht="14.25" customHeight="1">
+    <row r="284" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A284" s="4" t="s">
         <v>326</v>
       </c>
@@ -12947,7 +13072,7 @@
       </c>
       <c r="K284" s="7"/>
     </row>
-    <row r="285" spans="1:27" ht="14.25" customHeight="1">
+    <row r="285" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A285" s="4" t="s">
         <v>326</v>
       </c>
@@ -12975,7 +13100,7 @@
       </c>
       <c r="K285" s="7"/>
     </row>
-    <row r="286" spans="1:27" ht="14.25" customHeight="1">
+    <row r="286" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A286" s="4" t="s">
         <v>326</v>
       </c>
@@ -13003,7 +13128,7 @@
       </c>
       <c r="K286" s="7"/>
     </row>
-    <row r="287" spans="1:27" ht="14.25" customHeight="1">
+    <row r="287" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A287" s="4" t="s">
         <v>326</v>
       </c>
@@ -13031,7 +13156,7 @@
       </c>
       <c r="K287" s="7"/>
     </row>
-    <row r="288" spans="1:27" ht="14.25" customHeight="1">
+    <row r="288" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A288" s="4" t="s">
         <v>326</v>
       </c>
@@ -13059,7 +13184,7 @@
       </c>
       <c r="K288" s="7"/>
     </row>
-    <row r="289" spans="1:11" ht="14.25" customHeight="1">
+    <row r="289" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A289" s="4" t="s">
         <v>326</v>
       </c>
@@ -13087,7 +13212,7 @@
       </c>
       <c r="K289" s="7"/>
     </row>
-    <row r="290" spans="1:11" ht="14.25" customHeight="1">
+    <row r="290" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A290" s="4" t="s">
         <v>326</v>
       </c>
@@ -13115,7 +13240,7 @@
       </c>
       <c r="K290" s="7"/>
     </row>
-    <row r="291" spans="1:11" ht="14.25" customHeight="1">
+    <row r="291" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A291" s="4" t="s">
         <v>326</v>
       </c>
@@ -13143,7 +13268,7 @@
       </c>
       <c r="K291" s="7"/>
     </row>
-    <row r="292" spans="1:11" ht="14.25" customHeight="1">
+    <row r="292" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A292" s="4" t="s">
         <v>326</v>
       </c>
@@ -13170,7 +13295,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="14.25" customHeight="1">
+    <row r="293" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A293" s="4" t="s">
         <v>326</v>
       </c>
@@ -13197,7 +13322,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="14.25" customHeight="1">
+    <row r="294" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A294" s="4" t="s">
         <v>326</v>
       </c>
@@ -13224,7 +13349,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="14.25" customHeight="1">
+    <row r="295" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A295" s="4" t="s">
         <v>326</v>
       </c>
@@ -13251,7 +13376,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="14.25" customHeight="1">
+    <row r="296" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A296" s="4" t="s">
         <v>326</v>
       </c>
@@ -13278,7 +13403,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="14.25" customHeight="1">
+    <row r="297" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A297" s="4" t="s">
         <v>326</v>
       </c>
@@ -13305,7 +13430,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="14.25" customHeight="1">
+    <row r="298" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A298" s="4" t="s">
         <v>326</v>
       </c>
@@ -13332,7 +13457,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="14.25" customHeight="1">
+    <row r="299" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A299" s="4" t="s">
         <v>326</v>
       </c>
@@ -13359,7 +13484,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="14.25" customHeight="1">
+    <row r="300" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A300" s="4" t="s">
         <v>326</v>
       </c>
@@ -13386,7 +13511,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="14.25" customHeight="1">
+    <row r="301" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A301" s="4" t="s">
         <v>326</v>
       </c>
@@ -13413,7 +13538,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="14.25" customHeight="1">
+    <row r="302" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A302" s="4" t="s">
         <v>326</v>
       </c>
@@ -13440,7 +13565,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="14.25" customHeight="1">
+    <row r="303" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A303" s="4" t="s">
         <v>326</v>
       </c>
@@ -13467,7 +13592,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="14.25" customHeight="1">
+    <row r="304" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A304" s="4" t="s">
         <v>326</v>
       </c>
@@ -13494,7 +13619,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="14.25" customHeight="1">
+    <row r="305" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A305" s="4" t="s">
         <v>326</v>
       </c>
@@ -13521,7 +13646,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="14.25" customHeight="1">
+    <row r="306" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A306" s="4" t="s">
         <v>326</v>
       </c>
@@ -13548,7 +13673,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="14.25" customHeight="1">
+    <row r="307" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A307" s="4" t="s">
         <v>326</v>
       </c>
@@ -13575,7 +13700,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="14.25" customHeight="1">
+    <row r="308" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A308" s="4" t="s">
         <v>326</v>
       </c>
@@ -13602,7 +13727,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="14.25" customHeight="1">
+    <row r="309" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A309" s="4" t="s">
         <v>326</v>
       </c>
@@ -13629,7 +13754,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="14.25" customHeight="1">
+    <row r="310" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A310" s="4" t="s">
         <v>326</v>
       </c>
@@ -13656,7 +13781,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="14.25" customHeight="1">
+    <row r="311" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A311" s="4" t="s">
         <v>326</v>
       </c>
@@ -13683,7 +13808,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="14.25" customHeight="1">
+    <row r="312" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A312" s="4" t="s">
         <v>326</v>
       </c>
@@ -13710,7 +13835,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="14.25" customHeight="1">
+    <row r="313" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A313" s="4" t="s">
         <v>326</v>
       </c>
@@ -13737,7 +13862,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="14.25" customHeight="1">
+    <row r="314" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A314" s="4" t="s">
         <v>326</v>
       </c>
@@ -13764,7 +13889,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="14.25" customHeight="1">
+    <row r="315" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A315" s="4" t="s">
         <v>326</v>
       </c>
@@ -13791,7 +13916,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="14.25" customHeight="1">
+    <row r="316" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A316" s="4" t="s">
         <v>326</v>
       </c>
@@ -13818,7 +13943,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="14.25" customHeight="1">
+    <row r="317" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A317" s="4" t="s">
         <v>326</v>
       </c>
@@ -13845,7 +13970,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="14.25" customHeight="1">
+    <row r="318" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A318" s="4" t="s">
         <v>326</v>
       </c>
@@ -13868,7 +13993,7 @@
       </c>
       <c r="I318" s="4"/>
     </row>
-    <row r="319" spans="1:9" ht="14.25" customHeight="1">
+    <row r="319" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A319" s="4" t="s">
         <v>326</v>
       </c>
@@ -13891,7 +14016,7 @@
       </c>
       <c r="I319" s="4"/>
     </row>
-    <row r="320" spans="1:9" ht="14.25" customHeight="1">
+    <row r="320" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A320" s="4" t="s">
         <v>326</v>
       </c>
@@ -13914,7 +14039,7 @@
       </c>
       <c r="I320" s="4"/>
     </row>
-    <row r="321" spans="1:9" ht="14.25" customHeight="1">
+    <row r="321" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A321" s="4" t="s">
         <v>326</v>
       </c>
@@ -13937,7 +14062,7 @@
       </c>
       <c r="I321" s="4"/>
     </row>
-    <row r="322" spans="1:9" ht="14.25" customHeight="1">
+    <row r="322" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A322" s="4" t="s">
         <v>326</v>
       </c>
@@ -13960,7 +14085,7 @@
       </c>
       <c r="I322" s="4"/>
     </row>
-    <row r="323" spans="1:9" ht="14.25" customHeight="1">
+    <row r="323" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A323" s="4" t="s">
         <v>326</v>
       </c>
@@ -13983,7 +14108,7 @@
       </c>
       <c r="I323" s="4"/>
     </row>
-    <row r="324" spans="1:9" ht="14.25" customHeight="1">
+    <row r="324" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A324" s="4" t="s">
         <v>9</v>
       </c>
@@ -14004,7 +14129,7 @@
       </c>
       <c r="I324" s="4"/>
     </row>
-    <row r="325" spans="1:9" ht="14.25" customHeight="1">
+    <row r="325" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A325" s="4" t="s">
         <v>398</v>
       </c>
@@ -14029,7 +14154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="14.25" customHeight="1">
+    <row r="326" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A326" s="4" t="s">
         <v>398</v>
       </c>
@@ -14056,7 +14181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="14.25" customHeight="1">
+    <row r="327" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A327" s="4" t="s">
         <v>398</v>
       </c>
@@ -14083,7 +14208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="14.25" customHeight="1">
+    <row r="328" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A328" s="4" t="s">
         <v>398</v>
       </c>
@@ -14110,7 +14235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="14.25" customHeight="1">
+    <row r="329" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A329" s="4" t="s">
         <v>398</v>
       </c>
@@ -14137,7 +14262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="14.25" customHeight="1">
+    <row r="330" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A330" s="4" t="s">
         <v>398</v>
       </c>
@@ -14164,7 +14289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="14.25" customHeight="1">
+    <row r="331" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A331" s="4" t="s">
         <v>398</v>
       </c>
@@ -14191,7 +14316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="14.25" customHeight="1">
+    <row r="332" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A332" s="4" t="s">
         <v>398</v>
       </c>
@@ -14218,7 +14343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="14.25" customHeight="1">
+    <row r="333" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A333" s="4" t="s">
         <v>398</v>
       </c>
@@ -14245,7 +14370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="14.25" customHeight="1">
+    <row r="334" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A334" s="4" t="s">
         <v>398</v>
       </c>
@@ -14272,7 +14397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="14.25" customHeight="1">
+    <row r="335" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A335" s="4" t="s">
         <v>398</v>
       </c>
@@ -14299,7 +14424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="14.25" customHeight="1">
+    <row r="336" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A336" s="4" t="s">
         <v>398</v>
       </c>
@@ -14326,7 +14451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="14.25" customHeight="1">
+    <row r="337" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A337" s="4" t="s">
         <v>398</v>
       </c>
@@ -14353,7 +14478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="14.25" customHeight="1">
+    <row r="338" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A338" s="4" t="s">
         <v>398</v>
       </c>
@@ -14380,7 +14505,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="14.25" customHeight="1">
+    <row r="339" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A339" s="4" t="s">
         <v>398</v>
       </c>
@@ -14407,7 +14532,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="14.25" customHeight="1">
+    <row r="340" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A340" s="4" t="s">
         <v>398</v>
       </c>
@@ -14434,7 +14559,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="14.25" customHeight="1">
+    <row r="341" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A341" s="4" t="s">
         <v>398</v>
       </c>
@@ -14461,7 +14586,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="14.25" customHeight="1">
+    <row r="342" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A342" s="4" t="s">
         <v>398</v>
       </c>
@@ -14488,7 +14613,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="14.25" customHeight="1">
+    <row r="343" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A343" s="4" t="s">
         <v>398</v>
       </c>
@@ -14515,7 +14640,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="14.25" customHeight="1">
+    <row r="344" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A344" s="4" t="s">
         <v>398</v>
       </c>
@@ -14542,7 +14667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="14.25" customHeight="1">
+    <row r="345" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A345" s="4" t="s">
         <v>398</v>
       </c>
@@ -14569,7 +14694,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="14.25" customHeight="1">
+    <row r="346" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A346" s="4" t="s">
         <v>398</v>
       </c>
@@ -14596,7 +14721,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="14.25" customHeight="1">
+    <row r="347" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A347" s="4" t="s">
         <v>398</v>
       </c>
@@ -14623,7 +14748,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="14.25" customHeight="1">
+    <row r="348" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A348" s="4" t="s">
         <v>398</v>
       </c>
@@ -14650,7 +14775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="14.25" customHeight="1">
+    <row r="349" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A349" s="4" t="s">
         <v>398</v>
       </c>
@@ -14677,7 +14802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="14.25" customHeight="1">
+    <row r="350" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A350" s="4" t="s">
         <v>398</v>
       </c>
@@ -14704,7 +14829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="14.25" customHeight="1">
+    <row r="351" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A351" s="4" t="s">
         <v>398</v>
       </c>
@@ -14731,7 +14856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="14.25" customHeight="1">
+    <row r="352" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A352" s="4" t="s">
         <v>398</v>
       </c>
@@ -14758,7 +14883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="14.25" customHeight="1">
+    <row r="353" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A353" s="4" t="s">
         <v>398</v>
       </c>
@@ -14785,7 +14910,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="14.25" customHeight="1">
+    <row r="354" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A354" s="4" t="s">
         <v>398</v>
       </c>
@@ -14812,7 +14937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="14.25" customHeight="1">
+    <row r="355" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A355" s="4" t="s">
         <v>398</v>
       </c>
@@ -14839,7 +14964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="14.25" customHeight="1">
+    <row r="356" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A356" s="4" t="s">
         <v>398</v>
       </c>
@@ -14866,7 +14991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="14.25" customHeight="1">
+    <row r="357" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A357" s="4" t="s">
         <v>398</v>
       </c>
@@ -14893,7 +15018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="14.25" customHeight="1">
+    <row r="358" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A358" s="4" t="s">
         <v>398</v>
       </c>
@@ -14920,7 +15045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="14.25" customHeight="1">
+    <row r="359" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A359" s="4" t="s">
         <v>398</v>
       </c>
@@ -14947,7 +15072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="14.25" customHeight="1">
+    <row r="360" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A360" s="4" t="s">
         <v>398</v>
       </c>
@@ -14974,7 +15099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="14.25" customHeight="1">
+    <row r="361" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A361" s="4" t="s">
         <v>398</v>
       </c>
@@ -14999,7 +15124,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="14.25" customHeight="1">
+    <row r="362" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A362" s="4" t="s">
         <v>398</v>
       </c>
@@ -15026,7 +15151,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="14.25" customHeight="1">
+    <row r="363" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A363" s="4" t="s">
         <v>398</v>
       </c>
@@ -15053,7 +15178,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="14.25" customHeight="1">
+    <row r="364" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A364" s="4" t="s">
         <v>398</v>
       </c>
@@ -15080,7 +15205,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="14.25" customHeight="1">
+    <row r="365" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A365" s="4" t="s">
         <v>398</v>
       </c>
@@ -15105,7 +15230,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="14.25" customHeight="1">
+    <row r="366" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A366" s="4" t="s">
         <v>398</v>
       </c>
@@ -15132,7 +15257,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="14.25" customHeight="1">
+    <row r="367" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A367" s="4" t="s">
         <v>398</v>
       </c>
@@ -15159,7 +15284,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="14.25" customHeight="1">
+    <row r="368" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A368" s="4" t="s">
         <v>398</v>
       </c>
@@ -15186,7 +15311,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="14.25" customHeight="1">
+    <row r="369" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A369" s="4" t="s">
         <v>398</v>
       </c>
@@ -15213,7 +15338,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="14.25" customHeight="1">
+    <row r="370" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A370" s="4" t="s">
         <v>398</v>
       </c>
@@ -15240,7 +15365,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="14.25" customHeight="1">
+    <row r="371" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A371" s="4" t="s">
         <v>398</v>
       </c>
@@ -15263,7 +15388,7 @@
       </c>
       <c r="I371" s="4"/>
     </row>
-    <row r="372" spans="1:9" ht="14.25" customHeight="1">
+    <row r="372" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A372" s="4" t="s">
         <v>398</v>
       </c>
@@ -15286,7 +15411,7 @@
       </c>
       <c r="I372" s="4"/>
     </row>
-    <row r="373" spans="1:9" ht="14.25" customHeight="1">
+    <row r="373" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A373" s="4" t="s">
         <v>398</v>
       </c>
@@ -15309,7 +15434,7 @@
       </c>
       <c r="I373" s="4"/>
     </row>
-    <row r="374" spans="1:9" ht="14.25" customHeight="1">
+    <row r="374" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A374" s="4" t="s">
         <v>398</v>
       </c>
@@ -15332,7 +15457,7 @@
       </c>
       <c r="I374" s="4"/>
     </row>
-    <row r="375" spans="1:9" ht="14.25" customHeight="1">
+    <row r="375" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A375" s="4" t="s">
         <v>444</v>
       </c>
@@ -15357,7 +15482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="14.25" customHeight="1">
+    <row r="376" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A376" s="4" t="s">
         <v>444</v>
       </c>
@@ -15382,7 +15507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="14.25" customHeight="1">
+    <row r="377" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A377" s="4" t="s">
         <v>444</v>
       </c>
@@ -15407,7 +15532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="14.25" customHeight="1">
+    <row r="378" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A378" s="4" t="s">
         <v>444</v>
       </c>
@@ -15434,7 +15559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="14.25" customHeight="1">
+    <row r="379" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A379" s="4" t="s">
         <v>444</v>
       </c>
@@ -15461,7 +15586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="14.25" customHeight="1">
+    <row r="380" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A380" s="4" t="s">
         <v>444</v>
       </c>
@@ -15488,7 +15613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="14.25" customHeight="1">
+    <row r="381" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A381" s="4" t="s">
         <v>444</v>
       </c>
@@ -15515,7 +15640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="14.25" customHeight="1">
+    <row r="382" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A382" s="4" t="s">
         <v>444</v>
       </c>
@@ -15542,7 +15667,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="14.25" customHeight="1">
+    <row r="383" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A383" s="4" t="s">
         <v>444</v>
       </c>
@@ -15569,7 +15694,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="14.25" customHeight="1">
+    <row r="384" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A384" s="4" t="s">
         <v>444</v>
       </c>
@@ -15596,7 +15721,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="14.25" customHeight="1">
+    <row r="385" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A385" s="4" t="s">
         <v>444</v>
       </c>
@@ -15623,7 +15748,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="14.25" customHeight="1">
+    <row r="386" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A386" s="4" t="s">
         <v>444</v>
       </c>
@@ -15650,7 +15775,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="14.25" customHeight="1">
+    <row r="387" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A387" s="4" t="s">
         <v>444</v>
       </c>
@@ -15677,7 +15802,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="14.25" customHeight="1">
+    <row r="388" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A388" s="4" t="s">
         <v>444</v>
       </c>
@@ -15704,7 +15829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="14.25" customHeight="1">
+    <row r="389" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A389" s="4" t="s">
         <v>444</v>
       </c>
@@ -15731,7 +15856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="14.25" customHeight="1">
+    <row r="390" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A390" s="4" t="s">
         <v>444</v>
       </c>
@@ -15758,7 +15883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="14.25" customHeight="1">
+    <row r="391" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A391" s="4" t="s">
         <v>444</v>
       </c>
@@ -15785,7 +15910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="14.25" customHeight="1">
+    <row r="392" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A392" s="4" t="s">
         <v>444</v>
       </c>
@@ -15812,7 +15937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="14.25" customHeight="1">
+    <row r="393" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A393" s="4" t="s">
         <v>444</v>
       </c>
@@ -15839,7 +15964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="14.25" customHeight="1">
+    <row r="394" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A394" s="4" t="s">
         <v>444</v>
       </c>
@@ -15866,7 +15991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="14.25" customHeight="1">
+    <row r="395" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A395" s="4" t="s">
         <v>444</v>
       </c>
@@ -15893,7 +16018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="14.25" customHeight="1">
+    <row r="396" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A396" s="4" t="s">
         <v>444</v>
       </c>
@@ -15920,7 +16045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="14.25" customHeight="1">
+    <row r="397" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A397" s="4" t="s">
         <v>444</v>
       </c>
@@ -15947,7 +16072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="14.25" customHeight="1">
+    <row r="398" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A398" s="4" t="s">
         <v>444</v>
       </c>
@@ -15974,7 +16099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="14.25" customHeight="1">
+    <row r="399" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A399" s="4" t="s">
         <v>444</v>
       </c>
@@ -16001,7 +16126,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="14.25" customHeight="1">
+    <row r="400" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A400" s="4" t="s">
         <v>444</v>
       </c>
@@ -16028,7 +16153,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="401" spans="1:27" ht="14.25" customHeight="1">
+    <row r="401" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A401" s="4" t="s">
         <v>444</v>
       </c>
@@ -16055,7 +16180,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="402" spans="1:27" ht="14.25" customHeight="1">
+    <row r="402" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A402" s="4" t="s">
         <v>444</v>
       </c>
@@ -16082,7 +16207,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="403" spans="1:27" ht="14.25" customHeight="1">
+    <row r="403" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A403" s="4" t="s">
         <v>444</v>
       </c>
@@ -16109,7 +16234,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="404" spans="1:27" ht="14.25" customHeight="1">
+    <row r="404" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A404" s="4" t="s">
         <v>444</v>
       </c>
@@ -16136,7 +16261,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="405" spans="1:27" ht="14.25" customHeight="1">
+    <row r="405" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A405" s="4" t="s">
         <v>444</v>
       </c>
@@ -16163,7 +16288,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="406" spans="1:27" ht="14.25" customHeight="1">
+    <row r="406" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A406" s="4" t="s">
         <v>444</v>
       </c>
@@ -16190,7 +16315,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="407" spans="1:27" ht="14.25" customHeight="1">
+    <row r="407" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A407" s="4" t="s">
         <v>444</v>
       </c>
@@ -16217,7 +16342,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="408" spans="1:27" ht="14.25" customHeight="1">
+    <row r="408" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A408" s="4" t="s">
         <v>444</v>
       </c>
@@ -16244,7 +16369,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="409" spans="1:27" ht="14.25" customHeight="1">
+    <row r="409" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A409" s="4" t="s">
         <v>444</v>
       </c>
@@ -16271,7 +16396,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="410" spans="1:27" ht="14.25" customHeight="1">
+    <row r="410" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A410" s="4" t="s">
         <v>444</v>
       </c>
@@ -16316,7 +16441,7 @@
       <c r="Z410" s="7"/>
       <c r="AA410" s="7"/>
     </row>
-    <row r="411" spans="1:27" ht="14.25" customHeight="1">
+    <row r="411" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A411" s="4" t="s">
         <v>444</v>
       </c>
@@ -16343,7 +16468,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="412" spans="1:27" ht="14.25" customHeight="1">
+    <row r="412" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A412" s="4" t="s">
         <v>444</v>
       </c>
@@ -16370,7 +16495,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="413" spans="1:27" ht="14.25" customHeight="1">
+    <row r="413" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A413" s="4" t="s">
         <v>444</v>
       </c>
@@ -16397,7 +16522,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="414" spans="1:27" ht="14.25" customHeight="1">
+    <row r="414" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A414" s="4" t="s">
         <v>444</v>
       </c>
@@ -16424,7 +16549,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="415" spans="1:27" ht="14.25" customHeight="1">
+    <row r="415" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A415" s="4" t="s">
         <v>444</v>
       </c>
@@ -16451,7 +16576,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="416" spans="1:27" ht="14.25" customHeight="1">
+    <row r="416" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A416" s="4" t="s">
         <v>444</v>
       </c>
@@ -16478,7 +16603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="14.25" customHeight="1">
+    <row r="417" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A417" s="4" t="s">
         <v>444</v>
       </c>
@@ -16505,7 +16630,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="14.25" customHeight="1">
+    <row r="418" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A418" s="4" t="s">
         <v>444</v>
       </c>
@@ -16532,7 +16657,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="14.25" customHeight="1">
+    <row r="419" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A419" s="4" t="s">
         <v>444</v>
       </c>
@@ -16559,7 +16684,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="14.25" customHeight="1">
+    <row r="420" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A420" s="4" t="s">
         <v>444</v>
       </c>
@@ -16586,7 +16711,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="14.25" customHeight="1">
+    <row r="421" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A421" s="4" t="s">
         <v>444</v>
       </c>
@@ -16613,7 +16738,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="14.25" customHeight="1">
+    <row r="422" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A422" s="4" t="s">
         <v>444</v>
       </c>
@@ -16640,7 +16765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="14.25" customHeight="1">
+    <row r="423" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A423" s="4" t="s">
         <v>444</v>
       </c>
@@ -16667,7 +16792,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="14.25" customHeight="1">
+    <row r="424" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A424" s="4" t="s">
         <v>444</v>
       </c>
@@ -16694,7 +16819,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="14.25" customHeight="1">
+    <row r="425" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A425" s="4" t="s">
         <v>444</v>
       </c>
@@ -16721,7 +16846,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="14.25" customHeight="1">
+    <row r="426" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A426" s="4" t="s">
         <v>444</v>
       </c>
@@ -16748,7 +16873,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="14.25" customHeight="1">
+    <row r="427" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A427" s="4" t="s">
         <v>444</v>
       </c>
@@ -16771,7 +16896,7 @@
       </c>
       <c r="I427" s="4"/>
     </row>
-    <row r="428" spans="1:9" ht="14.25" customHeight="1">
+    <row r="428" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A428" s="4" t="s">
         <v>505</v>
       </c>
@@ -16798,7 +16923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="14.25" customHeight="1">
+    <row r="429" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A429" s="4" t="s">
         <v>505</v>
       </c>
@@ -16825,7 +16950,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="14.25" customHeight="1">
+    <row r="430" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A430" s="4" t="s">
         <v>505</v>
       </c>
@@ -16852,7 +16977,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="14.25" customHeight="1">
+    <row r="431" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A431" s="4" t="s">
         <v>505</v>
       </c>
@@ -16879,7 +17004,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="14.25" customHeight="1">
+    <row r="432" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A432" s="4" t="s">
         <v>505</v>
       </c>
@@ -16906,7 +17031,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="14.25" customHeight="1">
+    <row r="433" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A433" s="4" t="s">
         <v>505</v>
       </c>
@@ -16933,7 +17058,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="14.25" customHeight="1">
+    <row r="434" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A434" s="4" t="s">
         <v>505</v>
       </c>
@@ -16960,7 +17085,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="14.25" customHeight="1">
+    <row r="435" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A435" s="4" t="s">
         <v>505</v>
       </c>
@@ -16987,7 +17112,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="14.25" customHeight="1">
+    <row r="436" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A436" s="4" t="s">
         <v>505</v>
       </c>
@@ -17014,7 +17139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="14.25" customHeight="1">
+    <row r="437" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A437" s="4" t="s">
         <v>505</v>
       </c>
@@ -17041,7 +17166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="14.25" customHeight="1">
+    <row r="438" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A438" s="4" t="s">
         <v>505</v>
       </c>
@@ -17068,7 +17193,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="14.25" customHeight="1">
+    <row r="439" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A439" s="4" t="s">
         <v>505</v>
       </c>
@@ -17095,7 +17220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="14.25" customHeight="1">
+    <row r="440" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A440" s="4" t="s">
         <v>505</v>
       </c>
@@ -17122,7 +17247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="14.25" customHeight="1">
+    <row r="441" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A441" s="4" t="s">
         <v>505</v>
       </c>
@@ -17149,7 +17274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="14.25" customHeight="1">
+    <row r="442" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A442" s="4" t="s">
         <v>505</v>
       </c>
@@ -17176,7 +17301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="14.25" customHeight="1">
+    <row r="443" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A443" s="4" t="s">
         <v>505</v>
       </c>
@@ -17203,7 +17328,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="14.25" customHeight="1">
+    <row r="444" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A444" s="4" t="s">
         <v>505</v>
       </c>
@@ -17230,7 +17355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="14.25" customHeight="1">
+    <row r="445" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A445" s="4" t="s">
         <v>505</v>
       </c>
@@ -17257,7 +17382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="14.25" customHeight="1">
+    <row r="446" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A446" s="4" t="s">
         <v>505</v>
       </c>
@@ -17284,7 +17409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="14.25" customHeight="1">
+    <row r="447" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A447" s="4" t="s">
         <v>505</v>
       </c>
@@ -17311,7 +17436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="14.25" customHeight="1">
+    <row r="448" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A448" s="4" t="s">
         <v>505</v>
       </c>
@@ -17338,7 +17463,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="14.25" customHeight="1">
+    <row r="449" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A449" s="4" t="s">
         <v>505</v>
       </c>
@@ -17365,7 +17490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="14.25" customHeight="1">
+    <row r="450" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A450" s="4" t="s">
         <v>505</v>
       </c>
@@ -17392,7 +17517,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="14.25" customHeight="1">
+    <row r="451" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A451" s="4" t="s">
         <v>505</v>
       </c>
@@ -17419,7 +17544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="14.25" customHeight="1">
+    <row r="452" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A452" s="4" t="s">
         <v>505</v>
       </c>
@@ -17446,7 +17571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="14.25" customHeight="1">
+    <row r="453" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A453" s="4" t="s">
         <v>505</v>
       </c>
@@ -17473,7 +17598,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="14.25" customHeight="1">
+    <row r="454" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A454" s="4" t="s">
         <v>505</v>
       </c>
@@ -17500,7 +17625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="14.25" customHeight="1">
+    <row r="455" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A455" s="4" t="s">
         <v>505</v>
       </c>
@@ -17527,7 +17652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="14.25" customHeight="1">
+    <row r="456" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A456" s="4" t="s">
         <v>505</v>
       </c>
@@ -17554,7 +17679,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="14.25" customHeight="1">
+    <row r="457" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A457" s="4" t="s">
         <v>505</v>
       </c>
@@ -17581,7 +17706,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="14.25" customHeight="1">
+    <row r="458" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A458" s="4" t="s">
         <v>505</v>
       </c>
@@ -17608,7 +17733,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="14.25" customHeight="1">
+    <row r="459" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A459" s="4" t="s">
         <v>505</v>
       </c>
@@ -17635,7 +17760,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="14.25" customHeight="1">
+    <row r="460" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A460" s="4" t="s">
         <v>505</v>
       </c>
@@ -17662,7 +17787,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="14.25" customHeight="1">
+    <row r="461" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A461" s="4" t="s">
         <v>505</v>
       </c>
@@ -17689,7 +17814,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="14.25" customHeight="1">
+    <row r="462" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A462" s="4" t="s">
         <v>505</v>
       </c>
@@ -17716,7 +17841,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="14.25" customHeight="1">
+    <row r="463" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A463" s="4" t="s">
         <v>505</v>
       </c>
@@ -17743,7 +17868,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="14.25" customHeight="1">
+    <row r="464" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A464" s="4" t="s">
         <v>505</v>
       </c>
@@ -17770,7 +17895,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="14.25" customHeight="1">
+    <row r="465" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A465" s="4" t="s">
         <v>505</v>
       </c>
@@ -17797,7 +17922,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="14.25" customHeight="1">
+    <row r="466" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A466" s="4" t="s">
         <v>505</v>
       </c>
@@ -17824,7 +17949,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="14.25" customHeight="1">
+    <row r="467" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A467" s="4" t="s">
         <v>505</v>
       </c>
@@ -17851,7 +17976,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="14.25" customHeight="1">
+    <row r="468" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A468" s="4" t="s">
         <v>505</v>
       </c>
@@ -17878,7 +18003,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="14.25" customHeight="1">
+    <row r="469" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A469" s="4" t="s">
         <v>505</v>
       </c>
@@ -17905,7 +18030,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="14.25" customHeight="1">
+    <row r="470" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A470" s="4" t="s">
         <v>505</v>
       </c>
@@ -17932,7 +18057,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="14.25" customHeight="1">
+    <row r="471" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A471" s="4" t="s">
         <v>505</v>
       </c>
@@ -17959,7 +18084,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="14.25" customHeight="1">
+    <row r="472" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A472" s="4" t="s">
         <v>505</v>
       </c>
@@ -17986,7 +18111,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="14.25" customHeight="1">
+    <row r="473" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A473" s="4" t="s">
         <v>505</v>
       </c>
@@ -18013,7 +18138,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="14.25" customHeight="1">
+    <row r="474" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A474" s="4" t="s">
         <v>505</v>
       </c>
@@ -18040,7 +18165,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="14.25" customHeight="1">
+    <row r="475" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A475" s="4" t="s">
         <v>505</v>
       </c>
@@ -18067,7 +18192,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="14.25" customHeight="1">
+    <row r="476" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A476" s="4" t="s">
         <v>505</v>
       </c>
@@ -18094,7 +18219,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="14.25" customHeight="1">
+    <row r="477" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A477" s="4" t="s">
         <v>505</v>
       </c>
@@ -18121,7 +18246,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="14.25" customHeight="1">
+    <row r="478" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A478" s="4" t="s">
         <v>505</v>
       </c>
@@ -18148,7 +18273,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="14.25" customHeight="1">
+    <row r="479" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A479" s="4" t="s">
         <v>505</v>
       </c>
@@ -18175,7 +18300,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="14.25" customHeight="1">
+    <row r="480" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A480" s="4" t="s">
         <v>505</v>
       </c>
@@ -18202,7 +18327,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="14.25" customHeight="1">
+    <row r="481" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A481" s="4" t="s">
         <v>505</v>
       </c>
@@ -18229,7 +18354,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="14.25" customHeight="1">
+    <row r="482" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A482" s="4" t="s">
         <v>505</v>
       </c>
@@ -18254,7 +18379,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="14.25" customHeight="1">
+    <row r="483" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A483" s="4" t="s">
         <v>505</v>
       </c>
@@ -18279,7 +18404,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="14.25" customHeight="1">
+    <row r="484" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A484" s="4" t="s">
         <v>505</v>
       </c>
@@ -18306,7 +18431,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="14.25" customHeight="1">
+    <row r="485" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A485" s="4" t="s">
         <v>505</v>
       </c>
@@ -18333,7 +18458,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="14.25" customHeight="1">
+    <row r="486" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A486" s="4" t="s">
         <v>505</v>
       </c>
@@ -18360,7 +18485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="14.25" customHeight="1">
+    <row r="487" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A487" s="4" t="s">
         <v>505</v>
       </c>
@@ -18387,7 +18512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="14.25" customHeight="1">
+    <row r="488" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A488" s="4" t="s">
         <v>505</v>
       </c>
@@ -18414,7 +18539,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="14.25" customHeight="1">
+    <row r="489" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A489" s="4" t="s">
         <v>505</v>
       </c>
@@ -18441,7 +18566,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="14.25" customHeight="1">
+    <row r="490" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A490" s="4" t="s">
         <v>505</v>
       </c>
@@ -18471,7 +18596,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="14.25" customHeight="1">
+    <row r="491" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A491" s="4" t="s">
         <v>505</v>
       </c>
@@ -18501,7 +18626,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="14.25" customHeight="1">
+    <row r="492" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A492" s="4" t="s">
         <v>505</v>
       </c>
@@ -18531,7 +18656,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="14.25" customHeight="1">
+    <row r="493" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A493" s="4" t="s">
         <v>505</v>
       </c>
@@ -18561,7 +18686,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="14.25" customHeight="1">
+    <row r="494" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A494" s="4" t="s">
         <v>505</v>
       </c>
@@ -18591,7 +18716,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="14.25" customHeight="1">
+    <row r="495" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A495" s="4" t="s">
         <v>505</v>
       </c>
@@ -18618,7 +18743,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="14.25" customHeight="1">
+    <row r="496" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A496" s="4" t="s">
         <v>505</v>
       </c>
@@ -18645,7 +18770,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="14.25" customHeight="1">
+    <row r="497" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A497" s="4" t="s">
         <v>505</v>
       </c>
@@ -18672,7 +18797,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="14.25" customHeight="1">
+    <row r="498" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A498" s="4" t="s">
         <v>505</v>
       </c>
@@ -18699,7 +18824,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="14.25" customHeight="1">
+    <row r="499" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A499" s="4" t="s">
         <v>505</v>
       </c>
@@ -18726,7 +18851,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="14.25" customHeight="1">
+    <row r="500" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A500" s="4" t="s">
         <v>505</v>
       </c>
@@ -18753,7 +18878,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="14.25" customHeight="1">
+    <row r="501" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A501" s="4" t="s">
         <v>505</v>
       </c>
@@ -18780,7 +18905,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="14.25" customHeight="1">
+    <row r="502" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A502" s="4" t="s">
         <v>505</v>
       </c>
@@ -18807,7 +18932,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="14.25" customHeight="1">
+    <row r="503" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A503" s="4" t="s">
         <v>505</v>
       </c>
@@ -18834,7 +18959,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="14.25" customHeight="1">
+    <row r="504" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A504" s="4" t="s">
         <v>505</v>
       </c>
@@ -18861,7 +18986,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="14.25" customHeight="1">
+    <row r="505" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A505" s="4" t="s">
         <v>597</v>
       </c>
@@ -18888,7 +19013,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="14.25" customHeight="1">
+    <row r="506" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A506" s="4" t="s">
         <v>597</v>
       </c>
@@ -18915,7 +19040,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="14.25" customHeight="1">
+    <row r="507" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A507" s="4" t="s">
         <v>597</v>
       </c>
@@ -18942,7 +19067,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="14.25" customHeight="1">
+    <row r="508" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A508" s="4" t="s">
         <v>597</v>
       </c>
@@ -18969,7 +19094,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="14.25" customHeight="1">
+    <row r="509" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A509" s="4" t="s">
         <v>597</v>
       </c>
@@ -18996,7 +19121,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="14.25" customHeight="1">
+    <row r="510" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A510" s="4" t="s">
         <v>597</v>
       </c>
@@ -19023,7 +19148,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="14.25" customHeight="1">
+    <row r="511" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A511" s="4" t="s">
         <v>597</v>
       </c>
@@ -19050,7 +19175,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="14.25" customHeight="1">
+    <row r="512" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A512" s="4" t="s">
         <v>597</v>
       </c>
@@ -19077,7 +19202,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="14.25" customHeight="1">
+    <row r="513" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A513" s="4" t="s">
         <v>597</v>
       </c>
@@ -19104,7 +19229,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="14.25" customHeight="1">
+    <row r="514" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A514" s="4" t="s">
         <v>597</v>
       </c>
@@ -19131,7 +19256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="14.25" customHeight="1">
+    <row r="515" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A515" s="4" t="s">
         <v>597</v>
       </c>
@@ -19158,7 +19283,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="14.25" customHeight="1">
+    <row r="516" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A516" s="4" t="s">
         <v>597</v>
       </c>
@@ -19185,7 +19310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="14.25" customHeight="1">
+    <row r="517" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A517" s="4" t="s">
         <v>597</v>
       </c>
@@ -19212,7 +19337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="14.25" customHeight="1">
+    <row r="518" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A518" s="4" t="s">
         <v>597</v>
       </c>
@@ -19239,7 +19364,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="14.25" customHeight="1">
+    <row r="519" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A519" s="4" t="s">
         <v>597</v>
       </c>
@@ -19266,7 +19391,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="14.25" customHeight="1">
+    <row r="520" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A520" s="4" t="s">
         <v>597</v>
       </c>
@@ -19293,7 +19418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="14.25" customHeight="1">
+    <row r="521" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A521" s="4" t="s">
         <v>597</v>
       </c>
@@ -19320,7 +19445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="14.25" customHeight="1">
+    <row r="522" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A522" s="4" t="s">
         <v>597</v>
       </c>
@@ -19347,7 +19472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="14.25" customHeight="1">
+    <row r="523" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A523" s="4" t="s">
         <v>597</v>
       </c>
@@ -19374,7 +19499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="14.25" customHeight="1">
+    <row r="524" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A524" s="4" t="s">
         <v>597</v>
       </c>
@@ -19401,7 +19526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="14.25" customHeight="1">
+    <row r="525" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A525" s="4" t="s">
         <v>597</v>
       </c>
@@ -19428,7 +19553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="14.25" customHeight="1">
+    <row r="526" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A526" s="4" t="s">
         <v>597</v>
       </c>
@@ -19455,7 +19580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="14.25" customHeight="1">
+    <row r="527" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A527" s="24" t="s">
         <v>597</v>
       </c>
@@ -19482,7 +19607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="14.25" customHeight="1">
+    <row r="528" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A528" s="4" t="s">
         <v>597</v>
       </c>
@@ -19507,7 +19632,7 @@
       </c>
       <c r="I528" s="4"/>
     </row>
-    <row r="529" spans="1:10" ht="14.25" customHeight="1">
+    <row r="529" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A529" s="4" t="s">
         <v>597</v>
       </c>
@@ -19534,7 +19659,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="530" spans="1:10" ht="14.25" customHeight="1">
+    <row r="530" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A530" s="4" t="s">
         <v>597</v>
       </c>
@@ -19561,7 +19686,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="14.25" customHeight="1">
+    <row r="531" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A531" s="4" t="s">
         <v>597</v>
       </c>
@@ -19588,7 +19713,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="532" spans="1:10" ht="14.25" customHeight="1">
+    <row r="532" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A532" s="4" t="s">
         <v>597</v>
       </c>
@@ -19615,7 +19740,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="533" spans="1:10" ht="14.25" customHeight="1">
+    <row r="533" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A533" s="4" t="s">
         <v>597</v>
       </c>
@@ -19642,7 +19767,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="534" spans="1:10" ht="14.25" customHeight="1">
+    <row r="534" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A534" s="4" t="s">
         <v>597</v>
       </c>
@@ -19669,7 +19794,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="535" spans="1:10" ht="14.25" customHeight="1">
+    <row r="535" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A535" s="4" t="s">
         <v>597</v>
       </c>
@@ -19696,7 +19821,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="14.25" customHeight="1">
+    <row r="536" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A536" s="4" t="s">
         <v>597</v>
       </c>
@@ -19723,7 +19848,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="537" spans="1:10" ht="14.25" customHeight="1">
+    <row r="537" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A537" s="4" t="s">
         <v>597</v>
       </c>
@@ -19750,7 +19875,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="538" spans="1:10" ht="14.25" customHeight="1">
+    <row r="538" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A538" s="4" t="s">
         <v>597</v>
       </c>
@@ -19777,7 +19902,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="539" spans="1:10" ht="14.25" customHeight="1">
+    <row r="539" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A539" s="4" t="s">
         <v>597</v>
       </c>
@@ -19802,7 +19927,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="540" spans="1:10" ht="14.25" customHeight="1">
+    <row r="540" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A540" s="4" t="s">
         <v>597</v>
       </c>
@@ -19829,7 +19954,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="541" spans="1:10" ht="14.25" customHeight="1">
+    <row r="541" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A541" s="4" t="s">
         <v>597</v>
       </c>
@@ -19856,7 +19981,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="542" spans="1:10" ht="14.25" customHeight="1">
+    <row r="542" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A542" s="4" t="s">
         <v>597</v>
       </c>
@@ -19883,7 +20008,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="543" spans="1:10" ht="14.25" customHeight="1">
+    <row r="543" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A543" s="4" t="s">
         <v>597</v>
       </c>
@@ -19910,7 +20035,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="544" spans="1:10" ht="14.25" customHeight="1">
+    <row r="544" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A544" s="4" t="s">
         <v>597</v>
       </c>
@@ -19938,7 +20063,7 @@
       </c>
       <c r="J544" s="4"/>
     </row>
-    <row r="545" spans="1:10" ht="14.25" customHeight="1">
+    <row r="545" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A545" s="4" t="s">
         <v>597</v>
       </c>
@@ -19966,7 +20091,7 @@
       </c>
       <c r="J545" s="4"/>
     </row>
-    <row r="546" spans="1:10" ht="14.25" customHeight="1">
+    <row r="546" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A546" s="4" t="s">
         <v>597</v>
       </c>
@@ -19994,7 +20119,7 @@
       </c>
       <c r="J546" s="4"/>
     </row>
-    <row r="547" spans="1:10" ht="14.25" customHeight="1">
+    <row r="547" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A547" s="4" t="s">
         <v>597</v>
       </c>
@@ -20022,7 +20147,7 @@
       </c>
       <c r="J547" s="4"/>
     </row>
-    <row r="548" spans="1:10" ht="14.25" customHeight="1">
+    <row r="548" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A548" s="4" t="s">
         <v>597</v>
       </c>
@@ -20049,7 +20174,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="549" spans="1:10" ht="14.25" customHeight="1">
+    <row r="549" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A549" s="4" t="s">
         <v>597</v>
       </c>
@@ -20076,7 +20201,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="550" spans="1:10" ht="14.25" customHeight="1">
+    <row r="550" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A550" s="4" t="s">
         <v>597</v>
       </c>
@@ -20103,7 +20228,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="551" spans="1:10" ht="14.25" customHeight="1">
+    <row r="551" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A551" s="4" t="s">
         <v>597</v>
       </c>
@@ -20130,7 +20255,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="552" spans="1:10" ht="14.25" customHeight="1">
+    <row r="552" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A552" s="4" t="s">
         <v>597</v>
       </c>
@@ -20157,7 +20282,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="553" spans="1:10" ht="14.25" customHeight="1">
+    <row r="553" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A553" s="4" t="s">
         <v>597</v>
       </c>
@@ -20184,7 +20309,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="554" spans="1:10" ht="14.25" customHeight="1">
+    <row r="554" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A554" s="4" t="s">
         <v>597</v>
       </c>
@@ -20211,7 +20336,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="555" spans="1:10" ht="14.25" customHeight="1">
+    <row r="555" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A555" s="4" t="s">
         <v>597</v>
       </c>
@@ -20238,7 +20363,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="14.25" customHeight="1">
+    <row r="556" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A556" s="4" t="s">
         <v>597</v>
       </c>
@@ -20265,7 +20390,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="14.25" customHeight="1">
+    <row r="557" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A557" s="4" t="s">
         <v>597</v>
       </c>
@@ -20292,7 +20417,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="14.25" customHeight="1">
+    <row r="558" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A558" s="4" t="s">
         <v>597</v>
       </c>
@@ -20319,7 +20444,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="559" spans="1:10" ht="14.25" customHeight="1">
+    <row r="559" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A559" s="4" t="s">
         <v>597</v>
       </c>
@@ -20346,7 +20471,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="14.25" customHeight="1">
+    <row r="560" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A560" s="4" t="s">
         <v>597</v>
       </c>
@@ -20373,7 +20498,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="14.25" customHeight="1">
+    <row r="561" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A561" s="4" t="s">
         <v>597</v>
       </c>
@@ -20400,7 +20525,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="14.25" customHeight="1">
+    <row r="562" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A562" s="4" t="s">
         <v>597</v>
       </c>
@@ -20427,7 +20552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="14.25" customHeight="1">
+    <row r="563" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A563" s="4" t="s">
         <v>597</v>
       </c>
@@ -20454,7 +20579,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="14.25" customHeight="1">
+    <row r="564" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A564" s="4" t="s">
         <v>597</v>
       </c>
@@ -20481,7 +20606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="14.25" customHeight="1">
+    <row r="565" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A565" s="4" t="s">
         <v>597</v>
       </c>
@@ -20508,7 +20633,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="566" spans="1:9" ht="14.25" customHeight="1">
+    <row r="566" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A566" s="4" t="s">
         <v>597</v>
       </c>
@@ -20535,7 +20660,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="14.25" customHeight="1">
+    <row r="567" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A567" s="4" t="s">
         <v>597</v>
       </c>
@@ -20562,7 +20687,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="14.25" customHeight="1">
+    <row r="568" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A568" s="4" t="s">
         <v>597</v>
       </c>
@@ -20587,7 +20712,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="14.25" customHeight="1">
+    <row r="569" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A569" s="4" t="s">
         <v>597</v>
       </c>
@@ -20612,7 +20737,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="570" spans="1:9" ht="14.25" customHeight="1">
+    <row r="570" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A570" s="4" t="s">
         <v>597</v>
       </c>
@@ -20637,7 +20762,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="14.25" customHeight="1">
+    <row r="571" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A571" s="4" t="s">
         <v>597</v>
       </c>
@@ -20660,7 +20785,7 @@
       </c>
       <c r="I571" s="4"/>
     </row>
-    <row r="572" spans="1:9" ht="14.25" customHeight="1">
+    <row r="572" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A572" s="4" t="s">
         <v>597</v>
       </c>
@@ -20681,7 +20806,7 @@
       </c>
       <c r="I572" s="4"/>
     </row>
-    <row r="573" spans="1:9" ht="14.25" customHeight="1">
+    <row r="573" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A573" s="4" t="s">
         <v>597</v>
       </c>
@@ -20706,7 +20831,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="14.25" customHeight="1">
+    <row r="574" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A574" s="4" t="s">
         <v>597</v>
       </c>
@@ -20731,7 +20856,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="14.25" customHeight="1">
+    <row r="575" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A575" s="4" t="s">
         <v>597</v>
       </c>
@@ -20758,7 +20883,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="14.25" customHeight="1">
+    <row r="576" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A576" s="4" t="s">
         <v>597</v>
       </c>
@@ -20785,7 +20910,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="577" spans="1:9" ht="14.25" customHeight="1">
+    <row r="577" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A577" s="4" t="s">
         <v>597</v>
       </c>
@@ -20812,7 +20937,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="578" spans="1:9" ht="14.25" customHeight="1">
+    <row r="578" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A578" s="4" t="s">
         <v>597</v>
       </c>
@@ -20839,7 +20964,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="579" spans="1:9" ht="14.25" customHeight="1">
+    <row r="579" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A579" s="4" t="s">
         <v>597</v>
       </c>
@@ -20866,7 +20991,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="580" spans="1:9" ht="14.25" customHeight="1">
+    <row r="580" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A580" s="4" t="s">
         <v>597</v>
       </c>
@@ -20893,7 +21018,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="581" spans="1:9" ht="14.25" customHeight="1">
+    <row r="581" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A581" s="4" t="s">
         <v>597</v>
       </c>
@@ -20920,7 +21045,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="582" spans="1:9" ht="14.25" customHeight="1">
+    <row r="582" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A582" s="4" t="s">
         <v>597</v>
       </c>
@@ -20947,7 +21072,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="14.25" customHeight="1">
+    <row r="583" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A583" s="4" t="s">
         <v>663</v>
       </c>
@@ -20974,7 +21099,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="14.25" customHeight="1">
+    <row r="584" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A584" s="4" t="s">
         <v>663</v>
       </c>
@@ -21001,7 +21126,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="14.25" customHeight="1">
+    <row r="585" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A585" s="4" t="s">
         <v>663</v>
       </c>
@@ -21028,7 +21153,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="14.25" customHeight="1">
+    <row r="586" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A586" s="4" t="s">
         <v>663</v>
       </c>
@@ -21055,7 +21180,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="14.25" customHeight="1">
+    <row r="587" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A587" s="4" t="s">
         <v>663</v>
       </c>
@@ -21082,7 +21207,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="588" spans="1:9" ht="14.25" customHeight="1">
+    <row r="588" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A588" s="4" t="s">
         <v>663</v>
       </c>
@@ -21109,7 +21234,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="589" spans="1:9" ht="14.25" customHeight="1">
+    <row r="589" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A589" s="4" t="s">
         <v>663</v>
       </c>
@@ -21136,7 +21261,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="590" spans="1:9" ht="14.25" customHeight="1">
+    <row r="590" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A590" s="4" t="s">
         <v>663</v>
       </c>
@@ -21163,7 +21288,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="591" spans="1:9" ht="14.25" customHeight="1">
+    <row r="591" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A591" s="4" t="s">
         <v>663</v>
       </c>
@@ -21190,7 +21315,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="592" spans="1:9" ht="14.25" customHeight="1">
+    <row r="592" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A592" s="4" t="s">
         <v>663</v>
       </c>
@@ -21217,7 +21342,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="593" spans="1:9" ht="14.25" customHeight="1">
+    <row r="593" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A593" s="4" t="s">
         <v>663</v>
       </c>
@@ -21244,7 +21369,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="14.25" customHeight="1">
+    <row r="594" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A594" s="4" t="s">
         <v>663</v>
       </c>
@@ -21271,7 +21396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="595" spans="1:9" ht="14.25" customHeight="1">
+    <row r="595" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A595" s="4" t="s">
         <v>663</v>
       </c>
@@ -21298,7 +21423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="14.25" customHeight="1">
+    <row r="596" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A596" s="4" t="s">
         <v>663</v>
       </c>
@@ -21325,7 +21450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="14.25" customHeight="1">
+    <row r="597" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A597" s="4" t="s">
         <v>663</v>
       </c>
@@ -21352,7 +21477,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="14.25" customHeight="1">
+    <row r="598" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A598" s="4" t="s">
         <v>663</v>
       </c>
@@ -21379,7 +21504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="14.25" customHeight="1">
+    <row r="599" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A599" s="4" t="s">
         <v>663</v>
       </c>
@@ -21406,7 +21531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="600" spans="1:9" ht="14.25" customHeight="1">
+    <row r="600" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A600" s="4" t="s">
         <v>663</v>
       </c>
@@ -21433,7 +21558,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="601" spans="1:9" ht="14.25" customHeight="1">
+    <row r="601" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A601" s="4" t="s">
         <v>663</v>
       </c>
@@ -21460,7 +21585,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="14.25" customHeight="1">
+    <row r="602" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A602" s="4" t="s">
         <v>663</v>
       </c>
@@ -21487,7 +21612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="603" spans="1:9" ht="14.25" customHeight="1">
+    <row r="603" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A603" s="4" t="s">
         <v>663</v>
       </c>
@@ -21510,7 +21635,7 @@
       </c>
       <c r="I603" s="4"/>
     </row>
-    <row r="604" spans="1:9" ht="14.25" customHeight="1">
+    <row r="604" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A604" s="4" t="s">
         <v>663</v>
       </c>
@@ -21534,7 +21659,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="605" spans="1:9" ht="14.25" customHeight="1">
+    <row r="605" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A605" s="4" t="s">
         <v>663</v>
       </c>
@@ -21558,7 +21683,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="606" spans="1:9" ht="14.25" customHeight="1">
+    <row r="606" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A606" s="4" t="s">
         <v>663</v>
       </c>
@@ -21585,7 +21710,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="607" spans="1:9" ht="14.25" customHeight="1">
+    <row r="607" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A607" s="4" t="s">
         <v>663</v>
       </c>
@@ -21612,7 +21737,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="608" spans="1:9" ht="14.25" customHeight="1">
+    <row r="608" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A608" s="4" t="s">
         <v>663</v>
       </c>
@@ -21639,7 +21764,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="609" spans="1:10" ht="14.25" customHeight="1">
+    <row r="609" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A609" s="4" t="s">
         <v>663</v>
       </c>
@@ -21664,7 +21789,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="14.25" customHeight="1">
+    <row r="610" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A610" s="4" t="s">
         <v>663</v>
       </c>
@@ -21692,7 +21817,7 @@
       </c>
       <c r="J610" s="4"/>
     </row>
-    <row r="611" spans="1:10" ht="14.25" customHeight="1">
+    <row r="611" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A611" s="4" t="s">
         <v>663</v>
       </c>
@@ -21720,7 +21845,7 @@
       </c>
       <c r="J611" s="4"/>
     </row>
-    <row r="612" spans="1:10" ht="14.25" customHeight="1">
+    <row r="612" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A612" s="4" t="s">
         <v>663</v>
       </c>
@@ -21747,7 +21872,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="613" spans="1:10" ht="14.25" customHeight="1">
+    <row r="613" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A613" s="4" t="s">
         <v>663</v>
       </c>
@@ -21774,7 +21899,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="614" spans="1:10" ht="14.25" customHeight="1">
+    <row r="614" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A614" s="4" t="s">
         <v>663</v>
       </c>
@@ -21799,7 +21924,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="615" spans="1:10" ht="14.25" customHeight="1">
+    <row r="615" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A615" s="4" t="s">
         <v>663</v>
       </c>
@@ -21826,7 +21951,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="616" spans="1:10" ht="14.25" customHeight="1">
+    <row r="616" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A616" s="4" t="s">
         <v>663</v>
       </c>
@@ -21853,7 +21978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="14.25" customHeight="1">
+    <row r="617" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A617" s="4" t="s">
         <v>663</v>
       </c>
@@ -21880,7 +22005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="14.25" customHeight="1">
+    <row r="618" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A618" s="4" t="s">
         <v>663</v>
       </c>
@@ -21907,7 +22032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="14.25" customHeight="1">
+    <row r="619" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A619" s="4" t="s">
         <v>663</v>
       </c>
@@ -21934,7 +22059,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="14.25" customHeight="1">
+    <row r="620" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A620" s="4" t="s">
         <v>663</v>
       </c>
@@ -21961,7 +22086,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="621" spans="1:10" ht="14.25" customHeight="1">
+    <row r="621" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A621" s="4" t="s">
         <v>663</v>
       </c>
@@ -21988,7 +22113,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="622" spans="1:10" ht="14.25" customHeight="1">
+    <row r="622" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A622" s="4" t="s">
         <v>663</v>
       </c>
@@ -22015,7 +22140,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="623" spans="1:10" ht="14.25" customHeight="1">
+    <row r="623" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A623" s="4" t="s">
         <v>663</v>
       </c>
@@ -22042,7 +22167,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="624" spans="1:10" ht="14.25" customHeight="1">
+    <row r="624" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A624" s="4" t="s">
         <v>663</v>
       </c>
@@ -22069,7 +22194,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="625" spans="1:9" ht="14.25" customHeight="1">
+    <row r="625" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A625" s="4" t="s">
         <v>663</v>
       </c>
@@ -22096,7 +22221,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="626" spans="1:9" ht="14.25" customHeight="1">
+    <row r="626" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A626" s="4" t="s">
         <v>663</v>
       </c>
@@ -22123,7 +22248,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="627" spans="1:9" ht="14.25" customHeight="1">
+    <row r="627" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A627" s="4" t="s">
         <v>663</v>
       </c>
@@ -22150,7 +22275,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="628" spans="1:9" ht="14.25" customHeight="1">
+    <row r="628" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A628" s="4" t="s">
         <v>663</v>
       </c>
@@ -22177,7 +22302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="629" spans="1:9" ht="14.25" customHeight="1">
+    <row r="629" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A629" s="4" t="s">
         <v>663</v>
       </c>
@@ -22204,7 +22329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="630" spans="1:9" ht="14.25" customHeight="1">
+    <row r="630" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A630" s="4" t="s">
         <v>663</v>
       </c>
@@ -22227,7 +22352,7 @@
       </c>
       <c r="I630" s="4"/>
     </row>
-    <row r="631" spans="1:9" ht="14.25" customHeight="1">
+    <row r="631" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A631" s="4" t="s">
         <v>716</v>
       </c>
@@ -22254,7 +22379,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="632" spans="1:9" ht="14.25" customHeight="1">
+    <row r="632" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A632" s="4" t="s">
         <v>716</v>
       </c>
@@ -22281,7 +22406,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="633" spans="1:9" ht="14.25" customHeight="1">
+    <row r="633" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A633" s="4" t="s">
         <v>716</v>
       </c>
@@ -22308,7 +22433,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="634" spans="1:9" ht="14.25" customHeight="1">
+    <row r="634" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A634" s="4" t="s">
         <v>716</v>
       </c>
@@ -22335,7 +22460,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="635" spans="1:9" ht="14.25" customHeight="1">
+    <row r="635" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A635" s="4" t="s">
         <v>716</v>
       </c>
@@ -22362,7 +22487,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="636" spans="1:9" ht="14.25" customHeight="1">
+    <row r="636" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A636" s="4" t="s">
         <v>716</v>
       </c>
@@ -22389,7 +22514,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="637" spans="1:9" ht="14.25" customHeight="1">
+    <row r="637" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A637" s="4" t="s">
         <v>716</v>
       </c>
@@ -22416,7 +22541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="638" spans="1:9" ht="14.25" customHeight="1">
+    <row r="638" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A638" s="4" t="s">
         <v>716</v>
       </c>
@@ -22443,7 +22568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="639" spans="1:9" ht="14.25" customHeight="1">
+    <row r="639" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A639" s="4" t="s">
         <v>716</v>
       </c>
@@ -22470,7 +22595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="640" spans="1:9" ht="14.25" customHeight="1">
+    <row r="640" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A640" s="4" t="s">
         <v>716</v>
       </c>
@@ -22497,7 +22622,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="641" spans="1:9" ht="14.25" customHeight="1">
+    <row r="641" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A641" s="4" t="s">
         <v>716</v>
       </c>
@@ -22524,7 +22649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="642" spans="1:9" ht="14.25" customHeight="1">
+    <row r="642" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A642" s="4" t="s">
         <v>716</v>
       </c>
@@ -22551,7 +22676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="643" spans="1:9" ht="14.25" customHeight="1">
+    <row r="643" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A643" s="4" t="s">
         <v>716</v>
       </c>
@@ -22578,7 +22703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="644" spans="1:9" ht="14.25" customHeight="1">
+    <row r="644" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A644" s="4" t="s">
         <v>716</v>
       </c>
@@ -22605,7 +22730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="645" spans="1:9" ht="14.25" customHeight="1">
+    <row r="645" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A645" s="4" t="s">
         <v>716</v>
       </c>
@@ -22628,7 +22753,7 @@
       </c>
       <c r="I645" s="4"/>
     </row>
-    <row r="646" spans="1:9" ht="14.25" customHeight="1">
+    <row r="646" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A646" s="4" t="s">
         <v>716</v>
       </c>
@@ -22655,7 +22780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="647" spans="1:9" ht="14.25" customHeight="1">
+    <row r="647" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A647" s="4" t="s">
         <v>716</v>
       </c>
@@ -22682,7 +22807,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="648" spans="1:9" ht="14.25" customHeight="1">
+    <row r="648" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A648" s="4" t="s">
         <v>716</v>
       </c>
@@ -22709,7 +22834,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="649" spans="1:9" ht="14.25" customHeight="1">
+    <row r="649" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A649" s="4" t="s">
         <v>716</v>
       </c>
@@ -22736,7 +22861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="650" spans="1:9" ht="14.25" customHeight="1">
+    <row r="650" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A650" s="4" t="s">
         <v>716</v>
       </c>
@@ -22763,7 +22888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="651" spans="1:9" ht="14.25" customHeight="1">
+    <row r="651" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A651" s="4" t="s">
         <v>716</v>
       </c>
@@ -22788,7 +22913,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="652" spans="1:9" ht="14.25" customHeight="1">
+    <row r="652" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A652" s="4" t="s">
         <v>716</v>
       </c>
@@ -22815,7 +22940,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="653" spans="1:9" ht="14.25" customHeight="1">
+    <row r="653" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A653" s="4" t="s">
         <v>716</v>
       </c>
@@ -22842,7 +22967,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="654" spans="1:9" ht="14.25" customHeight="1">
+    <row r="654" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A654" s="4" t="s">
         <v>716</v>
       </c>
@@ -22869,7 +22994,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="655" spans="1:9" ht="14.25" customHeight="1">
+    <row r="655" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A655" s="4" t="s">
         <v>716</v>
       </c>
@@ -22896,7 +23021,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="656" spans="1:9" ht="14.25" customHeight="1">
+    <row r="656" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A656" s="4" t="s">
         <v>716</v>
       </c>
@@ -22923,7 +23048,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="657" spans="1:9" ht="14.25" customHeight="1">
+    <row r="657" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A657" s="4" t="s">
         <v>716</v>
       </c>
@@ -22950,7 +23075,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="658" spans="1:9" ht="14.25" customHeight="1">
+    <row r="658" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A658" s="4" t="s">
         <v>716</v>
       </c>
@@ -22977,7 +23102,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="659" spans="1:9" ht="14.25" customHeight="1">
+    <row r="659" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A659" s="4" t="s">
         <v>716</v>
       </c>
@@ -23004,7 +23129,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="660" spans="1:9" ht="14.25" customHeight="1">
+    <row r="660" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A660" s="4" t="s">
         <v>716</v>
       </c>
@@ -23031,7 +23156,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="661" spans="1:9" ht="14.25" customHeight="1">
+    <row r="661" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A661" s="4" t="s">
         <v>716</v>
       </c>
@@ -23058,7 +23183,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="662" spans="1:9" ht="14.25" customHeight="1">
+    <row r="662" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A662" s="4" t="s">
         <v>716</v>
       </c>
@@ -23085,7 +23210,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="663" spans="1:9" ht="14.25" customHeight="1">
+    <row r="663" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A663" s="4" t="s">
         <v>716</v>
       </c>
@@ -23112,7 +23237,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="664" spans="1:9" ht="14.25" customHeight="1">
+    <row r="664" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A664" s="4" t="s">
         <v>716</v>
       </c>
@@ -23139,7 +23264,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="665" spans="1:9" ht="14.25" customHeight="1">
+    <row r="665" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A665" s="4" t="s">
         <v>716</v>
       </c>
@@ -23166,7 +23291,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="666" spans="1:9" ht="14.25" customHeight="1">
+    <row r="666" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A666" s="4" t="s">
         <v>716</v>
       </c>
@@ -23193,7 +23318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="667" spans="1:9" ht="14.25" customHeight="1">
+    <row r="667" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A667" s="4" t="s">
         <v>716</v>
       </c>
@@ -23220,7 +23345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="668" spans="1:9" ht="14.25" customHeight="1">
+    <row r="668" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A668" s="4" t="s">
         <v>716</v>
       </c>
@@ -23247,7 +23372,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="669" spans="1:9" ht="14.25" customHeight="1">
+    <row r="669" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A669" s="4" t="s">
         <v>716</v>
       </c>
@@ -23274,7 +23399,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="670" spans="1:9" ht="14.25" customHeight="1">
+    <row r="670" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A670" s="4" t="s">
         <v>716</v>
       </c>
@@ -23301,7 +23426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="671" spans="1:9" ht="14.25" customHeight="1">
+    <row r="671" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A671" s="4" t="s">
         <v>716</v>
       </c>
@@ -23328,7 +23453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="672" spans="1:9" ht="14.25" customHeight="1">
+    <row r="672" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A672" s="4" t="s">
         <v>716</v>
       </c>
@@ -23355,7 +23480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="673" spans="1:9" ht="14.25" customHeight="1">
+    <row r="673" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A673" s="4" t="s">
         <v>716</v>
       </c>
@@ -23382,7 +23507,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="674" spans="1:9" ht="14.25" customHeight="1">
+    <row r="674" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A674" s="4" t="s">
         <v>716</v>
       </c>
@@ -23409,7 +23534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="675" spans="1:9" ht="14.25" customHeight="1">
+    <row r="675" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A675" s="4" t="s">
         <v>716</v>
       </c>
@@ -23436,7 +23561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="676" spans="1:9" ht="14.25" customHeight="1">
+    <row r="676" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A676" s="4" t="s">
         <v>716</v>
       </c>
@@ -23463,7 +23588,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="677" spans="1:9" ht="14.25" customHeight="1">
+    <row r="677" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A677" s="4" t="s">
         <v>716</v>
       </c>
@@ -23490,7 +23615,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="678" spans="1:9" ht="14.25" customHeight="1">
+    <row r="678" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A678" s="4" t="s">
         <v>716</v>
       </c>
@@ -23517,7 +23642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="679" spans="1:9" ht="14.25" customHeight="1">
+    <row r="679" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A679" s="4" t="s">
         <v>716</v>
       </c>
@@ -23544,7 +23669,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="14.25" customHeight="1">
+    <row r="680" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A680" s="4" t="s">
         <v>716</v>
       </c>
@@ -23571,7 +23696,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="681" spans="1:9" ht="14.25" customHeight="1">
+    <row r="681" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A681" s="4" t="s">
         <v>716</v>
       </c>
@@ -23598,7 +23723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="682" spans="1:9" ht="14.25" customHeight="1">
+    <row r="682" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A682" s="4" t="s">
         <v>716</v>
       </c>
@@ -23625,7 +23750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="683" spans="1:9" ht="14.25" customHeight="1">
+    <row r="683" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A683" s="4" t="s">
         <v>716</v>
       </c>
@@ -23652,7 +23777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="684" spans="1:9" ht="14.25" customHeight="1">
+    <row r="684" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A684" s="4" t="s">
         <v>716</v>
       </c>
@@ -23679,7 +23804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="685" spans="1:9" ht="14.25" customHeight="1">
+    <row r="685" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A685" s="4" t="s">
         <v>716</v>
       </c>
@@ -23706,7 +23831,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="686" spans="1:9" ht="14.25" customHeight="1">
+    <row r="686" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A686" s="4" t="s">
         <v>716</v>
       </c>
@@ -23733,7 +23858,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="687" spans="1:9" ht="14.25" customHeight="1">
+    <row r="687" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A687" s="4" t="s">
         <v>716</v>
       </c>
@@ -23760,7 +23885,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="688" spans="1:9" ht="14.25" customHeight="1">
+    <row r="688" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A688" s="4" t="s">
         <v>716</v>
       </c>
@@ -23787,7 +23912,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="689" spans="1:9" ht="14.25" customHeight="1">
+    <row r="689" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A689" s="4" t="s">
         <v>716</v>
       </c>
@@ -23814,7 +23939,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="690" spans="1:9" ht="14.25" customHeight="1">
+    <row r="690" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A690" s="4" t="s">
         <v>716</v>
       </c>
@@ -23841,7 +23966,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="691" spans="1:9" ht="14.25" customHeight="1">
+    <row r="691" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A691" s="4" t="s">
         <v>716</v>
       </c>
@@ -23868,7 +23993,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="692" spans="1:9" ht="14.25" customHeight="1">
+    <row r="692" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A692" s="4" t="s">
         <v>716</v>
       </c>
@@ -23895,7 +24020,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="693" spans="1:9" ht="14.25" customHeight="1">
+    <row r="693" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A693" s="4" t="s">
         <v>716</v>
       </c>
@@ -23922,7 +24047,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="694" spans="1:9" ht="14.25" customHeight="1">
+    <row r="694" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A694" s="4" t="s">
         <v>716</v>
       </c>
@@ -23949,7 +24074,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="695" spans="1:9" ht="14.25" customHeight="1">
+    <row r="695" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A695" s="4" t="s">
         <v>716</v>
       </c>
@@ -23976,7 +24101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="696" spans="1:9" ht="14.25" customHeight="1">
+    <row r="696" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A696" s="4" t="s">
         <v>716</v>
       </c>
@@ -24003,7 +24128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="697" spans="1:9" ht="14.25" customHeight="1">
+    <row r="697" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A697" s="4" t="s">
         <v>716</v>
       </c>
@@ -24026,7 +24151,7 @@
       </c>
       <c r="I697" s="4"/>
     </row>
-    <row r="698" spans="1:9" ht="14.25" customHeight="1">
+    <row r="698" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A698" s="4" t="s">
         <v>773</v>
       </c>
@@ -24053,7 +24178,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="699" spans="1:9" ht="14.25" customHeight="1">
+    <row r="699" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A699" s="4" t="s">
         <v>773</v>
       </c>
@@ -24080,7 +24205,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="700" spans="1:9" ht="14.25" customHeight="1">
+    <row r="700" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A700" s="4" t="s">
         <v>773</v>
       </c>
@@ -24107,7 +24232,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="701" spans="1:9" ht="14.25" customHeight="1">
+    <row r="701" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A701" s="4" t="s">
         <v>773</v>
       </c>
@@ -24134,7 +24259,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="702" spans="1:9" ht="14.25" customHeight="1">
+    <row r="702" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A702" s="4" t="s">
         <v>773</v>
       </c>
@@ -24161,7 +24286,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="703" spans="1:9" ht="14.25" customHeight="1">
+    <row r="703" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A703" s="4" t="s">
         <v>773</v>
       </c>
@@ -24188,7 +24313,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="704" spans="1:9" ht="14.25" customHeight="1">
+    <row r="704" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A704" s="4" t="s">
         <v>773</v>
       </c>
@@ -24215,7 +24340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="705" spans="1:9" ht="14.25" customHeight="1">
+    <row r="705" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A705" s="4" t="s">
         <v>773</v>
       </c>
@@ -24242,7 +24367,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="706" spans="1:9" ht="14.25" customHeight="1">
+    <row r="706" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A706" s="4" t="s">
         <v>773</v>
       </c>
@@ -24269,7 +24394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="707" spans="1:9" ht="14.25" customHeight="1">
+    <row r="707" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A707" s="4" t="s">
         <v>773</v>
       </c>
@@ -24296,7 +24421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="708" spans="1:9" ht="14.25" customHeight="1">
+    <row r="708" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A708" s="4" t="s">
         <v>773</v>
       </c>
@@ -24323,7 +24448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="709" spans="1:9" ht="14.25" customHeight="1">
+    <row r="709" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A709" s="4" t="s">
         <v>773</v>
       </c>
@@ -24350,7 +24475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="710" spans="1:9" ht="14.25" customHeight="1">
+    <row r="710" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A710" s="4" t="s">
         <v>773</v>
       </c>
@@ -24377,7 +24502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="711" spans="1:9" ht="14.25" customHeight="1">
+    <row r="711" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A711" s="4" t="s">
         <v>773</v>
       </c>
@@ -24404,7 +24529,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="712" spans="1:9" ht="14.25" customHeight="1">
+    <row r="712" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A712" s="4" t="s">
         <v>773</v>
       </c>
@@ -24431,7 +24556,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="713" spans="1:9" ht="14.25" customHeight="1">
+    <row r="713" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A713" s="4" t="s">
         <v>773</v>
       </c>
@@ -24458,7 +24583,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="714" spans="1:9" ht="14.25" customHeight="1">
+    <row r="714" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A714" s="4" t="s">
         <v>773</v>
       </c>
@@ -24485,7 +24610,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="715" spans="1:9" ht="14.25" customHeight="1">
+    <row r="715" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A715" s="4" t="s">
         <v>773</v>
       </c>
@@ -24512,7 +24637,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="716" spans="1:9" ht="14.25" customHeight="1">
+    <row r="716" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A716" s="4" t="s">
         <v>773</v>
       </c>
@@ -24539,7 +24664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="717" spans="1:9" ht="14.25" customHeight="1">
+    <row r="717" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A717" s="4" t="s">
         <v>773</v>
       </c>
@@ -24566,7 +24691,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="718" spans="1:9" ht="14.25" customHeight="1">
+    <row r="718" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A718" s="4" t="s">
         <v>773</v>
       </c>
@@ -24593,7 +24718,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="719" spans="1:9" ht="14.25" customHeight="1">
+    <row r="719" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A719" s="4" t="s">
         <v>773</v>
       </c>
@@ -24620,7 +24745,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="720" spans="1:9" ht="14.25" customHeight="1">
+    <row r="720" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A720" s="4" t="s">
         <v>773</v>
       </c>
@@ -24647,7 +24772,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="721" spans="1:9" ht="14.25" customHeight="1">
+    <row r="721" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A721" s="4" t="s">
         <v>773</v>
       </c>
@@ -24674,7 +24799,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="722" spans="1:9" ht="14.25" customHeight="1">
+    <row r="722" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A722" s="4" t="s">
         <v>773</v>
       </c>
@@ -24701,7 +24826,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="723" spans="1:9" ht="14.25" customHeight="1">
+    <row r="723" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A723" s="4" t="s">
         <v>773</v>
       </c>
@@ -24728,7 +24853,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="724" spans="1:9" ht="14.25" customHeight="1">
+    <row r="724" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A724" s="4" t="s">
         <v>773</v>
       </c>
@@ -24755,7 +24880,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="725" spans="1:9" ht="14.25" customHeight="1">
+    <row r="725" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A725" s="4" t="s">
         <v>773</v>
       </c>
@@ -24780,7 +24905,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="726" spans="1:9" ht="14.25" customHeight="1">
+    <row r="726" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A726" s="4" t="s">
         <v>773</v>
       </c>
@@ -24807,7 +24932,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="727" spans="1:9" ht="14.25" customHeight="1">
+    <row r="727" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A727" s="4" t="s">
         <v>773</v>
       </c>
@@ -24834,7 +24959,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="728" spans="1:9" ht="15" customHeight="1">
+    <row r="728" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A728" s="4" t="s">
         <v>773</v>
       </c>
@@ -24861,7 +24986,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="729" spans="1:9" ht="15" customHeight="1">
+    <row r="729" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A729" s="4" t="s">
         <v>773</v>
       </c>
@@ -24888,7 +25013,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="730" spans="1:9" ht="15" customHeight="1">
+    <row r="730" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A730" s="4" t="s">
         <v>773</v>
       </c>
@@ -24915,7 +25040,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="731" spans="1:9" ht="15" customHeight="1">
+    <row r="731" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A731" s="4" t="s">
         <v>773</v>
       </c>
@@ -24942,7 +25067,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="732" spans="1:9" ht="15" customHeight="1">
+    <row r="732" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A732" s="4" t="s">
         <v>773</v>
       </c>
@@ -24969,7 +25094,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="733" spans="1:9" ht="15" customHeight="1">
+    <row r="733" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A733" s="4" t="s">
         <v>773</v>
       </c>
@@ -24996,7 +25121,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="734" spans="1:9" ht="15" customHeight="1">
+    <row r="734" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A734" s="4" t="s">
         <v>773</v>
       </c>
@@ -25023,7 +25148,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="735" spans="1:9" ht="15" customHeight="1">
+    <row r="735" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A735" s="4" t="s">
         <v>773</v>
       </c>
@@ -25050,7 +25175,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="736" spans="1:9" ht="15" customHeight="1">
+    <row r="736" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A736" s="4" t="s">
         <v>773</v>
       </c>
@@ -25077,7 +25202,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="737" spans="1:9" ht="15" customHeight="1">
+    <row r="737" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A737" s="4" t="s">
         <v>773</v>
       </c>
@@ -25104,7 +25229,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="738" spans="1:9" ht="15" customHeight="1">
+    <row r="738" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A738" s="4" t="s">
         <v>773</v>
       </c>
@@ -25131,7 +25256,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="739" spans="1:9" ht="14.25" customHeight="1">
+    <row r="739" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A739" s="4" t="s">
         <v>773</v>
       </c>
@@ -25158,7 +25283,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="740" spans="1:9" ht="14.25" customHeight="1">
+    <row r="740" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A740" s="4" t="s">
         <v>773</v>
       </c>
@@ -25185,7 +25310,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="741" spans="1:9" ht="14.25" customHeight="1">
+    <row r="741" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A741" s="4" t="s">
         <v>773</v>
       </c>
@@ -25212,7 +25337,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="742" spans="1:9" ht="14.25" customHeight="1">
+    <row r="742" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A742" s="4" t="s">
         <v>773</v>
       </c>
@@ -25239,7 +25364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="743" spans="1:9" ht="14.25" customHeight="1">
+    <row r="743" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A743" s="4" t="s">
         <v>773</v>
       </c>
@@ -25264,7 +25389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="744" spans="1:9" ht="14.25" customHeight="1">
+    <row r="744" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A744" s="4" t="s">
         <v>773</v>
       </c>
@@ -25289,7 +25414,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="745" spans="1:9" ht="14.25" customHeight="1">
+    <row r="745" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A745" s="4" t="s">
         <v>773</v>
       </c>
@@ -25316,7 +25441,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="746" spans="1:9" ht="14.25" customHeight="1">
+    <row r="746" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A746" s="4" t="s">
         <v>773</v>
       </c>
@@ -25343,7 +25468,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="747" spans="1:9" ht="14.25" customHeight="1">
+    <row r="747" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A747" s="4" t="s">
         <v>773</v>
       </c>
@@ -25370,7 +25495,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="748" spans="1:9" ht="14.25" customHeight="1">
+    <row r="748" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A748" s="4" t="s">
         <v>773</v>
       </c>
@@ -25397,7 +25522,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="749" spans="1:9" ht="14.25" customHeight="1">
+    <row r="749" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A749" s="4" t="s">
         <v>773</v>
       </c>
@@ -25424,7 +25549,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="750" spans="1:9" ht="14.25" customHeight="1">
+    <row r="750" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A750" s="4" t="s">
         <v>773</v>
       </c>
@@ -25451,7 +25576,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="751" spans="1:9" ht="14.25" customHeight="1">
+    <row r="751" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A751" s="4" t="s">
         <v>773</v>
       </c>
@@ -25478,7 +25603,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="752" spans="1:9" ht="14.25" customHeight="1">
+    <row r="752" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A752" s="4" t="s">
         <v>773</v>
       </c>
@@ -25505,7 +25630,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="753" spans="1:9" ht="14.25" customHeight="1">
+    <row r="753" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A753" s="4" t="s">
         <v>773</v>
       </c>
@@ -25532,7 +25657,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="754" spans="1:9" ht="14.25" customHeight="1">
+    <row r="754" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A754" s="4" t="s">
         <v>773</v>
       </c>
@@ -25559,7 +25684,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="755" spans="1:9" ht="14.25" customHeight="1">
+    <row r="755" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A755" s="4" t="s">
         <v>773</v>
       </c>
@@ -25586,7 +25711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="756" spans="1:9" ht="14.25" customHeight="1">
+    <row r="756" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A756" s="4" t="s">
         <v>773</v>
       </c>
@@ -25609,7 +25734,7 @@
       </c>
       <c r="I756" s="4"/>
     </row>
-    <row r="757" spans="1:9" ht="14.25" customHeight="1">
+    <row r="757" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A757" s="4" t="s">
         <v>773</v>
       </c>
@@ -25631,7 +25756,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="758" spans="1:9" ht="14.25" customHeight="1">
+    <row r="758" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A758" s="4" t="s">
         <v>773</v>
       </c>
@@ -25658,7 +25783,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="759" spans="1:9" ht="14.25" customHeight="1">
+    <row r="759" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A759" s="4" t="s">
         <v>773</v>
       </c>
@@ -25685,7 +25810,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="760" spans="1:9" ht="14.25" customHeight="1">
+    <row r="760" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A760" s="4" t="s">
         <v>773</v>
       </c>
@@ -25712,7 +25837,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="761" spans="1:9" ht="14.25" customHeight="1">
+    <row r="761" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A761" s="4" t="s">
         <v>773</v>
       </c>
@@ -25739,7 +25864,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="762" spans="1:9" ht="14.25" customHeight="1">
+    <row r="762" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A762" s="4" t="s">
         <v>773</v>
       </c>
@@ -25766,7 +25891,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="763" spans="1:9" ht="14.25" customHeight="1">
+    <row r="763" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A763" s="4" t="s">
         <v>773</v>
       </c>
@@ -25793,7 +25918,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="764" spans="1:9" ht="14.25" customHeight="1">
+    <row r="764" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A764" s="4" t="s">
         <v>773</v>
       </c>
@@ -25820,7 +25945,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="765" spans="1:9" ht="14.25" customHeight="1">
+    <row r="765" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A765" s="4" t="s">
         <v>773</v>
       </c>
@@ -25847,7 +25972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="766" spans="1:9" ht="14.25" customHeight="1">
+    <row r="766" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A766" s="4" t="s">
         <v>827</v>
       </c>
@@ -25874,7 +25999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="767" spans="1:9" ht="14.25" customHeight="1">
+    <row r="767" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A767" s="4" t="s">
         <v>827</v>
       </c>
@@ -25901,7 +26026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="768" spans="1:9" ht="14.25" customHeight="1">
+    <row r="768" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A768" s="4" t="s">
         <v>827</v>
       </c>
@@ -25928,7 +26053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="769" spans="1:9" ht="14.25" customHeight="1">
+    <row r="769" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A769" s="4" t="s">
         <v>827</v>
       </c>
@@ -25955,7 +26080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="770" spans="1:9" ht="14.25" customHeight="1">
+    <row r="770" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A770" s="4" t="s">
         <v>827</v>
       </c>
@@ -25982,7 +26107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="771" spans="1:9" ht="14.25" customHeight="1">
+    <row r="771" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A771" s="4" t="s">
         <v>827</v>
       </c>
@@ -26009,7 +26134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="772" spans="1:9" ht="14.25" customHeight="1">
+    <row r="772" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A772" s="4" t="s">
         <v>827</v>
       </c>
@@ -26036,7 +26161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="773" spans="1:9" ht="14.25" customHeight="1">
+    <row r="773" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A773" s="4" t="s">
         <v>827</v>
       </c>
@@ -26063,7 +26188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="774" spans="1:9" ht="14.25" customHeight="1">
+    <row r="774" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A774" s="4" t="s">
         <v>827</v>
       </c>
@@ -26086,7 +26211,7 @@
       </c>
       <c r="I774" s="4"/>
     </row>
-    <row r="775" spans="1:9" ht="14.25" customHeight="1">
+    <row r="775" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A775" s="4" t="s">
         <v>827</v>
       </c>
@@ -26113,7 +26238,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="776" spans="1:9" ht="14.25" customHeight="1">
+    <row r="776" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A776" s="4" t="s">
         <v>827</v>
       </c>
@@ -26140,7 +26265,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="777" spans="1:9" ht="14.25" customHeight="1">
+    <row r="777" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A777" s="4" t="s">
         <v>827</v>
       </c>
@@ -26167,7 +26292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="778" spans="1:9" ht="14.25" customHeight="1">
+    <row r="778" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A778" s="4" t="s">
         <v>827</v>
       </c>
@@ -26194,7 +26319,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="779" spans="1:9" ht="14.25" customHeight="1">
+    <row r="779" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A779" s="4" t="s">
         <v>827</v>
       </c>
@@ -26221,7 +26346,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="780" spans="1:9" ht="14.25" customHeight="1">
+    <row r="780" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A780" s="4" t="s">
         <v>827</v>
       </c>
@@ -26248,7 +26373,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="781" spans="1:9" ht="14.25" customHeight="1">
+    <row r="781" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A781" s="4" t="s">
         <v>827</v>
       </c>
@@ -26275,7 +26400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="782" spans="1:9" ht="14.25" customHeight="1">
+    <row r="782" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A782" s="4" t="s">
         <v>827</v>
       </c>
@@ -26302,7 +26427,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="783" spans="1:9" ht="14.25" customHeight="1">
+    <row r="783" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A783" s="4" t="s">
         <v>827</v>
       </c>
@@ -26329,7 +26454,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="784" spans="1:9" ht="14.25" customHeight="1">
+    <row r="784" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A784" s="4" t="s">
         <v>827</v>
       </c>
@@ -26356,7 +26481,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="785" spans="1:9" ht="14.25" customHeight="1">
+    <row r="785" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A785" s="4" t="s">
         <v>827</v>
       </c>
@@ -26383,7 +26508,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="786" spans="1:9" ht="14.25" customHeight="1">
+    <row r="786" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A786" s="4" t="s">
         <v>827</v>
       </c>
@@ -26410,7 +26535,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="787" spans="1:9" ht="14.25" customHeight="1">
+    <row r="787" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A787" s="4" t="s">
         <v>827</v>
       </c>
@@ -26437,7 +26562,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="788" spans="1:9" ht="14.25" customHeight="1">
+    <row r="788" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A788" s="4" t="s">
         <v>827</v>
       </c>
@@ -26464,7 +26589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="789" spans="1:9" ht="14.25" customHeight="1">
+    <row r="789" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A789" s="4" t="s">
         <v>827</v>
       </c>
@@ -26491,7 +26616,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="790" spans="1:9" ht="14.25" customHeight="1">
+    <row r="790" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A790" s="4" t="s">
         <v>827</v>
       </c>
@@ -26518,7 +26643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="791" spans="1:9" ht="14.25" customHeight="1">
+    <row r="791" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A791" s="4" t="s">
         <v>827</v>
       </c>
@@ -26545,7 +26670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="792" spans="1:9" ht="14.25" customHeight="1">
+    <row r="792" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A792" s="4" t="s">
         <v>827</v>
       </c>
@@ -26572,7 +26697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="793" spans="1:9" ht="14.25" customHeight="1">
+    <row r="793" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A793" s="4" t="s">
         <v>827</v>
       </c>
@@ -26599,7 +26724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="794" spans="1:9" ht="14.25" customHeight="1">
+    <row r="794" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A794" s="4" t="s">
         <v>827</v>
       </c>
@@ -26626,7 +26751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="795" spans="1:9" ht="14.25" customHeight="1">
+    <row r="795" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A795" s="4" t="s">
         <v>827</v>
       </c>
@@ -26653,7 +26778,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="796" spans="1:9" ht="14.25" customHeight="1">
+    <row r="796" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A796" s="4" t="s">
         <v>827</v>
       </c>
@@ -26680,7 +26805,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="797" spans="1:9" ht="14.25" customHeight="1">
+    <row r="797" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A797" s="4" t="s">
         <v>827</v>
       </c>
@@ -26707,7 +26832,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="798" spans="1:9" ht="14.25" customHeight="1">
+    <row r="798" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A798" s="4" t="s">
         <v>827</v>
       </c>
@@ -26734,7 +26859,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="799" spans="1:9" ht="14.25" customHeight="1">
+    <row r="799" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A799" s="4" t="s">
         <v>827</v>
       </c>
@@ -26759,7 +26884,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="800" spans="1:9" ht="14.25" customHeight="1">
+    <row r="800" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A800" s="4" t="s">
         <v>827</v>
       </c>
@@ -26786,7 +26911,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="801" spans="1:9" ht="14.25" customHeight="1">
+    <row r="801" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A801" s="4" t="s">
         <v>827</v>
       </c>
@@ -26813,7 +26938,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="802" spans="1:9" ht="14.25" customHeight="1">
+    <row r="802" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A802" s="4" t="s">
         <v>827</v>
       </c>
@@ -26840,7 +26965,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="803" spans="1:9" ht="14.25" customHeight="1">
+    <row r="803" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A803" s="4" t="s">
         <v>827</v>
       </c>
@@ -26867,7 +26992,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="804" spans="1:9" ht="14.25" customHeight="1">
+    <row r="804" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A804" s="4" t="s">
         <v>827</v>
       </c>
@@ -26894,7 +27019,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="805" spans="1:9" ht="14.25" customHeight="1">
+    <row r="805" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A805" s="4" t="s">
         <v>827</v>
       </c>
@@ -26921,7 +27046,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="806" spans="1:9" ht="14.25" customHeight="1">
+    <row r="806" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A806" s="4" t="s">
         <v>827</v>
       </c>
@@ -26948,7 +27073,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="807" spans="1:9" ht="14.25" customHeight="1">
+    <row r="807" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A807" s="4" t="s">
         <v>827</v>
       </c>
@@ -26975,7 +27100,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="808" spans="1:9" ht="14.25" customHeight="1">
+    <row r="808" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A808" s="4" t="s">
         <v>827</v>
       </c>
@@ -27002,7 +27127,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="809" spans="1:9" ht="14.25" customHeight="1">
+    <row r="809" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A809" s="4" t="s">
         <v>827</v>
       </c>
@@ -27029,7 +27154,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="810" spans="1:9" ht="14.25" customHeight="1">
+    <row r="810" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A810" s="4" t="s">
         <v>827</v>
       </c>
@@ -27056,7 +27181,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="811" spans="1:9" ht="14.25" customHeight="1">
+    <row r="811" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A811" s="4" t="s">
         <v>827</v>
       </c>
@@ -27083,7 +27208,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="812" spans="1:9" ht="14.25" customHeight="1">
+    <row r="812" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A812" s="4" t="s">
         <v>827</v>
       </c>
@@ -27110,7 +27235,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="813" spans="1:9" ht="14.25" customHeight="1">
+    <row r="813" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A813" s="4" t="s">
         <v>827</v>
       </c>
@@ -27137,7 +27262,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="814" spans="1:9" ht="14.25" customHeight="1">
+    <row r="814" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A814" s="4" t="s">
         <v>827</v>
       </c>
@@ -27164,7 +27289,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="815" spans="1:9" ht="14.25" customHeight="1">
+    <row r="815" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A815" s="4" t="s">
         <v>827</v>
       </c>
@@ -27191,7 +27316,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="816" spans="1:9" ht="14.25" customHeight="1">
+    <row r="816" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A816" s="4" t="s">
         <v>827</v>
       </c>
@@ -27218,7 +27343,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="817" spans="1:9" ht="14.25" customHeight="1">
+    <row r="817" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A817" s="4" t="s">
         <v>827</v>
       </c>
@@ -27245,7 +27370,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="818" spans="1:9" ht="14.25" customHeight="1">
+    <row r="818" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A818" s="4" t="s">
         <v>827</v>
       </c>
@@ -27272,7 +27397,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="819" spans="1:9" ht="14.25" customHeight="1">
+    <row r="819" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A819" s="4" t="s">
         <v>827</v>
       </c>
@@ -27299,7 +27424,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="820" spans="1:9" ht="14.25" customHeight="1">
+    <row r="820" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A820" s="4" t="s">
         <v>827</v>
       </c>
@@ -27326,7 +27451,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="821" spans="1:9" ht="14.25" customHeight="1">
+    <row r="821" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A821" s="4" t="s">
         <v>827</v>
       </c>
@@ -27353,7 +27478,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="822" spans="1:9" ht="14.25" customHeight="1">
+    <row r="822" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A822" s="4" t="s">
         <v>827</v>
       </c>
@@ -27380,7 +27505,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="823" spans="1:9" ht="14.25" customHeight="1">
+    <row r="823" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A823" s="4" t="s">
         <v>827</v>
       </c>
@@ -27407,7 +27532,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="824" spans="1:9" ht="14.25" customHeight="1">
+    <row r="824" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A824" s="4" t="s">
         <v>827</v>
       </c>
@@ -27434,7 +27559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="825" spans="1:9" ht="14.25" customHeight="1">
+    <row r="825" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A825" s="4" t="s">
         <v>827</v>
       </c>
@@ -27461,7 +27586,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="826" spans="1:9" ht="14.25" customHeight="1">
+    <row r="826" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A826" s="4" t="s">
         <v>827</v>
       </c>
@@ -27488,7 +27613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="827" spans="1:9" ht="14.25" customHeight="1">
+    <row r="827" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A827" s="4" t="s">
         <v>827</v>
       </c>
@@ -27515,7 +27640,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="828" spans="1:9" ht="14.25" customHeight="1">
+    <row r="828" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A828" s="4" t="s">
         <v>827</v>
       </c>
@@ -27542,7 +27667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="829" spans="1:9" ht="14.25" customHeight="1">
+    <row r="829" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A829" s="4" t="s">
         <v>827</v>
       </c>
@@ -27569,7 +27694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="830" spans="1:9" ht="14.25" customHeight="1">
+    <row r="830" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A830" s="4" t="s">
         <v>827</v>
       </c>
@@ -27594,7 +27719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="831" spans="1:9" ht="14.25" customHeight="1">
+    <row r="831" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A831" s="4" t="s">
         <v>827</v>
       </c>
@@ -27621,7 +27746,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="832" spans="1:9" ht="14.25" customHeight="1">
+    <row r="832" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A832" s="4" t="s">
         <v>827</v>
       </c>
@@ -27646,7 +27771,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="833" spans="1:9" ht="14.25" customHeight="1">
+    <row r="833" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A833" s="4" t="s">
         <v>827</v>
       </c>
@@ -27671,7 +27796,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="834" spans="1:9" ht="14.25" customHeight="1">
+    <row r="834" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A834" s="4" t="s">
         <v>827</v>
       </c>
@@ -27696,7 +27821,7 @@
       </c>
       <c r="I834" s="4"/>
     </row>
-    <row r="835" spans="1:9" ht="14.25" customHeight="1">
+    <row r="835" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A835" s="4" t="s">
         <v>827</v>
       </c>
@@ -27721,7 +27846,7 @@
       </c>
       <c r="I835" s="4"/>
     </row>
-    <row r="836" spans="1:9" ht="14.25" customHeight="1">
+    <row r="836" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A836" s="4" t="s">
         <v>827</v>
       </c>
@@ -27746,7 +27871,7 @@
       </c>
       <c r="I836" s="4"/>
     </row>
-    <row r="837" spans="1:9" ht="14.25" customHeight="1">
+    <row r="837" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A837" s="4" t="s">
         <v>827</v>
       </c>
@@ -27771,7 +27896,7 @@
       </c>
       <c r="I837" s="4"/>
     </row>
-    <row r="838" spans="1:9" ht="14.25" customHeight="1">
+    <row r="838" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A838" s="4" t="s">
         <v>827</v>
       </c>
@@ -27796,7 +27921,7 @@
       </c>
       <c r="I838" s="4"/>
     </row>
-    <row r="839" spans="1:9" ht="14.25" customHeight="1">
+    <row r="839" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A839" s="4" t="s">
         <v>827</v>
       </c>
@@ -27821,7 +27946,7 @@
       </c>
       <c r="I839" s="4"/>
     </row>
-    <row r="840" spans="1:9" ht="14.25" customHeight="1">
+    <row r="840" spans="1:9" ht="14.25" customHeight="1" thickTop="1">
       <c r="A840" s="12" t="s">
         <v>920</v>
       </c>
@@ -29637,7 +29762,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="910" spans="1:9" ht="14.25" customHeight="1">
+    <row r="910" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A910" s="34" t="s">
         <v>1014</v>
       </c>
@@ -29663,7 +29788,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="911" spans="1:9" ht="14.25" customHeight="1">
+    <row r="911" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A911" s="34" t="s">
         <v>1014</v>
       </c>
@@ -29689,7 +29814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="912" spans="1:9" ht="14.25" customHeight="1">
+    <row r="912" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A912" s="34" t="s">
         <v>1014</v>
       </c>
@@ -29718,7 +29843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="913" spans="1:9" ht="14.25" customHeight="1">
+    <row r="913" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A913" s="34" t="s">
         <v>1014</v>
       </c>
@@ -29747,7 +29872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="914" spans="1:9" ht="14.25" customHeight="1">
+    <row r="914" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A914" s="34" t="s">
         <v>1014</v>
       </c>
@@ -29776,7 +29901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="915" spans="1:9" ht="14.25" customHeight="1">
+    <row r="915" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A915" s="34" t="s">
         <v>1014</v>
       </c>
@@ -29805,7 +29930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="916" spans="1:9" ht="14.25" customHeight="1">
+    <row r="916" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A916" s="34" t="s">
         <v>1014</v>
       </c>
@@ -29834,7 +29959,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="917" spans="1:9" ht="14.25" customHeight="1">
+    <row r="917" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A917" s="34" t="s">
         <v>1014</v>
       </c>
@@ -29863,7 +29988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="918" spans="1:9" ht="14.25" customHeight="1">
+    <row r="918" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A918" s="34" t="s">
         <v>1014</v>
       </c>
@@ -29892,7 +30017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="919" spans="1:9" ht="14.25" customHeight="1">
+    <row r="919" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A919" s="34" t="s">
         <v>1014</v>
       </c>
@@ -29921,7 +30046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="920" spans="1:9" ht="14.25" customHeight="1">
+    <row r="920" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A920" s="34" t="s">
         <v>1014</v>
       </c>
@@ -29950,7 +30075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="921" spans="1:9" ht="14.25" customHeight="1">
+    <row r="921" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A921" s="34" t="s">
         <v>1014</v>
       </c>
@@ -29979,7 +30104,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="922" spans="1:9" ht="14.25" customHeight="1">
+    <row r="922" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A922" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30008,7 +30133,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="923" spans="1:9" ht="14.25" customHeight="1">
+    <row r="923" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A923" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30037,7 +30162,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="924" spans="1:9" ht="14.25" customHeight="1">
+    <row r="924" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A924" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30066,7 +30191,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="925" spans="1:9" ht="14.25" customHeight="1">
+    <row r="925" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A925" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30095,7 +30220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="926" spans="1:9" ht="14.25" customHeight="1">
+    <row r="926" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A926" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30124,7 +30249,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="927" spans="1:9" ht="14.25" customHeight="1">
+    <row r="927" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A927" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30153,7 +30278,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="928" spans="1:9" ht="14.25" customHeight="1">
+    <row r="928" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A928" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30182,7 +30307,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="929" spans="1:9" ht="14.25" customHeight="1">
+    <row r="929" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A929" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30211,7 +30336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="930" spans="1:9" ht="14.25" customHeight="1">
+    <row r="930" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A930" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30240,7 +30365,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="931" spans="1:9" ht="14.25" customHeight="1">
+    <row r="931" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A931" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30269,7 +30394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="932" spans="1:9" ht="14.25" customHeight="1">
+    <row r="932" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A932" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30298,7 +30423,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="933" spans="1:9" ht="14.25" customHeight="1">
+    <row r="933" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A933" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30327,7 +30452,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="934" spans="1:9" ht="14.25" customHeight="1">
+    <row r="934" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A934" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30356,7 +30481,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="935" spans="1:9" ht="14.25" customHeight="1">
+    <row r="935" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A935" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30385,7 +30510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="936" spans="1:9" ht="14.25" customHeight="1">
+    <row r="936" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A936" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30414,7 +30539,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="937" spans="1:9" ht="14.25" customHeight="1">
+    <row r="937" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A937" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30443,7 +30568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="938" spans="1:9" ht="14.25" customHeight="1">
+    <row r="938" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A938" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30472,7 +30597,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="939" spans="1:9" ht="14.25" customHeight="1">
+    <row r="939" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A939" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30501,7 +30626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="940" spans="1:9" ht="14.25" customHeight="1">
+    <row r="940" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A940" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30530,7 +30655,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="941" spans="1:9" ht="14.25" customHeight="1">
+    <row r="941" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A941" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30556,7 +30681,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="942" spans="1:9" ht="14.25" customHeight="1">
+    <row r="942" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A942" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30582,7 +30707,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="943" spans="1:9" ht="14.25" customHeight="1">
+    <row r="943" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A943" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30608,7 +30733,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="944" spans="1:9" ht="14.25" customHeight="1">
+    <row r="944" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A944" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30634,7 +30759,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="945" spans="1:8" ht="14.25" customHeight="1">
+    <row r="945" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A945" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30660,7 +30785,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="946" spans="1:8" ht="14.25" customHeight="1">
+    <row r="946" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A946" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30686,7 +30811,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="947" spans="1:8" ht="14.25" customHeight="1">
+    <row r="947" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A947" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30712,7 +30837,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="948" spans="1:8" ht="14.25" customHeight="1">
+    <row r="948" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A948" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30738,7 +30863,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="949" spans="1:8" ht="14.25" customHeight="1">
+    <row r="949" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A949" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30761,7 +30886,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="950" spans="1:8" ht="14.25" customHeight="1">
+    <row r="950" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A950" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30784,7 +30909,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="951" spans="1:8" ht="14.25" customHeight="1">
+    <row r="951" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A951" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30807,7 +30932,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="952" spans="1:8" ht="14.25" customHeight="1">
+    <row r="952" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A952" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30830,7 +30955,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="953" spans="1:8" ht="14.25" customHeight="1">
+    <row r="953" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A953" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30856,7 +30981,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="954" spans="1:8" ht="14.25" customHeight="1">
+    <row r="954" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A954" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30882,7 +31007,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="955" spans="1:8" ht="14.25" customHeight="1">
+    <row r="955" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A955" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30908,7 +31033,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="956" spans="1:8" ht="14.25" customHeight="1">
+    <row r="956" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A956" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30934,7 +31059,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="957" spans="1:8" ht="14.25" customHeight="1">
+    <row r="957" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A957" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30960,7 +31085,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="958" spans="1:8" ht="14.25" customHeight="1">
+    <row r="958" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A958" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30986,7 +31111,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="959" spans="1:8" ht="14.25" customHeight="1">
+    <row r="959" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A959" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31012,7 +31137,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="960" spans="1:8" ht="14.25" customHeight="1">
+    <row r="960" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A960" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31038,7 +31163,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="961" spans="1:8" ht="14.25" customHeight="1">
+    <row r="961" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A961" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31064,7 +31189,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="962" spans="1:8" ht="14.25" customHeight="1">
+    <row r="962" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A962" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31090,7 +31215,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="963" spans="1:8" ht="14.25" customHeight="1">
+    <row r="963" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A963" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31116,7 +31241,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="964" spans="1:8" ht="14.25" customHeight="1">
+    <row r="964" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A964" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31142,7 +31267,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="965" spans="1:8" ht="14.25" customHeight="1">
+    <row r="965" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A965" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31168,7 +31293,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="966" spans="1:8" ht="14.25" customHeight="1">
+    <row r="966" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A966" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31194,7 +31319,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="967" spans="1:8" ht="14.25" customHeight="1">
+    <row r="967" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A967" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31220,7 +31345,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="968" spans="1:8" ht="14.25" customHeight="1">
+    <row r="968" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A968" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31246,7 +31371,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="969" spans="1:8" ht="14.25" customHeight="1">
+    <row r="969" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A969" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31272,7 +31397,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="970" spans="1:8" ht="14.25" customHeight="1">
+    <row r="970" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A970" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31298,7 +31423,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="971" spans="1:8" ht="14.25" customHeight="1">
+    <row r="971" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A971" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31324,7 +31449,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="972" spans="1:8" ht="14.25" customHeight="1">
+    <row r="972" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A972" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31350,7 +31475,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="973" spans="1:8" ht="14.25" customHeight="1">
+    <row r="973" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A973" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31376,7 +31501,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="974" spans="1:8" ht="14.25" customHeight="1">
+    <row r="974" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A974" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31402,7 +31527,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="975" spans="1:8" ht="14.25" customHeight="1">
+    <row r="975" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A975" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31428,7 +31553,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="976" spans="1:8" ht="14.25" customHeight="1">
+    <row r="976" spans="1:8" ht="14.25" hidden="1" customHeight="1">
       <c r="A976" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31811,7 +31936,13 @@
       <c r="F1065" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J976" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J976" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Estados Unidos"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="C743:D743"/>
     <mergeCell ref="C744:D744"/>
@@ -64101,7 +64232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Economia\Tematicas de Investigacion\Precariedad Mundial\precariedad.mundial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB66B56E-7D59-4934-BD76-1DCFA296BF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6AA255-4813-47C2-9912-9DB527E4D8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -5106,8 +5106,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1065"/>
   <sheetViews>
-    <sheetView topLeftCell="A864" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H871" sqref="H871"/>
+    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B297" sqref="B193:B297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="1:9" ht="14.25" hidden="1" customHeight="1" thickTop="1">
+    <row r="133" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>186</v>
       </c>
@@ -10479,11 +10479,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="13.5" hidden="1" customHeight="1">
+    <row r="193" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
       <c r="A193" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B193" s="4"/>
+      <c r="B193" s="4">
+        <v>2019</v>
+      </c>
       <c r="C193" s="4" t="s">
         <v>260</v>
       </c>
@@ -10506,11 +10508,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="194" spans="1:9" ht="14.25" customHeight="1">
       <c r="A194" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B194" s="4"/>
+      <c r="B194" s="4">
+        <v>2019</v>
+      </c>
       <c r="C194" s="4" t="s">
         <v>260</v>
       </c>
@@ -10533,11 +10537,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="195" spans="1:9" ht="14.25" customHeight="1">
       <c r="A195" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B195" s="4"/>
+      <c r="B195" s="4">
+        <v>2019</v>
+      </c>
       <c r="C195" s="4" t="s">
         <v>260</v>
       </c>
@@ -10560,11 +10566,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="196" spans="1:9" ht="14.25" customHeight="1">
       <c r="A196" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B196" s="4"/>
+      <c r="B196" s="4">
+        <v>2019</v>
+      </c>
       <c r="C196" s="4" t="s">
         <v>260</v>
       </c>
@@ -10587,11 +10595,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="197" spans="1:9" ht="14.25" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B197" s="4"/>
+      <c r="B197" s="4">
+        <v>2019</v>
+      </c>
       <c r="C197" s="4" t="s">
         <v>260</v>
       </c>
@@ -10614,11 +10624,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="198" spans="1:9" ht="14.25" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B198" s="4"/>
+      <c r="B198" s="4">
+        <v>2019</v>
+      </c>
       <c r="C198" s="4" t="s">
         <v>260</v>
       </c>
@@ -10641,11 +10653,13 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="199" spans="1:9" ht="14.25" customHeight="1">
       <c r="A199" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B199" s="4"/>
+      <c r="B199" s="4">
+        <v>2019</v>
+      </c>
       <c r="C199" s="4" t="s">
         <v>260</v>
       </c>
@@ -10668,11 +10682,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="200" spans="1:9" ht="14.25" customHeight="1">
       <c r="A200" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B200" s="4"/>
+      <c r="B200" s="4">
+        <v>2019</v>
+      </c>
       <c r="C200" s="4" t="s">
         <v>260</v>
       </c>
@@ -10695,11 +10711,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="201" spans="1:9" ht="14.25" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B201" s="4"/>
+      <c r="B201" s="4">
+        <v>2019</v>
+      </c>
       <c r="C201" s="4" t="s">
         <v>260</v>
       </c>
@@ -10722,11 +10740,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="202" spans="1:9" ht="14.25" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B202" s="4"/>
+      <c r="B202" s="4">
+        <v>2019</v>
+      </c>
       <c r="C202" s="4" t="s">
         <v>260</v>
       </c>
@@ -10749,11 +10769,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="203" spans="1:9" ht="14.25" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B203" s="4"/>
+      <c r="B203" s="4">
+        <v>2019</v>
+      </c>
       <c r="C203" s="4" t="s">
         <v>260</v>
       </c>
@@ -10776,11 +10798,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="204" spans="1:9" ht="14.25" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B204" s="4"/>
+      <c r="B204" s="4">
+        <v>2019</v>
+      </c>
       <c r="C204" s="4" t="s">
         <v>260</v>
       </c>
@@ -10803,11 +10827,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="205" spans="1:9" ht="14.25" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B205" s="4"/>
+      <c r="B205" s="4">
+        <v>2019</v>
+      </c>
       <c r="C205" s="4" t="s">
         <v>260</v>
       </c>
@@ -10830,11 +10856,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="206" spans="1:9" ht="14.25" customHeight="1">
       <c r="A206" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B206" s="4"/>
+      <c r="B206" s="4">
+        <v>2019</v>
+      </c>
       <c r="C206" s="4" t="s">
         <v>260</v>
       </c>
@@ -10857,11 +10885,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="207" spans="1:9" ht="14.25" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B207" s="4"/>
+      <c r="B207" s="4">
+        <v>2019</v>
+      </c>
       <c r="C207" s="4" t="s">
         <v>260</v>
       </c>
@@ -10881,14 +10911,16 @@
         <v>1280</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="14.25" customHeight="1">
       <c r="A208" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B208" s="4"/>
+      <c r="B208" s="4">
+        <v>2019</v>
+      </c>
       <c r="C208" s="4" t="s">
         <v>260</v>
       </c>
@@ -10911,11 +10943,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="209" spans="1:27" ht="14.25" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B209" s="4"/>
+      <c r="B209" s="4">
+        <v>2019</v>
+      </c>
       <c r="C209" s="4" t="s">
         <v>260</v>
       </c>
@@ -10935,14 +10969,16 @@
         <v>1280</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27" ht="14.25" customHeight="1">
       <c r="A210" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B210" s="4"/>
+      <c r="B210" s="4">
+        <v>2019</v>
+      </c>
       <c r="C210" s="4" t="s">
         <v>260</v>
       </c>
@@ -10962,14 +10998,16 @@
         <v>1280</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27" ht="14.25" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B211" s="4"/>
+      <c r="B211" s="4">
+        <v>2019</v>
+      </c>
       <c r="C211" s="4" t="s">
         <v>260</v>
       </c>
@@ -10989,14 +11027,16 @@
         <v>1280</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27" ht="14.25" customHeight="1">
       <c r="A212" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B212" s="4"/>
+      <c r="B212" s="4">
+        <v>2019</v>
+      </c>
       <c r="C212" s="4" t="s">
         <v>260</v>
       </c>
@@ -11019,11 +11059,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="213" spans="1:27" ht="14.25" customHeight="1">
       <c r="A213" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B213" s="4"/>
+      <c r="B213" s="4">
+        <v>2019</v>
+      </c>
       <c r="C213" s="4" t="s">
         <v>260</v>
       </c>
@@ -11043,14 +11085,16 @@
         <v>1280</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="214" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27" ht="14.25" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B214" s="4"/>
+      <c r="B214" s="4">
+        <v>2019</v>
+      </c>
       <c r="C214" s="4" t="s">
         <v>260</v>
       </c>
@@ -11073,11 +11117,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="215" spans="1:27" ht="14.25" customHeight="1">
       <c r="A215" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B215" s="4"/>
+      <c r="B215" s="4">
+        <v>2019</v>
+      </c>
       <c r="C215" s="4" t="s">
         <v>260</v>
       </c>
@@ -11100,11 +11146,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="216" spans="1:27" ht="14.25" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B216" s="4"/>
+      <c r="B216" s="4">
+        <v>2019</v>
+      </c>
       <c r="C216" s="4" t="s">
         <v>260</v>
       </c>
@@ -11127,11 +11175,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="217" spans="1:27" ht="14.25" customHeight="1">
       <c r="A217" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B217" s="4"/>
+      <c r="B217" s="4">
+        <v>2019</v>
+      </c>
       <c r="C217" s="4" t="s">
         <v>260</v>
       </c>
@@ -11154,11 +11204,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="218" spans="1:27" ht="14.25" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B218" s="4"/>
+      <c r="B218" s="4">
+        <v>2019</v>
+      </c>
       <c r="C218" s="4" t="s">
         <v>260</v>
       </c>
@@ -11181,11 +11233,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="219" spans="1:27" ht="14.25" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B219" s="4"/>
+      <c r="B219" s="4">
+        <v>2019</v>
+      </c>
       <c r="C219" s="4" t="s">
         <v>260</v>
       </c>
@@ -11206,11 +11260,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="220" spans="1:27" ht="14.25" customHeight="1">
       <c r="A220" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B220" s="4"/>
+      <c r="B220" s="4">
+        <v>2019</v>
+      </c>
       <c r="C220" s="4" t="s">
         <v>260</v>
       </c>
@@ -11251,11 +11307,13 @@
       <c r="Z220" s="7"/>
       <c r="AA220" s="7"/>
     </row>
-    <row r="221" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="221" spans="1:27" ht="14.25" customHeight="1">
       <c r="A221" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B221" s="4"/>
+      <c r="B221" s="4">
+        <v>2019</v>
+      </c>
       <c r="C221" s="4" t="s">
         <v>260</v>
       </c>
@@ -11296,11 +11354,13 @@
       <c r="Z221" s="7"/>
       <c r="AA221" s="7"/>
     </row>
-    <row r="222" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="222" spans="1:27" ht="14.25" customHeight="1">
       <c r="A222" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B222" s="4"/>
+      <c r="B222" s="4">
+        <v>2019</v>
+      </c>
       <c r="C222" s="4" t="s">
         <v>260</v>
       </c>
@@ -11341,11 +11401,13 @@
       <c r="Z222" s="7"/>
       <c r="AA222" s="7"/>
     </row>
-    <row r="223" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="223" spans="1:27" ht="14.25" customHeight="1">
       <c r="A223" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B223" s="4"/>
+      <c r="B223" s="4">
+        <v>2019</v>
+      </c>
       <c r="C223" s="4" t="s">
         <v>260</v>
       </c>
@@ -11386,11 +11448,13 @@
       <c r="Z223" s="7"/>
       <c r="AA223" s="7"/>
     </row>
-    <row r="224" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="224" spans="1:27" ht="14.25" customHeight="1">
       <c r="A224" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B224" s="4"/>
+      <c r="B224" s="4">
+        <v>2019</v>
+      </c>
       <c r="C224" s="4" t="s">
         <v>260</v>
       </c>
@@ -11413,11 +11477,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="225" spans="1:9" ht="14.25" customHeight="1">
       <c r="A225" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B225" s="4"/>
+      <c r="B225" s="4">
+        <v>2019</v>
+      </c>
       <c r="C225" s="4" t="s">
         <v>260</v>
       </c>
@@ -11440,11 +11506,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="226" spans="1:9" ht="14.25" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B226" s="4"/>
+      <c r="B226" s="4">
+        <v>2019</v>
+      </c>
       <c r="C226" s="4" t="s">
         <v>260</v>
       </c>
@@ -11467,11 +11535,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="227" spans="1:9" ht="14.25" customHeight="1">
       <c r="A227" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B227" s="4"/>
+      <c r="B227" s="4">
+        <v>2019</v>
+      </c>
       <c r="C227" s="4" t="s">
         <v>260</v>
       </c>
@@ -11494,11 +11564,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="228" spans="1:9" ht="14.25" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B228" s="4"/>
+      <c r="B228" s="4">
+        <v>2019</v>
+      </c>
       <c r="C228" s="4" t="s">
         <v>260</v>
       </c>
@@ -11521,11 +11593,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="229" spans="1:9" ht="14.25" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B229" s="4"/>
+      <c r="B229" s="4">
+        <v>2019</v>
+      </c>
       <c r="C229" s="4" t="s">
         <v>260</v>
       </c>
@@ -11548,11 +11622,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="230" spans="1:9" ht="14.25" customHeight="1">
       <c r="A230" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B230" s="4"/>
+      <c r="B230" s="4">
+        <v>2019</v>
+      </c>
       <c r="C230" s="4" t="s">
         <v>260</v>
       </c>
@@ -11575,11 +11651,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="231" spans="1:9" ht="14.25" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B231" s="4"/>
+      <c r="B231" s="4">
+        <v>2019</v>
+      </c>
       <c r="C231" s="4" t="s">
         <v>260</v>
       </c>
@@ -11602,11 +11680,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="232" spans="1:9" ht="14.25" customHeight="1">
       <c r="A232" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B232" s="4"/>
+      <c r="B232" s="4">
+        <v>2019</v>
+      </c>
       <c r="C232" s="4" t="s">
         <v>260</v>
       </c>
@@ -11629,11 +11709,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="233" spans="1:9" ht="14.25" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B233" s="4"/>
+      <c r="B233" s="4">
+        <v>2019</v>
+      </c>
       <c r="C233" s="4" t="s">
         <v>260</v>
       </c>
@@ -11656,11 +11738,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="234" spans="1:9" ht="14.25" customHeight="1">
       <c r="A234" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B234" s="4"/>
+      <c r="B234" s="4">
+        <v>2019</v>
+      </c>
       <c r="C234" s="4" t="s">
         <v>260</v>
       </c>
@@ -11683,11 +11767,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="235" spans="1:9" ht="14.25" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B235" s="4"/>
+      <c r="B235" s="4">
+        <v>2019</v>
+      </c>
       <c r="C235" s="4" t="s">
         <v>260</v>
       </c>
@@ -11710,11 +11796,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="236" spans="1:9" ht="14.25" customHeight="1">
       <c r="A236" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B236" s="4"/>
+      <c r="B236" s="4">
+        <v>2019</v>
+      </c>
       <c r="C236" s="4" t="s">
         <v>260</v>
       </c>
@@ -11737,11 +11825,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="237" spans="1:9" ht="14.25" customHeight="1">
       <c r="A237" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B237" s="4"/>
+      <c r="B237" s="4">
+        <v>2019</v>
+      </c>
       <c r="C237" s="4" t="s">
         <v>260</v>
       </c>
@@ -11764,11 +11854,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="238" spans="1:9" ht="14.25" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B238" s="4"/>
+      <c r="B238" s="4">
+        <v>2019</v>
+      </c>
       <c r="C238" s="4" t="s">
         <v>260</v>
       </c>
@@ -11791,11 +11883,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="239" spans="1:9" ht="14.25" customHeight="1">
       <c r="A239" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B239" s="4"/>
+      <c r="B239" s="4">
+        <v>2019</v>
+      </c>
       <c r="C239" s="4" t="s">
         <v>260</v>
       </c>
@@ -11818,11 +11912,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="240" spans="1:9" ht="14.25" customHeight="1">
       <c r="A240" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B240" s="4"/>
+      <c r="B240" s="4">
+        <v>2019</v>
+      </c>
       <c r="C240" s="4" t="s">
         <v>260</v>
       </c>
@@ -11845,11 +11941,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="241" spans="1:9" ht="14.25" customHeight="1">
       <c r="A241" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B241" s="4"/>
+      <c r="B241" s="4">
+        <v>2019</v>
+      </c>
       <c r="C241" s="4" t="s">
         <v>260</v>
       </c>
@@ -11870,11 +11968,13 @@
       </c>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="242" spans="1:9" ht="14.25" customHeight="1">
       <c r="A242" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B242" s="4"/>
+      <c r="B242" s="4">
+        <v>2019</v>
+      </c>
       <c r="C242" s="4" t="s">
         <v>260</v>
       </c>
@@ -11895,11 +11995,13 @@
       </c>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="243" spans="1:9" ht="14.25" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B243" s="4"/>
+      <c r="B243" s="4">
+        <v>2019</v>
+      </c>
       <c r="C243" s="4" t="s">
         <v>260</v>
       </c>
@@ -11920,11 +12022,13 @@
       </c>
       <c r="I243" s="4"/>
     </row>
-    <row r="244" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="244" spans="1:9" ht="14.25" customHeight="1">
       <c r="A244" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B244" s="4"/>
+      <c r="B244" s="4">
+        <v>2019</v>
+      </c>
       <c r="C244" s="4" t="s">
         <v>260</v>
       </c>
@@ -11945,11 +12049,13 @@
       </c>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="245" spans="1:9" ht="14.25" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B245" s="4"/>
+      <c r="B245" s="4">
+        <v>2019</v>
+      </c>
       <c r="C245" s="4" t="s">
         <v>260</v>
       </c>
@@ -11970,11 +12076,13 @@
       </c>
       <c r="I245" s="4"/>
     </row>
-    <row r="246" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="246" spans="1:9" ht="14.25" customHeight="1">
       <c r="A246" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B246" s="4"/>
+      <c r="B246" s="4">
+        <v>2019</v>
+      </c>
       <c r="C246" s="4" t="s">
         <v>260</v>
       </c>
@@ -11995,11 +12103,13 @@
       </c>
       <c r="I246" s="4"/>
     </row>
-    <row r="247" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="247" spans="1:9" ht="14.25" customHeight="1">
       <c r="A247" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B247" s="4"/>
+      <c r="B247" s="4">
+        <v>2019</v>
+      </c>
       <c r="C247" s="4" t="s">
         <v>260</v>
       </c>
@@ -12022,11 +12132,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="248" spans="1:9" ht="14.25" customHeight="1">
       <c r="A248" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B248" s="4"/>
+      <c r="B248" s="4">
+        <v>2019</v>
+      </c>
       <c r="C248" s="4" t="s">
         <v>260</v>
       </c>
@@ -12049,11 +12161,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="249" spans="1:9" ht="14.25" customHeight="1">
       <c r="A249" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B249" s="4"/>
+      <c r="B249" s="4">
+        <v>2019</v>
+      </c>
       <c r="C249" s="4" t="s">
         <v>187</v>
       </c>
@@ -12074,11 +12188,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="250" spans="1:9" ht="14.25" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B250" s="4"/>
+      <c r="B250" s="4">
+        <v>2019</v>
+      </c>
       <c r="C250" s="4" t="s">
         <v>187</v>
       </c>
@@ -12101,11 +12217,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="251" spans="1:9" ht="14.25" customHeight="1">
       <c r="A251" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B251" s="4"/>
+      <c r="B251" s="4">
+        <v>2019</v>
+      </c>
       <c r="C251" s="4" t="s">
         <v>187</v>
       </c>
@@ -12128,11 +12246,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="252" spans="1:9" ht="14.25" customHeight="1">
       <c r="A252" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B252" s="4"/>
+      <c r="B252" s="4">
+        <v>2019</v>
+      </c>
       <c r="C252" s="4" t="s">
         <v>187</v>
       </c>
@@ -12155,11 +12275,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="253" spans="1:9" ht="14.25" customHeight="1">
       <c r="A253" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B253" s="4"/>
+      <c r="B253" s="4">
+        <v>2019</v>
+      </c>
       <c r="C253" s="4" t="s">
         <v>187</v>
       </c>
@@ -12182,11 +12304,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="254" spans="1:9" ht="14.25" customHeight="1">
       <c r="A254" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B254" s="4"/>
+      <c r="B254" s="4">
+        <v>2019</v>
+      </c>
       <c r="C254" s="4" t="s">
         <v>187</v>
       </c>
@@ -12209,11 +12333,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="255" spans="1:9" ht="14.25" customHeight="1">
       <c r="A255" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B255" s="4"/>
+      <c r="B255" s="4">
+        <v>2019</v>
+      </c>
       <c r="C255" s="4" t="s">
         <v>187</v>
       </c>
@@ -12236,11 +12362,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="256" spans="1:9" ht="14.25" customHeight="1">
       <c r="A256" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B256" s="4"/>
+      <c r="B256" s="4">
+        <v>2019</v>
+      </c>
       <c r="C256" s="4" t="s">
         <v>187</v>
       </c>
@@ -12263,11 +12391,13 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="257" spans="1:9" ht="14.25" customHeight="1">
       <c r="A257" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B257" s="4"/>
+      <c r="B257" s="4">
+        <v>2019</v>
+      </c>
       <c r="C257" s="4" t="s">
         <v>187</v>
       </c>
@@ -12290,11 +12420,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="258" spans="1:9" ht="14.25" customHeight="1">
       <c r="A258" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B258" s="4"/>
+      <c r="B258" s="4">
+        <v>2019</v>
+      </c>
       <c r="C258" s="4" t="s">
         <v>187</v>
       </c>
@@ -12317,11 +12449,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="259" spans="1:9" ht="14.25" customHeight="1">
       <c r="A259" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B259" s="4"/>
+      <c r="B259" s="4">
+        <v>2019</v>
+      </c>
       <c r="C259" s="4" t="s">
         <v>187</v>
       </c>
@@ -12344,11 +12478,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="260" spans="1:9" ht="14.25" customHeight="1">
       <c r="A260" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B260" s="4"/>
+      <c r="B260" s="4">
+        <v>2019</v>
+      </c>
       <c r="C260" s="4" t="s">
         <v>187</v>
       </c>
@@ -12371,11 +12507,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="261" spans="1:9" ht="14.25" customHeight="1">
       <c r="A261" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B261" s="4"/>
+      <c r="B261" s="4">
+        <v>2019</v>
+      </c>
       <c r="C261" s="4" t="s">
         <v>187</v>
       </c>
@@ -12398,11 +12536,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="262" spans="1:9" ht="14.25" customHeight="1">
       <c r="A262" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B262" s="4"/>
+      <c r="B262" s="4">
+        <v>2019</v>
+      </c>
       <c r="C262" s="4" t="s">
         <v>187</v>
       </c>
@@ -12425,11 +12565,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="263" spans="1:9" ht="14.25" customHeight="1">
       <c r="A263" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B263" s="4"/>
+      <c r="B263" s="4">
+        <v>2019</v>
+      </c>
       <c r="C263" s="4" t="s">
         <v>187</v>
       </c>
@@ -12452,11 +12594,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="264" spans="1:9" ht="14.25" customHeight="1">
       <c r="A264" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B264" s="4"/>
+      <c r="B264" s="4">
+        <v>2019</v>
+      </c>
       <c r="C264" s="4" t="s">
         <v>187</v>
       </c>
@@ -12479,11 +12623,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="265" spans="1:9" ht="14.25" customHeight="1">
       <c r="A265" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B265" s="4"/>
+      <c r="B265" s="4">
+        <v>2019</v>
+      </c>
       <c r="C265" s="4" t="s">
         <v>187</v>
       </c>
@@ -12506,11 +12652,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="266" spans="1:9" ht="14.25" customHeight="1">
       <c r="A266" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B266" s="4"/>
+      <c r="B266" s="4">
+        <v>2019</v>
+      </c>
       <c r="C266" s="4" t="s">
         <v>187</v>
       </c>
@@ -12533,11 +12681,13 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="267" spans="1:9" ht="14.25" customHeight="1">
       <c r="A267" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B267" s="4"/>
+      <c r="B267" s="4">
+        <v>2019</v>
+      </c>
       <c r="C267" s="4" t="s">
         <v>187</v>
       </c>
@@ -12560,11 +12710,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="268" spans="1:9" ht="14.25" customHeight="1">
       <c r="A268" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B268" s="4"/>
+      <c r="B268" s="4">
+        <v>2019</v>
+      </c>
       <c r="C268" s="4" t="s">
         <v>187</v>
       </c>
@@ -12587,11 +12739,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="269" spans="1:9" ht="14.25" customHeight="1">
       <c r="A269" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B269" s="4"/>
+      <c r="B269" s="4">
+        <v>2019</v>
+      </c>
       <c r="C269" s="4" t="s">
         <v>187</v>
       </c>
@@ -12611,14 +12765,16 @@
         <v>1280</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="14.25" customHeight="1">
       <c r="A270" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B270" s="4"/>
+      <c r="B270" s="4">
+        <v>2019</v>
+      </c>
       <c r="C270" s="4" t="s">
         <v>187</v>
       </c>
@@ -12638,14 +12794,16 @@
         <v>1280</v>
       </c>
       <c r="I270" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="14.25" customHeight="1">
       <c r="A271" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B271" s="4"/>
+      <c r="B271" s="4">
+        <v>2019</v>
+      </c>
       <c r="C271" s="4" t="s">
         <v>187</v>
       </c>
@@ -12668,11 +12826,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="272" spans="1:9" ht="14.25" customHeight="1">
       <c r="A272" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B272" s="4"/>
+      <c r="B272" s="4">
+        <v>2019</v>
+      </c>
       <c r="C272" s="4" t="s">
         <v>187</v>
       </c>
@@ -12695,11 +12855,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="273" spans="1:27" ht="14.25" customHeight="1">
       <c r="A273" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B273" s="4"/>
+      <c r="B273" s="4">
+        <v>2019</v>
+      </c>
       <c r="C273" s="4" t="s">
         <v>187</v>
       </c>
@@ -12722,11 +12884,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="274" spans="1:27" ht="14.25" customHeight="1">
       <c r="A274" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B274" s="4"/>
+      <c r="B274" s="4">
+        <v>2019</v>
+      </c>
       <c r="C274" s="4" t="s">
         <v>187</v>
       </c>
@@ -12749,11 +12913,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="275" spans="1:27" ht="14.25" customHeight="1">
       <c r="A275" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B275" s="4"/>
+      <c r="B275" s="4">
+        <v>2019</v>
+      </c>
       <c r="C275" s="4" t="s">
         <v>187</v>
       </c>
@@ -12773,14 +12939,16 @@
         <v>1280</v>
       </c>
       <c r="I275" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="276" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27" ht="14.25" customHeight="1">
       <c r="A276" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B276" s="4"/>
+      <c r="B276" s="4">
+        <v>2019</v>
+      </c>
       <c r="C276" s="4" t="s">
         <v>187</v>
       </c>
@@ -12800,14 +12968,16 @@
         <v>1280</v>
       </c>
       <c r="I276" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27" ht="14.25" customHeight="1">
       <c r="A277" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B277" s="4"/>
+      <c r="B277" s="4">
+        <v>2019</v>
+      </c>
       <c r="C277" s="4" t="s">
         <v>187</v>
       </c>
@@ -12830,11 +13000,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="278" spans="1:27" ht="14.25" customHeight="1">
       <c r="A278" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B278" s="4"/>
+      <c r="B278" s="4">
+        <v>2019</v>
+      </c>
       <c r="C278" s="4" t="s">
         <v>187</v>
       </c>
@@ -12857,11 +13029,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="279" spans="1:27" ht="14.25" customHeight="1">
       <c r="A279" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B279" s="4"/>
+      <c r="B279" s="4">
+        <v>2019</v>
+      </c>
       <c r="C279" s="4" t="s">
         <v>187</v>
       </c>
@@ -12884,11 +13058,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="280" spans="1:27" ht="14.25" customHeight="1">
       <c r="A280" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B280" s="4"/>
+      <c r="B280" s="4">
+        <v>2019</v>
+      </c>
       <c r="C280" s="4" t="s">
         <v>187</v>
       </c>
@@ -12909,11 +13085,13 @@
         <v>226</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="281" spans="1:27" ht="14.25" customHeight="1">
       <c r="A281" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B281" s="4"/>
+      <c r="B281" s="4">
+        <v>2019</v>
+      </c>
       <c r="C281" s="4" t="s">
         <v>187</v>
       </c>
@@ -12954,11 +13132,13 @@
       <c r="Z281" s="7"/>
       <c r="AA281" s="7"/>
     </row>
-    <row r="282" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="282" spans="1:27" ht="14.25" customHeight="1">
       <c r="A282" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B282" s="4"/>
+      <c r="B282" s="4">
+        <v>2019</v>
+      </c>
       <c r="C282" s="4" t="s">
         <v>187</v>
       </c>
@@ -12999,11 +13179,13 @@
       <c r="Z282" s="7"/>
       <c r="AA282" s="7"/>
     </row>
-    <row r="283" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="283" spans="1:27" ht="14.25" customHeight="1">
       <c r="A283" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B283" s="4"/>
+      <c r="B283" s="4">
+        <v>2019</v>
+      </c>
       <c r="C283" s="4" t="s">
         <v>187</v>
       </c>
@@ -13044,11 +13226,13 @@
       <c r="Z283" s="7"/>
       <c r="AA283" s="7"/>
     </row>
-    <row r="284" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="284" spans="1:27" ht="14.25" customHeight="1">
       <c r="A284" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B284" s="4"/>
+      <c r="B284" s="4">
+        <v>2019</v>
+      </c>
       <c r="C284" s="4" t="s">
         <v>187</v>
       </c>
@@ -13072,11 +13256,13 @@
       </c>
       <c r="K284" s="7"/>
     </row>
-    <row r="285" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="285" spans="1:27" ht="14.25" customHeight="1">
       <c r="A285" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B285" s="4"/>
+      <c r="B285" s="4">
+        <v>2019</v>
+      </c>
       <c r="C285" s="4" t="s">
         <v>187</v>
       </c>
@@ -13100,11 +13286,13 @@
       </c>
       <c r="K285" s="7"/>
     </row>
-    <row r="286" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="286" spans="1:27" ht="14.25" customHeight="1">
       <c r="A286" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B286" s="4"/>
+      <c r="B286" s="4">
+        <v>2019</v>
+      </c>
       <c r="C286" s="4" t="s">
         <v>187</v>
       </c>
@@ -13128,11 +13316,13 @@
       </c>
       <c r="K286" s="7"/>
     </row>
-    <row r="287" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="287" spans="1:27" ht="14.25" customHeight="1">
       <c r="A287" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B287" s="4"/>
+      <c r="B287" s="4">
+        <v>2019</v>
+      </c>
       <c r="C287" s="4" t="s">
         <v>187</v>
       </c>
@@ -13156,11 +13346,13 @@
       </c>
       <c r="K287" s="7"/>
     </row>
-    <row r="288" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="288" spans="1:27" ht="14.25" customHeight="1">
       <c r="A288" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B288" s="4"/>
+      <c r="B288" s="4">
+        <v>2019</v>
+      </c>
       <c r="C288" s="4" t="s">
         <v>187</v>
       </c>
@@ -13184,11 +13376,13 @@
       </c>
       <c r="K288" s="7"/>
     </row>
-    <row r="289" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="289" spans="1:11" ht="14.25" customHeight="1">
       <c r="A289" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B289" s="4"/>
+      <c r="B289" s="4">
+        <v>2019</v>
+      </c>
       <c r="C289" s="4" t="s">
         <v>187</v>
       </c>
@@ -13212,11 +13406,13 @@
       </c>
       <c r="K289" s="7"/>
     </row>
-    <row r="290" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="290" spans="1:11" ht="14.25" customHeight="1">
       <c r="A290" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B290" s="4"/>
+      <c r="B290" s="4">
+        <v>2019</v>
+      </c>
       <c r="C290" s="4" t="s">
         <v>187</v>
       </c>
@@ -13240,11 +13436,13 @@
       </c>
       <c r="K290" s="7"/>
     </row>
-    <row r="291" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="291" spans="1:11" ht="14.25" customHeight="1">
       <c r="A291" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B291" s="4"/>
+      <c r="B291" s="4">
+        <v>2019</v>
+      </c>
       <c r="C291" s="4" t="s">
         <v>187</v>
       </c>
@@ -13268,11 +13466,13 @@
       </c>
       <c r="K291" s="7"/>
     </row>
-    <row r="292" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="292" spans="1:11" ht="14.25" customHeight="1">
       <c r="A292" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B292" s="4"/>
+      <c r="B292" s="4">
+        <v>2019</v>
+      </c>
       <c r="C292" s="4" t="s">
         <v>187</v>
       </c>
@@ -13295,11 +13495,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="293" spans="1:11" ht="14.25" customHeight="1">
       <c r="A293" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B293" s="4"/>
+      <c r="B293" s="4">
+        <v>2019</v>
+      </c>
       <c r="C293" s="4" t="s">
         <v>187</v>
       </c>
@@ -13322,11 +13524,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="294" spans="1:11" ht="14.25" customHeight="1">
       <c r="A294" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B294" s="4"/>
+      <c r="B294" s="4">
+        <v>2019</v>
+      </c>
       <c r="C294" s="4" t="s">
         <v>187</v>
       </c>
@@ -13349,11 +13553,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="295" spans="1:11" ht="14.25" customHeight="1">
       <c r="A295" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B295" s="4"/>
+      <c r="B295" s="4">
+        <v>2019</v>
+      </c>
       <c r="C295" s="4" t="s">
         <v>187</v>
       </c>
@@ -13376,11 +13582,13 @@
         <v>371</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="296" spans="1:11" ht="14.25" customHeight="1">
       <c r="A296" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B296" s="4"/>
+      <c r="B296" s="4">
+        <v>2019</v>
+      </c>
       <c r="C296" s="4" t="s">
         <v>187</v>
       </c>
@@ -13403,11 +13611,13 @@
         <v>375</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="297" spans="1:11" ht="14.25" customHeight="1">
       <c r="A297" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B297" s="4"/>
+      <c r="B297" s="4">
+        <v>2019</v>
+      </c>
       <c r="C297" s="4" t="s">
         <v>187</v>
       </c>
@@ -13430,11 +13640,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="298" spans="1:11" ht="14.25" customHeight="1">
       <c r="A298" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B298" s="4"/>
+      <c r="B298" s="4">
+        <v>2019</v>
+      </c>
       <c r="C298" s="4" t="s">
         <v>187</v>
       </c>
@@ -13457,11 +13669,13 @@
         <v>375</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="299" spans="1:11" ht="14.25" customHeight="1">
       <c r="A299" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B299" s="4"/>
+      <c r="B299" s="4">
+        <v>2019</v>
+      </c>
       <c r="C299" s="4" t="s">
         <v>187</v>
       </c>
@@ -13484,11 +13698,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="300" spans="1:11" ht="14.25" customHeight="1">
       <c r="A300" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B300" s="4"/>
+      <c r="B300" s="4">
+        <v>2019</v>
+      </c>
       <c r="C300" s="4" t="s">
         <v>187</v>
       </c>
@@ -13511,11 +13727,13 @@
         <v>375</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="301" spans="1:11" ht="14.25" customHeight="1">
       <c r="A301" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B301" s="4"/>
+      <c r="B301" s="4">
+        <v>2019</v>
+      </c>
       <c r="C301" s="4" t="s">
         <v>187</v>
       </c>
@@ -13538,11 +13756,13 @@
         <v>375</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="302" spans="1:11" ht="14.25" customHeight="1">
       <c r="A302" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B302" s="4"/>
+      <c r="B302" s="4">
+        <v>2019</v>
+      </c>
       <c r="C302" s="4" t="s">
         <v>187</v>
       </c>
@@ -13565,11 +13785,13 @@
         <v>375</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="303" spans="1:11" ht="14.25" customHeight="1">
       <c r="A303" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B303" s="4"/>
+      <c r="B303" s="4">
+        <v>2019</v>
+      </c>
       <c r="C303" s="4" t="s">
         <v>187</v>
       </c>
@@ -13592,11 +13814,13 @@
         <v>375</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="304" spans="1:11" ht="14.25" customHeight="1">
       <c r="A304" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B304" s="4"/>
+      <c r="B304" s="4">
+        <v>2019</v>
+      </c>
       <c r="C304" s="4" t="s">
         <v>187</v>
       </c>
@@ -13619,11 +13843,13 @@
         <v>375</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="305" spans="1:9" ht="14.25" customHeight="1">
       <c r="A305" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B305" s="4"/>
+      <c r="B305" s="4">
+        <v>2019</v>
+      </c>
       <c r="C305" s="4" t="s">
         <v>187</v>
       </c>
@@ -13646,11 +13872,13 @@
         <v>375</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="306" spans="1:9" ht="14.25" customHeight="1">
       <c r="A306" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B306" s="4"/>
+      <c r="B306" s="4">
+        <v>2019</v>
+      </c>
       <c r="C306" s="4" t="s">
         <v>187</v>
       </c>
@@ -13673,11 +13901,13 @@
         <v>375</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="307" spans="1:9" ht="14.25" customHeight="1">
       <c r="A307" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B307" s="4"/>
+      <c r="B307" s="4">
+        <v>2019</v>
+      </c>
       <c r="C307" s="4" t="s">
         <v>187</v>
       </c>
@@ -13700,11 +13930,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="308" spans="1:9" ht="14.25" customHeight="1">
       <c r="A308" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B308" s="4"/>
+      <c r="B308" s="4">
+        <v>2019</v>
+      </c>
       <c r="C308" s="4" t="s">
         <v>187</v>
       </c>
@@ -13727,11 +13959,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="309" spans="1:9" ht="14.25" customHeight="1">
       <c r="A309" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B309" s="4"/>
+      <c r="B309" s="4">
+        <v>2019</v>
+      </c>
       <c r="C309" s="4" t="s">
         <v>187</v>
       </c>
@@ -13754,11 +13988,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="310" spans="1:9" ht="14.25" customHeight="1">
       <c r="A310" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B310" s="4"/>
+      <c r="B310" s="4">
+        <v>2019</v>
+      </c>
       <c r="C310" s="4" t="s">
         <v>187</v>
       </c>
@@ -13781,11 +14017,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="311" spans="1:9" ht="14.25" customHeight="1">
       <c r="A311" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B311" s="4"/>
+      <c r="B311" s="4">
+        <v>2019</v>
+      </c>
       <c r="C311" s="4" t="s">
         <v>187</v>
       </c>
@@ -13808,11 +14046,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="312" spans="1:9" ht="14.25" customHeight="1">
       <c r="A312" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B312" s="4"/>
+      <c r="B312" s="4">
+        <v>2019</v>
+      </c>
       <c r="C312" s="4" t="s">
         <v>187</v>
       </c>
@@ -13835,11 +14075,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="313" spans="1:9" ht="14.25" customHeight="1">
       <c r="A313" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B313" s="4"/>
+      <c r="B313" s="4">
+        <v>2019</v>
+      </c>
       <c r="C313" s="4" t="s">
         <v>187</v>
       </c>
@@ -13862,11 +14104,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="314" spans="1:9" ht="14.25" customHeight="1">
       <c r="A314" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B314" s="4"/>
+      <c r="B314" s="4">
+        <v>2019</v>
+      </c>
       <c r="C314" s="4" t="s">
         <v>187</v>
       </c>
@@ -13889,11 +14133,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="315" spans="1:9" ht="14.25" customHeight="1">
       <c r="A315" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B315" s="4"/>
+      <c r="B315" s="4">
+        <v>2019</v>
+      </c>
       <c r="C315" s="4" t="s">
         <v>187</v>
       </c>
@@ -13916,11 +14162,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="316" spans="1:9" ht="14.25" customHeight="1">
       <c r="A316" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B316" s="4"/>
+      <c r="B316" s="4">
+        <v>2019</v>
+      </c>
       <c r="C316" s="4" t="s">
         <v>187</v>
       </c>
@@ -13943,11 +14191,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="317" spans="1:9" ht="14.25" customHeight="1">
       <c r="A317" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B317" s="4"/>
+      <c r="B317" s="4">
+        <v>2019</v>
+      </c>
       <c r="C317" s="4" t="s">
         <v>187</v>
       </c>
@@ -13970,11 +14220,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="318" spans="1:9" ht="14.25" customHeight="1">
       <c r="A318" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B318" s="4"/>
+      <c r="B318" s="4">
+        <v>2019</v>
+      </c>
       <c r="C318" s="4" t="s">
         <v>187</v>
       </c>
@@ -13993,11 +14245,13 @@
       </c>
       <c r="I318" s="4"/>
     </row>
-    <row r="319" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="319" spans="1:9" ht="14.25" customHeight="1">
       <c r="A319" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B319" s="4"/>
+      <c r="B319" s="4">
+        <v>2019</v>
+      </c>
       <c r="C319" s="4" t="s">
         <v>187</v>
       </c>
@@ -14016,11 +14270,13 @@
       </c>
       <c r="I319" s="4"/>
     </row>
-    <row r="320" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="320" spans="1:9" ht="14.25" customHeight="1">
       <c r="A320" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B320" s="4"/>
+      <c r="B320" s="4">
+        <v>2019</v>
+      </c>
       <c r="C320" s="4" t="s">
         <v>187</v>
       </c>
@@ -14039,11 +14295,13 @@
       </c>
       <c r="I320" s="4"/>
     </row>
-    <row r="321" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="321" spans="1:9" ht="14.25" customHeight="1">
       <c r="A321" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B321" s="4"/>
+      <c r="B321" s="4">
+        <v>2019</v>
+      </c>
       <c r="C321" s="4" t="s">
         <v>187</v>
       </c>
@@ -14062,11 +14320,13 @@
       </c>
       <c r="I321" s="4"/>
     </row>
-    <row r="322" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="322" spans="1:9" ht="14.25" customHeight="1">
       <c r="A322" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B322" s="4"/>
+      <c r="B322" s="4">
+        <v>2019</v>
+      </c>
       <c r="C322" s="4" t="s">
         <v>187</v>
       </c>
@@ -14085,11 +14345,13 @@
       </c>
       <c r="I322" s="4"/>
     </row>
-    <row r="323" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="323" spans="1:9" ht="14.25" customHeight="1">
       <c r="A323" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B323" s="4"/>
+      <c r="B323" s="4">
+        <v>2019</v>
+      </c>
       <c r="C323" s="4" t="s">
         <v>187</v>
       </c>
@@ -27946,7 +28208,7 @@
       </c>
       <c r="I839" s="4"/>
     </row>
-    <row r="840" spans="1:9" ht="14.25" customHeight="1" thickTop="1">
+    <row r="840" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A840" s="12" t="s">
         <v>920</v>
       </c>
@@ -27973,7 +28235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="841" spans="1:9" ht="14.25" customHeight="1">
+    <row r="841" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A841" s="12" t="s">
         <v>920</v>
       </c>
@@ -28000,7 +28262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="842" spans="1:9" ht="14.25" customHeight="1">
+    <row r="842" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A842" s="12" t="s">
         <v>920</v>
       </c>
@@ -28027,7 +28289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="843" spans="1:9" ht="14.25" customHeight="1">
+    <row r="843" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A843" s="12" t="s">
         <v>920</v>
       </c>
@@ -28054,7 +28316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="844" spans="1:9" ht="14.25" customHeight="1">
+    <row r="844" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A844" s="12" t="s">
         <v>920</v>
       </c>
@@ -28081,7 +28343,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="845" spans="1:9" ht="14.25" customHeight="1">
+    <row r="845" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A845" s="12" t="s">
         <v>920</v>
       </c>
@@ -28108,7 +28370,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="846" spans="1:9" ht="14.25" customHeight="1">
+    <row r="846" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A846" s="12" t="s">
         <v>920</v>
       </c>
@@ -28135,7 +28397,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="847" spans="1:9" ht="14.25" customHeight="1">
+    <row r="847" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A847" s="12" t="s">
         <v>920</v>
       </c>
@@ -28162,7 +28424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="848" spans="1:9" ht="14.25" customHeight="1">
+    <row r="848" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A848" s="12" t="s">
         <v>920</v>
       </c>
@@ -28189,7 +28451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="849" spans="1:9" ht="14.25" customHeight="1">
+    <row r="849" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A849" s="12" t="s">
         <v>920</v>
       </c>
@@ -28216,7 +28478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="850" spans="1:9" ht="14.25" customHeight="1">
+    <row r="850" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A850" s="12" t="s">
         <v>920</v>
       </c>
@@ -28243,7 +28505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="851" spans="1:9" ht="14.25" customHeight="1">
+    <row r="851" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A851" s="12" t="s">
         <v>920</v>
       </c>
@@ -28270,7 +28532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="852" spans="1:9" ht="14.25" customHeight="1">
+    <row r="852" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A852" s="12" t="s">
         <v>920</v>
       </c>
@@ -28297,7 +28559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="853" spans="1:9" ht="14.25" customHeight="1">
+    <row r="853" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A853" s="12" t="s">
         <v>920</v>
       </c>
@@ -28324,7 +28586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="854" spans="1:9" ht="14.25" customHeight="1">
+    <row r="854" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A854" s="12" t="s">
         <v>920</v>
       </c>
@@ -28351,7 +28613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="855" spans="1:9" ht="14.25" customHeight="1">
+    <row r="855" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A855" s="12" t="s">
         <v>920</v>
       </c>
@@ -28378,7 +28640,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="856" spans="1:9" ht="14.25" customHeight="1">
+    <row r="856" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A856" s="12" t="s">
         <v>920</v>
       </c>
@@ -28405,7 +28667,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="857" spans="1:9" ht="14.25" customHeight="1">
+    <row r="857" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A857" s="12" t="s">
         <v>920</v>
       </c>
@@ -28432,7 +28694,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="858" spans="1:9" ht="14.25" customHeight="1">
+    <row r="858" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A858" s="12" t="s">
         <v>920</v>
       </c>
@@ -28459,7 +28721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="859" spans="1:9" ht="14.25" customHeight="1">
+    <row r="859" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A859" s="12" t="s">
         <v>920</v>
       </c>
@@ -28486,7 +28748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="860" spans="1:9" ht="14.25" customHeight="1">
+    <row r="860" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A860" s="12" t="s">
         <v>920</v>
       </c>
@@ -28513,7 +28775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="861" spans="1:9" ht="14.25" customHeight="1">
+    <row r="861" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A861" s="12" t="s">
         <v>920</v>
       </c>
@@ -28540,7 +28802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="862" spans="1:9" ht="14.25" customHeight="1">
+    <row r="862" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A862" s="12" t="s">
         <v>920</v>
       </c>
@@ -28567,7 +28829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="863" spans="1:9" ht="14.25" customHeight="1">
+    <row r="863" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A863" s="12" t="s">
         <v>920</v>
       </c>
@@ -28594,7 +28856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="864" spans="1:9" ht="14.25" customHeight="1">
+    <row r="864" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A864" s="12" t="s">
         <v>920</v>
       </c>
@@ -28621,7 +28883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="865" spans="1:9" ht="14.25" customHeight="1">
+    <row r="865" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A865" s="12" t="s">
         <v>920</v>
       </c>
@@ -28648,7 +28910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="866" spans="1:9" ht="14.25" customHeight="1">
+    <row r="866" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A866" s="12" t="s">
         <v>920</v>
       </c>
@@ -28675,7 +28937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="867" spans="1:9" ht="14.25" customHeight="1">
+    <row r="867" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A867" s="12" t="s">
         <v>920</v>
       </c>
@@ -28702,7 +28964,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="868" spans="1:9" ht="14.25" customHeight="1">
+    <row r="868" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A868" s="12" t="s">
         <v>920</v>
       </c>
@@ -28729,7 +28991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="869" spans="1:9" ht="14.25" customHeight="1">
+    <row r="869" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A869" s="12" t="s">
         <v>920</v>
       </c>
@@ -28745,7 +29007,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="870" spans="1:9" ht="14.25" customHeight="1">
+    <row r="870" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A870" s="12" t="s">
         <v>920</v>
       </c>
@@ -28759,7 +29021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="871" spans="1:9" ht="14.25" customHeight="1">
+    <row r="871" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A871" s="12" t="s">
         <v>920</v>
       </c>
@@ -28781,7 +29043,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="872" spans="1:9" ht="14.25" customHeight="1">
+    <row r="872" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A872" s="12" t="s">
         <v>920</v>
       </c>
@@ -28808,7 +29070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="873" spans="1:9" ht="14.25" customHeight="1">
+    <row r="873" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A873" s="12" t="s">
         <v>920</v>
       </c>
@@ -28835,7 +29097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="874" spans="1:9" ht="14.25" customHeight="1">
+    <row r="874" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A874" s="12" t="s">
         <v>920</v>
       </c>
@@ -28862,7 +29124,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="875" spans="1:9" ht="14.25" customHeight="1">
+    <row r="875" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A875" s="12" t="s">
         <v>920</v>
       </c>
@@ -28889,7 +29151,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="876" spans="1:9" ht="14.25" customHeight="1">
+    <row r="876" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A876" s="12" t="s">
         <v>920</v>
       </c>
@@ -28916,7 +29178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="877" spans="1:9" ht="14.25" customHeight="1">
+    <row r="877" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A877" s="12" t="s">
         <v>920</v>
       </c>
@@ -28943,7 +29205,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="878" spans="1:9" ht="14.25" customHeight="1">
+    <row r="878" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A878" s="12" t="s">
         <v>920</v>
       </c>
@@ -28970,7 +29232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="879" spans="1:9" ht="14.25" customHeight="1">
+    <row r="879" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A879" s="12" t="s">
         <v>920</v>
       </c>
@@ -28997,7 +29259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="880" spans="1:9" ht="14.25" customHeight="1">
+    <row r="880" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A880" s="12" t="s">
         <v>920</v>
       </c>
@@ -29024,7 +29286,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="881" spans="1:9" ht="14.25" customHeight="1">
+    <row r="881" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A881" s="12" t="s">
         <v>920</v>
       </c>
@@ -29051,7 +29313,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="882" spans="1:9" ht="14.25" customHeight="1">
+    <row r="882" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A882" s="12" t="s">
         <v>920</v>
       </c>
@@ -29075,7 +29337,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="883" spans="1:9" ht="14.25" customHeight="1">
+    <row r="883" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A883" s="12" t="s">
         <v>920</v>
       </c>
@@ -29102,7 +29364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="884" spans="1:9" ht="14.25" customHeight="1">
+    <row r="884" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A884" s="12" t="s">
         <v>920</v>
       </c>
@@ -29129,7 +29391,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="885" spans="1:9" ht="14.25" customHeight="1">
+    <row r="885" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A885" s="12" t="s">
         <v>920</v>
       </c>
@@ -29156,7 +29418,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="886" spans="1:9" ht="14.25" customHeight="1">
+    <row r="886" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A886" s="12" t="s">
         <v>920</v>
       </c>
@@ -29183,7 +29445,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="887" spans="1:9" ht="14.25" customHeight="1">
+    <row r="887" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A887" s="12" t="s">
         <v>920</v>
       </c>
@@ -29210,7 +29472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="888" spans="1:9" ht="14.25" customHeight="1">
+    <row r="888" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A888" s="12" t="s">
         <v>920</v>
       </c>
@@ -29237,7 +29499,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="889" spans="1:9" ht="14.25" customHeight="1">
+    <row r="889" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A889" s="12" t="s">
         <v>920</v>
       </c>
@@ -29264,7 +29526,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="890" spans="1:9" ht="14.25" customHeight="1">
+    <row r="890" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A890" s="12" t="s">
         <v>920</v>
       </c>
@@ -29291,7 +29553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="891" spans="1:9" ht="14.25" customHeight="1">
+    <row r="891" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A891" s="12" t="s">
         <v>920</v>
       </c>
@@ -29315,7 +29577,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="892" spans="1:9" ht="14.25" customHeight="1">
+    <row r="892" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A892" s="12" t="s">
         <v>920</v>
       </c>
@@ -29342,7 +29604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="893" spans="1:9" ht="14.25" customHeight="1">
+    <row r="893" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A893" s="12" t="s">
         <v>920</v>
       </c>
@@ -29369,7 +29631,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="894" spans="1:9" ht="14.25" customHeight="1">
+    <row r="894" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A894" s="12" t="s">
         <v>920</v>
       </c>
@@ -29396,7 +29658,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="895" spans="1:9" ht="14.25" customHeight="1">
+    <row r="895" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A895" s="12" t="s">
         <v>920</v>
       </c>
@@ -29423,7 +29685,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="896" spans="1:9" ht="14.25" customHeight="1">
+    <row r="896" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A896" s="12" t="s">
         <v>920</v>
       </c>
@@ -29450,7 +29712,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="897" spans="1:9" ht="14.25" customHeight="1">
+    <row r="897" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A897" s="12" t="s">
         <v>920</v>
       </c>
@@ -29477,7 +29739,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="898" spans="1:9" ht="14.25" customHeight="1">
+    <row r="898" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A898" s="12" t="s">
         <v>920</v>
       </c>
@@ -29498,7 +29760,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="899" spans="1:9" ht="14.25" customHeight="1">
+    <row r="899" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A899" s="12" t="s">
         <v>920</v>
       </c>
@@ -29522,7 +29784,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="900" spans="1:9" ht="14.25" customHeight="1">
+    <row r="900" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A900" s="12" t="s">
         <v>920</v>
       </c>
@@ -29546,7 +29808,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="901" spans="1:9" ht="14.25" customHeight="1">
+    <row r="901" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A901" s="12" t="s">
         <v>920</v>
       </c>
@@ -29570,7 +29832,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="902" spans="1:9" ht="14.25" customHeight="1">
+    <row r="902" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A902" s="12" t="s">
         <v>920</v>
       </c>
@@ -29594,7 +29856,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="903" spans="1:9" ht="14.25" customHeight="1">
+    <row r="903" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A903" s="12" t="s">
         <v>920</v>
       </c>
@@ -29618,7 +29880,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="904" spans="1:9" ht="14.25" customHeight="1">
+    <row r="904" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A904" s="12" t="s">
         <v>920</v>
       </c>
@@ -29642,7 +29904,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="905" spans="1:9" ht="14.25" customHeight="1">
+    <row r="905" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A905" s="12" t="s">
         <v>920</v>
       </c>
@@ -29666,7 +29928,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="906" spans="1:9" ht="14.25" customHeight="1">
+    <row r="906" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A906" s="12" t="s">
         <v>920</v>
       </c>
@@ -29690,7 +29952,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="907" spans="1:9" ht="14.25" customHeight="1">
+    <row r="907" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A907" s="12" t="s">
         <v>920</v>
       </c>
@@ -29714,7 +29976,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="908" spans="1:9" ht="14.25" customHeight="1">
+    <row r="908" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A908" s="12" t="s">
         <v>920</v>
       </c>
@@ -29738,7 +30000,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="909" spans="1:9" ht="14.25" customHeight="1">
+    <row r="909" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A909" s="12" t="s">
         <v>920</v>
       </c>
@@ -31939,7 +32201,8 @@
   <autoFilter ref="A1:J976" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Estados Unidos"/>
+        <filter val="El Salvador"/>
+        <filter val="Guatemala"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -64232,11 +64495,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Economia\Tematicas de Investigacion\Precariedad Mundial\precariedad.mundial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6AA255-4813-47C2-9912-9DB527E4D8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD69C80-DDE0-4EF9-85A4-21EE63A39663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Ingresos!$A$1:$G$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Links!$A$1:$E$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metadata!$A$1:$J$976</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metadata!$A$1:$J$981</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="Ys7tD0REepvTbqod3JWRak83uzW7UZueHs+uloU0nDM="/>
     </ext>
@@ -69,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7166" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7196" uniqueCount="1370">
   <si>
     <t>Pais</t>
   </si>
@@ -5106,8 +5117,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1065"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B297" sqref="B193:B297"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H362" sqref="H362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6162,7 +6173,7 @@
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
     </row>
-    <row r="39" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="39" spans="1:27" ht="14.25" customHeight="1" thickTop="1">
       <c r="A39" s="4" t="s">
         <v>9</v>
       </c>
@@ -6207,7 +6218,7 @@
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
     </row>
-    <row r="40" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="40" spans="1:27" ht="14.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -6252,7 +6263,7 @@
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
     </row>
-    <row r="41" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="41" spans="1:27" ht="14.25" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -6297,7 +6308,7 @@
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
     </row>
-    <row r="42" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="42" spans="1:27" ht="14.25" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>9</v>
       </c>
@@ -6342,7 +6353,7 @@
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
     </row>
-    <row r="43" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="43" spans="1:27" ht="14.25" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
@@ -6586,7 +6597,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18" hidden="1" customHeight="1">
+    <row r="52" spans="1:9" ht="18" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>9</v>
       </c>
@@ -6613,7 +6624,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18" hidden="1" customHeight="1">
+    <row r="53" spans="1:9" ht="18" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
@@ -6640,7 +6651,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>9</v>
       </c>
@@ -6667,7 +6678,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="55" spans="1:9" ht="14.25" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
@@ -6694,7 +6705,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="56" spans="1:9" ht="14.25" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>9</v>
       </c>
@@ -6721,7 +6732,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="57" spans="1:9" ht="14.25" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>9</v>
       </c>
@@ -7839,7 +7850,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="99" spans="1:11" ht="14.25" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>110</v>
       </c>
@@ -7866,7 +7877,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="100" spans="1:11" ht="14.25" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>110</v>
       </c>
@@ -7893,7 +7904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="101" spans="1:11" ht="14.25" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>110</v>
       </c>
@@ -7920,7 +7931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="102" spans="1:11" ht="14.25" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>110</v>
       </c>
@@ -7947,7 +7958,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="103" spans="1:11" ht="14.25" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>110</v>
       </c>
@@ -8028,7 +8039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="106" spans="1:11" ht="14.25" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>110</v>
       </c>
@@ -8056,7 +8067,7 @@
       </c>
       <c r="K106" s="7"/>
     </row>
-    <row r="107" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="107" spans="1:11" ht="14.25" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>110</v>
       </c>
@@ -8300,7 +8311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="116" spans="1:9" ht="14.25" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>110</v>
       </c>
@@ -8327,7 +8338,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="117" spans="1:9" ht="14.25" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>110</v>
       </c>
@@ -8354,7 +8365,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="118" spans="1:9" ht="14.25" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>110</v>
       </c>
@@ -9805,7 +9816,7 @@
       </c>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="171" spans="1:27" ht="14.25" customHeight="1">
       <c r="A171" s="4" t="s">
         <v>186</v>
       </c>
@@ -9852,7 +9863,7 @@
       <c r="Z171" s="7"/>
       <c r="AA171" s="7"/>
     </row>
-    <row r="172" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="172" spans="1:27" ht="14.25" customHeight="1">
       <c r="A172" s="4" t="s">
         <v>186</v>
       </c>
@@ -9899,7 +9910,7 @@
       <c r="Z172" s="7"/>
       <c r="AA172" s="7"/>
     </row>
-    <row r="173" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="173" spans="1:27" ht="14.25" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>186</v>
       </c>
@@ -9929,7 +9940,7 @@
       </c>
       <c r="K173" s="7"/>
     </row>
-    <row r="174" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="174" spans="1:27" ht="14.25" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>186</v>
       </c>
@@ -10073,7 +10084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="179" spans="1:9" ht="14.25" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>186</v>
       </c>
@@ -10102,7 +10113,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="180" spans="1:9" ht="14.25" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>186</v>
       </c>
@@ -10131,7 +10142,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="181" spans="1:9" ht="14.25" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>186</v>
       </c>
@@ -10160,7 +10171,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="182" spans="1:9" ht="14.25" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>186</v>
       </c>
@@ -10189,7 +10200,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="183" spans="1:9" ht="14.25" customHeight="1">
       <c r="A183" s="4" t="s">
         <v>186</v>
       </c>
@@ -10218,7 +10229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="184" spans="1:9" ht="14.25" customHeight="1">
       <c r="A184" s="4" t="s">
         <v>186</v>
       </c>
@@ -10479,7 +10490,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="13.5" customHeight="1" thickTop="1">
+    <row r="193" spans="1:9" ht="13.5" hidden="1" customHeight="1" thickTop="1">
       <c r="A193" s="4" t="s">
         <v>259</v>
       </c>
@@ -10508,7 +10519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="14.25" customHeight="1">
+    <row r="194" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A194" s="4" t="s">
         <v>259</v>
       </c>
@@ -10537,7 +10548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="14.25" customHeight="1">
+    <row r="195" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A195" s="4" t="s">
         <v>259</v>
       </c>
@@ -10566,7 +10577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="14.25" customHeight="1">
+    <row r="196" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A196" s="4" t="s">
         <v>259</v>
       </c>
@@ -10595,7 +10606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="14.25" customHeight="1">
+    <row r="197" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>259</v>
       </c>
@@ -10624,7 +10635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="14.25" customHeight="1">
+    <row r="198" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>259</v>
       </c>
@@ -10653,7 +10664,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="14.25" customHeight="1">
+    <row r="199" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A199" s="4" t="s">
         <v>259</v>
       </c>
@@ -10682,7 +10693,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="14.25" customHeight="1">
+    <row r="200" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A200" s="4" t="s">
         <v>259</v>
       </c>
@@ -10711,7 +10722,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="14.25" customHeight="1">
+    <row r="201" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>259</v>
       </c>
@@ -10740,7 +10751,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="14.25" customHeight="1">
+    <row r="202" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>259</v>
       </c>
@@ -10769,7 +10780,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="14.25" customHeight="1">
+    <row r="203" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>259</v>
       </c>
@@ -10798,7 +10809,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="14.25" customHeight="1">
+    <row r="204" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>259</v>
       </c>
@@ -10827,7 +10838,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="14.25" customHeight="1">
+    <row r="205" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>259</v>
       </c>
@@ -10856,7 +10867,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="14.25" customHeight="1">
+    <row r="206" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A206" s="4" t="s">
         <v>259</v>
       </c>
@@ -10885,7 +10896,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="14.25" customHeight="1">
+    <row r="207" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>259</v>
       </c>
@@ -10914,7 +10925,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="14.25" customHeight="1">
+    <row r="208" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A208" s="4" t="s">
         <v>259</v>
       </c>
@@ -10943,7 +10954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="14.25" customHeight="1">
+    <row r="209" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>259</v>
       </c>
@@ -10972,7 +10983,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="14.25" customHeight="1">
+    <row r="210" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A210" s="4" t="s">
         <v>259</v>
       </c>
@@ -11001,7 +11012,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:27" ht="14.25" customHeight="1">
+    <row r="211" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>259</v>
       </c>
@@ -11030,7 +11041,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="212" spans="1:27" ht="14.25" customHeight="1">
+    <row r="212" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A212" s="4" t="s">
         <v>259</v>
       </c>
@@ -11059,7 +11070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="14.25" customHeight="1">
+    <row r="213" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A213" s="4" t="s">
         <v>259</v>
       </c>
@@ -11088,7 +11099,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="14.25" customHeight="1">
+    <row r="214" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>259</v>
       </c>
@@ -11117,7 +11128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="14.25" customHeight="1">
+    <row r="215" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A215" s="4" t="s">
         <v>259</v>
       </c>
@@ -11146,7 +11157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="14.25" customHeight="1">
+    <row r="216" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>259</v>
       </c>
@@ -11175,7 +11186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="14.25" customHeight="1">
+    <row r="217" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A217" s="4" t="s">
         <v>259</v>
       </c>
@@ -11204,7 +11215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="14.25" customHeight="1">
+    <row r="218" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>259</v>
       </c>
@@ -11233,7 +11244,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="14.25" customHeight="1">
+    <row r="219" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>259</v>
       </c>
@@ -11506,7 +11517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="14.25" customHeight="1">
+    <row r="226" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>259</v>
       </c>
@@ -11535,7 +11546,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="14.25" customHeight="1">
+    <row r="227" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A227" s="4" t="s">
         <v>259</v>
       </c>
@@ -11564,7 +11575,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="14.25" customHeight="1">
+    <row r="228" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>259</v>
       </c>
@@ -11593,7 +11604,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="14.25" customHeight="1">
+    <row r="229" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>259</v>
       </c>
@@ -11622,7 +11633,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="14.25" customHeight="1">
+    <row r="230" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A230" s="4" t="s">
         <v>259</v>
       </c>
@@ -11651,7 +11662,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="14.25" customHeight="1">
+    <row r="231" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>259</v>
       </c>
@@ -11680,7 +11691,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="14.25" customHeight="1">
+    <row r="232" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A232" s="4" t="s">
         <v>259</v>
       </c>
@@ -11709,7 +11720,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="14.25" customHeight="1">
+    <row r="233" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>259</v>
       </c>
@@ -11738,7 +11749,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="14.25" customHeight="1">
+    <row r="234" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A234" s="4" t="s">
         <v>259</v>
       </c>
@@ -11767,7 +11778,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="14.25" customHeight="1">
+    <row r="235" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>259</v>
       </c>
@@ -11796,7 +11807,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="14.25" customHeight="1">
+    <row r="236" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A236" s="4" t="s">
         <v>259</v>
       </c>
@@ -11825,7 +11836,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="14.25" customHeight="1">
+    <row r="237" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A237" s="4" t="s">
         <v>259</v>
       </c>
@@ -11854,7 +11865,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="14.25" customHeight="1">
+    <row r="238" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>259</v>
       </c>
@@ -11941,7 +11952,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="14.25" customHeight="1">
+    <row r="241" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A241" s="4" t="s">
         <v>259</v>
       </c>
@@ -11968,7 +11979,7 @@
       </c>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="1:9" ht="14.25" customHeight="1">
+    <row r="242" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A242" s="4" t="s">
         <v>259</v>
       </c>
@@ -11995,7 +12006,7 @@
       </c>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="1:9" ht="14.25" customHeight="1">
+    <row r="243" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>259</v>
       </c>
@@ -12022,7 +12033,7 @@
       </c>
       <c r="I243" s="4"/>
     </row>
-    <row r="244" spans="1:9" ht="14.25" customHeight="1">
+    <row r="244" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A244" s="4" t="s">
         <v>259</v>
       </c>
@@ -12049,7 +12060,7 @@
       </c>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="1:9" ht="14.25" customHeight="1">
+    <row r="245" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>259</v>
       </c>
@@ -12076,7 +12087,7 @@
       </c>
       <c r="I245" s="4"/>
     </row>
-    <row r="246" spans="1:9" ht="14.25" customHeight="1">
+    <row r="246" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A246" s="4" t="s">
         <v>259</v>
       </c>
@@ -12103,7 +12114,7 @@
       </c>
       <c r="I246" s="4"/>
     </row>
-    <row r="247" spans="1:9" ht="14.25" customHeight="1">
+    <row r="247" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A247" s="4" t="s">
         <v>259</v>
       </c>
@@ -12132,7 +12143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="14.25" customHeight="1">
+    <row r="248" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A248" s="4" t="s">
         <v>259</v>
       </c>
@@ -12161,7 +12172,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="14.25" customHeight="1">
+    <row r="249" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A249" s="4" t="s">
         <v>326</v>
       </c>
@@ -12188,7 +12199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="14.25" customHeight="1">
+    <row r="250" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>326</v>
       </c>
@@ -12217,7 +12228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="14.25" customHeight="1">
+    <row r="251" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A251" s="4" t="s">
         <v>326</v>
       </c>
@@ -12246,7 +12257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="14.25" customHeight="1">
+    <row r="252" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A252" s="4" t="s">
         <v>326</v>
       </c>
@@ -12275,7 +12286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="14.25" customHeight="1">
+    <row r="253" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A253" s="4" t="s">
         <v>326</v>
       </c>
@@ -12304,7 +12315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="14.25" customHeight="1">
+    <row r="254" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A254" s="4" t="s">
         <v>326</v>
       </c>
@@ -12333,7 +12344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="14.25" customHeight="1">
+    <row r="255" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A255" s="4" t="s">
         <v>326</v>
       </c>
@@ -12362,7 +12373,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="14.25" customHeight="1">
+    <row r="256" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A256" s="4" t="s">
         <v>326</v>
       </c>
@@ -12391,7 +12402,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="14.25" customHeight="1">
+    <row r="257" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A257" s="4" t="s">
         <v>326</v>
       </c>
@@ -12420,7 +12431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="14.25" customHeight="1">
+    <row r="258" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A258" s="4" t="s">
         <v>326</v>
       </c>
@@ -12449,7 +12460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="14.25" customHeight="1">
+    <row r="259" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A259" s="4" t="s">
         <v>326</v>
       </c>
@@ -12478,7 +12489,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="14.25" customHeight="1">
+    <row r="260" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A260" s="4" t="s">
         <v>326</v>
       </c>
@@ -12507,7 +12518,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="14.25" customHeight="1">
+    <row r="261" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A261" s="4" t="s">
         <v>326</v>
       </c>
@@ -12536,7 +12547,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="14.25" customHeight="1">
+    <row r="262" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A262" s="4" t="s">
         <v>326</v>
       </c>
@@ -12565,7 +12576,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="14.25" customHeight="1">
+    <row r="263" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A263" s="4" t="s">
         <v>326</v>
       </c>
@@ -12594,7 +12605,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="14.25" customHeight="1">
+    <row r="264" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A264" s="4" t="s">
         <v>326</v>
       </c>
@@ -12623,7 +12634,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="14.25" customHeight="1">
+    <row r="265" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A265" s="4" t="s">
         <v>326</v>
       </c>
@@ -12652,7 +12663,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="14.25" customHeight="1">
+    <row r="266" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A266" s="4" t="s">
         <v>326</v>
       </c>
@@ -12681,7 +12692,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="14.25" customHeight="1">
+    <row r="267" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A267" s="4" t="s">
         <v>326</v>
       </c>
@@ -12710,7 +12721,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="14.25" customHeight="1">
+    <row r="268" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A268" s="4" t="s">
         <v>326</v>
       </c>
@@ -12739,7 +12750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="14.25" customHeight="1">
+    <row r="269" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A269" s="4" t="s">
         <v>326</v>
       </c>
@@ -12768,7 +12779,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="14.25" customHeight="1">
+    <row r="270" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A270" s="4" t="s">
         <v>326</v>
       </c>
@@ -12797,7 +12808,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="14.25" customHeight="1">
+    <row r="271" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A271" s="4" t="s">
         <v>326</v>
       </c>
@@ -12826,7 +12837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="14.25" customHeight="1">
+    <row r="272" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A272" s="4" t="s">
         <v>326</v>
       </c>
@@ -12855,7 +12866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="14.25" customHeight="1">
+    <row r="273" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A273" s="4" t="s">
         <v>326</v>
       </c>
@@ -12884,7 +12895,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="14.25" customHeight="1">
+    <row r="274" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A274" s="4" t="s">
         <v>326</v>
       </c>
@@ -12913,7 +12924,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="14.25" customHeight="1">
+    <row r="275" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A275" s="4" t="s">
         <v>326</v>
       </c>
@@ -12942,7 +12953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:27" ht="14.25" customHeight="1">
+    <row r="276" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A276" s="4" t="s">
         <v>326</v>
       </c>
@@ -12971,7 +12982,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="14.25" customHeight="1">
+    <row r="277" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A277" s="4" t="s">
         <v>326</v>
       </c>
@@ -13000,7 +13011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="14.25" customHeight="1">
+    <row r="278" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A278" s="4" t="s">
         <v>326</v>
       </c>
@@ -13029,7 +13040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="14.25" customHeight="1">
+    <row r="279" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A279" s="4" t="s">
         <v>326</v>
       </c>
@@ -13058,7 +13069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="14.25" customHeight="1">
+    <row r="280" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A280" s="4" t="s">
         <v>326</v>
       </c>
@@ -13466,7 +13477,7 @@
       </c>
       <c r="K291" s="7"/>
     </row>
-    <row r="292" spans="1:11" ht="14.25" customHeight="1">
+    <row r="292" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A292" s="4" t="s">
         <v>326</v>
       </c>
@@ -13495,7 +13506,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="14.25" customHeight="1">
+    <row r="293" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A293" s="4" t="s">
         <v>326</v>
       </c>
@@ -13524,7 +13535,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="14.25" customHeight="1">
+    <row r="294" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A294" s="4" t="s">
         <v>326</v>
       </c>
@@ -13553,7 +13564,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="14.25" customHeight="1">
+    <row r="295" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A295" s="4" t="s">
         <v>326</v>
       </c>
@@ -13582,7 +13593,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="14.25" customHeight="1">
+    <row r="296" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A296" s="4" t="s">
         <v>326</v>
       </c>
@@ -13611,7 +13622,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="14.25" customHeight="1">
+    <row r="297" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A297" s="4" t="s">
         <v>326</v>
       </c>
@@ -13640,7 +13651,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="14.25" customHeight="1">
+    <row r="298" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A298" s="4" t="s">
         <v>326</v>
       </c>
@@ -13669,7 +13680,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="14.25" customHeight="1">
+    <row r="299" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A299" s="4" t="s">
         <v>326</v>
       </c>
@@ -13698,7 +13709,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="14.25" customHeight="1">
+    <row r="300" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A300" s="4" t="s">
         <v>326</v>
       </c>
@@ -13727,7 +13738,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="14.25" customHeight="1">
+    <row r="301" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A301" s="4" t="s">
         <v>326</v>
       </c>
@@ -13756,7 +13767,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="14.25" customHeight="1">
+    <row r="302" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A302" s="4" t="s">
         <v>326</v>
       </c>
@@ -13785,7 +13796,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="14.25" customHeight="1">
+    <row r="303" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A303" s="4" t="s">
         <v>326</v>
       </c>
@@ -13814,7 +13825,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="14.25" customHeight="1">
+    <row r="304" spans="1:11" ht="14.25" hidden="1" customHeight="1">
       <c r="A304" s="4" t="s">
         <v>326</v>
       </c>
@@ -13843,7 +13854,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="14.25" customHeight="1">
+    <row r="305" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A305" s="4" t="s">
         <v>326</v>
       </c>
@@ -13872,7 +13883,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="14.25" customHeight="1">
+    <row r="306" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A306" s="4" t="s">
         <v>326</v>
       </c>
@@ -14133,7 +14144,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="14.25" customHeight="1">
+    <row r="315" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A315" s="4" t="s">
         <v>326</v>
       </c>
@@ -14162,7 +14173,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="14.25" customHeight="1">
+    <row r="316" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A316" s="4" t="s">
         <v>326</v>
       </c>
@@ -14191,7 +14202,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="14.25" customHeight="1">
+    <row r="317" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A317" s="4" t="s">
         <v>326</v>
       </c>
@@ -14220,7 +14231,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="14.25" customHeight="1">
+    <row r="318" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A318" s="4" t="s">
         <v>326</v>
       </c>
@@ -14245,7 +14256,7 @@
       </c>
       <c r="I318" s="4"/>
     </row>
-    <row r="319" spans="1:9" ht="14.25" customHeight="1">
+    <row r="319" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A319" s="4" t="s">
         <v>326</v>
       </c>
@@ -14270,7 +14281,7 @@
       </c>
       <c r="I319" s="4"/>
     </row>
-    <row r="320" spans="1:9" ht="14.25" customHeight="1">
+    <row r="320" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A320" s="4" t="s">
         <v>326</v>
       </c>
@@ -14295,7 +14306,7 @@
       </c>
       <c r="I320" s="4"/>
     </row>
-    <row r="321" spans="1:9" ht="14.25" customHeight="1">
+    <row r="321" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A321" s="4" t="s">
         <v>326</v>
       </c>
@@ -14320,7 +14331,7 @@
       </c>
       <c r="I321" s="4"/>
     </row>
-    <row r="322" spans="1:9" ht="14.25" customHeight="1">
+    <row r="322" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A322" s="4" t="s">
         <v>326</v>
       </c>
@@ -14345,7 +14356,7 @@
       </c>
       <c r="I322" s="4"/>
     </row>
-    <row r="323" spans="1:9" ht="14.25" customHeight="1">
+    <row r="323" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A323" s="4" t="s">
         <v>326</v>
       </c>
@@ -15386,7 +15397,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="362" spans="1:9" ht="14.25" customHeight="1">
       <c r="A362" s="4" t="s">
         <v>398</v>
       </c>
@@ -15413,7 +15424,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="363" spans="1:9" ht="14.25" customHeight="1">
       <c r="A363" s="4" t="s">
         <v>398</v>
       </c>
@@ -15600,7 +15611,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="370" spans="1:9" ht="14.25" customHeight="1">
       <c r="A370" s="4" t="s">
         <v>398</v>
       </c>
@@ -16658,7 +16669,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="410" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="410" spans="1:27" ht="14.25" customHeight="1">
       <c r="A410" s="4" t="s">
         <v>444</v>
       </c>
@@ -16703,7 +16714,7 @@
       <c r="Z410" s="7"/>
       <c r="AA410" s="7"/>
     </row>
-    <row r="411" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="411" spans="1:27" ht="14.25" customHeight="1">
       <c r="A411" s="4" t="s">
         <v>444</v>
       </c>
@@ -17027,7 +17038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="423" spans="1:9" ht="14.25" customHeight="1">
       <c r="A423" s="4" t="s">
         <v>444</v>
       </c>
@@ -17054,7 +17065,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="424" spans="1:9" ht="14.25" customHeight="1">
       <c r="A424" s="4" t="s">
         <v>444</v>
       </c>
@@ -17081,7 +17092,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="425" spans="1:9" ht="14.25" customHeight="1">
       <c r="A425" s="4" t="s">
         <v>444</v>
       </c>
@@ -17108,7 +17119,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="426" spans="1:9" ht="14.25" customHeight="1">
       <c r="A426" s="4" t="s">
         <v>444</v>
       </c>
@@ -18562,7 +18573,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="480" spans="1:9" ht="14.25" customHeight="1">
       <c r="A480" s="4" t="s">
         <v>505</v>
       </c>
@@ -18589,7 +18600,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="481" spans="1:10" ht="14.25" customHeight="1">
       <c r="A481" s="4" t="s">
         <v>505</v>
       </c>
@@ -18616,7 +18627,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="482" spans="1:10" ht="14.25" customHeight="1">
       <c r="A482" s="4" t="s">
         <v>505</v>
       </c>
@@ -18641,7 +18652,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="483" spans="1:10" ht="14.25" customHeight="1">
       <c r="A483" s="4" t="s">
         <v>505</v>
       </c>
@@ -18666,7 +18677,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="484" spans="1:10" ht="14.25" customHeight="1">
       <c r="A484" s="4" t="s">
         <v>505</v>
       </c>
@@ -18693,7 +18704,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="485" spans="1:10" ht="14.25" customHeight="1">
       <c r="A485" s="4" t="s">
         <v>505</v>
       </c>
@@ -18720,7 +18731,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="486" spans="1:10" ht="14.25" customHeight="1">
       <c r="A486" s="4" t="s">
         <v>505</v>
       </c>
@@ -18747,7 +18758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="487" spans="1:10" ht="14.25" customHeight="1">
       <c r="A487" s="4" t="s">
         <v>505</v>
       </c>
@@ -20243,7 +20254,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="542" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="542" spans="1:10" ht="14.25" customHeight="1">
       <c r="A542" s="4" t="s">
         <v>597</v>
       </c>
@@ -20270,7 +20281,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="543" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="543" spans="1:10" ht="14.25" customHeight="1">
       <c r="A543" s="4" t="s">
         <v>597</v>
       </c>
@@ -20297,7 +20308,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="544" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="544" spans="1:10" ht="14.25" customHeight="1">
       <c r="A544" s="4" t="s">
         <v>597</v>
       </c>
@@ -20325,7 +20336,7 @@
       </c>
       <c r="J544" s="4"/>
     </row>
-    <row r="545" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="545" spans="1:10" ht="14.25" customHeight="1">
       <c r="A545" s="4" t="s">
         <v>597</v>
       </c>
@@ -20353,7 +20364,7 @@
       </c>
       <c r="J545" s="4"/>
     </row>
-    <row r="546" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="546" spans="1:10" ht="14.25" customHeight="1">
       <c r="A546" s="4" t="s">
         <v>597</v>
       </c>
@@ -20381,7 +20392,7 @@
       </c>
       <c r="J546" s="4"/>
     </row>
-    <row r="547" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="547" spans="1:10" ht="14.25" customHeight="1">
       <c r="A547" s="4" t="s">
         <v>597</v>
       </c>
@@ -22026,7 +22037,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="609" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="609" spans="1:10" ht="14.25" customHeight="1">
       <c r="A609" s="4" t="s">
         <v>663</v>
       </c>
@@ -22051,7 +22062,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="610" spans="1:10" ht="14.25" customHeight="1">
       <c r="A610" s="4" t="s">
         <v>663</v>
       </c>
@@ -22079,7 +22090,7 @@
       </c>
       <c r="J610" s="4"/>
     </row>
-    <row r="611" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="611" spans="1:10" ht="14.25" customHeight="1">
       <c r="A611" s="4" t="s">
         <v>663</v>
       </c>
@@ -22107,7 +22118,7 @@
       </c>
       <c r="J611" s="4"/>
     </row>
-    <row r="612" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="612" spans="1:10" ht="14.25" customHeight="1">
       <c r="A612" s="4" t="s">
         <v>663</v>
       </c>
@@ -22134,7 +22145,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="613" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="613" spans="1:10" ht="14.25" customHeight="1">
       <c r="A613" s="4" t="s">
         <v>663</v>
       </c>
@@ -23283,7 +23294,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="656" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="656" spans="1:9" ht="14.25" customHeight="1">
       <c r="A656" s="4" t="s">
         <v>716</v>
       </c>
@@ -23310,7 +23321,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="657" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="657" spans="1:9" ht="14.25" customHeight="1">
       <c r="A657" s="4" t="s">
         <v>716</v>
       </c>
@@ -23337,7 +23348,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="658" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="658" spans="1:9" ht="14.25" customHeight="1">
       <c r="A658" s="4" t="s">
         <v>716</v>
       </c>
@@ -23364,7 +23375,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="659" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="659" spans="1:9" ht="14.25" customHeight="1">
       <c r="A659" s="4" t="s">
         <v>716</v>
       </c>
@@ -23391,7 +23402,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="660" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="660" spans="1:9" ht="14.25" customHeight="1">
       <c r="A660" s="4" t="s">
         <v>716</v>
       </c>
@@ -23418,7 +23429,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="661" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="661" spans="1:9" ht="14.25" customHeight="1">
       <c r="A661" s="4" t="s">
         <v>716</v>
       </c>
@@ -23445,7 +23456,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="662" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="662" spans="1:9" ht="14.25" customHeight="1">
       <c r="A662" s="4" t="s">
         <v>716</v>
       </c>
@@ -23472,7 +23483,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="663" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="663" spans="1:9" ht="14.25" customHeight="1">
       <c r="A663" s="4" t="s">
         <v>716</v>
       </c>
@@ -23499,7 +23510,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="664" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="664" spans="1:9" ht="14.25" customHeight="1">
       <c r="A664" s="4" t="s">
         <v>716</v>
       </c>
@@ -23526,7 +23537,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="665" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="665" spans="1:9" ht="14.25" customHeight="1">
       <c r="A665" s="4" t="s">
         <v>716</v>
       </c>
@@ -23553,7 +23564,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="666" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="666" spans="1:9" ht="14.25" customHeight="1">
       <c r="A666" s="4" t="s">
         <v>716</v>
       </c>
@@ -23580,7 +23591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="667" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="667" spans="1:9" ht="14.25" customHeight="1">
       <c r="A667" s="4" t="s">
         <v>716</v>
       </c>
@@ -23607,7 +23618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="668" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="668" spans="1:9" ht="14.25" customHeight="1">
       <c r="A668" s="4" t="s">
         <v>716</v>
       </c>
@@ -23634,7 +23645,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="669" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="669" spans="1:9" ht="14.25" customHeight="1">
       <c r="A669" s="4" t="s">
         <v>716</v>
       </c>
@@ -23661,7 +23672,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="670" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="670" spans="1:9" ht="14.25" customHeight="1">
       <c r="A670" s="4" t="s">
         <v>716</v>
       </c>
@@ -23688,7 +23699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="671" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="671" spans="1:9" ht="14.25" customHeight="1">
       <c r="A671" s="4" t="s">
         <v>716</v>
       </c>
@@ -25221,7 +25232,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="728" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="728" spans="1:9" ht="15" customHeight="1">
       <c r="A728" s="4" t="s">
         <v>773</v>
       </c>
@@ -25248,7 +25259,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="729" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="729" spans="1:9" ht="15" customHeight="1">
       <c r="A729" s="4" t="s">
         <v>773</v>
       </c>
@@ -25275,7 +25286,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="730" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="730" spans="1:9" ht="15" customHeight="1">
       <c r="A730" s="4" t="s">
         <v>773</v>
       </c>
@@ -25302,7 +25313,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="731" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="731" spans="1:9" ht="15" customHeight="1">
       <c r="A731" s="4" t="s">
         <v>773</v>
       </c>
@@ -25329,7 +25340,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="732" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="732" spans="1:9" ht="15" customHeight="1">
       <c r="A732" s="4" t="s">
         <v>773</v>
       </c>
@@ -25356,7 +25367,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="733" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="733" spans="1:9" ht="15" customHeight="1">
       <c r="A733" s="4" t="s">
         <v>773</v>
       </c>
@@ -25383,7 +25394,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="734" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="734" spans="1:9" ht="15" customHeight="1">
       <c r="A734" s="4" t="s">
         <v>773</v>
       </c>
@@ -25410,7 +25421,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="735" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="735" spans="1:9" ht="15" customHeight="1">
       <c r="A735" s="4" t="s">
         <v>773</v>
       </c>
@@ -25437,7 +25448,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="736" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="736" spans="1:9" ht="15" customHeight="1">
       <c r="A736" s="4" t="s">
         <v>773</v>
       </c>
@@ -25464,7 +25475,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="737" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="737" spans="1:9" ht="15" customHeight="1">
       <c r="A737" s="4" t="s">
         <v>773</v>
       </c>
@@ -25491,7 +25502,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="738" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="738" spans="1:9" ht="15" customHeight="1">
       <c r="A738" s="4" t="s">
         <v>773</v>
       </c>
@@ -25518,7 +25529,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="739" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="739" spans="1:9" ht="14.25" customHeight="1">
       <c r="A739" s="4" t="s">
         <v>773</v>
       </c>
@@ -27200,7 +27211,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="802" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="802" spans="1:9" ht="14.25" customHeight="1">
       <c r="A802" s="4" t="s">
         <v>827</v>
       </c>
@@ -27227,7 +27238,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="803" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="803" spans="1:9" ht="14.25" customHeight="1">
       <c r="A803" s="4" t="s">
         <v>827</v>
       </c>
@@ -27254,7 +27265,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="804" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="804" spans="1:9" ht="14.25" customHeight="1">
       <c r="A804" s="4" t="s">
         <v>827</v>
       </c>
@@ -27281,7 +27292,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="805" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="805" spans="1:9" ht="14.25" customHeight="1">
       <c r="A805" s="4" t="s">
         <v>827</v>
       </c>
@@ -27308,7 +27319,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="806" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="806" spans="1:9" ht="14.25" customHeight="1">
       <c r="A806" s="4" t="s">
         <v>827</v>
       </c>
@@ -27335,7 +27346,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="807" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="807" spans="1:9" ht="14.25" customHeight="1">
       <c r="A807" s="4" t="s">
         <v>827</v>
       </c>
@@ -27362,7 +27373,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="808" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="808" spans="1:9" ht="14.25" customHeight="1">
       <c r="A808" s="4" t="s">
         <v>827</v>
       </c>
@@ -27389,7 +27400,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="809" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="809" spans="1:9" ht="14.25" customHeight="1">
       <c r="A809" s="4" t="s">
         <v>827</v>
       </c>
@@ -27416,7 +27427,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="810" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="810" spans="1:9" ht="14.25" customHeight="1">
       <c r="A810" s="4" t="s">
         <v>827</v>
       </c>
@@ -27443,7 +27454,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="811" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="811" spans="1:9" ht="14.25" customHeight="1">
       <c r="A811" s="4" t="s">
         <v>827</v>
       </c>
@@ -27470,7 +27481,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="812" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="812" spans="1:9" ht="14.25" customHeight="1">
       <c r="A812" s="4" t="s">
         <v>827</v>
       </c>
@@ -27497,7 +27508,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="813" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="813" spans="1:9" ht="14.25" customHeight="1">
       <c r="A813" s="4" t="s">
         <v>827</v>
       </c>
@@ -27524,7 +27535,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="814" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="814" spans="1:9" ht="14.25" customHeight="1">
       <c r="A814" s="4" t="s">
         <v>827</v>
       </c>
@@ -27551,7 +27562,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="815" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="815" spans="1:9" ht="14.25" customHeight="1">
       <c r="A815" s="4" t="s">
         <v>827</v>
       </c>
@@ -27578,7 +27589,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="816" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="816" spans="1:9" ht="14.25" customHeight="1">
       <c r="A816" s="4" t="s">
         <v>827</v>
       </c>
@@ -27605,7 +27616,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="817" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="817" spans="1:9" ht="14.25" customHeight="1">
       <c r="A817" s="4" t="s">
         <v>827</v>
       </c>
@@ -27632,7 +27643,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="818" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="818" spans="1:9" ht="14.25" customHeight="1">
       <c r="A818" s="4" t="s">
         <v>827</v>
       </c>
@@ -27659,7 +27670,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="819" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="819" spans="1:9" ht="14.25" customHeight="1">
       <c r="A819" s="4" t="s">
         <v>827</v>
       </c>
@@ -27686,7 +27697,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="820" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="820" spans="1:9" ht="14.25" customHeight="1">
       <c r="A820" s="4" t="s">
         <v>827</v>
       </c>
@@ -27713,7 +27724,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="821" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="821" spans="1:9" ht="14.25" customHeight="1">
       <c r="A821" s="4" t="s">
         <v>827</v>
       </c>
@@ -27740,7 +27751,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="822" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="822" spans="1:9" ht="14.25" customHeight="1">
       <c r="A822" s="4" t="s">
         <v>827</v>
       </c>
@@ -29337,7 +29348,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="883" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="883" spans="1:9" ht="14.25" customHeight="1">
       <c r="A883" s="12" t="s">
         <v>920</v>
       </c>
@@ -29364,7 +29375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="884" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="884" spans="1:9" ht="14.25" customHeight="1">
       <c r="A884" s="12" t="s">
         <v>920</v>
       </c>
@@ -29391,7 +29402,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="885" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="885" spans="1:9" ht="14.25" customHeight="1">
       <c r="A885" s="12" t="s">
         <v>920</v>
       </c>
@@ -29418,7 +29429,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="886" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="886" spans="1:9" ht="14.25" customHeight="1">
       <c r="A886" s="12" t="s">
         <v>920</v>
       </c>
@@ -29712,7 +29723,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="897" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="897" spans="1:9" ht="14.25" customHeight="1">
       <c r="A897" s="12" t="s">
         <v>920</v>
       </c>
@@ -31217,7 +31228,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="953" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="953" spans="1:8" ht="14.25" customHeight="1">
       <c r="A953" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31243,7 +31254,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="954" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="954" spans="1:8" ht="14.25" customHeight="1">
       <c r="A954" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31269,7 +31280,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="955" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="955" spans="1:8" ht="14.25" customHeight="1">
       <c r="A955" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31295,7 +31306,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="956" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="956" spans="1:8" ht="14.25" customHeight="1">
       <c r="A956" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31321,7 +31332,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="957" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="957" spans="1:8" ht="14.25" customHeight="1">
       <c r="A957" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31347,7 +31358,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="958" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="958" spans="1:8" ht="14.25" customHeight="1">
       <c r="A958" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31373,7 +31384,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="959" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="959" spans="1:8" ht="14.25" customHeight="1">
       <c r="A959" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31399,7 +31410,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="960" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="960" spans="1:8" ht="14.25" customHeight="1">
       <c r="A960" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31425,7 +31436,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="961" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="961" spans="1:8" ht="14.25" customHeight="1">
       <c r="A961" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31451,7 +31462,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="962" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="962" spans="1:8" ht="14.25" customHeight="1">
       <c r="A962" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31477,7 +31488,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="963" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="963" spans="1:8" ht="14.25" customHeight="1">
       <c r="A963" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31841,67 +31852,177 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="977" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D977" s="5"/>
-      <c r="F977" s="5"/>
-    </row>
-    <row r="978" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D978" s="5"/>
-      <c r="F978" s="5"/>
-    </row>
-    <row r="979" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D979" s="5"/>
-      <c r="F979" s="5"/>
-    </row>
-    <row r="980" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D980" s="5"/>
-      <c r="F980" s="5"/>
-    </row>
-    <row r="981" spans="4:6" ht="14.25" customHeight="1">
-      <c r="D981" s="5"/>
-      <c r="F981" s="5"/>
-    </row>
-    <row r="982" spans="4:6" ht="14.25" customHeight="1">
+    <row r="977" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A977" s="34" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B977" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C977" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D977" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E977" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F977" s="5">
+        <v>1</v>
+      </c>
+      <c r="G977" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H977" s="4" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A978" s="34" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B978" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C978" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D978" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E978" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F978" s="5">
+        <v>2</v>
+      </c>
+      <c r="G978" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H978" s="4" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A979" s="34" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B979" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C979" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D979" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E979" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F979" s="5">
+        <v>3</v>
+      </c>
+      <c r="G979" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H979" s="4" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A980" s="34" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B980" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C980" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D980" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E980" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F980" s="5">
+        <v>4</v>
+      </c>
+      <c r="G980" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H980" s="4" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A981" s="34" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B981" s="12">
+        <v>2018</v>
+      </c>
+      <c r="C981" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D981" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E981" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F981" s="12">
+        <v>5</v>
+      </c>
+      <c r="G981" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H981" s="4" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8" ht="14.25" customHeight="1">
       <c r="D982" s="5"/>
       <c r="F982" s="5"/>
     </row>
-    <row r="983" spans="4:6" ht="14.25" customHeight="1">
+    <row r="983" spans="1:8" ht="14.25" customHeight="1">
       <c r="D983" s="5"/>
       <c r="F983" s="5"/>
     </row>
-    <row r="984" spans="4:6" ht="14.25" customHeight="1">
+    <row r="984" spans="1:8" ht="14.25" customHeight="1">
       <c r="D984" s="5"/>
       <c r="F984" s="5"/>
     </row>
-    <row r="985" spans="4:6" ht="14.25" customHeight="1">
+    <row r="985" spans="1:8" ht="14.25" customHeight="1">
       <c r="D985" s="5"/>
       <c r="F985" s="5"/>
     </row>
-    <row r="986" spans="4:6" ht="14.25" customHeight="1">
+    <row r="986" spans="1:8" ht="14.25" customHeight="1">
       <c r="D986" s="5"/>
       <c r="F986" s="5"/>
     </row>
-    <row r="987" spans="4:6" ht="14.25" customHeight="1">
+    <row r="987" spans="1:8" ht="14.25" customHeight="1">
       <c r="D987" s="5"/>
       <c r="F987" s="5"/>
     </row>
-    <row r="988" spans="4:6" ht="14.25" customHeight="1">
+    <row r="988" spans="1:8" ht="14.25" customHeight="1">
       <c r="D988" s="5"/>
       <c r="F988" s="5"/>
     </row>
-    <row r="989" spans="4:6" ht="14.25" customHeight="1">
+    <row r="989" spans="1:8" ht="14.25" customHeight="1">
       <c r="D989" s="5"/>
       <c r="F989" s="5"/>
     </row>
-    <row r="990" spans="4:6" ht="14.25" customHeight="1">
+    <row r="990" spans="1:8" ht="14.25" customHeight="1">
       <c r="D990" s="5"/>
       <c r="F990" s="5"/>
     </row>
-    <row r="991" spans="4:6" ht="14.25" customHeight="1">
+    <row r="991" spans="1:8" ht="14.25" customHeight="1">
       <c r="D991" s="5"/>
       <c r="F991" s="5"/>
     </row>
-    <row r="992" spans="4:6" ht="14.25" customHeight="1">
+    <row r="992" spans="1:8" ht="14.25" customHeight="1">
       <c r="D992" s="5"/>
       <c r="F992" s="5"/>
     </row>
@@ -32198,11 +32319,12 @@
       <c r="F1065" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J976" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:J981" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="7">
       <filters>
-        <filter val="El Salvador"/>
-        <filter val="Guatemala"/>
+        <filter val="PRECAREG"/>
+        <filter val="PRECASEG"/>
+        <filter val="PRECATEMP"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -34731,7 +34853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Guido\Trabajo\Economia\Tematicas de Investigacion\Precariedad Mundial\precariedad.mundial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD69C80-DDE0-4EF9-85A4-21EE63A39663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF4D5D7-4375-4B87-8CF1-03D5DB989826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="Procedimiento" sheetId="2" r:id="rId2"/>
-    <sheet name="Ocupaciones Clasificadores" sheetId="3" r:id="rId3"/>
-    <sheet name="Ingresos" sheetId="4" r:id="rId4"/>
-    <sheet name="Periodicidad Encuestas" sheetId="5" r:id="rId5"/>
-    <sheet name="Tabla artículo" sheetId="6" r:id="rId6"/>
-    <sheet name="Links" sheetId="7" r:id="rId7"/>
+    <sheet name="Diccionario" sheetId="8" r:id="rId2"/>
+    <sheet name="Procedimiento" sheetId="2" r:id="rId3"/>
+    <sheet name="Ocupaciones Clasificadores" sheetId="3" r:id="rId4"/>
+    <sheet name="Ingresos" sheetId="4" r:id="rId5"/>
+    <sheet name="Periodicidad Encuestas" sheetId="5" r:id="rId6"/>
+    <sheet name="Tabla artículo" sheetId="6" r:id="rId7"/>
+    <sheet name="Links" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Ingresos!$A$1:$G$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Links!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Ingresos!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Links!$A$1:$E$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metadata!$A$1:$J$981</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7196" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7358" uniqueCount="1416">
   <si>
     <t>Pais</t>
   </si>
@@ -4239,6 +4240,144 @@
   </si>
   <si>
     <t xml:space="preserve">Superior o universitaria </t>
+  </si>
+  <si>
+    <t>PAIS</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>PERIODO</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>País al que corresponde el registro</t>
+  </si>
+  <si>
+    <t>Precariedad por trabajo part-time involuntario.</t>
+  </si>
+  <si>
+    <t>Precariedad por no registro de la relación laboral.</t>
+  </si>
+  <si>
+    <t>Precariedad por trabajo temporario.</t>
+  </si>
+  <si>
+    <t>Precariedad por falta de cobertura de salud.</t>
+  </si>
+  <si>
+    <t>Precariedad por falta de aportes a la seguridad social.</t>
+  </si>
+  <si>
+    <t>Tamaño del establecimiento.</t>
+  </si>
+  <si>
+    <t>Calificación del puesto.</t>
+  </si>
+  <si>
+    <t>valores</t>
+  </si>
+  <si>
+    <t>referencia</t>
+  </si>
+  <si>
+    <t>Publico</t>
+  </si>
+  <si>
+    <t>Momento del año al cual corresponde el caso: trimestre, mes o año según disponibilidad de información</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>Código iso en clasificación…</t>
+  </si>
+  <si>
+    <t>Servicio Doméstico</t>
+  </si>
+  <si>
+    <t>Primario</t>
+  </si>
+  <si>
+    <t>Secundario</t>
+  </si>
+  <si>
+    <t>Terciario</t>
+  </si>
+  <si>
+    <t>cescripcion</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Máximo nivel educativo terminado</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Ingreso de la ocupación principal en moneda local</t>
+  </si>
+  <si>
+    <t>Ingreso de la ocupación principal en moneda de paridad de poder adquisitivo del año de la encuesta</t>
+  </si>
+  <si>
+    <t>Establecimientos de menos de 10 personas</t>
+  </si>
+  <si>
+    <t>Establecimientos de 10 a 49 personas</t>
+  </si>
+  <si>
+    <t>Establecimientos de 50 o más personas</t>
+  </si>
+  <si>
+    <t>Major Groups 1 a 3 del CIUO-08</t>
+  </si>
+  <si>
+    <t>Major Group 9 del CIUO-08</t>
+  </si>
+  <si>
+    <t>Major Groups 4 a 8 del CIUO-08</t>
+  </si>
+  <si>
+    <t>Año de referencia de la encuesta</t>
+  </si>
+  <si>
+    <t>ING_PPA</t>
+  </si>
+  <si>
+    <t>Ponderador del registro individual</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Edad en años cumplidos</t>
+  </si>
+  <si>
+    <t>Categoria ocupacional</t>
+  </si>
+  <si>
+    <t>Patron</t>
+  </si>
+  <si>
+    <t>Asalariado</t>
+  </si>
+  <si>
+    <t>WEIGHT_W</t>
+  </si>
+  <si>
+    <t>Ponderador para estimaciones asociadas al salario (Argentina)</t>
   </si>
 </sst>
 </file>
@@ -4691,7 +4830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4899,6 +5038,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5114,11 +5266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA1065"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H362" sqref="H362"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="A1 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5164,7 +5315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" hidden="1" customHeight="1" thickTop="1">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -5191,7 +5342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -5216,7 +5367,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -5241,7 +5392,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5266,7 +5417,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -5291,7 +5442,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -5316,7 +5467,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5343,7 +5494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="9" spans="1:9" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -5370,7 +5521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="10" spans="1:9" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -5397,7 +5548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="11" spans="1:9" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5424,7 +5575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="12" spans="1:9" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -5451,7 +5602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:9" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -5478,7 +5629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="14" spans="1:9" ht="14.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5505,7 +5656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="15" spans="1:9" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -5532,7 +5683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="16" spans="1:9" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -5559,7 +5710,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="17" spans="1:9" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5586,7 +5737,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="18" spans="1:9" ht="14.25" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
@@ -5613,7 +5764,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="19" spans="1:9" ht="14.25" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -5640,7 +5791,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="20" spans="1:9" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -5667,7 +5818,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="21" spans="1:9" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
@@ -5694,7 +5845,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -5721,7 +5872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="23" spans="1:9" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -5748,7 +5899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="24" spans="1:9" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -5775,7 +5926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
@@ -5802,7 +5953,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
@@ -5829,7 +5980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="27" spans="1:9" ht="14.25" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
@@ -5856,7 +6007,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="28" spans="1:9" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
@@ -5883,7 +6034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="29" spans="1:9" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -5910,7 +6061,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="30" spans="1:9" ht="14.25" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
@@ -5937,7 +6088,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="31" spans="1:9" ht="14.25" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -5964,7 +6115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="32" spans="1:9" ht="14.25" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
@@ -5991,7 +6142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="33" spans="1:27" ht="14.25" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
@@ -6018,7 +6169,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="34" spans="1:27" ht="14.25" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
@@ -6045,7 +6196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="35" spans="1:27" ht="14.25" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
@@ -6072,7 +6223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="36" spans="1:27" ht="14.25" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
@@ -6100,7 +6251,7 @@
       </c>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="37" spans="1:27" ht="14.25" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
@@ -6128,7 +6279,7 @@
       </c>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="38" spans="1:27" ht="14.25" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
@@ -6173,7 +6324,7 @@
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
     </row>
-    <row r="39" spans="1:27" ht="14.25" customHeight="1" thickTop="1">
+    <row r="39" spans="1:27" ht="14.25" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>9</v>
       </c>
@@ -6381,7 +6532,7 @@
       </c>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="44" spans="1:27" ht="14.25" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>9</v>
       </c>
@@ -6408,7 +6559,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="45" spans="1:27" ht="14.25" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>9</v>
       </c>
@@ -6435,7 +6586,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="46" spans="1:27" ht="14.25" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
@@ -6462,7 +6613,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="47" spans="1:27" ht="14.25" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
@@ -6489,7 +6640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="18" hidden="1" customHeight="1">
+    <row r="48" spans="1:27" ht="18" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
@@ -6516,7 +6667,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18" hidden="1" customHeight="1">
+    <row r="49" spans="1:9" ht="18" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -6543,7 +6694,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18" hidden="1" customHeight="1">
+    <row r="50" spans="1:9" ht="18" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>9</v>
       </c>
@@ -6570,7 +6721,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18" hidden="1" customHeight="1">
+    <row r="51" spans="1:9" ht="18" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>9</v>
       </c>
@@ -6759,7 +6910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="58" spans="1:9" ht="14.25" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>110</v>
       </c>
@@ -6786,7 +6937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="59" spans="1:9" ht="14.25" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>110</v>
       </c>
@@ -6813,7 +6964,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="60" spans="1:9" ht="14.25" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>110</v>
       </c>
@@ -6840,7 +6991,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="61" spans="1:9" ht="14.25" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>110</v>
       </c>
@@ -6867,7 +7018,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="62" spans="1:9" ht="14.25" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>110</v>
       </c>
@@ -6894,7 +7045,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="63" spans="1:9" ht="14.25" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>110</v>
       </c>
@@ -6921,7 +7072,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="64" spans="1:9" ht="14.25" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>110</v>
       </c>
@@ -6948,7 +7099,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="65" spans="1:9" ht="14.25" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>110</v>
       </c>
@@ -6975,7 +7126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="66" spans="1:9" ht="14.25" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>110</v>
       </c>
@@ -7002,7 +7153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="67" spans="1:9" ht="14.25" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>110</v>
       </c>
@@ -7025,7 +7176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="68" spans="1:9" ht="14.25" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>110</v>
       </c>
@@ -7048,7 +7199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="69" spans="1:9" ht="14.25" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>110</v>
       </c>
@@ -7071,7 +7222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="70" spans="1:9" ht="14.25" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>110</v>
       </c>
@@ -7094,7 +7245,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="71" spans="1:9" ht="14.25" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>110</v>
       </c>
@@ -7121,7 +7272,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="72" spans="1:9" ht="14.25" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>110</v>
       </c>
@@ -7148,7 +7299,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="73" spans="1:9" ht="14.25" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>110</v>
       </c>
@@ -7175,7 +7326,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="74" spans="1:9" ht="14.25" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>110</v>
       </c>
@@ -7202,7 +7353,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="75" spans="1:9" ht="14.25" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>110</v>
       </c>
@@ -7229,7 +7380,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="76" spans="1:9" ht="14.25" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>110</v>
       </c>
@@ -7256,7 +7407,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="77" spans="1:9" ht="14.25" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>110</v>
       </c>
@@ -7283,7 +7434,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="78" spans="1:9" ht="14.25" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>110</v>
       </c>
@@ -7310,7 +7461,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="79" spans="1:9" ht="14.25" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>110</v>
       </c>
@@ -7337,7 +7488,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="80" spans="1:9" ht="14.25" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>110</v>
       </c>
@@ -7364,7 +7515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="81" spans="1:9" ht="14.25" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>110</v>
       </c>
@@ -7391,7 +7542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="82" spans="1:9" ht="14.25" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>110</v>
       </c>
@@ -7418,7 +7569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="83" spans="1:9" ht="14.25" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>110</v>
       </c>
@@ -7445,7 +7596,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="84" spans="1:9" ht="14.25" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>110</v>
       </c>
@@ -7472,7 +7623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="85" spans="1:9" ht="14.25" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>110</v>
       </c>
@@ -7499,7 +7650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="86" spans="1:9" ht="14.25" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>110</v>
       </c>
@@ -7526,7 +7677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="87" spans="1:9" ht="14.25" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>110</v>
       </c>
@@ -7553,7 +7704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="88" spans="1:9" ht="14.25" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>110</v>
       </c>
@@ -7580,7 +7731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="89" spans="1:9" ht="14.25" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>110</v>
       </c>
@@ -7607,7 +7758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="90" spans="1:9" ht="14.25" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>110</v>
       </c>
@@ -7634,7 +7785,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="91" spans="1:9" ht="14.25" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>110</v>
       </c>
@@ -7661,7 +7812,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="92" spans="1:9" ht="14.25" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>110</v>
       </c>
@@ -7688,7 +7839,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="93" spans="1:9" ht="14.25" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>110</v>
       </c>
@@ -7715,7 +7866,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="94" spans="1:9" ht="14.25" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>110</v>
       </c>
@@ -7742,7 +7893,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="95" spans="1:9" ht="14.25" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>110</v>
       </c>
@@ -7769,7 +7920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="96" spans="1:9" ht="14.25" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>110</v>
       </c>
@@ -7796,7 +7947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="97" spans="1:11" ht="14.25" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>110</v>
       </c>
@@ -7823,7 +7974,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="98" spans="1:11" ht="14.25" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>110</v>
       </c>
@@ -7985,7 +8136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="104" spans="1:11" ht="14.25" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>110</v>
       </c>
@@ -8012,7 +8163,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="105" spans="1:11" ht="14.25" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>110</v>
       </c>
@@ -8095,7 +8246,7 @@
       </c>
       <c r="K107" s="7"/>
     </row>
-    <row r="108" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="108" spans="1:11" ht="14.25" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>110</v>
       </c>
@@ -8122,7 +8273,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="109" spans="1:11" ht="14.25" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>110</v>
       </c>
@@ -8149,7 +8300,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="110" spans="1:11" ht="14.25" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>110</v>
       </c>
@@ -8176,7 +8327,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="111" spans="1:11" ht="14.25" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>110</v>
       </c>
@@ -8203,7 +8354,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="112" spans="1:11" ht="14.25" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>110</v>
       </c>
@@ -8230,7 +8381,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="113" spans="1:9" ht="14.25" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>110</v>
       </c>
@@ -8257,7 +8408,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="114" spans="1:9" ht="14.25" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>110</v>
       </c>
@@ -8284,7 +8435,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="115" spans="1:9" ht="14.25" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>110</v>
       </c>
@@ -8392,7 +8543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="119" spans="1:9" ht="14.25" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>110</v>
       </c>
@@ -8417,7 +8568,7 @@
       </c>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="120" spans="1:9" ht="14.25" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>110</v>
       </c>
@@ -8442,7 +8593,7 @@
       </c>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="121" spans="1:9" ht="14.25" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>110</v>
       </c>
@@ -8467,7 +8618,7 @@
       </c>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="122" spans="1:9" ht="14.25" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>110</v>
       </c>
@@ -8492,7 +8643,7 @@
       </c>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="123" spans="1:9" ht="14.25" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>110</v>
       </c>
@@ -8517,7 +8668,7 @@
       </c>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="124" spans="1:9" ht="14.25" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>110</v>
       </c>
@@ -8542,7 +8693,7 @@
       </c>
       <c r="I124" s="4"/>
     </row>
-    <row r="125" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="125" spans="1:9" ht="14.25" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>110</v>
       </c>
@@ -8567,7 +8718,7 @@
       </c>
       <c r="I125" s="4"/>
     </row>
-    <row r="126" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="126" spans="1:9" ht="14.25" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>110</v>
       </c>
@@ -8592,7 +8743,7 @@
       </c>
       <c r="I126" s="4"/>
     </row>
-    <row r="127" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="127" spans="1:9" ht="14.25" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>110</v>
       </c>
@@ -8617,7 +8768,7 @@
       </c>
       <c r="I127" s="4"/>
     </row>
-    <row r="128" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="128" spans="1:9" ht="14.25" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>110</v>
       </c>
@@ -8642,7 +8793,7 @@
       </c>
       <c r="I128" s="4"/>
     </row>
-    <row r="129" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="129" spans="1:9" ht="14.25" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>110</v>
       </c>
@@ -8667,7 +8818,7 @@
       </c>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="130" spans="1:9" ht="14.25" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>110</v>
       </c>
@@ -8692,7 +8843,7 @@
       </c>
       <c r="I130" s="4"/>
     </row>
-    <row r="131" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="131" spans="1:9" ht="14.25" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>110</v>
       </c>
@@ -8717,7 +8868,7 @@
       </c>
       <c r="I131" s="4"/>
     </row>
-    <row r="132" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="132" spans="1:9" ht="14.25" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>110</v>
       </c>
@@ -8742,7 +8893,7 @@
       </c>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="133" spans="1:9" ht="14.25" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>186</v>
       </c>
@@ -8771,7 +8922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="134" spans="1:9" ht="14.25" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>186</v>
       </c>
@@ -8800,7 +8951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="12.75" hidden="1" customHeight="1">
+    <row r="135" spans="1:9" ht="12.75" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>186</v>
       </c>
@@ -8829,7 +8980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="136" spans="1:9" ht="14.25" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>186</v>
       </c>
@@ -8858,7 +9009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="137" spans="1:9" ht="14.25" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>186</v>
       </c>
@@ -8887,7 +9038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="138" spans="1:9" ht="14.25" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>186</v>
       </c>
@@ -8916,7 +9067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="139" spans="1:9" ht="14.25" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>186</v>
       </c>
@@ -8945,7 +9096,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="140" spans="1:9" ht="14.25" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>186</v>
       </c>
@@ -8974,7 +9125,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="141" spans="1:9" ht="14.25" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>186</v>
       </c>
@@ -9003,7 +9154,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="142" spans="1:9" ht="14.25" customHeight="1">
       <c r="A142" s="4" t="s">
         <v>186</v>
       </c>
@@ -9032,7 +9183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="143" spans="1:9" ht="14.25" customHeight="1">
       <c r="A143" s="4" t="s">
         <v>186</v>
       </c>
@@ -9061,7 +9212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="144" spans="1:9" ht="14.25" customHeight="1">
       <c r="A144" s="4" t="s">
         <v>186</v>
       </c>
@@ -9090,7 +9241,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="145" spans="1:9" ht="14.25" customHeight="1">
       <c r="A145" s="4" t="s">
         <v>186</v>
       </c>
@@ -9119,7 +9270,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="146" spans="1:9" ht="14.25" customHeight="1">
       <c r="A146" s="4" t="s">
         <v>186</v>
       </c>
@@ -9148,7 +9299,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="147" spans="1:9" ht="14.25" customHeight="1">
       <c r="A147" s="4" t="s">
         <v>186</v>
       </c>
@@ -9177,7 +9328,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="148" spans="1:9" ht="14.25" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>186</v>
       </c>
@@ -9206,7 +9357,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="149" spans="1:9" ht="14.25" customHeight="1">
       <c r="A149" s="4" t="s">
         <v>186</v>
       </c>
@@ -9235,7 +9386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="150" spans="1:9" ht="14.25" customHeight="1">
       <c r="A150" s="4" t="s">
         <v>186</v>
       </c>
@@ -9264,7 +9415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="151" spans="1:9" ht="14.25" customHeight="1">
       <c r="A151" s="4" t="s">
         <v>186</v>
       </c>
@@ -9293,7 +9444,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="152" spans="1:9" ht="14.25" customHeight="1">
       <c r="A152" s="4" t="s">
         <v>186</v>
       </c>
@@ -9322,7 +9473,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="153" spans="1:9" ht="14.25" customHeight="1">
       <c r="A153" s="4" t="s">
         <v>186</v>
       </c>
@@ -9351,7 +9502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="154" spans="1:9" ht="14.25" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>186</v>
       </c>
@@ -9378,7 +9529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="155" spans="1:9" ht="14.25" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>186</v>
       </c>
@@ -9405,7 +9556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="156" spans="1:9" ht="14.25" customHeight="1">
       <c r="A156" s="4" t="s">
         <v>186</v>
       </c>
@@ -9432,7 +9583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="157" spans="1:9" ht="14.25" customHeight="1">
       <c r="A157" s="4" t="s">
         <v>186</v>
       </c>
@@ -9459,7 +9610,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="158" spans="1:9" ht="14.25" customHeight="1">
       <c r="A158" s="4" t="s">
         <v>186</v>
       </c>
@@ -9486,7 +9637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="159" spans="1:9" ht="14.25" customHeight="1">
       <c r="A159" s="4" t="s">
         <v>186</v>
       </c>
@@ -9513,7 +9664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="160" spans="1:9" ht="14.25" customHeight="1">
       <c r="A160" s="4" t="s">
         <v>186</v>
       </c>
@@ -9540,7 +9691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="161" spans="1:27" ht="14.25" customHeight="1">
       <c r="A161" s="4" t="s">
         <v>186</v>
       </c>
@@ -9567,7 +9718,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="162" spans="1:27" ht="14.25" customHeight="1">
       <c r="A162" s="4" t="s">
         <v>186</v>
       </c>
@@ -9594,7 +9745,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="163" spans="1:27" ht="14.25" customHeight="1">
       <c r="A163" s="4" t="s">
         <v>186</v>
       </c>
@@ -9621,7 +9772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="164" spans="1:27" ht="14.25" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>186</v>
       </c>
@@ -9648,7 +9799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="165" spans="1:27" ht="14.25" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>186</v>
       </c>
@@ -9675,7 +9826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="166" spans="1:27" ht="14.25" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>186</v>
       </c>
@@ -9702,7 +9853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="167" spans="1:27" ht="14.25" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>186</v>
       </c>
@@ -9729,7 +9880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="168" spans="1:27" ht="14.25" customHeight="1">
       <c r="A168" s="4" t="s">
         <v>186</v>
       </c>
@@ -9756,7 +9907,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="169" spans="1:27" ht="14.25" customHeight="1">
       <c r="A169" s="4" t="s">
         <v>186</v>
       </c>
@@ -9786,7 +9937,7 @@
       </c>
       <c r="K169" s="7"/>
     </row>
-    <row r="170" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="170" spans="1:27" ht="14.25" customHeight="1">
       <c r="A170" s="4" t="s">
         <v>186</v>
       </c>
@@ -9970,7 +10121,7 @@
       </c>
       <c r="K174" s="7"/>
     </row>
-    <row r="175" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="175" spans="1:27" ht="14.25" customHeight="1">
       <c r="A175" s="4" t="s">
         <v>186</v>
       </c>
@@ -9997,7 +10148,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="176" spans="1:27" ht="14.25" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>186</v>
       </c>
@@ -10026,7 +10177,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="177" spans="1:9" ht="14.25" customHeight="1">
       <c r="A177" s="4" t="s">
         <v>186</v>
       </c>
@@ -10055,7 +10206,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="178" spans="1:9" ht="14.25" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>186</v>
       </c>
@@ -10258,7 +10409,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="185" spans="1:9" ht="14.25" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>186</v>
       </c>
@@ -10287,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="12" hidden="1" customHeight="1">
+    <row r="186" spans="1:9" ht="12" customHeight="1">
       <c r="A186" s="4" t="s">
         <v>186</v>
       </c>
@@ -10316,7 +10467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="13.5" hidden="1" customHeight="1">
+    <row r="187" spans="1:9" ht="13.5" customHeight="1">
       <c r="A187" s="4" t="s">
         <v>186</v>
       </c>
@@ -10345,7 +10496,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="13.5" hidden="1" customHeight="1">
+    <row r="188" spans="1:9" ht="13.5" customHeight="1">
       <c r="A188" s="4" t="s">
         <v>186</v>
       </c>
@@ -10374,7 +10525,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="13.5" hidden="1" customHeight="1">
+    <row r="189" spans="1:9" ht="13.5" customHeight="1">
       <c r="A189" s="4" t="s">
         <v>186</v>
       </c>
@@ -10403,7 +10554,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="13.5" hidden="1" customHeight="1">
+    <row r="190" spans="1:9" ht="13.5" customHeight="1">
       <c r="A190" s="4" t="s">
         <v>186</v>
       </c>
@@ -10432,7 +10583,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="13.5" hidden="1" customHeight="1">
+    <row r="191" spans="1:9" ht="13.5" customHeight="1">
       <c r="A191" s="4" t="s">
         <v>186</v>
       </c>
@@ -10461,7 +10612,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="13.5" hidden="1" customHeight="1">
+    <row r="192" spans="1:9" ht="13.5" customHeight="1">
       <c r="A192" s="4" t="s">
         <v>186</v>
       </c>
@@ -10490,7 +10641,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="13.5" hidden="1" customHeight="1" thickTop="1">
+    <row r="193" spans="1:9" ht="13.5" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>259</v>
       </c>
@@ -10519,7 +10670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="194" spans="1:9" ht="14.25" customHeight="1">
       <c r="A194" s="4" t="s">
         <v>259</v>
       </c>
@@ -10548,7 +10699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="195" spans="1:9" ht="14.25" customHeight="1">
       <c r="A195" s="4" t="s">
         <v>259</v>
       </c>
@@ -10577,7 +10728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="196" spans="1:9" ht="14.25" customHeight="1">
       <c r="A196" s="4" t="s">
         <v>259</v>
       </c>
@@ -10606,7 +10757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="197" spans="1:9" ht="14.25" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>259</v>
       </c>
@@ -10635,7 +10786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="198" spans="1:9" ht="14.25" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>259</v>
       </c>
@@ -10664,7 +10815,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="199" spans="1:9" ht="14.25" customHeight="1">
       <c r="A199" s="4" t="s">
         <v>259</v>
       </c>
@@ -10693,7 +10844,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="200" spans="1:9" ht="14.25" customHeight="1">
       <c r="A200" s="4" t="s">
         <v>259</v>
       </c>
@@ -10722,7 +10873,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="201" spans="1:9" ht="14.25" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>259</v>
       </c>
@@ -10751,7 +10902,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="202" spans="1:9" ht="14.25" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>259</v>
       </c>
@@ -10780,7 +10931,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="203" spans="1:9" ht="14.25" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>259</v>
       </c>
@@ -10809,7 +10960,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="204" spans="1:9" ht="14.25" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>259</v>
       </c>
@@ -10838,7 +10989,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="205" spans="1:9" ht="14.25" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>259</v>
       </c>
@@ -10867,7 +11018,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="206" spans="1:9" ht="14.25" customHeight="1">
       <c r="A206" s="4" t="s">
         <v>259</v>
       </c>
@@ -10896,7 +11047,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="207" spans="1:9" ht="14.25" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>259</v>
       </c>
@@ -10925,7 +11076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="208" spans="1:9" ht="14.25" customHeight="1">
       <c r="A208" s="4" t="s">
         <v>259</v>
       </c>
@@ -10954,7 +11105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="209" spans="1:27" ht="14.25" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>259</v>
       </c>
@@ -10983,7 +11134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="210" spans="1:27" ht="14.25" customHeight="1">
       <c r="A210" s="4" t="s">
         <v>259</v>
       </c>
@@ -11012,7 +11163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="211" spans="1:27" ht="14.25" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>259</v>
       </c>
@@ -11041,7 +11192,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="212" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="212" spans="1:27" ht="14.25" customHeight="1">
       <c r="A212" s="4" t="s">
         <v>259</v>
       </c>
@@ -11070,7 +11221,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="213" spans="1:27" ht="14.25" customHeight="1">
       <c r="A213" s="4" t="s">
         <v>259</v>
       </c>
@@ -11099,7 +11250,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="214" spans="1:27" ht="14.25" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>259</v>
       </c>
@@ -11128,7 +11279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="215" spans="1:27" ht="14.25" customHeight="1">
       <c r="A215" s="4" t="s">
         <v>259</v>
       </c>
@@ -11157,7 +11308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="216" spans="1:27" ht="14.25" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>259</v>
       </c>
@@ -11186,7 +11337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="217" spans="1:27" ht="14.25" customHeight="1">
       <c r="A217" s="4" t="s">
         <v>259</v>
       </c>
@@ -11215,7 +11366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="218" spans="1:27" ht="14.25" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>259</v>
       </c>
@@ -11244,7 +11395,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="219" spans="1:27" ht="14.25" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>259</v>
       </c>
@@ -11517,7 +11668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="226" spans="1:9" ht="14.25" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>259</v>
       </c>
@@ -11546,7 +11697,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="227" spans="1:9" ht="14.25" customHeight="1">
       <c r="A227" s="4" t="s">
         <v>259</v>
       </c>
@@ -11575,7 +11726,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="228" spans="1:9" ht="14.25" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>259</v>
       </c>
@@ -11604,7 +11755,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="229" spans="1:9" ht="14.25" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>259</v>
       </c>
@@ -11633,7 +11784,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="230" spans="1:9" ht="14.25" customHeight="1">
       <c r="A230" s="4" t="s">
         <v>259</v>
       </c>
@@ -11662,7 +11813,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="231" spans="1:9" ht="14.25" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>259</v>
       </c>
@@ -11691,7 +11842,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="232" spans="1:9" ht="14.25" customHeight="1">
       <c r="A232" s="4" t="s">
         <v>259</v>
       </c>
@@ -11720,7 +11871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="233" spans="1:9" ht="14.25" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>259</v>
       </c>
@@ -11749,7 +11900,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="234" spans="1:9" ht="14.25" customHeight="1">
       <c r="A234" s="4" t="s">
         <v>259</v>
       </c>
@@ -11778,7 +11929,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="235" spans="1:9" ht="14.25" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>259</v>
       </c>
@@ -11807,7 +11958,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="236" spans="1:9" ht="14.25" customHeight="1">
       <c r="A236" s="4" t="s">
         <v>259</v>
       </c>
@@ -11836,7 +11987,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="237" spans="1:9" ht="14.25" customHeight="1">
       <c r="A237" s="4" t="s">
         <v>259</v>
       </c>
@@ -11865,7 +12016,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="238" spans="1:9" ht="14.25" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>259</v>
       </c>
@@ -11952,7 +12103,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="241" spans="1:9" ht="14.25" customHeight="1">
       <c r="A241" s="4" t="s">
         <v>259</v>
       </c>
@@ -11979,7 +12130,7 @@
       </c>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="242" spans="1:9" ht="14.25" customHeight="1">
       <c r="A242" s="4" t="s">
         <v>259</v>
       </c>
@@ -12006,7 +12157,7 @@
       </c>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="243" spans="1:9" ht="14.25" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>259</v>
       </c>
@@ -12033,7 +12184,7 @@
       </c>
       <c r="I243" s="4"/>
     </row>
-    <row r="244" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="244" spans="1:9" ht="14.25" customHeight="1">
       <c r="A244" s="4" t="s">
         <v>259</v>
       </c>
@@ -12060,7 +12211,7 @@
       </c>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="245" spans="1:9" ht="14.25" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>259</v>
       </c>
@@ -12087,7 +12238,7 @@
       </c>
       <c r="I245" s="4"/>
     </row>
-    <row r="246" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="246" spans="1:9" ht="14.25" customHeight="1">
       <c r="A246" s="4" t="s">
         <v>259</v>
       </c>
@@ -12114,7 +12265,7 @@
       </c>
       <c r="I246" s="4"/>
     </row>
-    <row r="247" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="247" spans="1:9" ht="14.25" customHeight="1">
       <c r="A247" s="4" t="s">
         <v>259</v>
       </c>
@@ -12143,7 +12294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="248" spans="1:9" ht="14.25" customHeight="1">
       <c r="A248" s="4" t="s">
         <v>259</v>
       </c>
@@ -12172,7 +12323,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="249" spans="1:9" ht="14.25" customHeight="1">
       <c r="A249" s="4" t="s">
         <v>326</v>
       </c>
@@ -12199,7 +12350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="250" spans="1:9" ht="14.25" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>326</v>
       </c>
@@ -12228,7 +12379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="251" spans="1:9" ht="14.25" customHeight="1">
       <c r="A251" s="4" t="s">
         <v>326</v>
       </c>
@@ -12257,7 +12408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="252" spans="1:9" ht="14.25" customHeight="1">
       <c r="A252" s="4" t="s">
         <v>326</v>
       </c>
@@ -12286,7 +12437,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="253" spans="1:9" ht="14.25" customHeight="1">
       <c r="A253" s="4" t="s">
         <v>326</v>
       </c>
@@ -12315,7 +12466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="254" spans="1:9" ht="14.25" customHeight="1">
       <c r="A254" s="4" t="s">
         <v>326</v>
       </c>
@@ -12344,7 +12495,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="255" spans="1:9" ht="14.25" customHeight="1">
       <c r="A255" s="4" t="s">
         <v>326</v>
       </c>
@@ -12373,7 +12524,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="256" spans="1:9" ht="14.25" customHeight="1">
       <c r="A256" s="4" t="s">
         <v>326</v>
       </c>
@@ -12402,7 +12553,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="257" spans="1:9" ht="14.25" customHeight="1">
       <c r="A257" s="4" t="s">
         <v>326</v>
       </c>
@@ -12431,7 +12582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="258" spans="1:9" ht="14.25" customHeight="1">
       <c r="A258" s="4" t="s">
         <v>326</v>
       </c>
@@ -12460,7 +12611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="259" spans="1:9" ht="14.25" customHeight="1">
       <c r="A259" s="4" t="s">
         <v>326</v>
       </c>
@@ -12489,7 +12640,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="260" spans="1:9" ht="14.25" customHeight="1">
       <c r="A260" s="4" t="s">
         <v>326</v>
       </c>
@@ -12518,7 +12669,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="261" spans="1:9" ht="14.25" customHeight="1">
       <c r="A261" s="4" t="s">
         <v>326</v>
       </c>
@@ -12547,7 +12698,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="262" spans="1:9" ht="14.25" customHeight="1">
       <c r="A262" s="4" t="s">
         <v>326</v>
       </c>
@@ -12576,7 +12727,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="263" spans="1:9" ht="14.25" customHeight="1">
       <c r="A263" s="4" t="s">
         <v>326</v>
       </c>
@@ -12605,7 +12756,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="264" spans="1:9" ht="14.25" customHeight="1">
       <c r="A264" s="4" t="s">
         <v>326</v>
       </c>
@@ -12634,7 +12785,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="265" spans="1:9" ht="14.25" customHeight="1">
       <c r="A265" s="4" t="s">
         <v>326</v>
       </c>
@@ -12663,7 +12814,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="266" spans="1:9" ht="14.25" customHeight="1">
       <c r="A266" s="4" t="s">
         <v>326</v>
       </c>
@@ -12692,7 +12843,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="267" spans="1:9" ht="14.25" customHeight="1">
       <c r="A267" s="4" t="s">
         <v>326</v>
       </c>
@@ -12721,7 +12872,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="268" spans="1:9" ht="14.25" customHeight="1">
       <c r="A268" s="4" t="s">
         <v>326</v>
       </c>
@@ -12750,7 +12901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="269" spans="1:9" ht="14.25" customHeight="1">
       <c r="A269" s="4" t="s">
         <v>326</v>
       </c>
@@ -12779,7 +12930,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="270" spans="1:9" ht="14.25" customHeight="1">
       <c r="A270" s="4" t="s">
         <v>326</v>
       </c>
@@ -12808,7 +12959,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="271" spans="1:9" ht="14.25" customHeight="1">
       <c r="A271" s="4" t="s">
         <v>326</v>
       </c>
@@ -12837,7 +12988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="272" spans="1:9" ht="14.25" customHeight="1">
       <c r="A272" s="4" t="s">
         <v>326</v>
       </c>
@@ -12866,7 +13017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="273" spans="1:27" ht="14.25" customHeight="1">
       <c r="A273" s="4" t="s">
         <v>326</v>
       </c>
@@ -12895,7 +13046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="274" spans="1:27" ht="14.25" customHeight="1">
       <c r="A274" s="4" t="s">
         <v>326</v>
       </c>
@@ -12924,7 +13075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="275" spans="1:27" ht="14.25" customHeight="1">
       <c r="A275" s="4" t="s">
         <v>326</v>
       </c>
@@ -12953,7 +13104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="276" spans="1:27" ht="14.25" customHeight="1">
       <c r="A276" s="4" t="s">
         <v>326</v>
       </c>
@@ -12982,7 +13133,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="277" spans="1:27" ht="14.25" customHeight="1">
       <c r="A277" s="4" t="s">
         <v>326</v>
       </c>
@@ -13011,7 +13162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="278" spans="1:27" ht="14.25" customHeight="1">
       <c r="A278" s="4" t="s">
         <v>326</v>
       </c>
@@ -13040,7 +13191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="279" spans="1:27" ht="14.25" customHeight="1">
       <c r="A279" s="4" t="s">
         <v>326</v>
       </c>
@@ -13069,7 +13220,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="280" spans="1:27" ht="14.25" customHeight="1">
       <c r="A280" s="4" t="s">
         <v>326</v>
       </c>
@@ -13477,7 +13628,7 @@
       </c>
       <c r="K291" s="7"/>
     </row>
-    <row r="292" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="292" spans="1:11" ht="14.25" customHeight="1">
       <c r="A292" s="4" t="s">
         <v>326</v>
       </c>
@@ -13506,7 +13657,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="293" spans="1:11" ht="14.25" customHeight="1">
       <c r="A293" s="4" t="s">
         <v>326</v>
       </c>
@@ -13535,7 +13686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="294" spans="1:11" ht="14.25" customHeight="1">
       <c r="A294" s="4" t="s">
         <v>326</v>
       </c>
@@ -13564,7 +13715,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="295" spans="1:11" ht="14.25" customHeight="1">
       <c r="A295" s="4" t="s">
         <v>326</v>
       </c>
@@ -13593,7 +13744,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="296" spans="1:11" ht="14.25" customHeight="1">
       <c r="A296" s="4" t="s">
         <v>326</v>
       </c>
@@ -13622,7 +13773,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="297" spans="1:11" ht="14.25" customHeight="1">
       <c r="A297" s="4" t="s">
         <v>326</v>
       </c>
@@ -13651,7 +13802,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="298" spans="1:11" ht="14.25" customHeight="1">
       <c r="A298" s="4" t="s">
         <v>326</v>
       </c>
@@ -13680,7 +13831,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="299" spans="1:11" ht="14.25" customHeight="1">
       <c r="A299" s="4" t="s">
         <v>326</v>
       </c>
@@ -13709,7 +13860,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="300" spans="1:11" ht="14.25" customHeight="1">
       <c r="A300" s="4" t="s">
         <v>326</v>
       </c>
@@ -13738,7 +13889,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="301" spans="1:11" ht="14.25" customHeight="1">
       <c r="A301" s="4" t="s">
         <v>326</v>
       </c>
@@ -13767,7 +13918,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="302" spans="1:11" ht="14.25" customHeight="1">
       <c r="A302" s="4" t="s">
         <v>326</v>
       </c>
@@ -13796,7 +13947,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="303" spans="1:11" ht="14.25" customHeight="1">
       <c r="A303" s="4" t="s">
         <v>326</v>
       </c>
@@ -13825,7 +13976,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="14.25" hidden="1" customHeight="1">
+    <row r="304" spans="1:11" ht="14.25" customHeight="1">
       <c r="A304" s="4" t="s">
         <v>326</v>
       </c>
@@ -13854,7 +14005,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="305" spans="1:9" ht="14.25" customHeight="1">
       <c r="A305" s="4" t="s">
         <v>326</v>
       </c>
@@ -13883,7 +14034,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="306" spans="1:9" ht="14.25" customHeight="1">
       <c r="A306" s="4" t="s">
         <v>326</v>
       </c>
@@ -14144,7 +14295,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="315" spans="1:9" ht="14.25" customHeight="1">
       <c r="A315" s="4" t="s">
         <v>326</v>
       </c>
@@ -14173,7 +14324,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="316" spans="1:9" ht="14.25" customHeight="1">
       <c r="A316" s="4" t="s">
         <v>326</v>
       </c>
@@ -14202,7 +14353,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="317" spans="1:9" ht="14.25" customHeight="1">
       <c r="A317" s="4" t="s">
         <v>326</v>
       </c>
@@ -14231,7 +14382,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="318" spans="1:9" ht="14.25" customHeight="1">
       <c r="A318" s="4" t="s">
         <v>326</v>
       </c>
@@ -14256,7 +14407,7 @@
       </c>
       <c r="I318" s="4"/>
     </row>
-    <row r="319" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="319" spans="1:9" ht="14.25" customHeight="1">
       <c r="A319" s="4" t="s">
         <v>326</v>
       </c>
@@ -14281,7 +14432,7 @@
       </c>
       <c r="I319" s="4"/>
     </row>
-    <row r="320" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="320" spans="1:9" ht="14.25" customHeight="1">
       <c r="A320" s="4" t="s">
         <v>326</v>
       </c>
@@ -14306,7 +14457,7 @@
       </c>
       <c r="I320" s="4"/>
     </row>
-    <row r="321" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="321" spans="1:9" ht="14.25" customHeight="1">
       <c r="A321" s="4" t="s">
         <v>326</v>
       </c>
@@ -14331,7 +14482,7 @@
       </c>
       <c r="I321" s="4"/>
     </row>
-    <row r="322" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="322" spans="1:9" ht="14.25" customHeight="1">
       <c r="A322" s="4" t="s">
         <v>326</v>
       </c>
@@ -14356,7 +14507,7 @@
       </c>
       <c r="I322" s="4"/>
     </row>
-    <row r="323" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="323" spans="1:9" ht="14.25" customHeight="1">
       <c r="A323" s="4" t="s">
         <v>326</v>
       </c>
@@ -14381,7 +14532,7 @@
       </c>
       <c r="I323" s="4"/>
     </row>
-    <row r="324" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="324" spans="1:9" ht="14.25" customHeight="1">
       <c r="A324" s="4" t="s">
         <v>9</v>
       </c>
@@ -14402,7 +14553,7 @@
       </c>
       <c r="I324" s="4"/>
     </row>
-    <row r="325" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="325" spans="1:9" ht="14.25" customHeight="1">
       <c r="A325" s="4" t="s">
         <v>398</v>
       </c>
@@ -14427,7 +14578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="326" spans="1:9" ht="14.25" customHeight="1">
       <c r="A326" s="4" t="s">
         <v>398</v>
       </c>
@@ -14454,7 +14605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="327" spans="1:9" ht="14.25" customHeight="1">
       <c r="A327" s="4" t="s">
         <v>398</v>
       </c>
@@ -14481,7 +14632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="328" spans="1:9" ht="14.25" customHeight="1">
       <c r="A328" s="4" t="s">
         <v>398</v>
       </c>
@@ -14508,7 +14659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="329" spans="1:9" ht="14.25" customHeight="1">
       <c r="A329" s="4" t="s">
         <v>398</v>
       </c>
@@ -14535,7 +14686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="330" spans="1:9" ht="14.25" customHeight="1">
       <c r="A330" s="4" t="s">
         <v>398</v>
       </c>
@@ -14562,7 +14713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="331" spans="1:9" ht="14.25" customHeight="1">
       <c r="A331" s="4" t="s">
         <v>398</v>
       </c>
@@ -14589,7 +14740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="332" spans="1:9" ht="14.25" customHeight="1">
       <c r="A332" s="4" t="s">
         <v>398</v>
       </c>
@@ -14616,7 +14767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="333" spans="1:9" ht="14.25" customHeight="1">
       <c r="A333" s="4" t="s">
         <v>398</v>
       </c>
@@ -14643,7 +14794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="334" spans="1:9" ht="14.25" customHeight="1">
       <c r="A334" s="4" t="s">
         <v>398</v>
       </c>
@@ -14670,7 +14821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="335" spans="1:9" ht="14.25" customHeight="1">
       <c r="A335" s="4" t="s">
         <v>398</v>
       </c>
@@ -14697,7 +14848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="336" spans="1:9" ht="14.25" customHeight="1">
       <c r="A336" s="4" t="s">
         <v>398</v>
       </c>
@@ -14724,7 +14875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="337" spans="1:9" ht="14.25" customHeight="1">
       <c r="A337" s="4" t="s">
         <v>398</v>
       </c>
@@ -14751,7 +14902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="338" spans="1:9" ht="14.25" customHeight="1">
       <c r="A338" s="4" t="s">
         <v>398</v>
       </c>
@@ -14778,7 +14929,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="339" spans="1:9" ht="14.25" customHeight="1">
       <c r="A339" s="4" t="s">
         <v>398</v>
       </c>
@@ -14805,7 +14956,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="340" spans="1:9" ht="14.25" customHeight="1">
       <c r="A340" s="4" t="s">
         <v>398</v>
       </c>
@@ -14832,7 +14983,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="341" spans="1:9" ht="14.25" customHeight="1">
       <c r="A341" s="4" t="s">
         <v>398</v>
       </c>
@@ -14859,7 +15010,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="342" spans="1:9" ht="14.25" customHeight="1">
       <c r="A342" s="4" t="s">
         <v>398</v>
       </c>
@@ -14886,7 +15037,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="343" spans="1:9" ht="14.25" customHeight="1">
       <c r="A343" s="4" t="s">
         <v>398</v>
       </c>
@@ -14913,7 +15064,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="344" spans="1:9" ht="14.25" customHeight="1">
       <c r="A344" s="4" t="s">
         <v>398</v>
       </c>
@@ -14940,7 +15091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="345" spans="1:9" ht="14.25" customHeight="1">
       <c r="A345" s="4" t="s">
         <v>398</v>
       </c>
@@ -14967,7 +15118,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="346" spans="1:9" ht="14.25" customHeight="1">
       <c r="A346" s="4" t="s">
         <v>398</v>
       </c>
@@ -14994,7 +15145,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="347" spans="1:9" ht="14.25" customHeight="1">
       <c r="A347" s="4" t="s">
         <v>398</v>
       </c>
@@ -15021,7 +15172,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="348" spans="1:9" ht="14.25" customHeight="1">
       <c r="A348" s="4" t="s">
         <v>398</v>
       </c>
@@ -15048,7 +15199,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="349" spans="1:9" ht="14.25" customHeight="1">
       <c r="A349" s="4" t="s">
         <v>398</v>
       </c>
@@ -15075,7 +15226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="350" spans="1:9" ht="14.25" customHeight="1">
       <c r="A350" s="4" t="s">
         <v>398</v>
       </c>
@@ -15102,7 +15253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="351" spans="1:9" ht="14.25" customHeight="1">
       <c r="A351" s="4" t="s">
         <v>398</v>
       </c>
@@ -15129,7 +15280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="352" spans="1:9" ht="14.25" customHeight="1">
       <c r="A352" s="4" t="s">
         <v>398</v>
       </c>
@@ -15156,7 +15307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="353" spans="1:9" ht="14.25" customHeight="1">
       <c r="A353" s="4" t="s">
         <v>398</v>
       </c>
@@ -15183,7 +15334,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="354" spans="1:9" ht="14.25" customHeight="1">
       <c r="A354" s="4" t="s">
         <v>398</v>
       </c>
@@ -15210,7 +15361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="355" spans="1:9" ht="14.25" customHeight="1">
       <c r="A355" s="4" t="s">
         <v>398</v>
       </c>
@@ -15237,7 +15388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="356" spans="1:9" ht="14.25" customHeight="1">
       <c r="A356" s="4" t="s">
         <v>398</v>
       </c>
@@ -15264,7 +15415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="357" spans="1:9" ht="14.25" customHeight="1">
       <c r="A357" s="4" t="s">
         <v>398</v>
       </c>
@@ -15291,7 +15442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="358" spans="1:9" ht="14.25" customHeight="1">
       <c r="A358" s="4" t="s">
         <v>398</v>
       </c>
@@ -15318,7 +15469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="359" spans="1:9" ht="14.25" customHeight="1">
       <c r="A359" s="4" t="s">
         <v>398</v>
       </c>
@@ -15345,7 +15496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="360" spans="1:9" ht="14.25" customHeight="1">
       <c r="A360" s="4" t="s">
         <v>398</v>
       </c>
@@ -15372,7 +15523,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="361" spans="1:9" ht="14.25" customHeight="1">
       <c r="A361" s="4" t="s">
         <v>398</v>
       </c>
@@ -15451,7 +15602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="364" spans="1:9" ht="14.25" customHeight="1">
       <c r="A364" s="4" t="s">
         <v>398</v>
       </c>
@@ -15478,7 +15629,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="365" spans="1:9" ht="14.25" customHeight="1">
       <c r="A365" s="4" t="s">
         <v>398</v>
       </c>
@@ -15503,7 +15654,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="366" spans="1:9" ht="14.25" customHeight="1">
       <c r="A366" s="4" t="s">
         <v>398</v>
       </c>
@@ -15530,7 +15681,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="367" spans="1:9" ht="14.25" customHeight="1">
       <c r="A367" s="4" t="s">
         <v>398</v>
       </c>
@@ -15557,7 +15708,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="368" spans="1:9" ht="14.25" customHeight="1">
       <c r="A368" s="4" t="s">
         <v>398</v>
       </c>
@@ -15584,7 +15735,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="369" spans="1:9" ht="14.25" customHeight="1">
       <c r="A369" s="4" t="s">
         <v>398</v>
       </c>
@@ -15638,7 +15789,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="371" spans="1:9" ht="14.25" customHeight="1">
       <c r="A371" s="4" t="s">
         <v>398</v>
       </c>
@@ -15661,7 +15812,7 @@
       </c>
       <c r="I371" s="4"/>
     </row>
-    <row r="372" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="372" spans="1:9" ht="14.25" customHeight="1">
       <c r="A372" s="4" t="s">
         <v>398</v>
       </c>
@@ -15684,7 +15835,7 @@
       </c>
       <c r="I372" s="4"/>
     </row>
-    <row r="373" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="373" spans="1:9" ht="14.25" customHeight="1">
       <c r="A373" s="4" t="s">
         <v>398</v>
       </c>
@@ -15707,7 +15858,7 @@
       </c>
       <c r="I373" s="4"/>
     </row>
-    <row r="374" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="374" spans="1:9" ht="14.25" customHeight="1">
       <c r="A374" s="4" t="s">
         <v>398</v>
       </c>
@@ -15730,7 +15881,7 @@
       </c>
       <c r="I374" s="4"/>
     </row>
-    <row r="375" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="375" spans="1:9" ht="14.25" customHeight="1">
       <c r="A375" s="4" t="s">
         <v>444</v>
       </c>
@@ -15755,7 +15906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="376" spans="1:9" ht="14.25" customHeight="1">
       <c r="A376" s="4" t="s">
         <v>444</v>
       </c>
@@ -15780,7 +15931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="377" spans="1:9" ht="14.25" customHeight="1">
       <c r="A377" s="4" t="s">
         <v>444</v>
       </c>
@@ -15805,7 +15956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="378" spans="1:9" ht="14.25" customHeight="1">
       <c r="A378" s="4" t="s">
         <v>444</v>
       </c>
@@ -15832,7 +15983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="379" spans="1:9" ht="14.25" customHeight="1">
       <c r="A379" s="4" t="s">
         <v>444</v>
       </c>
@@ -15859,7 +16010,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="380" spans="1:9" ht="14.25" customHeight="1">
       <c r="A380" s="4" t="s">
         <v>444</v>
       </c>
@@ -15886,7 +16037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="381" spans="1:9" ht="14.25" customHeight="1">
       <c r="A381" s="4" t="s">
         <v>444</v>
       </c>
@@ -15913,7 +16064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="382" spans="1:9" ht="14.25" customHeight="1">
       <c r="A382" s="4" t="s">
         <v>444</v>
       </c>
@@ -15940,7 +16091,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="383" spans="1:9" ht="14.25" customHeight="1">
       <c r="A383" s="4" t="s">
         <v>444</v>
       </c>
@@ -15967,7 +16118,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="384" spans="1:9" ht="14.25" customHeight="1">
       <c r="A384" s="4" t="s">
         <v>444</v>
       </c>
@@ -15994,7 +16145,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="385" spans="1:9" ht="14.25" customHeight="1">
       <c r="A385" s="4" t="s">
         <v>444</v>
       </c>
@@ -16021,7 +16172,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="386" spans="1:9" ht="14.25" customHeight="1">
       <c r="A386" s="4" t="s">
         <v>444</v>
       </c>
@@ -16048,7 +16199,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="387" spans="1:9" ht="14.25" customHeight="1">
       <c r="A387" s="4" t="s">
         <v>444</v>
       </c>
@@ -16075,7 +16226,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="388" spans="1:9" ht="14.25" customHeight="1">
       <c r="A388" s="4" t="s">
         <v>444</v>
       </c>
@@ -16102,7 +16253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="389" spans="1:9" ht="14.25" customHeight="1">
       <c r="A389" s="4" t="s">
         <v>444</v>
       </c>
@@ -16129,7 +16280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="390" spans="1:9" ht="14.25" customHeight="1">
       <c r="A390" s="4" t="s">
         <v>444</v>
       </c>
@@ -16156,7 +16307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="391" spans="1:9" ht="14.25" customHeight="1">
       <c r="A391" s="4" t="s">
         <v>444</v>
       </c>
@@ -16183,7 +16334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="392" spans="1:9" ht="14.25" customHeight="1">
       <c r="A392" s="4" t="s">
         <v>444</v>
       </c>
@@ -16210,7 +16361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="393" spans="1:9" ht="14.25" customHeight="1">
       <c r="A393" s="4" t="s">
         <v>444</v>
       </c>
@@ -16237,7 +16388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="394" spans="1:9" ht="14.25" customHeight="1">
       <c r="A394" s="4" t="s">
         <v>444</v>
       </c>
@@ -16264,7 +16415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="395" spans="1:9" ht="14.25" customHeight="1">
       <c r="A395" s="4" t="s">
         <v>444</v>
       </c>
@@ -16291,7 +16442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="396" spans="1:9" ht="14.25" customHeight="1">
       <c r="A396" s="4" t="s">
         <v>444</v>
       </c>
@@ -16318,7 +16469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="397" spans="1:9" ht="14.25" customHeight="1">
       <c r="A397" s="4" t="s">
         <v>444</v>
       </c>
@@ -16345,7 +16496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="398" spans="1:9" ht="14.25" customHeight="1">
       <c r="A398" s="4" t="s">
         <v>444</v>
       </c>
@@ -16372,7 +16523,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="399" spans="1:9" ht="14.25" customHeight="1">
       <c r="A399" s="4" t="s">
         <v>444</v>
       </c>
@@ -16399,7 +16550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="400" spans="1:9" ht="14.25" customHeight="1">
       <c r="A400" s="4" t="s">
         <v>444</v>
       </c>
@@ -16426,7 +16577,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="401" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="401" spans="1:27" ht="14.25" customHeight="1">
       <c r="A401" s="4" t="s">
         <v>444</v>
       </c>
@@ -16453,7 +16604,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="402" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="402" spans="1:27" ht="14.25" customHeight="1">
       <c r="A402" s="4" t="s">
         <v>444</v>
       </c>
@@ -16480,7 +16631,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="403" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="403" spans="1:27" ht="14.25" customHeight="1">
       <c r="A403" s="4" t="s">
         <v>444</v>
       </c>
@@ -16507,7 +16658,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="404" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="404" spans="1:27" ht="14.25" customHeight="1">
       <c r="A404" s="4" t="s">
         <v>444</v>
       </c>
@@ -16534,7 +16685,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="405" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="405" spans="1:27" ht="14.25" customHeight="1">
       <c r="A405" s="4" t="s">
         <v>444</v>
       </c>
@@ -16561,7 +16712,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="406" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="406" spans="1:27" ht="14.25" customHeight="1">
       <c r="A406" s="4" t="s">
         <v>444</v>
       </c>
@@ -16588,7 +16739,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="407" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="407" spans="1:27" ht="14.25" customHeight="1">
       <c r="A407" s="4" t="s">
         <v>444</v>
       </c>
@@ -16615,7 +16766,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="408" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="408" spans="1:27" ht="14.25" customHeight="1">
       <c r="A408" s="4" t="s">
         <v>444</v>
       </c>
@@ -16642,7 +16793,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="409" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="409" spans="1:27" ht="14.25" customHeight="1">
       <c r="A409" s="4" t="s">
         <v>444</v>
       </c>
@@ -16741,7 +16892,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="412" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="412" spans="1:27" ht="14.25" customHeight="1">
       <c r="A412" s="4" t="s">
         <v>444</v>
       </c>
@@ -16768,7 +16919,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="413" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="413" spans="1:27" ht="14.25" customHeight="1">
       <c r="A413" s="4" t="s">
         <v>444</v>
       </c>
@@ -16795,7 +16946,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="414" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="414" spans="1:27" ht="14.25" customHeight="1">
       <c r="A414" s="4" t="s">
         <v>444</v>
       </c>
@@ -16822,7 +16973,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="415" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="415" spans="1:27" ht="14.25" customHeight="1">
       <c r="A415" s="4" t="s">
         <v>444</v>
       </c>
@@ -16849,7 +17000,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="416" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="416" spans="1:27" ht="14.25" customHeight="1">
       <c r="A416" s="4" t="s">
         <v>444</v>
       </c>
@@ -16876,7 +17027,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="417" spans="1:9" ht="14.25" customHeight="1">
       <c r="A417" s="4" t="s">
         <v>444</v>
       </c>
@@ -16903,7 +17054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="418" spans="1:9" ht="14.25" customHeight="1">
       <c r="A418" s="4" t="s">
         <v>444</v>
       </c>
@@ -16930,7 +17081,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="419" spans="1:9" ht="14.25" customHeight="1">
       <c r="A419" s="4" t="s">
         <v>444</v>
       </c>
@@ -16957,7 +17108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="420" spans="1:9" ht="14.25" customHeight="1">
       <c r="A420" s="4" t="s">
         <v>444</v>
       </c>
@@ -16984,7 +17135,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="421" spans="1:9" ht="14.25" customHeight="1">
       <c r="A421" s="4" t="s">
         <v>444</v>
       </c>
@@ -17011,7 +17162,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="422" spans="1:9" ht="14.25" customHeight="1">
       <c r="A422" s="4" t="s">
         <v>444</v>
       </c>
@@ -17146,7 +17297,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="427" spans="1:9" ht="14.25" customHeight="1">
       <c r="A427" s="4" t="s">
         <v>444</v>
       </c>
@@ -17169,7 +17320,7 @@
       </c>
       <c r="I427" s="4"/>
     </row>
-    <row r="428" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="428" spans="1:9" ht="14.25" customHeight="1">
       <c r="A428" s="4" t="s">
         <v>505</v>
       </c>
@@ -17196,7 +17347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="429" spans="1:9" ht="14.25" customHeight="1">
       <c r="A429" s="4" t="s">
         <v>505</v>
       </c>
@@ -17223,7 +17374,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="430" spans="1:9" ht="14.25" customHeight="1">
       <c r="A430" s="4" t="s">
         <v>505</v>
       </c>
@@ -17250,7 +17401,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="431" spans="1:9" ht="14.25" customHeight="1">
       <c r="A431" s="4" t="s">
         <v>505</v>
       </c>
@@ -17277,7 +17428,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="432" spans="1:9" ht="14.25" customHeight="1">
       <c r="A432" s="4" t="s">
         <v>505</v>
       </c>
@@ -17304,7 +17455,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="433" spans="1:9" ht="14.25" customHeight="1">
       <c r="A433" s="4" t="s">
         <v>505</v>
       </c>
@@ -17331,7 +17482,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="434" spans="1:9" ht="14.25" customHeight="1">
       <c r="A434" s="4" t="s">
         <v>505</v>
       </c>
@@ -17358,7 +17509,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="435" spans="1:9" ht="14.25" customHeight="1">
       <c r="A435" s="4" t="s">
         <v>505</v>
       </c>
@@ -17385,7 +17536,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="436" spans="1:9" ht="14.25" customHeight="1">
       <c r="A436" s="4" t="s">
         <v>505</v>
       </c>
@@ -17412,7 +17563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="437" spans="1:9" ht="14.25" customHeight="1">
       <c r="A437" s="4" t="s">
         <v>505</v>
       </c>
@@ -17439,7 +17590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="438" spans="1:9" ht="14.25" customHeight="1">
       <c r="A438" s="4" t="s">
         <v>505</v>
       </c>
@@ -17466,7 +17617,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="439" spans="1:9" ht="14.25" customHeight="1">
       <c r="A439" s="4" t="s">
         <v>505</v>
       </c>
@@ -17493,7 +17644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="440" spans="1:9" ht="14.25" customHeight="1">
       <c r="A440" s="4" t="s">
         <v>505</v>
       </c>
@@ -17520,7 +17671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="441" spans="1:9" ht="14.25" customHeight="1">
       <c r="A441" s="4" t="s">
         <v>505</v>
       </c>
@@ -17547,7 +17698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="442" spans="1:9" ht="14.25" customHeight="1">
       <c r="A442" s="4" t="s">
         <v>505</v>
       </c>
@@ -17574,7 +17725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="443" spans="1:9" ht="14.25" customHeight="1">
       <c r="A443" s="4" t="s">
         <v>505</v>
       </c>
@@ -17601,7 +17752,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="444" spans="1:9" ht="14.25" customHeight="1">
       <c r="A444" s="4" t="s">
         <v>505</v>
       </c>
@@ -17628,7 +17779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="445" spans="1:9" ht="14.25" customHeight="1">
       <c r="A445" s="4" t="s">
         <v>505</v>
       </c>
@@ -17655,7 +17806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="446" spans="1:9" ht="14.25" customHeight="1">
       <c r="A446" s="4" t="s">
         <v>505</v>
       </c>
@@ -17682,7 +17833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="447" spans="1:9" ht="14.25" customHeight="1">
       <c r="A447" s="4" t="s">
         <v>505</v>
       </c>
@@ -17709,7 +17860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="448" spans="1:9" ht="14.25" customHeight="1">
       <c r="A448" s="4" t="s">
         <v>505</v>
       </c>
@@ -17736,7 +17887,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="449" spans="1:9" ht="14.25" customHeight="1">
       <c r="A449" s="4" t="s">
         <v>505</v>
       </c>
@@ -17763,7 +17914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="450" spans="1:9" ht="14.25" customHeight="1">
       <c r="A450" s="4" t="s">
         <v>505</v>
       </c>
@@ -17790,7 +17941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="451" spans="1:9" ht="14.25" customHeight="1">
       <c r="A451" s="4" t="s">
         <v>505</v>
       </c>
@@ -17817,7 +17968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="452" spans="1:9" ht="14.25" customHeight="1">
       <c r="A452" s="4" t="s">
         <v>505</v>
       </c>
@@ -17844,7 +17995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="453" spans="1:9" ht="14.25" customHeight="1">
       <c r="A453" s="4" t="s">
         <v>505</v>
       </c>
@@ -17871,7 +18022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="454" spans="1:9" ht="14.25" customHeight="1">
       <c r="A454" s="4" t="s">
         <v>505</v>
       </c>
@@ -17898,7 +18049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="455" spans="1:9" ht="14.25" customHeight="1">
       <c r="A455" s="4" t="s">
         <v>505</v>
       </c>
@@ -17925,7 +18076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="456" spans="1:9" ht="14.25" customHeight="1">
       <c r="A456" s="4" t="s">
         <v>505</v>
       </c>
@@ -17952,7 +18103,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="457" spans="1:9" ht="14.25" customHeight="1">
       <c r="A457" s="4" t="s">
         <v>505</v>
       </c>
@@ -17979,7 +18130,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="458" spans="1:9" ht="14.25" customHeight="1">
       <c r="A458" s="4" t="s">
         <v>505</v>
       </c>
@@ -18006,7 +18157,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="459" spans="1:9" ht="14.25" customHeight="1">
       <c r="A459" s="4" t="s">
         <v>505</v>
       </c>
@@ -18033,7 +18184,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="460" spans="1:9" ht="14.25" customHeight="1">
       <c r="A460" s="4" t="s">
         <v>505</v>
       </c>
@@ -18060,7 +18211,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="461" spans="1:9" ht="14.25" customHeight="1">
       <c r="A461" s="4" t="s">
         <v>505</v>
       </c>
@@ -18087,7 +18238,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="462" spans="1:9" ht="14.25" customHeight="1">
       <c r="A462" s="4" t="s">
         <v>505</v>
       </c>
@@ -18114,7 +18265,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="463" spans="1:9" ht="14.25" customHeight="1">
       <c r="A463" s="4" t="s">
         <v>505</v>
       </c>
@@ -18141,7 +18292,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="464" spans="1:9" ht="14.25" customHeight="1">
       <c r="A464" s="4" t="s">
         <v>505</v>
       </c>
@@ -18168,7 +18319,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="465" spans="1:9" ht="14.25" customHeight="1">
       <c r="A465" s="4" t="s">
         <v>505</v>
       </c>
@@ -18195,7 +18346,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="466" spans="1:9" ht="14.25" customHeight="1">
       <c r="A466" s="4" t="s">
         <v>505</v>
       </c>
@@ -18222,7 +18373,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="467" spans="1:9" ht="14.25" customHeight="1">
       <c r="A467" s="4" t="s">
         <v>505</v>
       </c>
@@ -18249,7 +18400,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="468" spans="1:9" ht="14.25" customHeight="1">
       <c r="A468" s="4" t="s">
         <v>505</v>
       </c>
@@ -18276,7 +18427,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="469" spans="1:9" ht="14.25" customHeight="1">
       <c r="A469" s="4" t="s">
         <v>505</v>
       </c>
@@ -18303,7 +18454,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="470" spans="1:9" ht="14.25" customHeight="1">
       <c r="A470" s="4" t="s">
         <v>505</v>
       </c>
@@ -18330,7 +18481,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="471" spans="1:9" ht="14.25" customHeight="1">
       <c r="A471" s="4" t="s">
         <v>505</v>
       </c>
@@ -18357,7 +18508,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="472" spans="1:9" ht="14.25" customHeight="1">
       <c r="A472" s="4" t="s">
         <v>505</v>
       </c>
@@ -18384,7 +18535,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="473" spans="1:9" ht="14.25" customHeight="1">
       <c r="A473" s="4" t="s">
         <v>505</v>
       </c>
@@ -18411,7 +18562,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="474" spans="1:9" ht="14.25" customHeight="1">
       <c r="A474" s="4" t="s">
         <v>505</v>
       </c>
@@ -18438,7 +18589,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="475" spans="1:9" ht="14.25" customHeight="1">
       <c r="A475" s="4" t="s">
         <v>505</v>
       </c>
@@ -18465,7 +18616,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="476" spans="1:9" ht="14.25" customHeight="1">
       <c r="A476" s="4" t="s">
         <v>505</v>
       </c>
@@ -18492,7 +18643,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="477" spans="1:9" ht="14.25" customHeight="1">
       <c r="A477" s="4" t="s">
         <v>505</v>
       </c>
@@ -18519,7 +18670,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="478" spans="1:9" ht="14.25" customHeight="1">
       <c r="A478" s="4" t="s">
         <v>505</v>
       </c>
@@ -18546,7 +18697,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="479" spans="1:9" ht="14.25" customHeight="1">
       <c r="A479" s="4" t="s">
         <v>505</v>
       </c>
@@ -18785,7 +18936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="488" spans="1:10" ht="14.25" customHeight="1">
       <c r="A488" s="4" t="s">
         <v>505</v>
       </c>
@@ -18812,7 +18963,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="489" spans="1:10" ht="14.25" customHeight="1">
       <c r="A489" s="4" t="s">
         <v>505</v>
       </c>
@@ -18839,7 +18990,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="490" spans="1:10" ht="14.25" customHeight="1">
       <c r="A490" s="4" t="s">
         <v>505</v>
       </c>
@@ -18869,7 +19020,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="491" spans="1:10" ht="14.25" customHeight="1">
       <c r="A491" s="4" t="s">
         <v>505</v>
       </c>
@@ -18899,7 +19050,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="492" spans="1:10" ht="14.25" customHeight="1">
       <c r="A492" s="4" t="s">
         <v>505</v>
       </c>
@@ -18929,7 +19080,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="493" spans="1:10" ht="14.25" customHeight="1">
       <c r="A493" s="4" t="s">
         <v>505</v>
       </c>
@@ -18959,7 +19110,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="494" spans="1:10" ht="14.25" customHeight="1">
       <c r="A494" s="4" t="s">
         <v>505</v>
       </c>
@@ -18989,7 +19140,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="495" spans="1:10" ht="14.25" customHeight="1">
       <c r="A495" s="4" t="s">
         <v>505</v>
       </c>
@@ -19016,7 +19167,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="496" spans="1:10" ht="14.25" customHeight="1">
       <c r="A496" s="4" t="s">
         <v>505</v>
       </c>
@@ -19043,7 +19194,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="497" spans="1:9" ht="14.25" customHeight="1">
       <c r="A497" s="4" t="s">
         <v>505</v>
       </c>
@@ -19070,7 +19221,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="498" spans="1:9" ht="14.25" customHeight="1">
       <c r="A498" s="4" t="s">
         <v>505</v>
       </c>
@@ -19097,7 +19248,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="499" spans="1:9" ht="14.25" customHeight="1">
       <c r="A499" s="4" t="s">
         <v>505</v>
       </c>
@@ -19124,7 +19275,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="500" spans="1:9" ht="14.25" customHeight="1">
       <c r="A500" s="4" t="s">
         <v>505</v>
       </c>
@@ -19151,7 +19302,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="501" spans="1:9" ht="14.25" customHeight="1">
       <c r="A501" s="4" t="s">
         <v>505</v>
       </c>
@@ -19178,7 +19329,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="502" spans="1:9" ht="14.25" customHeight="1">
       <c r="A502" s="4" t="s">
         <v>505</v>
       </c>
@@ -19205,7 +19356,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="503" spans="1:9" ht="14.25" customHeight="1">
       <c r="A503" s="4" t="s">
         <v>505</v>
       </c>
@@ -19232,7 +19383,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="504" spans="1:9" ht="14.25" customHeight="1">
       <c r="A504" s="4" t="s">
         <v>505</v>
       </c>
@@ -19259,7 +19410,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="505" spans="1:9" ht="14.25" customHeight="1">
       <c r="A505" s="4" t="s">
         <v>597</v>
       </c>
@@ -19286,7 +19437,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="506" spans="1:9" ht="14.25" customHeight="1">
       <c r="A506" s="4" t="s">
         <v>597</v>
       </c>
@@ -19313,7 +19464,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="507" spans="1:9" ht="14.25" customHeight="1">
       <c r="A507" s="4" t="s">
         <v>597</v>
       </c>
@@ -19340,7 +19491,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="508" spans="1:9" ht="14.25" customHeight="1">
       <c r="A508" s="4" t="s">
         <v>597</v>
       </c>
@@ -19367,7 +19518,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="509" spans="1:9" ht="14.25" customHeight="1">
       <c r="A509" s="4" t="s">
         <v>597</v>
       </c>
@@ -19394,7 +19545,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="510" spans="1:9" ht="14.25" customHeight="1">
       <c r="A510" s="4" t="s">
         <v>597</v>
       </c>
@@ -19421,7 +19572,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="511" spans="1:9" ht="14.25" customHeight="1">
       <c r="A511" s="4" t="s">
         <v>597</v>
       </c>
@@ -19448,7 +19599,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="512" spans="1:9" ht="14.25" customHeight="1">
       <c r="A512" s="4" t="s">
         <v>597</v>
       </c>
@@ -19475,7 +19626,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="513" spans="1:9" ht="14.25" customHeight="1">
       <c r="A513" s="4" t="s">
         <v>597</v>
       </c>
@@ -19502,7 +19653,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="514" spans="1:9" ht="14.25" customHeight="1">
       <c r="A514" s="4" t="s">
         <v>597</v>
       </c>
@@ -19529,7 +19680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="515" spans="1:9" ht="14.25" customHeight="1">
       <c r="A515" s="4" t="s">
         <v>597</v>
       </c>
@@ -19556,7 +19707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="516" spans="1:9" ht="14.25" customHeight="1">
       <c r="A516" s="4" t="s">
         <v>597</v>
       </c>
@@ -19583,7 +19734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="517" spans="1:9" ht="14.25" customHeight="1">
       <c r="A517" s="4" t="s">
         <v>597</v>
       </c>
@@ -19610,7 +19761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="518" spans="1:9" ht="14.25" customHeight="1">
       <c r="A518" s="4" t="s">
         <v>597</v>
       </c>
@@ -19637,7 +19788,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="519" spans="1:9" ht="14.25" customHeight="1">
       <c r="A519" s="4" t="s">
         <v>597</v>
       </c>
@@ -19664,7 +19815,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="520" spans="1:9" ht="14.25" customHeight="1">
       <c r="A520" s="4" t="s">
         <v>597</v>
       </c>
@@ -19691,7 +19842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="521" spans="1:9" ht="14.25" customHeight="1">
       <c r="A521" s="4" t="s">
         <v>597</v>
       </c>
@@ -19718,7 +19869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="522" spans="1:9" ht="14.25" customHeight="1">
       <c r="A522" s="4" t="s">
         <v>597</v>
       </c>
@@ -19745,7 +19896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="523" spans="1:9" ht="14.25" customHeight="1">
       <c r="A523" s="4" t="s">
         <v>597</v>
       </c>
@@ -19772,7 +19923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="524" spans="1:9" ht="14.25" customHeight="1">
       <c r="A524" s="4" t="s">
         <v>597</v>
       </c>
@@ -19799,7 +19950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="525" spans="1:9" ht="14.25" customHeight="1">
       <c r="A525" s="4" t="s">
         <v>597</v>
       </c>
@@ -19826,7 +19977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="526" spans="1:9" ht="14.25" customHeight="1">
       <c r="A526" s="4" t="s">
         <v>597</v>
       </c>
@@ -19853,7 +20004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="527" spans="1:9" ht="14.25" customHeight="1">
       <c r="A527" s="24" t="s">
         <v>597</v>
       </c>
@@ -19880,7 +20031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="528" spans="1:9" ht="14.25" customHeight="1">
       <c r="A528" s="4" t="s">
         <v>597</v>
       </c>
@@ -19905,7 +20056,7 @@
       </c>
       <c r="I528" s="4"/>
     </row>
-    <row r="529" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="529" spans="1:10" ht="14.25" customHeight="1">
       <c r="A529" s="4" t="s">
         <v>597</v>
       </c>
@@ -19932,7 +20083,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="530" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="530" spans="1:10" ht="14.25" customHeight="1">
       <c r="A530" s="4" t="s">
         <v>597</v>
       </c>
@@ -19959,7 +20110,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="531" spans="1:10" ht="14.25" customHeight="1">
       <c r="A531" s="4" t="s">
         <v>597</v>
       </c>
@@ -19986,7 +20137,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="532" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="532" spans="1:10" ht="14.25" customHeight="1">
       <c r="A532" s="4" t="s">
         <v>597</v>
       </c>
@@ -20013,7 +20164,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="533" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="533" spans="1:10" ht="14.25" customHeight="1">
       <c r="A533" s="4" t="s">
         <v>597</v>
       </c>
@@ -20040,7 +20191,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="534" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="534" spans="1:10" ht="14.25" customHeight="1">
       <c r="A534" s="4" t="s">
         <v>597</v>
       </c>
@@ -20067,7 +20218,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="535" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="535" spans="1:10" ht="14.25" customHeight="1">
       <c r="A535" s="4" t="s">
         <v>597</v>
       </c>
@@ -20094,7 +20245,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="536" spans="1:10" ht="14.25" customHeight="1">
       <c r="A536" s="4" t="s">
         <v>597</v>
       </c>
@@ -20121,7 +20272,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="537" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="537" spans="1:10" ht="14.25" customHeight="1">
       <c r="A537" s="4" t="s">
         <v>597</v>
       </c>
@@ -20148,7 +20299,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="538" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="538" spans="1:10" ht="14.25" customHeight="1">
       <c r="A538" s="4" t="s">
         <v>597</v>
       </c>
@@ -20175,7 +20326,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="539" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="539" spans="1:10" ht="14.25" customHeight="1">
       <c r="A539" s="4" t="s">
         <v>597</v>
       </c>
@@ -20200,7 +20351,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="540" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="540" spans="1:10" ht="14.25" customHeight="1">
       <c r="A540" s="4" t="s">
         <v>597</v>
       </c>
@@ -20227,7 +20378,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="541" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="541" spans="1:10" ht="14.25" customHeight="1">
       <c r="A541" s="4" t="s">
         <v>597</v>
       </c>
@@ -20420,7 +20571,7 @@
       </c>
       <c r="J547" s="4"/>
     </row>
-    <row r="548" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="548" spans="1:10" ht="14.25" customHeight="1">
       <c r="A548" s="4" t="s">
         <v>597</v>
       </c>
@@ -20447,7 +20598,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="549" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="549" spans="1:10" ht="14.25" customHeight="1">
       <c r="A549" s="4" t="s">
         <v>597</v>
       </c>
@@ -20474,7 +20625,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="550" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="550" spans="1:10" ht="14.25" customHeight="1">
       <c r="A550" s="4" t="s">
         <v>597</v>
       </c>
@@ -20501,7 +20652,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="551" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="551" spans="1:10" ht="14.25" customHeight="1">
       <c r="A551" s="4" t="s">
         <v>597</v>
       </c>
@@ -20528,7 +20679,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="552" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="552" spans="1:10" ht="14.25" customHeight="1">
       <c r="A552" s="4" t="s">
         <v>597</v>
       </c>
@@ -20555,7 +20706,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="553" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="553" spans="1:10" ht="14.25" customHeight="1">
       <c r="A553" s="4" t="s">
         <v>597</v>
       </c>
@@ -20582,7 +20733,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="554" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="554" spans="1:10" ht="14.25" customHeight="1">
       <c r="A554" s="4" t="s">
         <v>597</v>
       </c>
@@ -20609,7 +20760,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="555" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="555" spans="1:10" ht="14.25" customHeight="1">
       <c r="A555" s="4" t="s">
         <v>597</v>
       </c>
@@ -20636,7 +20787,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="556" spans="1:10" ht="14.25" customHeight="1">
       <c r="A556" s="4" t="s">
         <v>597</v>
       </c>
@@ -20663,7 +20814,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="557" spans="1:10" ht="14.25" customHeight="1">
       <c r="A557" s="4" t="s">
         <v>597</v>
       </c>
@@ -20690,7 +20841,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="558" spans="1:10" ht="14.25" customHeight="1">
       <c r="A558" s="4" t="s">
         <v>597</v>
       </c>
@@ -20717,7 +20868,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="559" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="559" spans="1:10" ht="14.25" customHeight="1">
       <c r="A559" s="4" t="s">
         <v>597</v>
       </c>
@@ -20744,7 +20895,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="560" spans="1:10" ht="14.25" customHeight="1">
       <c r="A560" s="4" t="s">
         <v>597</v>
       </c>
@@ -20771,7 +20922,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="561" spans="1:9" ht="14.25" customHeight="1">
       <c r="A561" s="4" t="s">
         <v>597</v>
       </c>
@@ -20798,7 +20949,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="562" spans="1:9" ht="14.25" customHeight="1">
       <c r="A562" s="4" t="s">
         <v>597</v>
       </c>
@@ -20825,7 +20976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="563" spans="1:9" ht="14.25" customHeight="1">
       <c r="A563" s="4" t="s">
         <v>597</v>
       </c>
@@ -20852,7 +21003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="564" spans="1:9" ht="14.25" customHeight="1">
       <c r="A564" s="4" t="s">
         <v>597</v>
       </c>
@@ -20879,7 +21030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="565" spans="1:9" ht="14.25" customHeight="1">
       <c r="A565" s="4" t="s">
         <v>597</v>
       </c>
@@ -20906,7 +21057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="566" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="566" spans="1:9" ht="14.25" customHeight="1">
       <c r="A566" s="4" t="s">
         <v>597</v>
       </c>
@@ -20933,7 +21084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="567" spans="1:9" ht="14.25" customHeight="1">
       <c r="A567" s="4" t="s">
         <v>597</v>
       </c>
@@ -20960,7 +21111,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="568" spans="1:9" ht="14.25" customHeight="1">
       <c r="A568" s="4" t="s">
         <v>597</v>
       </c>
@@ -20985,7 +21136,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="569" spans="1:9" ht="14.25" customHeight="1">
       <c r="A569" s="4" t="s">
         <v>597</v>
       </c>
@@ -21010,7 +21161,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="570" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="570" spans="1:9" ht="14.25" customHeight="1">
       <c r="A570" s="4" t="s">
         <v>597</v>
       </c>
@@ -21035,7 +21186,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="571" spans="1:9" ht="14.25" customHeight="1">
       <c r="A571" s="4" t="s">
         <v>597</v>
       </c>
@@ -21058,7 +21209,7 @@
       </c>
       <c r="I571" s="4"/>
     </row>
-    <row r="572" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="572" spans="1:9" ht="14.25" customHeight="1">
       <c r="A572" s="4" t="s">
         <v>597</v>
       </c>
@@ -21079,7 +21230,7 @@
       </c>
       <c r="I572" s="4"/>
     </row>
-    <row r="573" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="573" spans="1:9" ht="14.25" customHeight="1">
       <c r="A573" s="4" t="s">
         <v>597</v>
       </c>
@@ -21104,7 +21255,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="574" spans="1:9" ht="14.25" customHeight="1">
       <c r="A574" s="4" t="s">
         <v>597</v>
       </c>
@@ -21129,7 +21280,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="575" spans="1:9" ht="14.25" customHeight="1">
       <c r="A575" s="4" t="s">
         <v>597</v>
       </c>
@@ -21156,7 +21307,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="576" spans="1:9" ht="14.25" customHeight="1">
       <c r="A576" s="4" t="s">
         <v>597</v>
       </c>
@@ -21183,7 +21334,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="577" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="577" spans="1:9" ht="14.25" customHeight="1">
       <c r="A577" s="4" t="s">
         <v>597</v>
       </c>
@@ -21210,7 +21361,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="578" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="578" spans="1:9" ht="14.25" customHeight="1">
       <c r="A578" s="4" t="s">
         <v>597</v>
       </c>
@@ -21237,7 +21388,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="579" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="579" spans="1:9" ht="14.25" customHeight="1">
       <c r="A579" s="4" t="s">
         <v>597</v>
       </c>
@@ -21264,7 +21415,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="580" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="580" spans="1:9" ht="14.25" customHeight="1">
       <c r="A580" s="4" t="s">
         <v>597</v>
       </c>
@@ -21291,7 +21442,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="581" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="581" spans="1:9" ht="14.25" customHeight="1">
       <c r="A581" s="4" t="s">
         <v>597</v>
       </c>
@@ -21318,7 +21469,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="582" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="582" spans="1:9" ht="14.25" customHeight="1">
       <c r="A582" s="4" t="s">
         <v>597</v>
       </c>
@@ -21345,7 +21496,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="583" spans="1:9" ht="14.25" customHeight="1">
       <c r="A583" s="4" t="s">
         <v>663</v>
       </c>
@@ -21372,7 +21523,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="584" spans="1:9" ht="14.25" customHeight="1">
       <c r="A584" s="4" t="s">
         <v>663</v>
       </c>
@@ -21399,7 +21550,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="585" spans="1:9" ht="14.25" customHeight="1">
       <c r="A585" s="4" t="s">
         <v>663</v>
       </c>
@@ -21426,7 +21577,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="586" spans="1:9" ht="14.25" customHeight="1">
       <c r="A586" s="4" t="s">
         <v>663</v>
       </c>
@@ -21453,7 +21604,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="587" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="587" spans="1:9" ht="14.25" customHeight="1">
       <c r="A587" s="4" t="s">
         <v>663</v>
       </c>
@@ -21480,7 +21631,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="588" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="588" spans="1:9" ht="14.25" customHeight="1">
       <c r="A588" s="4" t="s">
         <v>663</v>
       </c>
@@ -21507,7 +21658,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="589" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="589" spans="1:9" ht="14.25" customHeight="1">
       <c r="A589" s="4" t="s">
         <v>663</v>
       </c>
@@ -21534,7 +21685,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="590" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="590" spans="1:9" ht="14.25" customHeight="1">
       <c r="A590" s="4" t="s">
         <v>663</v>
       </c>
@@ -21561,7 +21712,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="591" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="591" spans="1:9" ht="14.25" customHeight="1">
       <c r="A591" s="4" t="s">
         <v>663</v>
       </c>
@@ -21588,7 +21739,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="592" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="592" spans="1:9" ht="14.25" customHeight="1">
       <c r="A592" s="4" t="s">
         <v>663</v>
       </c>
@@ -21615,7 +21766,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="593" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="593" spans="1:9" ht="14.25" customHeight="1">
       <c r="A593" s="4" t="s">
         <v>663</v>
       </c>
@@ -21642,7 +21793,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="594" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="594" spans="1:9" ht="14.25" customHeight="1">
       <c r="A594" s="4" t="s">
         <v>663</v>
       </c>
@@ -21669,7 +21820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="595" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="595" spans="1:9" ht="14.25" customHeight="1">
       <c r="A595" s="4" t="s">
         <v>663</v>
       </c>
@@ -21696,7 +21847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="596" spans="1:9" ht="14.25" customHeight="1">
       <c r="A596" s="4" t="s">
         <v>663</v>
       </c>
@@ -21723,7 +21874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="597" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="597" spans="1:9" ht="14.25" customHeight="1">
       <c r="A597" s="4" t="s">
         <v>663</v>
       </c>
@@ -21750,7 +21901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="598" spans="1:9" ht="14.25" customHeight="1">
       <c r="A598" s="4" t="s">
         <v>663</v>
       </c>
@@ -21777,7 +21928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="599" spans="1:9" ht="14.25" customHeight="1">
       <c r="A599" s="4" t="s">
         <v>663</v>
       </c>
@@ -21804,7 +21955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="600" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="600" spans="1:9" ht="14.25" customHeight="1">
       <c r="A600" s="4" t="s">
         <v>663</v>
       </c>
@@ -21831,7 +21982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="601" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="601" spans="1:9" ht="14.25" customHeight="1">
       <c r="A601" s="4" t="s">
         <v>663</v>
       </c>
@@ -21858,7 +22009,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="602" spans="1:9" ht="14.25" customHeight="1">
       <c r="A602" s="4" t="s">
         <v>663</v>
       </c>
@@ -21885,7 +22036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="603" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="603" spans="1:9" ht="14.25" customHeight="1">
       <c r="A603" s="4" t="s">
         <v>663</v>
       </c>
@@ -21908,7 +22059,7 @@
       </c>
       <c r="I603" s="4"/>
     </row>
-    <row r="604" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="604" spans="1:9" ht="14.25" customHeight="1">
       <c r="A604" s="4" t="s">
         <v>663</v>
       </c>
@@ -21932,7 +22083,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="605" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="605" spans="1:9" ht="14.25" customHeight="1">
       <c r="A605" s="4" t="s">
         <v>663</v>
       </c>
@@ -21956,7 +22107,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="606" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="606" spans="1:9" ht="14.25" customHeight="1">
       <c r="A606" s="4" t="s">
         <v>663</v>
       </c>
@@ -21983,7 +22134,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="607" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="607" spans="1:9" ht="14.25" customHeight="1">
       <c r="A607" s="4" t="s">
         <v>663</v>
       </c>
@@ -22010,7 +22161,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="608" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="608" spans="1:9" ht="14.25" customHeight="1">
       <c r="A608" s="4" t="s">
         <v>663</v>
       </c>
@@ -22172,7 +22323,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="614" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="614" spans="1:10" ht="14.25" customHeight="1">
       <c r="A614" s="4" t="s">
         <v>663</v>
       </c>
@@ -22197,7 +22348,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="615" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="615" spans="1:10" ht="14.25" customHeight="1">
       <c r="A615" s="4" t="s">
         <v>663</v>
       </c>
@@ -22224,7 +22375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="616" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="616" spans="1:10" ht="14.25" customHeight="1">
       <c r="A616" s="4" t="s">
         <v>663</v>
       </c>
@@ -22251,7 +22402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="617" spans="1:10" ht="14.25" customHeight="1">
       <c r="A617" s="4" t="s">
         <v>663</v>
       </c>
@@ -22278,7 +22429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="618" spans="1:10" ht="14.25" customHeight="1">
       <c r="A618" s="4" t="s">
         <v>663</v>
       </c>
@@ -22305,7 +22456,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="619" spans="1:10" ht="14.25" customHeight="1">
       <c r="A619" s="4" t="s">
         <v>663</v>
       </c>
@@ -22332,7 +22483,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="620" spans="1:10" ht="14.25" customHeight="1">
       <c r="A620" s="4" t="s">
         <v>663</v>
       </c>
@@ -22359,7 +22510,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="621" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="621" spans="1:10" ht="14.25" customHeight="1">
       <c r="A621" s="4" t="s">
         <v>663</v>
       </c>
@@ -22386,7 +22537,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="622" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="622" spans="1:10" ht="14.25" customHeight="1">
       <c r="A622" s="4" t="s">
         <v>663</v>
       </c>
@@ -22413,7 +22564,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="623" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="623" spans="1:10" ht="14.25" customHeight="1">
       <c r="A623" s="4" t="s">
         <v>663</v>
       </c>
@@ -22440,7 +22591,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="624" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    <row r="624" spans="1:10" ht="14.25" customHeight="1">
       <c r="A624" s="4" t="s">
         <v>663</v>
       </c>
@@ -22467,7 +22618,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="625" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="625" spans="1:9" ht="14.25" customHeight="1">
       <c r="A625" s="4" t="s">
         <v>663</v>
       </c>
@@ -22494,7 +22645,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="626" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="626" spans="1:9" ht="14.25" customHeight="1">
       <c r="A626" s="4" t="s">
         <v>663</v>
       </c>
@@ -22521,7 +22672,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="627" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="627" spans="1:9" ht="14.25" customHeight="1">
       <c r="A627" s="4" t="s">
         <v>663</v>
       </c>
@@ -22548,7 +22699,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="628" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="628" spans="1:9" ht="14.25" customHeight="1">
       <c r="A628" s="4" t="s">
         <v>663</v>
       </c>
@@ -22575,7 +22726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="629" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="629" spans="1:9" ht="14.25" customHeight="1">
       <c r="A629" s="4" t="s">
         <v>663</v>
       </c>
@@ -22602,7 +22753,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="630" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="630" spans="1:9" ht="14.25" customHeight="1">
       <c r="A630" s="4" t="s">
         <v>663</v>
       </c>
@@ -22625,7 +22776,7 @@
       </c>
       <c r="I630" s="4"/>
     </row>
-    <row r="631" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="631" spans="1:9" ht="14.25" customHeight="1">
       <c r="A631" s="4" t="s">
         <v>716</v>
       </c>
@@ -22652,7 +22803,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="632" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="632" spans="1:9" ht="14.25" customHeight="1">
       <c r="A632" s="4" t="s">
         <v>716</v>
       </c>
@@ -22679,7 +22830,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="633" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="633" spans="1:9" ht="14.25" customHeight="1">
       <c r="A633" s="4" t="s">
         <v>716</v>
       </c>
@@ -22706,7 +22857,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="634" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="634" spans="1:9" ht="14.25" customHeight="1">
       <c r="A634" s="4" t="s">
         <v>716</v>
       </c>
@@ -22733,7 +22884,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="635" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="635" spans="1:9" ht="14.25" customHeight="1">
       <c r="A635" s="4" t="s">
         <v>716</v>
       </c>
@@ -22760,7 +22911,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="636" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="636" spans="1:9" ht="14.25" customHeight="1">
       <c r="A636" s="4" t="s">
         <v>716</v>
       </c>
@@ -22787,7 +22938,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="637" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="637" spans="1:9" ht="14.25" customHeight="1">
       <c r="A637" s="4" t="s">
         <v>716</v>
       </c>
@@ -22814,7 +22965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="638" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="638" spans="1:9" ht="14.25" customHeight="1">
       <c r="A638" s="4" t="s">
         <v>716</v>
       </c>
@@ -22841,7 +22992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="639" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="639" spans="1:9" ht="14.25" customHeight="1">
       <c r="A639" s="4" t="s">
         <v>716</v>
       </c>
@@ -22868,7 +23019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="640" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="640" spans="1:9" ht="14.25" customHeight="1">
       <c r="A640" s="4" t="s">
         <v>716</v>
       </c>
@@ -22895,7 +23046,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="641" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="641" spans="1:9" ht="14.25" customHeight="1">
       <c r="A641" s="4" t="s">
         <v>716</v>
       </c>
@@ -22922,7 +23073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="642" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="642" spans="1:9" ht="14.25" customHeight="1">
       <c r="A642" s="4" t="s">
         <v>716</v>
       </c>
@@ -22949,7 +23100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="643" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="643" spans="1:9" ht="14.25" customHeight="1">
       <c r="A643" s="4" t="s">
         <v>716</v>
       </c>
@@ -22976,7 +23127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="644" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="644" spans="1:9" ht="14.25" customHeight="1">
       <c r="A644" s="4" t="s">
         <v>716</v>
       </c>
@@ -23003,7 +23154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="645" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="645" spans="1:9" ht="14.25" customHeight="1">
       <c r="A645" s="4" t="s">
         <v>716</v>
       </c>
@@ -23026,7 +23177,7 @@
       </c>
       <c r="I645" s="4"/>
     </row>
-    <row r="646" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="646" spans="1:9" ht="14.25" customHeight="1">
       <c r="A646" s="4" t="s">
         <v>716</v>
       </c>
@@ -23053,7 +23204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="647" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="647" spans="1:9" ht="14.25" customHeight="1">
       <c r="A647" s="4" t="s">
         <v>716</v>
       </c>
@@ -23080,7 +23231,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="648" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="648" spans="1:9" ht="14.25" customHeight="1">
       <c r="A648" s="4" t="s">
         <v>716</v>
       </c>
@@ -23107,7 +23258,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="649" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="649" spans="1:9" ht="14.25" customHeight="1">
       <c r="A649" s="4" t="s">
         <v>716</v>
       </c>
@@ -23134,7 +23285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="650" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="650" spans="1:9" ht="14.25" customHeight="1">
       <c r="A650" s="4" t="s">
         <v>716</v>
       </c>
@@ -23161,7 +23312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="651" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="651" spans="1:9" ht="14.25" customHeight="1">
       <c r="A651" s="4" t="s">
         <v>716</v>
       </c>
@@ -23186,7 +23337,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="652" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="652" spans="1:9" ht="14.25" customHeight="1">
       <c r="A652" s="4" t="s">
         <v>716</v>
       </c>
@@ -23213,7 +23364,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="653" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="653" spans="1:9" ht="14.25" customHeight="1">
       <c r="A653" s="4" t="s">
         <v>716</v>
       </c>
@@ -23240,7 +23391,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="654" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="654" spans="1:9" ht="14.25" customHeight="1">
       <c r="A654" s="4" t="s">
         <v>716</v>
       </c>
@@ -23267,7 +23418,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="655" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="655" spans="1:9" ht="14.25" customHeight="1">
       <c r="A655" s="4" t="s">
         <v>716</v>
       </c>
@@ -23726,7 +23877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="672" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="672" spans="1:9" ht="14.25" customHeight="1">
       <c r="A672" s="4" t="s">
         <v>716</v>
       </c>
@@ -23753,7 +23904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="673" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="673" spans="1:9" ht="14.25" customHeight="1">
       <c r="A673" s="4" t="s">
         <v>716</v>
       </c>
@@ -23780,7 +23931,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="674" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="674" spans="1:9" ht="14.25" customHeight="1">
       <c r="A674" s="4" t="s">
         <v>716</v>
       </c>
@@ -23807,7 +23958,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="675" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="675" spans="1:9" ht="14.25" customHeight="1">
       <c r="A675" s="4" t="s">
         <v>716</v>
       </c>
@@ -23834,7 +23985,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="676" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="676" spans="1:9" ht="14.25" customHeight="1">
       <c r="A676" s="4" t="s">
         <v>716</v>
       </c>
@@ -23861,7 +24012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="677" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="677" spans="1:9" ht="14.25" customHeight="1">
       <c r="A677" s="4" t="s">
         <v>716</v>
       </c>
@@ -23888,7 +24039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="678" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="678" spans="1:9" ht="14.25" customHeight="1">
       <c r="A678" s="4" t="s">
         <v>716</v>
       </c>
@@ -23915,7 +24066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="679" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="679" spans="1:9" ht="14.25" customHeight="1">
       <c r="A679" s="4" t="s">
         <v>716</v>
       </c>
@@ -23942,7 +24093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="680" spans="1:9" ht="14.25" customHeight="1">
       <c r="A680" s="4" t="s">
         <v>716</v>
       </c>
@@ -23969,7 +24120,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="681" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="681" spans="1:9" ht="14.25" customHeight="1">
       <c r="A681" s="4" t="s">
         <v>716</v>
       </c>
@@ -23996,7 +24147,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="682" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="682" spans="1:9" ht="14.25" customHeight="1">
       <c r="A682" s="4" t="s">
         <v>716</v>
       </c>
@@ -24023,7 +24174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="683" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="683" spans="1:9" ht="14.25" customHeight="1">
       <c r="A683" s="4" t="s">
         <v>716</v>
       </c>
@@ -24050,7 +24201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="684" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="684" spans="1:9" ht="14.25" customHeight="1">
       <c r="A684" s="4" t="s">
         <v>716</v>
       </c>
@@ -24077,7 +24228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="685" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="685" spans="1:9" ht="14.25" customHeight="1">
       <c r="A685" s="4" t="s">
         <v>716</v>
       </c>
@@ -24104,7 +24255,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="686" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="686" spans="1:9" ht="14.25" customHeight="1">
       <c r="A686" s="4" t="s">
         <v>716</v>
       </c>
@@ -24131,7 +24282,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="687" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="687" spans="1:9" ht="14.25" customHeight="1">
       <c r="A687" s="4" t="s">
         <v>716</v>
       </c>
@@ -24158,7 +24309,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="688" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="688" spans="1:9" ht="14.25" customHeight="1">
       <c r="A688" s="4" t="s">
         <v>716</v>
       </c>
@@ -24185,7 +24336,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="689" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="689" spans="1:9" ht="14.25" customHeight="1">
       <c r="A689" s="4" t="s">
         <v>716</v>
       </c>
@@ -24212,7 +24363,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="690" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="690" spans="1:9" ht="14.25" customHeight="1">
       <c r="A690" s="4" t="s">
         <v>716</v>
       </c>
@@ -24239,7 +24390,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="691" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="691" spans="1:9" ht="14.25" customHeight="1">
       <c r="A691" s="4" t="s">
         <v>716</v>
       </c>
@@ -24266,7 +24417,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="692" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="692" spans="1:9" ht="14.25" customHeight="1">
       <c r="A692" s="4" t="s">
         <v>716</v>
       </c>
@@ -24293,7 +24444,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="693" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="693" spans="1:9" ht="14.25" customHeight="1">
       <c r="A693" s="4" t="s">
         <v>716</v>
       </c>
@@ -24320,7 +24471,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="694" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="694" spans="1:9" ht="14.25" customHeight="1">
       <c r="A694" s="4" t="s">
         <v>716</v>
       </c>
@@ -24347,7 +24498,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="695" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="695" spans="1:9" ht="14.25" customHeight="1">
       <c r="A695" s="4" t="s">
         <v>716</v>
       </c>
@@ -24374,7 +24525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="696" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="696" spans="1:9" ht="14.25" customHeight="1">
       <c r="A696" s="4" t="s">
         <v>716</v>
       </c>
@@ -24401,7 +24552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="697" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="697" spans="1:9" ht="14.25" customHeight="1">
       <c r="A697" s="4" t="s">
         <v>716</v>
       </c>
@@ -24424,7 +24575,7 @@
       </c>
       <c r="I697" s="4"/>
     </row>
-    <row r="698" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="698" spans="1:9" ht="14.25" customHeight="1">
       <c r="A698" s="4" t="s">
         <v>773</v>
       </c>
@@ -24451,7 +24602,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="699" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="699" spans="1:9" ht="14.25" customHeight="1">
       <c r="A699" s="4" t="s">
         <v>773</v>
       </c>
@@ -24478,7 +24629,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="700" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="700" spans="1:9" ht="14.25" customHeight="1">
       <c r="A700" s="4" t="s">
         <v>773</v>
       </c>
@@ -24505,7 +24656,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="701" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="701" spans="1:9" ht="14.25" customHeight="1">
       <c r="A701" s="4" t="s">
         <v>773</v>
       </c>
@@ -24532,7 +24683,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="702" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="702" spans="1:9" ht="14.25" customHeight="1">
       <c r="A702" s="4" t="s">
         <v>773</v>
       </c>
@@ -24559,7 +24710,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="703" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="703" spans="1:9" ht="14.25" customHeight="1">
       <c r="A703" s="4" t="s">
         <v>773</v>
       </c>
@@ -24586,7 +24737,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="704" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="704" spans="1:9" ht="14.25" customHeight="1">
       <c r="A704" s="4" t="s">
         <v>773</v>
       </c>
@@ -24613,7 +24764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="705" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="705" spans="1:9" ht="14.25" customHeight="1">
       <c r="A705" s="4" t="s">
         <v>773</v>
       </c>
@@ -24640,7 +24791,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="706" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="706" spans="1:9" ht="14.25" customHeight="1">
       <c r="A706" s="4" t="s">
         <v>773</v>
       </c>
@@ -24667,7 +24818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="707" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="707" spans="1:9" ht="14.25" customHeight="1">
       <c r="A707" s="4" t="s">
         <v>773</v>
       </c>
@@ -24694,7 +24845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="708" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="708" spans="1:9" ht="14.25" customHeight="1">
       <c r="A708" s="4" t="s">
         <v>773</v>
       </c>
@@ -24721,7 +24872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="709" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="709" spans="1:9" ht="14.25" customHeight="1">
       <c r="A709" s="4" t="s">
         <v>773</v>
       </c>
@@ -24748,7 +24899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="710" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="710" spans="1:9" ht="14.25" customHeight="1">
       <c r="A710" s="4" t="s">
         <v>773</v>
       </c>
@@ -24775,7 +24926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="711" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="711" spans="1:9" ht="14.25" customHeight="1">
       <c r="A711" s="4" t="s">
         <v>773</v>
       </c>
@@ -24802,7 +24953,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="712" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="712" spans="1:9" ht="14.25" customHeight="1">
       <c r="A712" s="4" t="s">
         <v>773</v>
       </c>
@@ -24829,7 +24980,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="713" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="713" spans="1:9" ht="14.25" customHeight="1">
       <c r="A713" s="4" t="s">
         <v>773</v>
       </c>
@@ -24856,7 +25007,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="714" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="714" spans="1:9" ht="14.25" customHeight="1">
       <c r="A714" s="4" t="s">
         <v>773</v>
       </c>
@@ -24883,7 +25034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="715" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="715" spans="1:9" ht="14.25" customHeight="1">
       <c r="A715" s="4" t="s">
         <v>773</v>
       </c>
@@ -24910,7 +25061,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="716" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="716" spans="1:9" ht="14.25" customHeight="1">
       <c r="A716" s="4" t="s">
         <v>773</v>
       </c>
@@ -24937,7 +25088,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="717" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="717" spans="1:9" ht="14.25" customHeight="1">
       <c r="A717" s="4" t="s">
         <v>773</v>
       </c>
@@ -24964,7 +25115,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="718" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="718" spans="1:9" ht="14.25" customHeight="1">
       <c r="A718" s="4" t="s">
         <v>773</v>
       </c>
@@ -24991,7 +25142,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="719" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="719" spans="1:9" ht="14.25" customHeight="1">
       <c r="A719" s="4" t="s">
         <v>773</v>
       </c>
@@ -25018,7 +25169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="720" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="720" spans="1:9" ht="14.25" customHeight="1">
       <c r="A720" s="4" t="s">
         <v>773</v>
       </c>
@@ -25045,7 +25196,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="721" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="721" spans="1:9" ht="14.25" customHeight="1">
       <c r="A721" s="4" t="s">
         <v>773</v>
       </c>
@@ -25072,7 +25223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="722" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="722" spans="1:9" ht="14.25" customHeight="1">
       <c r="A722" s="4" t="s">
         <v>773</v>
       </c>
@@ -25099,7 +25250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="723" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="723" spans="1:9" ht="14.25" customHeight="1">
       <c r="A723" s="4" t="s">
         <v>773</v>
       </c>
@@ -25126,7 +25277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="724" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="724" spans="1:9" ht="14.25" customHeight="1">
       <c r="A724" s="4" t="s">
         <v>773</v>
       </c>
@@ -25153,7 +25304,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="725" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="725" spans="1:9" ht="14.25" customHeight="1">
       <c r="A725" s="4" t="s">
         <v>773</v>
       </c>
@@ -25178,7 +25329,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="726" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="726" spans="1:9" ht="14.25" customHeight="1">
       <c r="A726" s="4" t="s">
         <v>773</v>
       </c>
@@ -25205,7 +25356,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="727" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="727" spans="1:9" ht="14.25" customHeight="1">
       <c r="A727" s="4" t="s">
         <v>773</v>
       </c>
@@ -25556,7 +25707,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="740" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="740" spans="1:9" ht="14.25" customHeight="1">
       <c r="A740" s="4" t="s">
         <v>773</v>
       </c>
@@ -25583,7 +25734,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="741" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="741" spans="1:9" ht="14.25" customHeight="1">
       <c r="A741" s="4" t="s">
         <v>773</v>
       </c>
@@ -25610,7 +25761,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="742" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="742" spans="1:9" ht="14.25" customHeight="1">
       <c r="A742" s="4" t="s">
         <v>773</v>
       </c>
@@ -25637,7 +25788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="743" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="743" spans="1:9" ht="14.25" customHeight="1">
       <c r="A743" s="4" t="s">
         <v>773</v>
       </c>
@@ -25662,7 +25813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="744" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="744" spans="1:9" ht="14.25" customHeight="1">
       <c r="A744" s="4" t="s">
         <v>773</v>
       </c>
@@ -25687,7 +25838,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="745" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="745" spans="1:9" ht="14.25" customHeight="1">
       <c r="A745" s="4" t="s">
         <v>773</v>
       </c>
@@ -25714,7 +25865,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="746" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="746" spans="1:9" ht="14.25" customHeight="1">
       <c r="A746" s="4" t="s">
         <v>773</v>
       </c>
@@ -25741,7 +25892,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="747" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="747" spans="1:9" ht="14.25" customHeight="1">
       <c r="A747" s="4" t="s">
         <v>773</v>
       </c>
@@ -25768,7 +25919,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="748" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="748" spans="1:9" ht="14.25" customHeight="1">
       <c r="A748" s="4" t="s">
         <v>773</v>
       </c>
@@ -25795,7 +25946,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="749" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="749" spans="1:9" ht="14.25" customHeight="1">
       <c r="A749" s="4" t="s">
         <v>773</v>
       </c>
@@ -25822,7 +25973,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="750" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="750" spans="1:9" ht="14.25" customHeight="1">
       <c r="A750" s="4" t="s">
         <v>773</v>
       </c>
@@ -25849,7 +26000,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="751" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="751" spans="1:9" ht="14.25" customHeight="1">
       <c r="A751" s="4" t="s">
         <v>773</v>
       </c>
@@ -25876,7 +26027,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="752" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="752" spans="1:9" ht="14.25" customHeight="1">
       <c r="A752" s="4" t="s">
         <v>773</v>
       </c>
@@ -25903,7 +26054,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="753" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="753" spans="1:9" ht="14.25" customHeight="1">
       <c r="A753" s="4" t="s">
         <v>773</v>
       </c>
@@ -25930,7 +26081,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="754" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="754" spans="1:9" ht="14.25" customHeight="1">
       <c r="A754" s="4" t="s">
         <v>773</v>
       </c>
@@ -25957,7 +26108,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="755" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="755" spans="1:9" ht="14.25" customHeight="1">
       <c r="A755" s="4" t="s">
         <v>773</v>
       </c>
@@ -25984,7 +26135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="756" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="756" spans="1:9" ht="14.25" customHeight="1">
       <c r="A756" s="4" t="s">
         <v>773</v>
       </c>
@@ -26007,7 +26158,7 @@
       </c>
       <c r="I756" s="4"/>
     </row>
-    <row r="757" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="757" spans="1:9" ht="14.25" customHeight="1">
       <c r="A757" s="4" t="s">
         <v>773</v>
       </c>
@@ -26029,7 +26180,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="758" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="758" spans="1:9" ht="14.25" customHeight="1">
       <c r="A758" s="4" t="s">
         <v>773</v>
       </c>
@@ -26056,7 +26207,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="759" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="759" spans="1:9" ht="14.25" customHeight="1">
       <c r="A759" s="4" t="s">
         <v>773</v>
       </c>
@@ -26083,7 +26234,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="760" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="760" spans="1:9" ht="14.25" customHeight="1">
       <c r="A760" s="4" t="s">
         <v>773</v>
       </c>
@@ -26110,7 +26261,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="761" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="761" spans="1:9" ht="14.25" customHeight="1">
       <c r="A761" s="4" t="s">
         <v>773</v>
       </c>
@@ -26137,7 +26288,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="762" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="762" spans="1:9" ht="14.25" customHeight="1">
       <c r="A762" s="4" t="s">
         <v>773</v>
       </c>
@@ -26164,7 +26315,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="763" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="763" spans="1:9" ht="14.25" customHeight="1">
       <c r="A763" s="4" t="s">
         <v>773</v>
       </c>
@@ -26191,7 +26342,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="764" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="764" spans="1:9" ht="14.25" customHeight="1">
       <c r="A764" s="4" t="s">
         <v>773</v>
       </c>
@@ -26218,7 +26369,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="765" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="765" spans="1:9" ht="14.25" customHeight="1">
       <c r="A765" s="4" t="s">
         <v>773</v>
       </c>
@@ -26245,7 +26396,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="766" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="766" spans="1:9" ht="14.25" customHeight="1">
       <c r="A766" s="4" t="s">
         <v>827</v>
       </c>
@@ -26272,7 +26423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="767" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="767" spans="1:9" ht="14.25" customHeight="1">
       <c r="A767" s="4" t="s">
         <v>827</v>
       </c>
@@ -26299,7 +26450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="768" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="768" spans="1:9" ht="14.25" customHeight="1">
       <c r="A768" s="4" t="s">
         <v>827</v>
       </c>
@@ -26326,7 +26477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="769" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="769" spans="1:9" ht="14.25" customHeight="1">
       <c r="A769" s="4" t="s">
         <v>827</v>
       </c>
@@ -26353,7 +26504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="770" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="770" spans="1:9" ht="14.25" customHeight="1">
       <c r="A770" s="4" t="s">
         <v>827</v>
       </c>
@@ -26380,7 +26531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="771" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="771" spans="1:9" ht="14.25" customHeight="1">
       <c r="A771" s="4" t="s">
         <v>827</v>
       </c>
@@ -26407,7 +26558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="772" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="772" spans="1:9" ht="14.25" customHeight="1">
       <c r="A772" s="4" t="s">
         <v>827</v>
       </c>
@@ -26434,7 +26585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="773" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="773" spans="1:9" ht="14.25" customHeight="1">
       <c r="A773" s="4" t="s">
         <v>827</v>
       </c>
@@ -26461,7 +26612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="774" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="774" spans="1:9" ht="14.25" customHeight="1">
       <c r="A774" s="4" t="s">
         <v>827</v>
       </c>
@@ -26484,7 +26635,7 @@
       </c>
       <c r="I774" s="4"/>
     </row>
-    <row r="775" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="775" spans="1:9" ht="14.25" customHeight="1">
       <c r="A775" s="4" t="s">
         <v>827</v>
       </c>
@@ -26511,7 +26662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="776" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="776" spans="1:9" ht="14.25" customHeight="1">
       <c r="A776" s="4" t="s">
         <v>827</v>
       </c>
@@ -26538,7 +26689,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="777" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="777" spans="1:9" ht="14.25" customHeight="1">
       <c r="A777" s="4" t="s">
         <v>827</v>
       </c>
@@ -26565,7 +26716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="778" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="778" spans="1:9" ht="14.25" customHeight="1">
       <c r="A778" s="4" t="s">
         <v>827</v>
       </c>
@@ -26592,7 +26743,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="779" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="779" spans="1:9" ht="14.25" customHeight="1">
       <c r="A779" s="4" t="s">
         <v>827</v>
       </c>
@@ -26619,7 +26770,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="780" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="780" spans="1:9" ht="14.25" customHeight="1">
       <c r="A780" s="4" t="s">
         <v>827</v>
       </c>
@@ -26646,7 +26797,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="781" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="781" spans="1:9" ht="14.25" customHeight="1">
       <c r="A781" s="4" t="s">
         <v>827</v>
       </c>
@@ -26673,7 +26824,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="782" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="782" spans="1:9" ht="14.25" customHeight="1">
       <c r="A782" s="4" t="s">
         <v>827</v>
       </c>
@@ -26700,7 +26851,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="783" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="783" spans="1:9" ht="14.25" customHeight="1">
       <c r="A783" s="4" t="s">
         <v>827</v>
       </c>
@@ -26727,7 +26878,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="784" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="784" spans="1:9" ht="14.25" customHeight="1">
       <c r="A784" s="4" t="s">
         <v>827</v>
       </c>
@@ -26754,7 +26905,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="785" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="785" spans="1:9" ht="14.25" customHeight="1">
       <c r="A785" s="4" t="s">
         <v>827</v>
       </c>
@@ -26781,7 +26932,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="786" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="786" spans="1:9" ht="14.25" customHeight="1">
       <c r="A786" s="4" t="s">
         <v>827</v>
       </c>
@@ -26808,7 +26959,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="787" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="787" spans="1:9" ht="14.25" customHeight="1">
       <c r="A787" s="4" t="s">
         <v>827</v>
       </c>
@@ -26835,7 +26986,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="788" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="788" spans="1:9" ht="14.25" customHeight="1">
       <c r="A788" s="4" t="s">
         <v>827</v>
       </c>
@@ -26862,7 +27013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="789" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="789" spans="1:9" ht="14.25" customHeight="1">
       <c r="A789" s="4" t="s">
         <v>827</v>
       </c>
@@ -26889,7 +27040,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="790" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="790" spans="1:9" ht="14.25" customHeight="1">
       <c r="A790" s="4" t="s">
         <v>827</v>
       </c>
@@ -26916,7 +27067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="791" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="791" spans="1:9" ht="14.25" customHeight="1">
       <c r="A791" s="4" t="s">
         <v>827</v>
       </c>
@@ -26943,7 +27094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="792" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="792" spans="1:9" ht="14.25" customHeight="1">
       <c r="A792" s="4" t="s">
         <v>827</v>
       </c>
@@ -26970,7 +27121,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="793" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="793" spans="1:9" ht="14.25" customHeight="1">
       <c r="A793" s="4" t="s">
         <v>827</v>
       </c>
@@ -26997,7 +27148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="794" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="794" spans="1:9" ht="14.25" customHeight="1">
       <c r="A794" s="4" t="s">
         <v>827</v>
       </c>
@@ -27024,7 +27175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="795" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="795" spans="1:9" ht="14.25" customHeight="1">
       <c r="A795" s="4" t="s">
         <v>827</v>
       </c>
@@ -27051,7 +27202,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="796" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="796" spans="1:9" ht="14.25" customHeight="1">
       <c r="A796" s="4" t="s">
         <v>827</v>
       </c>
@@ -27078,7 +27229,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="797" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="797" spans="1:9" ht="14.25" customHeight="1">
       <c r="A797" s="4" t="s">
         <v>827</v>
       </c>
@@ -27105,7 +27256,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="798" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="798" spans="1:9" ht="14.25" customHeight="1">
       <c r="A798" s="4" t="s">
         <v>827</v>
       </c>
@@ -27132,7 +27283,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="799" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="799" spans="1:9" ht="14.25" customHeight="1">
       <c r="A799" s="4" t="s">
         <v>827</v>
       </c>
@@ -27157,7 +27308,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="800" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="800" spans="1:9" ht="14.25" customHeight="1">
       <c r="A800" s="4" t="s">
         <v>827</v>
       </c>
@@ -27184,7 +27335,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="801" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="801" spans="1:9" ht="14.25" customHeight="1">
       <c r="A801" s="4" t="s">
         <v>827</v>
       </c>
@@ -27778,7 +27929,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="823" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="823" spans="1:9" ht="14.25" customHeight="1">
       <c r="A823" s="4" t="s">
         <v>827</v>
       </c>
@@ -27805,7 +27956,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="824" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="824" spans="1:9" ht="14.25" customHeight="1">
       <c r="A824" s="4" t="s">
         <v>827</v>
       </c>
@@ -27832,7 +27983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="825" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="825" spans="1:9" ht="14.25" customHeight="1">
       <c r="A825" s="4" t="s">
         <v>827</v>
       </c>
@@ -27859,7 +28010,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="826" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="826" spans="1:9" ht="14.25" customHeight="1">
       <c r="A826" s="4" t="s">
         <v>827</v>
       </c>
@@ -27886,7 +28037,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="827" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="827" spans="1:9" ht="14.25" customHeight="1">
       <c r="A827" s="4" t="s">
         <v>827</v>
       </c>
@@ -27913,7 +28064,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="828" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="828" spans="1:9" ht="14.25" customHeight="1">
       <c r="A828" s="4" t="s">
         <v>827</v>
       </c>
@@ -27940,7 +28091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="829" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="829" spans="1:9" ht="14.25" customHeight="1">
       <c r="A829" s="4" t="s">
         <v>827</v>
       </c>
@@ -27967,7 +28118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="830" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="830" spans="1:9" ht="14.25" customHeight="1">
       <c r="A830" s="4" t="s">
         <v>827</v>
       </c>
@@ -27992,7 +28143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="831" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="831" spans="1:9" ht="14.25" customHeight="1">
       <c r="A831" s="4" t="s">
         <v>827</v>
       </c>
@@ -28019,7 +28170,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="832" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="832" spans="1:9" ht="14.25" customHeight="1">
       <c r="A832" s="4" t="s">
         <v>827</v>
       </c>
@@ -28044,7 +28195,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="833" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="833" spans="1:9" ht="14.25" customHeight="1">
       <c r="A833" s="4" t="s">
         <v>827</v>
       </c>
@@ -28069,7 +28220,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="834" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="834" spans="1:9" ht="14.25" customHeight="1">
       <c r="A834" s="4" t="s">
         <v>827</v>
       </c>
@@ -28094,7 +28245,7 @@
       </c>
       <c r="I834" s="4"/>
     </row>
-    <row r="835" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="835" spans="1:9" ht="14.25" customHeight="1">
       <c r="A835" s="4" t="s">
         <v>827</v>
       </c>
@@ -28119,7 +28270,7 @@
       </c>
       <c r="I835" s="4"/>
     </row>
-    <row r="836" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="836" spans="1:9" ht="14.25" customHeight="1">
       <c r="A836" s="4" t="s">
         <v>827</v>
       </c>
@@ -28144,7 +28295,7 @@
       </c>
       <c r="I836" s="4"/>
     </row>
-    <row r="837" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="837" spans="1:9" ht="14.25" customHeight="1">
       <c r="A837" s="4" t="s">
         <v>827</v>
       </c>
@@ -28169,7 +28320,7 @@
       </c>
       <c r="I837" s="4"/>
     </row>
-    <row r="838" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="838" spans="1:9" ht="14.25" customHeight="1">
       <c r="A838" s="4" t="s">
         <v>827</v>
       </c>
@@ -28194,7 +28345,7 @@
       </c>
       <c r="I838" s="4"/>
     </row>
-    <row r="839" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="839" spans="1:9" ht="14.25" customHeight="1">
       <c r="A839" s="4" t="s">
         <v>827</v>
       </c>
@@ -28219,7 +28370,7 @@
       </c>
       <c r="I839" s="4"/>
     </row>
-    <row r="840" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="840" spans="1:9" ht="14.25" customHeight="1">
       <c r="A840" s="12" t="s">
         <v>920</v>
       </c>
@@ -28246,7 +28397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="841" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="841" spans="1:9" ht="14.25" customHeight="1">
       <c r="A841" s="12" t="s">
         <v>920</v>
       </c>
@@ -28273,7 +28424,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="842" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="842" spans="1:9" ht="14.25" customHeight="1">
       <c r="A842" s="12" t="s">
         <v>920</v>
       </c>
@@ -28300,7 +28451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="843" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="843" spans="1:9" ht="14.25" customHeight="1">
       <c r="A843" s="12" t="s">
         <v>920</v>
       </c>
@@ -28327,7 +28478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="844" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="844" spans="1:9" ht="14.25" customHeight="1">
       <c r="A844" s="12" t="s">
         <v>920</v>
       </c>
@@ -28354,7 +28505,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="845" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="845" spans="1:9" ht="14.25" customHeight="1">
       <c r="A845" s="12" t="s">
         <v>920</v>
       </c>
@@ -28381,7 +28532,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="846" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="846" spans="1:9" ht="14.25" customHeight="1">
       <c r="A846" s="12" t="s">
         <v>920</v>
       </c>
@@ -28408,7 +28559,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="847" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="847" spans="1:9" ht="14.25" customHeight="1">
       <c r="A847" s="12" t="s">
         <v>920</v>
       </c>
@@ -28435,7 +28586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="848" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="848" spans="1:9" ht="14.25" customHeight="1">
       <c r="A848" s="12" t="s">
         <v>920</v>
       </c>
@@ -28462,7 +28613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="849" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="849" spans="1:9" ht="14.25" customHeight="1">
       <c r="A849" s="12" t="s">
         <v>920</v>
       </c>
@@ -28489,7 +28640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="850" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="850" spans="1:9" ht="14.25" customHeight="1">
       <c r="A850" s="12" t="s">
         <v>920</v>
       </c>
@@ -28516,7 +28667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="851" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="851" spans="1:9" ht="14.25" customHeight="1">
       <c r="A851" s="12" t="s">
         <v>920</v>
       </c>
@@ -28543,7 +28694,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="852" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="852" spans="1:9" ht="14.25" customHeight="1">
       <c r="A852" s="12" t="s">
         <v>920</v>
       </c>
@@ -28570,7 +28721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="853" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="853" spans="1:9" ht="14.25" customHeight="1">
       <c r="A853" s="12" t="s">
         <v>920</v>
       </c>
@@ -28597,7 +28748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="854" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="854" spans="1:9" ht="14.25" customHeight="1">
       <c r="A854" s="12" t="s">
         <v>920</v>
       </c>
@@ -28624,7 +28775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="855" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="855" spans="1:9" ht="14.25" customHeight="1">
       <c r="A855" s="12" t="s">
         <v>920</v>
       </c>
@@ -28651,7 +28802,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="856" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="856" spans="1:9" ht="14.25" customHeight="1">
       <c r="A856" s="12" t="s">
         <v>920</v>
       </c>
@@ -28678,7 +28829,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="857" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="857" spans="1:9" ht="14.25" customHeight="1">
       <c r="A857" s="12" t="s">
         <v>920</v>
       </c>
@@ -28705,7 +28856,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="858" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="858" spans="1:9" ht="14.25" customHeight="1">
       <c r="A858" s="12" t="s">
         <v>920</v>
       </c>
@@ -28732,7 +28883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="859" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="859" spans="1:9" ht="14.25" customHeight="1">
       <c r="A859" s="12" t="s">
         <v>920</v>
       </c>
@@ -28759,7 +28910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="860" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="860" spans="1:9" ht="14.25" customHeight="1">
       <c r="A860" s="12" t="s">
         <v>920</v>
       </c>
@@ -28786,7 +28937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="861" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="861" spans="1:9" ht="14.25" customHeight="1">
       <c r="A861" s="12" t="s">
         <v>920</v>
       </c>
@@ -28813,7 +28964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="862" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="862" spans="1:9" ht="14.25" customHeight="1">
       <c r="A862" s="12" t="s">
         <v>920</v>
       </c>
@@ -28840,7 +28991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="863" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="863" spans="1:9" ht="14.25" customHeight="1">
       <c r="A863" s="12" t="s">
         <v>920</v>
       </c>
@@ -28867,7 +29018,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="864" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="864" spans="1:9" ht="14.25" customHeight="1">
       <c r="A864" s="12" t="s">
         <v>920</v>
       </c>
@@ -28894,7 +29045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="865" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="865" spans="1:9" ht="14.25" customHeight="1">
       <c r="A865" s="12" t="s">
         <v>920</v>
       </c>
@@ -28921,7 +29072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="866" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="866" spans="1:9" ht="14.25" customHeight="1">
       <c r="A866" s="12" t="s">
         <v>920</v>
       </c>
@@ -28948,7 +29099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="867" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="867" spans="1:9" ht="14.25" customHeight="1">
       <c r="A867" s="12" t="s">
         <v>920</v>
       </c>
@@ -28975,7 +29126,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="868" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="868" spans="1:9" ht="14.25" customHeight="1">
       <c r="A868" s="12" t="s">
         <v>920</v>
       </c>
@@ -29002,7 +29153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="869" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="869" spans="1:9" ht="14.25" customHeight="1">
       <c r="A869" s="12" t="s">
         <v>920</v>
       </c>
@@ -29018,7 +29169,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="870" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="870" spans="1:9" ht="14.25" customHeight="1">
       <c r="A870" s="12" t="s">
         <v>920</v>
       </c>
@@ -29032,7 +29183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="871" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="871" spans="1:9" ht="14.25" customHeight="1">
       <c r="A871" s="12" t="s">
         <v>920</v>
       </c>
@@ -29054,7 +29205,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="872" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="872" spans="1:9" ht="14.25" customHeight="1">
       <c r="A872" s="12" t="s">
         <v>920</v>
       </c>
@@ -29081,7 +29232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="873" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="873" spans="1:9" ht="14.25" customHeight="1">
       <c r="A873" s="12" t="s">
         <v>920</v>
       </c>
@@ -29108,7 +29259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="874" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="874" spans="1:9" ht="14.25" customHeight="1">
       <c r="A874" s="12" t="s">
         <v>920</v>
       </c>
@@ -29135,7 +29286,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="875" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="875" spans="1:9" ht="14.25" customHeight="1">
       <c r="A875" s="12" t="s">
         <v>920</v>
       </c>
@@ -29162,7 +29313,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="876" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="876" spans="1:9" ht="14.25" customHeight="1">
       <c r="A876" s="12" t="s">
         <v>920</v>
       </c>
@@ -29189,7 +29340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="877" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="877" spans="1:9" ht="14.25" customHeight="1">
       <c r="A877" s="12" t="s">
         <v>920</v>
       </c>
@@ -29216,7 +29367,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="878" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="878" spans="1:9" ht="14.25" customHeight="1">
       <c r="A878" s="12" t="s">
         <v>920</v>
       </c>
@@ -29243,7 +29394,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="879" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="879" spans="1:9" ht="14.25" customHeight="1">
       <c r="A879" s="12" t="s">
         <v>920</v>
       </c>
@@ -29270,7 +29421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="880" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="880" spans="1:9" ht="14.25" customHeight="1">
       <c r="A880" s="12" t="s">
         <v>920</v>
       </c>
@@ -29297,7 +29448,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="881" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="881" spans="1:9" ht="14.25" customHeight="1">
       <c r="A881" s="12" t="s">
         <v>920</v>
       </c>
@@ -29324,7 +29475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="882" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="882" spans="1:9" ht="14.25" customHeight="1">
       <c r="A882" s="12" t="s">
         <v>920</v>
       </c>
@@ -29456,7 +29607,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="887" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="887" spans="1:9" ht="14.25" customHeight="1">
       <c r="A887" s="12" t="s">
         <v>920</v>
       </c>
@@ -29483,7 +29634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="888" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="888" spans="1:9" ht="14.25" customHeight="1">
       <c r="A888" s="12" t="s">
         <v>920</v>
       </c>
@@ -29510,7 +29661,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="889" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="889" spans="1:9" ht="14.25" customHeight="1">
       <c r="A889" s="12" t="s">
         <v>920</v>
       </c>
@@ -29537,7 +29688,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="890" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="890" spans="1:9" ht="14.25" customHeight="1">
       <c r="A890" s="12" t="s">
         <v>920</v>
       </c>
@@ -29564,7 +29715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="891" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="891" spans="1:9" ht="14.25" customHeight="1">
       <c r="A891" s="12" t="s">
         <v>920</v>
       </c>
@@ -29588,7 +29739,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="892" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="892" spans="1:9" ht="14.25" customHeight="1">
       <c r="A892" s="12" t="s">
         <v>920</v>
       </c>
@@ -29615,7 +29766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="893" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="893" spans="1:9" ht="14.25" customHeight="1">
       <c r="A893" s="12" t="s">
         <v>920</v>
       </c>
@@ -29642,7 +29793,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="894" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="894" spans="1:9" ht="14.25" customHeight="1">
       <c r="A894" s="12" t="s">
         <v>920</v>
       </c>
@@ -29669,7 +29820,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="895" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="895" spans="1:9" ht="14.25" customHeight="1">
       <c r="A895" s="12" t="s">
         <v>920</v>
       </c>
@@ -29696,7 +29847,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="896" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="896" spans="1:9" ht="14.25" customHeight="1">
       <c r="A896" s="12" t="s">
         <v>920</v>
       </c>
@@ -29750,7 +29901,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="898" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="898" spans="1:9" ht="14.25" customHeight="1">
       <c r="A898" s="12" t="s">
         <v>920</v>
       </c>
@@ -29771,7 +29922,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="899" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="899" spans="1:9" ht="14.25" customHeight="1">
       <c r="A899" s="12" t="s">
         <v>920</v>
       </c>
@@ -29795,7 +29946,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="900" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="900" spans="1:9" ht="14.25" customHeight="1">
       <c r="A900" s="12" t="s">
         <v>920</v>
       </c>
@@ -29819,7 +29970,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="901" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="901" spans="1:9" ht="14.25" customHeight="1">
       <c r="A901" s="12" t="s">
         <v>920</v>
       </c>
@@ -29843,7 +29994,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="902" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="902" spans="1:9" ht="14.25" customHeight="1">
       <c r="A902" s="12" t="s">
         <v>920</v>
       </c>
@@ -29867,7 +30018,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="903" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="903" spans="1:9" ht="14.25" customHeight="1">
       <c r="A903" s="12" t="s">
         <v>920</v>
       </c>
@@ -29891,7 +30042,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="904" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="904" spans="1:9" ht="14.25" customHeight="1">
       <c r="A904" s="12" t="s">
         <v>920</v>
       </c>
@@ -29915,7 +30066,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="905" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="905" spans="1:9" ht="14.25" customHeight="1">
       <c r="A905" s="12" t="s">
         <v>920</v>
       </c>
@@ -29939,7 +30090,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="906" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="906" spans="1:9" ht="14.25" customHeight="1">
       <c r="A906" s="12" t="s">
         <v>920</v>
       </c>
@@ -29963,7 +30114,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="907" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="907" spans="1:9" ht="14.25" customHeight="1">
       <c r="A907" s="12" t="s">
         <v>920</v>
       </c>
@@ -29987,7 +30138,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="908" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="908" spans="1:9" ht="14.25" customHeight="1">
       <c r="A908" s="12" t="s">
         <v>920</v>
       </c>
@@ -30011,7 +30162,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="909" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="909" spans="1:9" ht="14.25" customHeight="1">
       <c r="A909" s="12" t="s">
         <v>920</v>
       </c>
@@ -30035,7 +30186,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="910" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="910" spans="1:9" ht="14.25" customHeight="1">
       <c r="A910" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30061,7 +30212,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="911" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="911" spans="1:9" ht="14.25" customHeight="1">
       <c r="A911" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30087,7 +30238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="912" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="912" spans="1:9" ht="14.25" customHeight="1">
       <c r="A912" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30116,7 +30267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="913" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="913" spans="1:9" ht="14.25" customHeight="1">
       <c r="A913" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30145,7 +30296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="914" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="914" spans="1:9" ht="14.25" customHeight="1">
       <c r="A914" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30174,7 +30325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="915" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="915" spans="1:9" ht="14.25" customHeight="1">
       <c r="A915" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30203,7 +30354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="916" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="916" spans="1:9" ht="14.25" customHeight="1">
       <c r="A916" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30232,7 +30383,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="917" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="917" spans="1:9" ht="14.25" customHeight="1">
       <c r="A917" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30261,7 +30412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="918" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="918" spans="1:9" ht="14.25" customHeight="1">
       <c r="A918" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30290,7 +30441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="919" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="919" spans="1:9" ht="14.25" customHeight="1">
       <c r="A919" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30319,7 +30470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="920" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="920" spans="1:9" ht="14.25" customHeight="1">
       <c r="A920" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30348,7 +30499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="921" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="921" spans="1:9" ht="14.25" customHeight="1">
       <c r="A921" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30377,7 +30528,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="922" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="922" spans="1:9" ht="14.25" customHeight="1">
       <c r="A922" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30406,7 +30557,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="923" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="923" spans="1:9" ht="14.25" customHeight="1">
       <c r="A923" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30435,7 +30586,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="924" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="924" spans="1:9" ht="14.25" customHeight="1">
       <c r="A924" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30464,7 +30615,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="925" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="925" spans="1:9" ht="14.25" customHeight="1">
       <c r="A925" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30493,7 +30644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="926" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="926" spans="1:9" ht="14.25" customHeight="1">
       <c r="A926" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30522,7 +30673,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="927" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="927" spans="1:9" ht="14.25" customHeight="1">
       <c r="A927" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30551,7 +30702,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="928" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="928" spans="1:9" ht="14.25" customHeight="1">
       <c r="A928" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30580,7 +30731,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="929" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="929" spans="1:9" ht="14.25" customHeight="1">
       <c r="A929" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30609,7 +30760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="930" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="930" spans="1:9" ht="14.25" customHeight="1">
       <c r="A930" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30638,7 +30789,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="931" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="931" spans="1:9" ht="14.25" customHeight="1">
       <c r="A931" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30667,7 +30818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="932" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="932" spans="1:9" ht="14.25" customHeight="1">
       <c r="A932" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30696,7 +30847,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="933" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="933" spans="1:9" ht="14.25" customHeight="1">
       <c r="A933" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30725,7 +30876,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="934" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="934" spans="1:9" ht="14.25" customHeight="1">
       <c r="A934" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30754,7 +30905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="935" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="935" spans="1:9" ht="14.25" customHeight="1">
       <c r="A935" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30783,7 +30934,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="936" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="936" spans="1:9" ht="14.25" customHeight="1">
       <c r="A936" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30812,7 +30963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="937" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="937" spans="1:9" ht="14.25" customHeight="1">
       <c r="A937" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30841,7 +30992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="938" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="938" spans="1:9" ht="14.25" customHeight="1">
       <c r="A938" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30870,7 +31021,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="939" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="939" spans="1:9" ht="14.25" customHeight="1">
       <c r="A939" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30899,7 +31050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="940" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="940" spans="1:9" ht="14.25" customHeight="1">
       <c r="A940" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30928,7 +31079,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="941" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="941" spans="1:9" ht="14.25" customHeight="1">
       <c r="A941" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30954,7 +31105,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="942" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="942" spans="1:9" ht="14.25" customHeight="1">
       <c r="A942" s="34" t="s">
         <v>1014</v>
       </c>
@@ -30980,7 +31131,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="943" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="943" spans="1:9" ht="14.25" customHeight="1">
       <c r="A943" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31006,7 +31157,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="944" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="944" spans="1:9" ht="14.25" customHeight="1">
       <c r="A944" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31032,7 +31183,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="945" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="945" spans="1:8" ht="14.25" customHeight="1">
       <c r="A945" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31058,7 +31209,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="946" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="946" spans="1:8" ht="14.25" customHeight="1">
       <c r="A946" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31084,7 +31235,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="947" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="947" spans="1:8" ht="14.25" customHeight="1">
       <c r="A947" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31110,7 +31261,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="948" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="948" spans="1:8" ht="14.25" customHeight="1">
       <c r="A948" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31136,7 +31287,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="949" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="949" spans="1:8" ht="14.25" customHeight="1">
       <c r="A949" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31159,7 +31310,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="950" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="950" spans="1:8" ht="14.25" customHeight="1">
       <c r="A950" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31182,7 +31333,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="951" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="951" spans="1:8" ht="14.25" customHeight="1">
       <c r="A951" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31205,7 +31356,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="952" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="952" spans="1:8" ht="14.25" customHeight="1">
       <c r="A952" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31514,7 +31665,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="964" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="964" spans="1:8" ht="14.25" customHeight="1">
       <c r="A964" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31540,7 +31691,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="965" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="965" spans="1:8" ht="14.25" customHeight="1">
       <c r="A965" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31566,7 +31717,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="966" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="966" spans="1:8" ht="14.25" customHeight="1">
       <c r="A966" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31592,7 +31743,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="967" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="967" spans="1:8" ht="14.25" customHeight="1">
       <c r="A967" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31618,7 +31769,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="968" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="968" spans="1:8" ht="14.25" customHeight="1">
       <c r="A968" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31644,7 +31795,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="969" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="969" spans="1:8" ht="14.25" customHeight="1">
       <c r="A969" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31670,7 +31821,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="970" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="970" spans="1:8" ht="14.25" customHeight="1">
       <c r="A970" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31696,7 +31847,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="971" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="971" spans="1:8" ht="14.25" customHeight="1">
       <c r="A971" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31722,7 +31873,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="972" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="972" spans="1:8" ht="14.25" customHeight="1">
       <c r="A972" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31748,7 +31899,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="973" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="973" spans="1:8" ht="14.25" customHeight="1">
       <c r="A973" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31774,7 +31925,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="974" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="974" spans="1:8" ht="14.25" customHeight="1">
       <c r="A974" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31800,7 +31951,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="975" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="975" spans="1:8" ht="14.25" customHeight="1">
       <c r="A975" s="34" t="s">
         <v>1014</v>
       </c>
@@ -31826,7 +31977,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="976" spans="1:8" ht="14.25" hidden="1" customHeight="1">
+    <row r="976" spans="1:8" ht="14.25" customHeight="1">
       <c r="A976" s="34" t="s">
         <v>1014</v>
       </c>
@@ -32319,15 +32470,7 @@
       <c r="F1065" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J981" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="PRECAREG"/>
-        <filter val="PRECASEG"/>
-        <filter val="PRECATEMP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J981" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="C743:D743"/>
     <mergeCell ref="C744:D744"/>
@@ -32343,6 +32486,622 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F10C83-EC15-472F-8050-C4CFBAA889D2}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A2" s="91" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="91" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D4" s="91"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="91" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D5" s="91"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="92" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D6" s="92"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="92" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D7" s="92"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="92" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" s="92" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" s="92" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A11" s="92" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A12" s="92" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A13" s="92" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C13" s="96" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A14" s="92" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A15" s="91" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A16" s="91" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="91" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="91" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A19" s="91" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E19" s="91" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="91" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E20" s="91" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="91" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="91" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="91" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C23" s="93" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="91" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="91" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="91" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C26" s="93" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="91" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C27" s="93" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="91" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C28" s="93" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="91" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B29" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="91" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B30" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="91" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D31" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="91" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="91" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B32" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C32" s="93" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D32" s="91" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E32" s="91" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="91" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D33" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="91" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="91" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C34" s="93" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D34" s="91" t="s">
+        <v>471</v>
+      </c>
+      <c r="E34" s="91" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="91" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B35" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D35" s="91" t="s">
+        <v>475</v>
+      </c>
+      <c r="E35" s="91" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="91" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C36" s="93" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D36" s="91" t="s">
+        <v>481</v>
+      </c>
+      <c r="E36" s="91" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="91" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="91" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B38" s="91" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C38" s="95" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
@@ -33584,7 +34343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H980"/>
   <sheetViews>
@@ -34849,7 +35608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -63210,7 +63969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
@@ -64419,7 +65178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -64615,7 +65374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\precariedad.mundial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EEC360-327E-4DDA-AFC5-A55D30C50E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427A8FAC-D586-4759-80EA-63FFFEBB5B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2910" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2910" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="8" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7785" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="1480">
   <si>
     <t>Pais</t>
   </si>
@@ -4544,6 +4544,12 @@
   </si>
   <si>
     <t>https://www.indec.gob.ar/indec/web/Institucional-Indec-BasesDeDatos</t>
+  </si>
+  <si>
+    <t>11 a 50 personas</t>
+  </si>
+  <si>
+    <t>&gt; 50 personas</t>
   </si>
 </sst>
 </file>
@@ -6100,10 +6106,10 @@
   </sheetPr>
   <dimension ref="A1:Z1062"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A872" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
-      <selection pane="bottomLeft" activeCell="F876" sqref="F876"/>
+      <selection pane="bottomLeft" activeCell="B1040" sqref="B1040"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6841,7 +6847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" thickTop="1">
+    <row r="28" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -6868,7 +6874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1">
+    <row r="29" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -6895,7 +6901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1">
+    <row r="30" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -6922,7 +6928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1">
+    <row r="31" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -6949,7 +6955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1">
+    <row r="32" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -6976,7 +6982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="14.25" customHeight="1">
+    <row r="33" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -7003,7 +7009,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="14.25" customHeight="1">
+    <row r="34" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -8560,7 +8566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="14.25" customHeight="1">
+    <row r="89" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>108</v>
       </c>
@@ -8587,7 +8593,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="14.25" customHeight="1">
+    <row r="90" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>108</v>
       </c>
@@ -8614,7 +8620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="14.25" customHeight="1">
+    <row r="91" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>108</v>
       </c>
@@ -8641,7 +8647,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="14.25" customHeight="1">
+    <row r="92" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>108</v>
       </c>
@@ -8668,7 +8674,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="14.25" customHeight="1">
+    <row r="93" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>108</v>
       </c>
@@ -8695,7 +8701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="14.25" customHeight="1">
+    <row r="94" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>108</v>
       </c>
@@ -8722,7 +8728,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.25" customHeight="1">
+    <row r="95" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>108</v>
       </c>
@@ -8749,7 +8755,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="14.25" customHeight="1">
+    <row r="96" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>108</v>
       </c>
@@ -8776,7 +8782,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="14.25" customHeight="1">
+    <row r="97" spans="1:10" ht="14.25" hidden="1" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>108</v>
       </c>
@@ -10331,7 +10337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="14.25" customHeight="1">
+    <row r="154" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>184</v>
       </c>
@@ -10358,7 +10364,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="14.25" customHeight="1">
+    <row r="155" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>184</v>
       </c>
@@ -10385,7 +10391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="14.25" customHeight="1">
+    <row r="156" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A156" s="4" t="s">
         <v>184</v>
       </c>
@@ -10412,7 +10418,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="14.25" customHeight="1">
+    <row r="157" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A157" s="4" t="s">
         <v>184</v>
       </c>
@@ -10439,7 +10445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="14.25" customHeight="1">
+    <row r="158" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A158" s="4" t="s">
         <v>184</v>
       </c>
@@ -10466,7 +10472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="14.25" customHeight="1">
+    <row r="159" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A159" s="4" t="s">
         <v>184</v>
       </c>
@@ -10493,7 +10499,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="14.25" customHeight="1">
+    <row r="160" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A160" s="4" t="s">
         <v>184</v>
       </c>
@@ -10520,7 +10526,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:26" ht="14.25" customHeight="1">
+    <row r="161" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A161" s="4" t="s">
         <v>184</v>
       </c>
@@ -10547,7 +10553,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:26" ht="14.25" customHeight="1">
+    <row r="162" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A162" s="4" t="s">
         <v>184</v>
       </c>
@@ -10574,7 +10580,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:26" ht="14.25" customHeight="1">
+    <row r="163" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A163" s="4" t="s">
         <v>184</v>
       </c>
@@ -10601,7 +10607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" spans="1:26" ht="14.25" customHeight="1">
+    <row r="164" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>184</v>
       </c>
@@ -10628,7 +10634,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="165" spans="1:26" ht="14.25" customHeight="1">
+    <row r="165" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>184</v>
       </c>
@@ -10655,7 +10661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:26" ht="14.25" customHeight="1">
+    <row r="166" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>184</v>
       </c>
@@ -10682,7 +10688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="167" spans="1:26" ht="14.25" customHeight="1">
+    <row r="167" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>184</v>
       </c>
@@ -12135,7 +12141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="216" spans="1:26" ht="14.25" customHeight="1">
+    <row r="216" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>257</v>
       </c>
@@ -12164,7 +12170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:26" ht="14.25" customHeight="1">
+    <row r="217" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A217" s="4" t="s">
         <v>257</v>
       </c>
@@ -12193,7 +12199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="218" spans="1:26" ht="14.25" customHeight="1">
+    <row r="218" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>257</v>
       </c>
@@ -13956,7 +13962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="277" spans="1:26" ht="14.25" customHeight="1">
+    <row r="277" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A277" s="4" t="s">
         <v>324</v>
       </c>
@@ -13985,7 +13991,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="278" spans="1:26" ht="14.25" customHeight="1">
+    <row r="278" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A278" s="4" t="s">
         <v>324</v>
       </c>
@@ -14014,7 +14020,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="279" spans="1:26" ht="14.25" customHeight="1">
+    <row r="279" spans="1:26" ht="14.25" hidden="1" customHeight="1">
       <c r="A279" s="4" t="s">
         <v>324</v>
       </c>
@@ -16262,7 +16268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="14.25" customHeight="1">
+    <row r="358" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A358" s="4" t="s">
         <v>396</v>
       </c>
@@ -16289,7 +16295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="14.25" customHeight="1">
+    <row r="359" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A359" s="4" t="s">
         <v>396</v>
       </c>
@@ -16316,7 +16322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="14.25" customHeight="1">
+    <row r="360" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A360" s="4" t="s">
         <v>396</v>
       </c>
@@ -17262,7 +17268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="14.25" customHeight="1">
+    <row r="396" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A396" s="4" t="s">
         <v>442</v>
       </c>
@@ -17289,7 +17295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="14.25" customHeight="1">
+    <row r="397" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A397" s="4" t="s">
         <v>442</v>
       </c>
@@ -17316,7 +17322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="14.25" customHeight="1">
+    <row r="398" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A398" s="4" t="s">
         <v>442</v>
       </c>
@@ -17343,7 +17349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="14.25" customHeight="1">
+    <row r="399" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A399" s="4" t="s">
         <v>442</v>
       </c>
@@ -19933,7 +19939,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="14.25" customHeight="1">
+    <row r="490" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A490" s="4" t="s">
         <v>503</v>
       </c>
@@ -19962,7 +19968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="14.25" customHeight="1">
+    <row r="491" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A491" s="4" t="s">
         <v>503</v>
       </c>
@@ -19991,7 +19997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="14.25" customHeight="1">
+    <row r="492" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A492" s="4" t="s">
         <v>503</v>
       </c>
@@ -20020,7 +20026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="14.25" customHeight="1">
+    <row r="493" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A493" s="4" t="s">
         <v>503</v>
       </c>
@@ -20049,7 +20055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="14.25" customHeight="1">
+    <row r="494" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A494" s="4" t="s">
         <v>503</v>
       </c>
@@ -22017,7 +22023,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="14.25" customHeight="1">
+    <row r="562" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A562" s="4" t="s">
         <v>594</v>
       </c>
@@ -22046,7 +22052,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="14.25" customHeight="1">
+    <row r="563" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A563" s="4" t="s">
         <v>594</v>
       </c>
@@ -22075,7 +22081,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="14.25" customHeight="1">
+    <row r="564" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A564" s="4" t="s">
         <v>594</v>
       </c>
@@ -22104,7 +22110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="14.25" customHeight="1">
+    <row r="565" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A565" s="4" t="s">
         <v>594</v>
       </c>
@@ -22133,7 +22139,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="566" spans="1:9" ht="14.25" customHeight="1">
+    <row r="566" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A566" s="4" t="s">
         <v>594</v>
       </c>
@@ -22162,7 +22168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="14.25" customHeight="1">
+    <row r="567" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A567" s="4" t="s">
         <v>594</v>
       </c>
@@ -23456,7 +23462,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="615" spans="1:9" ht="14.25" customHeight="1">
+    <row r="615" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A615" s="4" t="s">
         <v>658</v>
       </c>
@@ -23483,7 +23489,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="616" spans="1:9" ht="14.25" customHeight="1">
+    <row r="616" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A616" s="4" t="s">
         <v>658</v>
       </c>
@@ -23510,7 +23516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="617" spans="1:9" ht="14.25" customHeight="1">
+    <row r="617" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A617" s="4" t="s">
         <v>658</v>
       </c>
@@ -23537,7 +23543,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="14.25" customHeight="1">
+    <row r="618" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A618" s="4" t="s">
         <v>658</v>
       </c>
@@ -25067,7 +25073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="672" spans="1:9" ht="14.25" customHeight="1">
+    <row r="672" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A672" s="4" t="s">
         <v>711</v>
       </c>
@@ -25096,7 +25102,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="673" spans="1:9" ht="14.25" customHeight="1">
+    <row r="673" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A673" s="4" t="s">
         <v>711</v>
       </c>
@@ -25125,7 +25131,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="674" spans="1:9" ht="14.25" customHeight="1">
+    <row r="674" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A674" s="4" t="s">
         <v>711</v>
       </c>
@@ -25154,7 +25160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="675" spans="1:9" ht="14.25" customHeight="1">
+    <row r="675" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A675" s="4" t="s">
         <v>711</v>
       </c>
@@ -25183,7 +25189,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="676" spans="1:9" ht="14.25" customHeight="1">
+    <row r="676" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A676" s="4" t="s">
         <v>711</v>
       </c>
@@ -25212,7 +25218,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="677" spans="1:9" ht="14.25" customHeight="1">
+    <row r="677" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A677" s="4" t="s">
         <v>711</v>
       </c>
@@ -25241,7 +25247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="678" spans="1:9" ht="14.25" customHeight="1">
+    <row r="678" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A678" s="4" t="s">
         <v>711</v>
       </c>
@@ -25270,7 +25276,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="679" spans="1:9" ht="14.25" customHeight="1">
+    <row r="679" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A679" s="4" t="s">
         <v>711</v>
       </c>
@@ -25299,7 +25305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="680" spans="1:9" ht="14.25" customHeight="1">
+    <row r="680" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A680" s="4" t="s">
         <v>711</v>
       </c>
@@ -25328,7 +25334,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="681" spans="1:9" ht="14.25" customHeight="1">
+    <row r="681" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A681" s="4" t="s">
         <v>711</v>
       </c>
@@ -25357,7 +25363,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="682" spans="1:9" ht="14.25" customHeight="1">
+    <row r="682" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A682" s="4" t="s">
         <v>711</v>
       </c>
@@ -25386,7 +25392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="683" spans="1:9" ht="14.25" customHeight="1">
+    <row r="683" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A683" s="4" t="s">
         <v>711</v>
       </c>
@@ -25415,7 +25421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="684" spans="1:9" ht="14.25" customHeight="1">
+    <row r="684" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A684" s="4" t="s">
         <v>711</v>
       </c>
@@ -25817,7 +25823,7 @@
       </c>
       <c r="I697" s="4"/>
     </row>
-    <row r="698" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="698" spans="1:9" ht="14.25" hidden="1" customHeight="1" thickTop="1">
       <c r="A698" s="4" t="s">
         <v>768</v>
       </c>
@@ -27003,11 +27009,13 @@
         <v>573</v>
       </c>
     </row>
-    <row r="742" spans="1:9" ht="14.25" customHeight="1">
+    <row r="742" spans="1:9" ht="14.25" customHeight="1" thickTop="1">
       <c r="A742" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B742" s="4"/>
+      <c r="B742" s="4">
+        <v>2018</v>
+      </c>
       <c r="C742" s="4" t="s">
         <v>769</v>
       </c>
@@ -27020,8 +27028,8 @@
       <c r="F742" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G742" s="28">
-        <v>4.8611111111111112E-2</v>
+      <c r="G742" s="28" t="s">
+        <v>1465</v>
       </c>
       <c r="H742" s="4" t="s">
         <v>1241</v>
@@ -27034,7 +27042,9 @@
       <c r="A743" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B743" s="4"/>
+      <c r="B743" s="4">
+        <v>2018</v>
+      </c>
       <c r="C743" s="90" t="s">
         <v>769</v>
       </c>
@@ -27045,8 +27055,8 @@
       <c r="F743" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G743" s="28">
-        <v>0.49305555555555558</v>
+      <c r="G743" s="28" t="s">
+        <v>1478</v>
       </c>
       <c r="H743" s="4" t="s">
         <v>1241</v>
@@ -27059,7 +27069,9 @@
       <c r="A744" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B744" s="4"/>
+      <c r="B744" s="4">
+        <v>2018</v>
+      </c>
       <c r="C744" s="90" t="s">
         <v>769</v>
       </c>
@@ -27071,7 +27083,7 @@
         <v>11</v>
       </c>
       <c r="G744" s="5" t="s">
-        <v>808</v>
+        <v>1479</v>
       </c>
       <c r="H744" s="4" t="s">
         <v>1241</v>
@@ -29285,7 +29297,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="823" spans="1:9" ht="14.25" customHeight="1">
+    <row r="823" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A823" s="4" t="s">
         <v>822</v>
       </c>
@@ -29314,7 +29326,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="824" spans="1:9" ht="14.25" customHeight="1">
+    <row r="824" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A824" s="4" t="s">
         <v>822</v>
       </c>
@@ -29343,7 +29355,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="825" spans="1:9" ht="14.25" customHeight="1">
+    <row r="825" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A825" s="4" t="s">
         <v>822</v>
       </c>
@@ -29372,7 +29384,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="826" spans="1:9" ht="14.25" customHeight="1">
+    <row r="826" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A826" s="4" t="s">
         <v>822</v>
       </c>
@@ -29401,7 +29413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="827" spans="1:9" ht="14.25" customHeight="1">
+    <row r="827" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A827" s="4" t="s">
         <v>822</v>
       </c>
@@ -29430,7 +29442,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="828" spans="1:9" ht="14.25" customHeight="1">
+    <row r="828" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A828" s="4" t="s">
         <v>822</v>
       </c>
@@ -29459,7 +29471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="829" spans="1:9" ht="14.25" customHeight="1">
+    <row r="829" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A829" s="4" t="s">
         <v>822</v>
       </c>
@@ -29488,7 +29500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="830" spans="1:9" ht="14.25" customHeight="1">
+    <row r="830" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A830" s="4" t="s">
         <v>822</v>
       </c>
@@ -30595,7 +30607,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="872" spans="1:9" ht="14.25" customHeight="1">
+    <row r="872" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A872" s="12" t="s">
         <v>915</v>
       </c>
@@ -30622,7 +30634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="873" spans="1:9" ht="14.25" customHeight="1">
+    <row r="873" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A873" s="12" t="s">
         <v>915</v>
       </c>
@@ -30649,7 +30661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="874" spans="1:9" ht="14.25" customHeight="1">
+    <row r="874" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A874" s="12" t="s">
         <v>915</v>
       </c>
@@ -30676,7 +30688,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="875" spans="1:9" ht="14.25" customHeight="1">
+    <row r="875" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A875" s="12" t="s">
         <v>915</v>
       </c>
@@ -30703,7 +30715,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="876" spans="1:9" ht="14.25" customHeight="1">
+    <row r="876" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A876" s="12" t="s">
         <v>915</v>
       </c>
@@ -30730,7 +30742,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="877" spans="1:9" ht="14.25" customHeight="1">
+    <row r="877" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A877" s="12" t="s">
         <v>915</v>
       </c>
@@ -30757,7 +30769,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="878" spans="1:9" ht="14.25" customHeight="1">
+    <row r="878" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A878" s="12" t="s">
         <v>915</v>
       </c>
@@ -30784,7 +30796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="879" spans="1:9" ht="14.25" customHeight="1">
+    <row r="879" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A879" s="12" t="s">
         <v>915</v>
       </c>
@@ -30811,7 +30823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="880" spans="1:9" ht="14.25" customHeight="1">
+    <row r="880" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A880" s="12" t="s">
         <v>915</v>
       </c>
@@ -30838,7 +30850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="881" spans="1:9" ht="14.25" customHeight="1">
+    <row r="881" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A881" s="12" t="s">
         <v>915</v>
       </c>
@@ -32266,7 +32278,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="934" spans="1:19" ht="14.25" customHeight="1">
+    <row r="934" spans="1:19" ht="14.25" hidden="1" customHeight="1">
       <c r="A934" s="31" t="s">
         <v>1008</v>
       </c>
@@ -32295,7 +32307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="935" spans="1:19" ht="14.25" customHeight="1">
+    <row r="935" spans="1:19" ht="14.25" hidden="1" customHeight="1">
       <c r="A935" s="31" t="s">
         <v>1008</v>
       </c>
@@ -32324,7 +32336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="936" spans="1:19" ht="14.25" customHeight="1">
+    <row r="936" spans="1:19" ht="14.25" hidden="1" customHeight="1">
       <c r="A936" s="31" t="s">
         <v>1008</v>
       </c>
@@ -32353,7 +32365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="937" spans="1:19" ht="14.25" customHeight="1">
+    <row r="937" spans="1:19" ht="14.25" hidden="1" customHeight="1">
       <c r="A937" s="31" t="s">
         <v>1008</v>
       </c>
@@ -32382,7 +32394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="938" spans="1:19" ht="14.25" customHeight="1">
+    <row r="938" spans="1:19" ht="14.25" hidden="1" customHeight="1">
       <c r="A938" s="31" t="s">
         <v>1008</v>
       </c>
@@ -32411,7 +32423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="939" spans="1:19" ht="14.25" customHeight="1">
+    <row r="939" spans="1:19" ht="14.25" hidden="1" customHeight="1">
       <c r="A939" s="31" t="s">
         <v>1008</v>
       </c>
@@ -32440,7 +32452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="940" spans="1:19" ht="14.25" customHeight="1">
+    <row r="940" spans="1:19" ht="14.25" hidden="1" customHeight="1">
       <c r="A940" s="31" t="s">
         <v>1008</v>
       </c>
@@ -34178,7 +34190,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1004" spans="1:9" ht="14.25" customHeight="1">
+    <row r="1004" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A1004" s="59" t="s">
         <v>1372</v>
       </c>
@@ -34207,7 +34219,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1005" spans="1:9" ht="14.25" customHeight="1">
+    <row r="1005" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A1005" s="59" t="s">
         <v>1372</v>
       </c>
@@ -34236,7 +34248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1006" spans="1:9" ht="14.25" customHeight="1">
+    <row r="1006" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A1006" s="59" t="s">
         <v>1372</v>
       </c>
@@ -34265,7 +34277,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="1007" spans="1:9" ht="14.25" customHeight="1">
+    <row r="1007" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A1007" s="59" t="s">
         <v>1372</v>
       </c>
@@ -34294,7 +34306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="1008" spans="1:9" ht="14.25" customHeight="1">
+    <row r="1008" spans="1:9" ht="14.25" hidden="1" customHeight="1">
       <c r="A1008" s="59" t="s">
         <v>1372</v>
       </c>
@@ -35269,6 +35281,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I1039" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Bolivia"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7">
       <filters>
         <filter val="TAMA"/>
@@ -35296,7 +35313,7 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\precariedad.mundial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427A8FAC-D586-4759-80EA-63FFFEBB5B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1029F3-7052-423D-BF49-6B1E1E9CEC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2910" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="8" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7787" uniqueCount="1480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7789" uniqueCount="1480">
   <si>
     <t>Pais</t>
   </si>
@@ -4772,6 +4772,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5032,7 +5033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5233,8 +5234,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5253,41 +5289,7 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -6109,7 +6111,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
-      <selection pane="bottomLeft" activeCell="B1040" sqref="B1040"/>
+      <selection pane="bottomLeft" activeCell="D1044" sqref="D1044"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6117,7 +6119,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="57" customWidth="1"/>
     <col min="5" max="5" width="37.140625" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
@@ -7999,11 +8001,11 @@
       <c r="D67" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="90" t="s">
+      <c r="E67" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="F67" s="91"/>
-      <c r="G67" s="91"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
       <c r="H67" s="4" t="s">
         <v>1237</v>
       </c>
@@ -8022,11 +8024,11 @@
       <c r="D68" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="90" t="s">
+      <c r="E68" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
       <c r="H68" s="4" t="s">
         <v>1237</v>
       </c>
@@ -8045,11 +8047,11 @@
       <c r="D69" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E69" s="90" t="s">
+      <c r="E69" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
       <c r="H69" s="4" t="s">
         <v>1237</v>
       </c>
@@ -8068,11 +8070,11 @@
       <c r="D70" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E70" s="90" t="s">
+      <c r="E70" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="F70" s="91"/>
-      <c r="G70" s="91"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="96"/>
       <c r="H70" s="4" t="s">
         <v>1237</v>
       </c>
@@ -27045,10 +27047,12 @@
       <c r="B743" s="4">
         <v>2018</v>
       </c>
-      <c r="C743" s="90" t="s">
+      <c r="C743" s="113" t="s">
         <v>769</v>
       </c>
-      <c r="D743" s="91"/>
+      <c r="D743" s="5" t="s">
+        <v>806</v>
+      </c>
       <c r="E743" s="27" t="s">
         <v>807</v>
       </c>
@@ -27072,10 +27076,12 @@
       <c r="B744" s="4">
         <v>2018</v>
       </c>
-      <c r="C744" s="90" t="s">
+      <c r="C744" s="113" t="s">
         <v>769</v>
       </c>
-      <c r="D744" s="91"/>
+      <c r="D744" s="5" t="s">
+        <v>806</v>
+      </c>
       <c r="E744" s="27" t="s">
         <v>807</v>
       </c>
@@ -29513,10 +29519,10 @@
       <c r="D830" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="E830" s="90" t="s">
+      <c r="E830" s="95" t="s">
         <v>897</v>
       </c>
-      <c r="F830" s="91"/>
+      <c r="F830" s="96"/>
       <c r="G830" s="29">
         <v>0.47222222222222221</v>
       </c>
@@ -35292,9 +35298,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="7">
-    <mergeCell ref="C743:D743"/>
-    <mergeCell ref="C744:D744"/>
+  <mergeCells count="5">
     <mergeCell ref="E830:F830"/>
     <mergeCell ref="E67:G67"/>
     <mergeCell ref="E68:G68"/>
@@ -35314,7 +35318,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -36699,19 +36703,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="110" t="s">
         <v>1008</v>
       </c>
-      <c r="B2" s="92">
+      <c r="B2" s="107">
         <v>2018</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="107" t="s">
         <v>1009</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="107" t="s">
         <v>1039</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="107" t="s">
         <v>1040</v>
       </c>
       <c r="F2" s="82">
@@ -36728,13 +36732,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="96"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108" t="s">
         <v>1039</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="108" t="s">
         <v>1040</v>
       </c>
       <c r="F3" s="82">
@@ -36751,13 +36755,13 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="96"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93" t="s">
+      <c r="A4" s="111"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108" t="s">
         <v>1039</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="108" t="s">
         <v>1040</v>
       </c>
       <c r="F4" s="82">
@@ -36774,13 +36778,13 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="96"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93" t="s">
+      <c r="A5" s="111"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108" t="s">
         <v>1039</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="108" t="s">
         <v>1040</v>
       </c>
       <c r="F5" s="82">
@@ -36797,13 +36801,13 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="96"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108" t="s">
         <v>1039</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="108" t="s">
         <v>1040</v>
       </c>
       <c r="F6" s="82">
@@ -36820,13 +36824,13 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="97"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94" t="s">
+      <c r="A7" s="112"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109" t="s">
         <v>1039</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="109" t="s">
         <v>1040</v>
       </c>
       <c r="F7" s="82">
@@ -36843,22 +36847,22 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="103" t="s">
         <v>768</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="104">
         <v>2019</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="103" t="s">
         <v>769</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="103" t="s">
         <v>806</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="103" t="s">
         <v>807</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="103" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="85" t="s">
@@ -36872,16 +36876,16 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="98"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="98" t="s">
+      <c r="A9" s="103"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="103" t="s">
         <v>769</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98" t="s">
+      <c r="D9" s="103"/>
+      <c r="E9" s="103" t="s">
         <v>807</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="103" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="82" t="s">
@@ -36895,16 +36899,16 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="98"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="98" t="s">
+      <c r="A10" s="103"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="103" t="s">
         <v>769</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98" t="s">
+      <c r="D10" s="103"/>
+      <c r="E10" s="103" t="s">
         <v>807</v>
       </c>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="103" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="82" t="s">
@@ -36935,13 +36939,13 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="97" t="s">
         <v>1238</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="97" t="s">
         <v>1329</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="100" t="s">
         <v>1365</v>
       </c>
       <c r="D13" s="87" t="s">
@@ -36952,9 +36956,9 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="106"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="87" t="s">
         <v>1367</v>
       </c>
@@ -36963,9 +36967,9 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="103"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="106"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="87" t="s">
         <v>207</v>
       </c>
@@ -36974,9 +36978,9 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="107"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="87" t="s">
         <v>29</v>
       </c>
@@ -36985,13 +36989,13 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="97" t="s">
         <v>1245</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="97" t="s">
         <v>1329</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="97" t="s">
         <v>1352</v>
       </c>
       <c r="D17" s="87" t="s">
@@ -37002,11 +37006,11 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="103"/>
-      <c r="B18" s="103" t="s">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98" t="s">
         <v>1329</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="98" t="s">
         <v>1352</v>
       </c>
       <c r="D18" s="87" t="s">
@@ -37017,11 +37021,11 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104" t="s">
+      <c r="A19" s="99"/>
+      <c r="B19" s="99" t="s">
         <v>1329</v>
       </c>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="99" t="s">
         <v>1352</v>
       </c>
       <c r="D19" s="87" t="s">
@@ -37037,23 +37041,23 @@
     <row r="38" ht="45" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38321,32 +38325,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="90" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="108"/>
+      <c r="A2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="91" t="s">
         <v>1109</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="91" t="s">
         <v>966</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="91" t="s">
         <v>1110</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="92" t="s">
         <v>1111</v>
       </c>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94" t="s">
         <v>1112</v>
       </c>
     </row>
